--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CFID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-11 08:27:25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-12 08:21:03</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-12 08:21:03</t>
         </is>
       </c>
     </row>
@@ -454,15 +469,24 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>hgkhgkgk</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>86</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>989</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
         <v>989</v>
       </c>
     </row>
@@ -470,31 +494,49 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>NIU_MA</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>366</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1529</v>
+      </c>
+      <c r="F3" t="n">
+        <v>372</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>qjy</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -502,31 +544,49 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>pinuocao</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1445</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>MeUlove</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>128</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>1430</v>
+      </c>
+      <c r="F6" t="n">
+        <v>128</v>
+      </c>
+      <c r="G6" t="n">
         <v>1430</v>
       </c>
     </row>
@@ -534,31 +594,49 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Jzw</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>33</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33</v>
+      </c>
+      <c r="G7" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Connorxuan</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>988</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" t="n">
         <v>988</v>
       </c>
     </row>
@@ -566,79 +644,124 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>jyqianxiang</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>zhiyuna</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>45</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>962</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" t="n">
+        <v>883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>dongshan</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>168</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1521</v>
+      </c>
+      <c r="F11" t="n">
+        <v>168</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Landkarte</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>29</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" t="n">
+        <v>442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>qiaozhi123</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -646,31 +769,49 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>qhyer</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>19</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1055</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>SarChar-Y</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -678,79 +819,124 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>MistyW</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>391</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>joker--_</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>110</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>873</v>
+      </c>
+      <c r="F17" t="n">
+        <v>118</v>
+      </c>
+      <c r="G17" t="n">
+        <v>933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>zjder</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
       <c r="D18" t="n">
         <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Suyl</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
       <c r="D19" t="n">
         <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>CCUTZZY</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,15 +944,24 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>zzy22</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -774,15 +969,24 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>ever1td</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,15 +994,24 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>reyncation</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>CFID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-12 08:21:03</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-12 08:21:03</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-13 08:21:04</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-13 08:21:04</t>
         </is>
       </c>
     </row>
@@ -472,21 +487,30 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>hgkhgkgk</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>86</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>989</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>83</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>989</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83</v>
+      </c>
+      <c r="J2" t="n">
         <v>989</v>
       </c>
     </row>
@@ -497,22 +521,31 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>NIU_MA</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>366</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1529</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>372</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1506</v>
+      </c>
+      <c r="I3" t="n">
+        <v>376</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1471</v>
       </c>
     </row>
     <row r="4">
@@ -522,21 +555,30 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>qjy</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>16</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -547,22 +589,31 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>pinuocao</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>34</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1445</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>34</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1448</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1413</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +623,31 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MeUlove</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>128</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1430</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>128</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1430</v>
+      </c>
+      <c r="I6" t="n">
+        <v>130</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1406</v>
       </c>
     </row>
     <row r="7">
@@ -597,21 +657,30 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Jzw</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>33</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>33</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>365</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34</v>
+      </c>
+      <c r="J7" t="n">
         <v>365</v>
       </c>
     </row>
@@ -622,21 +691,30 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Connorxuan</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>24</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>988</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>21</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>988</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
         <v>988</v>
       </c>
     </row>
@@ -647,21 +725,30 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>jyqianxiang</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>362</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
         <v>362</v>
       </c>
     </row>
@@ -672,21 +759,30 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>zhiyuna</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>45</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>962</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>45</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>883</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45</v>
+      </c>
+      <c r="J10" t="n">
         <v>883</v>
       </c>
     </row>
@@ -697,21 +793,30 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>dongshan</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>168</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1521</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>168</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>1583</v>
+      </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
         <v>1583</v>
       </c>
     </row>
@@ -722,21 +827,30 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Landkarte</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>29</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>30</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
+        <v>442</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
         <v>442</v>
       </c>
     </row>
@@ -747,14 +861,14 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>qiaozhi123</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
@@ -762,6 +876,15 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,22 +895,31 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>qhyer</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1055</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>19</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1113</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1003</v>
       </c>
     </row>
     <row r="15">
@@ -797,14 +929,14 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SarChar-Y</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
@@ -812,6 +944,15 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -822,22 +963,31 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MistyW</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>391</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>8</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>658</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="17">
@@ -847,21 +997,30 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>joker--_</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>110</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>873</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>118</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
+        <v>933</v>
+      </c>
+      <c r="I17" t="n">
+        <v>124</v>
+      </c>
+      <c r="J17" t="n">
         <v>933</v>
       </c>
     </row>
@@ -872,21 +1031,30 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>zjder</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>349</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
         <v>349</v>
       </c>
     </row>
@@ -897,21 +1065,30 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Suyl</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>2</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
+        <v>349</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
         <v>349</v>
       </c>
     </row>
@@ -922,14 +1099,14 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CCUTZZY</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -937,6 +1114,15 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -947,14 +1133,14 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>zzy22</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
@@ -962,6 +1148,15 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,14 +1167,14 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ever1td</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
@@ -987,6 +1182,15 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,14 +1201,14 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>reyncation</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -1012,6 +1216,15 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>CFID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-12 08:21:03</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-12 08:21:03</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-13 08:21:04</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-13 08:21:04</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-14 08:21:17</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-14 08:21:17</t>
         </is>
       </c>
     </row>
@@ -490,27 +505,36 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>hgkhgkgk</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>86</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>989</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>83</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>989</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>83</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>989</v>
+      </c>
+      <c r="L2" t="n">
+        <v>83</v>
+      </c>
+      <c r="M2" t="n">
         <v>989</v>
       </c>
     </row>
@@ -524,28 +548,37 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>NIU_MA</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>366</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1529</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>372</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1506</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>376</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>1471</v>
+      </c>
+      <c r="L3" t="n">
+        <v>376</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1472</v>
       </c>
     </row>
     <row r="4">
@@ -558,27 +591,36 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>qjy</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>16</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>16</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>16</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -592,27 +634,36 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>pinuocao</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>34</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1445</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>34</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1448</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>36</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>1413</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36</v>
+      </c>
+      <c r="M5" t="n">
         <v>1413</v>
       </c>
     </row>
@@ -626,28 +677,37 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>MeUlove</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>128</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1430</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>128</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1430</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>130</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>1406</v>
+      </c>
+      <c r="L6" t="n">
+        <v>130</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1407</v>
       </c>
     </row>
     <row r="7">
@@ -660,27 +720,36 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Jzw</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>33</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>33</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>365</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>34</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>365</v>
+      </c>
+      <c r="L7" t="n">
+        <v>34</v>
+      </c>
+      <c r="M7" t="n">
         <v>365</v>
       </c>
     </row>
@@ -694,27 +763,36 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Connorxuan</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>988</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>21</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>988</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>21</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>988</v>
+      </c>
+      <c r="L8" t="n">
+        <v>21</v>
+      </c>
+      <c r="M8" t="n">
         <v>988</v>
       </c>
     </row>
@@ -728,27 +806,36 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>jyqianxiang</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>362</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>362</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
         <v>362</v>
       </c>
     </row>
@@ -762,27 +849,36 @@
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>zhiyuna</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>45</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>962</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>45</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>883</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>45</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>883</v>
+      </c>
+      <c r="L10" t="n">
+        <v>45</v>
+      </c>
+      <c r="M10" t="n">
         <v>883</v>
       </c>
     </row>
@@ -796,27 +892,36 @@
       <c r="C11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>dongshan</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>168</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1521</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>168</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>1583</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>169</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>1583</v>
+      </c>
+      <c r="L11" t="n">
+        <v>169</v>
+      </c>
+      <c r="M11" t="n">
         <v>1583</v>
       </c>
     </row>
@@ -830,27 +935,36 @@
       <c r="C12" t="n">
         <v>10</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Landkarte</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>29</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>30</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>442</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>442</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30</v>
+      </c>
+      <c r="M12" t="n">
         <v>442</v>
       </c>
     </row>
@@ -864,14 +978,14 @@
       <c r="C13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>qiaozhi123</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -885,6 +999,15 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -898,27 +1021,36 @@
       <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>qhyer</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>19</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1055</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>19</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>1113</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>21</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>1003</v>
+      </c>
+      <c r="L14" t="n">
+        <v>21</v>
+      </c>
+      <c r="M14" t="n">
         <v>1003</v>
       </c>
     </row>
@@ -932,14 +1064,14 @@
       <c r="C15" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>SarChar-Y</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -953,6 +1085,15 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,28 +1107,37 @@
       <c r="C16" t="n">
         <v>14</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>MistyW</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>391</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>658</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>9</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>820</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>821</v>
       </c>
     </row>
     <row r="17">
@@ -1000,27 +1150,36 @@
       <c r="C17" t="n">
         <v>15</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>joker--_</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>110</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>873</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>118</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>933</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>124</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>933</v>
+      </c>
+      <c r="L17" t="n">
+        <v>124</v>
+      </c>
+      <c r="M17" t="n">
         <v>933</v>
       </c>
     </row>
@@ -1034,27 +1193,36 @@
       <c r="C18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>zjder</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>349</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>349</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
         <v>349</v>
       </c>
     </row>
@@ -1068,27 +1236,36 @@
       <c r="C19" t="n">
         <v>17</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Suyl</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>349</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
+        <v>349</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
         <v>349</v>
       </c>
     </row>
@@ -1102,14 +1279,14 @@
       <c r="C20" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>CCUTZZY</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -1123,6 +1300,15 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,14 +1322,14 @@
       <c r="C21" t="n">
         <v>19</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>zzy22</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -1157,6 +1343,15 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1170,14 +1365,14 @@
       <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>ever1td</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -1191,6 +1386,15 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1204,14 +1408,14 @@
       <c r="C23" t="n">
         <v>21</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>reyncation</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -1222,9 +1426,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>7</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,47 +451,62 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CFID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-12 08:21:03</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-12 08:21:03</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-13 08:21:04</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-13 08:21:04</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-14 08:21:17</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-14 08:21:17</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-15 08:20:47</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-15 08:20:47</t>
         </is>
       </c>
     </row>
@@ -508,33 +523,42 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>hgkhgkgk</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>86</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>989</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>83</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>989</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>83</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>989</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>83</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>989</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83</v>
+      </c>
+      <c r="P2" t="n">
         <v>989</v>
       </c>
     </row>
@@ -551,33 +575,42 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>NIU_MA</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>366</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1529</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>372</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1506</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>376</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1471</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>376</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>1472</v>
+      </c>
+      <c r="O3" t="n">
+        <v>377</v>
+      </c>
+      <c r="P3" t="n">
         <v>1472</v>
       </c>
     </row>
@@ -594,33 +627,42 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>qjy</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>16</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>16</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>16</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>16</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16</v>
+      </c>
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -637,33 +679,42 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>pinuocao</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>34</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1445</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>34</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1448</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>36</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1413</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>36</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>1413</v>
+      </c>
+      <c r="O5" t="n">
+        <v>36</v>
+      </c>
+      <c r="P5" t="n">
         <v>1413</v>
       </c>
     </row>
@@ -680,33 +731,42 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>MeUlove</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>128</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1430</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>128</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1430</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>130</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1406</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>130</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
+        <v>1407</v>
+      </c>
+      <c r="O6" t="n">
+        <v>130</v>
+      </c>
+      <c r="P6" t="n">
         <v>1407</v>
       </c>
     </row>
@@ -723,33 +783,42 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Jzw</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>33</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>33</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>365</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>34</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>365</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>34</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
+        <v>365</v>
+      </c>
+      <c r="O7" t="n">
+        <v>34</v>
+      </c>
+      <c r="P7" t="n">
         <v>365</v>
       </c>
     </row>
@@ -766,33 +835,42 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Connorxuan</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>24</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>988</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>21</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>988</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>21</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>988</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>21</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>988</v>
+      </c>
+      <c r="O8" t="n">
+        <v>21</v>
+      </c>
+      <c r="P8" t="n">
         <v>988</v>
       </c>
     </row>
@@ -809,33 +887,42 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>jyqianxiang</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>362</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>362</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
+        <v>362</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
         <v>362</v>
       </c>
     </row>
@@ -852,33 +939,42 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>zhiyuna</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>45</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>962</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>45</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>883</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>883</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>45</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
+        <v>883</v>
+      </c>
+      <c r="O10" t="n">
+        <v>45</v>
+      </c>
+      <c r="P10" t="n">
         <v>883</v>
       </c>
     </row>
@@ -895,33 +991,42 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>dongshan</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>168</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>1521</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>168</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>1583</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>169</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>1583</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>169</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
+        <v>1583</v>
+      </c>
+      <c r="O11" t="n">
+        <v>169</v>
+      </c>
+      <c r="P11" t="n">
         <v>1583</v>
       </c>
     </row>
@@ -938,33 +1043,42 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Landkarte</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>29</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>30</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>442</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>30</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>442</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>30</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
+        <v>442</v>
+      </c>
+      <c r="O12" t="n">
+        <v>30</v>
+      </c>
+      <c r="P12" t="n">
         <v>442</v>
       </c>
     </row>
@@ -981,14 +1095,14 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>qiaozhi123</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
@@ -1008,6 +1122,15 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,33 +1147,42 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>qhyer</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>19</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1055</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>19</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1113</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>21</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1003</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>21</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
+        <v>1003</v>
+      </c>
+      <c r="O14" t="n">
+        <v>21</v>
+      </c>
+      <c r="P14" t="n">
         <v>1003</v>
       </c>
     </row>
@@ -1067,14 +1199,14 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>SarChar-Y</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
@@ -1094,6 +1226,15 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,33 +1251,42 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>MistyW</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>7</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>391</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>8</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>658</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>9</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>820</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>9</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
+        <v>821</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" t="n">
         <v>821</v>
       </c>
     </row>
@@ -1153,33 +1303,42 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>joker--_</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>110</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>873</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>118</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>933</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>124</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>933</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>124</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
+        <v>933</v>
+      </c>
+      <c r="O17" t="n">
+        <v>124</v>
+      </c>
+      <c r="P17" t="n">
         <v>933</v>
       </c>
     </row>
@@ -1196,33 +1355,42 @@
       <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>zjder</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>349</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>349</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
+        <v>349</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="n">
         <v>349</v>
       </c>
     </row>
@@ -1239,33 +1407,42 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Suyl</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>349</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>349</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
+        <v>349</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
         <v>349</v>
       </c>
     </row>
@@ -1282,14 +1459,14 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>CCUTZZY</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -1309,6 +1486,15 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,14 +1511,14 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>zzy22</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
@@ -1352,6 +1538,15 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1368,14 +1563,14 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>ever1td</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
@@ -1395,6 +1590,15 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1411,14 +1615,14 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>reyncation</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -1429,15 +1633,24 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>7</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>10</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>13</v>
+      </c>
+      <c r="P23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,57 +456,72 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>CFID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-11 08:27:25</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-12 08:21:03</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-12 08:21:03</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-13 08:21:04</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-13 08:21:04</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-14 08:21:17</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-14 08:21:17</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>CF做题数_2022-01-15 08:20:47</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CF天梯分_2022-01-15 08:20:47</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-16 08:20:07</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-16 08:20:07</t>
         </is>
       </c>
     </row>
@@ -526,40 +541,49 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>hgkhgkgk</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>86</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>989</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>83</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>989</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>83</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>989</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>83</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>989</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>83</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>989</v>
+      </c>
+      <c r="R2" t="n">
+        <v>84</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1014</v>
       </c>
     </row>
     <row r="3">
@@ -578,40 +602,49 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NIU_MA</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>366</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1529</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>372</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>1506</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>376</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1471</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>376</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>1472</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>377</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>1472</v>
+      </c>
+      <c r="R3" t="n">
+        <v>381</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1584</v>
       </c>
     </row>
     <row r="4">
@@ -630,39 +663,48 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>qjy</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>16</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>16</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>16</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>16</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>16</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
+      </c>
+      <c r="S4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -682,39 +724,48 @@
       <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>pinuocao</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>34</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1445</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>34</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>1448</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>36</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1413</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>36</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1413</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>36</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
+        <v>1413</v>
+      </c>
+      <c r="R5" t="n">
+        <v>36</v>
+      </c>
+      <c r="S5" t="n">
         <v>1413</v>
       </c>
     </row>
@@ -734,39 +785,48 @@
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>MeUlove</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>128</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1430</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>128</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>1430</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>130</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>1406</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>130</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1407</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>130</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>1407</v>
+      </c>
+      <c r="R6" t="n">
+        <v>130</v>
+      </c>
+      <c r="S6" t="n">
         <v>1407</v>
       </c>
     </row>
@@ -786,39 +846,48 @@
       <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Jzw</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>33</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>33</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>365</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>34</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>365</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>34</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>365</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>34</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
+        <v>365</v>
+      </c>
+      <c r="R7" t="n">
+        <v>35</v>
+      </c>
+      <c r="S7" t="n">
         <v>365</v>
       </c>
     </row>
@@ -838,40 +907,49 @@
       <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Connorxuan</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>24</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>988</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>21</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>988</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>21</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>988</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>21</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>988</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>21</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>988</v>
+      </c>
+      <c r="R8" t="n">
+        <v>22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>981</v>
       </c>
     </row>
     <row r="9">
@@ -890,39 +968,48 @@
       <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>jyqianxiang</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>362</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>362</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>362</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
+        <v>362</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
         <v>362</v>
       </c>
     </row>
@@ -942,39 +1029,48 @@
       <c r="E10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>zhiyuna</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>45</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>962</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>45</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>883</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>45</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>883</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>45</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>883</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>45</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
+        <v>883</v>
+      </c>
+      <c r="R10" t="n">
+        <v>45</v>
+      </c>
+      <c r="S10" t="n">
         <v>883</v>
       </c>
     </row>
@@ -994,39 +1090,48 @@
       <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>dongshan</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>168</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>1521</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>168</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>1583</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>169</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>1583</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>169</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1583</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>169</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
+        <v>1583</v>
+      </c>
+      <c r="R11" t="n">
+        <v>169</v>
+      </c>
+      <c r="S11" t="n">
         <v>1583</v>
       </c>
     </row>
@@ -1046,39 +1151,48 @@
       <c r="E12" t="n">
         <v>10</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Landkarte</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>29</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>30</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>442</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>30</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>442</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>30</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>442</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>30</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>442</v>
+      </c>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="n">
         <v>442</v>
       </c>
     </row>
@@ -1098,14 +1212,14 @@
       <c r="E13" t="n">
         <v>11</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>qiaozhi123</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
@@ -1131,6 +1245,15 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1150,40 +1273,49 @@
       <c r="E14" t="n">
         <v>12</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>qhyer</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>19</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>1055</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>19</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>1113</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>21</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>1003</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>21</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>1003</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>21</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>1003</v>
+      </c>
+      <c r="R14" t="n">
+        <v>23</v>
+      </c>
+      <c r="S14" t="n">
+        <v>989</v>
       </c>
     </row>
     <row r="15">
@@ -1202,14 +1334,14 @@
       <c r="E15" t="n">
         <v>13</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>SarChar-Y</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -1235,6 +1367,15 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,39 +1395,48 @@
       <c r="E16" t="n">
         <v>14</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>MistyW</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>7</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>391</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>658</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>9</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>820</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>9</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>821</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>10</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
+        <v>821</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" t="n">
         <v>821</v>
       </c>
     </row>
@@ -1306,40 +1456,49 @@
       <c r="E17" t="n">
         <v>15</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>joker--_</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>110</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>873</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>118</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>933</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>124</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>933</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>124</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>933</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>124</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>933</v>
+      </c>
+      <c r="R17" t="n">
+        <v>125</v>
+      </c>
+      <c r="S17" t="n">
+        <v>956</v>
       </c>
     </row>
     <row r="18">
@@ -1358,39 +1517,48 @@
       <c r="E18" t="n">
         <v>16</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>zjder</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>349</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>3</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>349</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>3</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>349</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
+        <v>349</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
         <v>349</v>
       </c>
     </row>
@@ -1410,39 +1578,48 @@
       <c r="E19" t="n">
         <v>17</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Suyl</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>349</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>349</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>2</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>349</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
+        <v>349</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
         <v>349</v>
       </c>
     </row>
@@ -1462,14 +1639,14 @@
       <c r="E20" t="n">
         <v>18</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>CCUTZZY</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -1495,6 +1672,15 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1514,14 +1700,14 @@
       <c r="E21" t="n">
         <v>19</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>zzy22</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
@@ -1547,6 +1733,15 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1566,14 +1761,14 @@
       <c r="E22" t="n">
         <v>20</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>ever1td</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
@@ -1599,6 +1794,15 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1618,14 +1822,14 @@
       <c r="E23" t="n">
         <v>21</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>reyncation</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -1636,21 +1840,30 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>7</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>10</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>13</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>24</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,16 @@
           <t>CF天梯分_2022-01-16 08:57:00</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-17 08:22:27</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-17 08:22:27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -558,6 +568,12 @@
       <c r="O2" t="n">
         <v>1014</v>
       </c>
+      <c r="P2" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,6 +623,12 @@
       <c r="O3" t="n">
         <v>1584</v>
       </c>
+      <c r="P3" t="n">
+        <v>384</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +678,12 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,6 +733,12 @@
       <c r="O5" t="n">
         <v>1413</v>
       </c>
+      <c r="P5" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1413</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -754,6 +788,12 @@
       <c r="O6" t="n">
         <v>1407</v>
       </c>
+      <c r="P6" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -803,6 +843,12 @@
       <c r="O7" t="n">
         <v>365</v>
       </c>
+      <c r="P7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -852,6 +898,12 @@
       <c r="O8" t="n">
         <v>981</v>
       </c>
+      <c r="P8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -901,6 +953,12 @@
       <c r="O9" t="n">
         <v>362</v>
       </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -950,6 +1008,12 @@
       <c r="O10" t="n">
         <v>883</v>
       </c>
+      <c r="P10" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -999,6 +1063,12 @@
       <c r="O11" t="n">
         <v>1583</v>
       </c>
+      <c r="P11" t="n">
+        <v>171</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1048,6 +1118,12 @@
       <c r="O12" t="n">
         <v>442</v>
       </c>
+      <c r="P12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1097,6 +1173,12 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1146,6 +1228,12 @@
       <c r="O14" t="n">
         <v>989</v>
       </c>
+      <c r="P14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>989</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1195,6 +1283,12 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1244,6 +1338,12 @@
       <c r="O16" t="n">
         <v>821</v>
       </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1293,6 +1393,12 @@
       <c r="O17" t="n">
         <v>956</v>
       </c>
+      <c r="P17" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>956</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1342,6 +1448,12 @@
       <c r="O18" t="n">
         <v>349</v>
       </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1391,6 +1503,12 @@
       <c r="O19" t="n">
         <v>349</v>
       </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1440,6 +1558,12 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1489,6 +1613,12 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1538,6 +1668,12 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1585,6 +1721,12 @@
         <v>24</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,6 +1754,12 @@
       <c r="O24" t="n">
         <v>901</v>
       </c>
+      <c r="P24" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1637,6 +1785,12 @@
       <c r="O25" t="n">
         <v>623</v>
       </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1660,6 +1814,12 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1687,6 +1847,12 @@
       <c r="O27" t="n">
         <v>1783</v>
       </c>
+      <c r="P27" t="n">
+        <v>730</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1783</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,16 @@
           <t>CF天梯分_2022-01-17 08:22:27</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-18 08:22:07</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-18 08:22:07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -574,6 +584,12 @@
       <c r="Q2" t="n">
         <v>1014</v>
       </c>
+      <c r="R2" t="n">
+        <v>84</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -629,6 +645,12 @@
       <c r="Q3" t="n">
         <v>1584</v>
       </c>
+      <c r="R3" t="n">
+        <v>384</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -684,6 +706,12 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -739,6 +767,12 @@
       <c r="Q5" t="n">
         <v>1413</v>
       </c>
+      <c r="R5" t="n">
+        <v>37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1413</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -794,6 +828,12 @@
       <c r="Q6" t="n">
         <v>1407</v>
       </c>
+      <c r="R6" t="n">
+        <v>130</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -849,6 +889,12 @@
       <c r="Q7" t="n">
         <v>365</v>
       </c>
+      <c r="R7" t="n">
+        <v>35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -904,6 +950,12 @@
       <c r="Q8" t="n">
         <v>981</v>
       </c>
+      <c r="R8" t="n">
+        <v>22</v>
+      </c>
+      <c r="S8" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -959,6 +1011,12 @@
       <c r="Q9" t="n">
         <v>362</v>
       </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1014,6 +1072,12 @@
       <c r="Q10" t="n">
         <v>883</v>
       </c>
+      <c r="R10" t="n">
+        <v>45</v>
+      </c>
+      <c r="S10" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1069,6 +1133,12 @@
       <c r="Q11" t="n">
         <v>1583</v>
       </c>
+      <c r="R11" t="n">
+        <v>171</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1124,6 +1194,12 @@
       <c r="Q12" t="n">
         <v>442</v>
       </c>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1179,6 +1255,12 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1234,6 +1316,12 @@
       <c r="Q14" t="n">
         <v>989</v>
       </c>
+      <c r="R14" t="n">
+        <v>26</v>
+      </c>
+      <c r="S14" t="n">
+        <v>989</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1289,6 +1377,12 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1344,6 +1438,12 @@
       <c r="Q16" t="n">
         <v>821</v>
       </c>
+      <c r="R16" t="n">
+        <v>11</v>
+      </c>
+      <c r="S16" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1399,6 +1499,12 @@
       <c r="Q17" t="n">
         <v>956</v>
       </c>
+      <c r="R17" t="n">
+        <v>125</v>
+      </c>
+      <c r="S17" t="n">
+        <v>956</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1454,6 +1560,12 @@
       <c r="Q18" t="n">
         <v>349</v>
       </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1509,6 +1621,12 @@
       <c r="Q19" t="n">
         <v>349</v>
       </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1564,6 +1682,12 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1619,6 +1743,12 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1674,6 +1804,12 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1727,6 +1863,12 @@
         <v>24</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>24</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,6 +1902,12 @@
       <c r="Q24" t="n">
         <v>901</v>
       </c>
+      <c r="R24" t="n">
+        <v>29</v>
+      </c>
+      <c r="S24" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1791,6 +1939,12 @@
       <c r="Q25" t="n">
         <v>623</v>
       </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1820,6 +1974,12 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1853,6 +2013,12 @@
       <c r="Q27" t="n">
         <v>1783</v>
       </c>
+      <c r="R27" t="n">
+        <v>730</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1783</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,16 @@
           <t>CF天梯分_2022-01-18 12:02:31</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-19 08:19:40</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-19 08:19:40</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -616,6 +626,12 @@
       <c r="V2" t="n">
         <v>1783</v>
       </c>
+      <c r="W2" t="n">
+        <v>730</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -688,6 +704,12 @@
       <c r="V3" t="n">
         <v>1014</v>
       </c>
+      <c r="W3" t="n">
+        <v>84</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -760,6 +782,12 @@
       <c r="V4" t="n">
         <v>1584</v>
       </c>
+      <c r="W4" t="n">
+        <v>386</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -832,6 +860,12 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
+      <c r="W5" t="n">
+        <v>16</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -904,6 +938,12 @@
       <c r="V6" t="n">
         <v>1413</v>
       </c>
+      <c r="W6" t="n">
+        <v>37</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1413</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -976,6 +1016,12 @@
       <c r="V7" t="n">
         <v>1407</v>
       </c>
+      <c r="W7" t="n">
+        <v>130</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1048,6 +1094,12 @@
       <c r="V8" t="n">
         <v>365</v>
       </c>
+      <c r="W8" t="n">
+        <v>35</v>
+      </c>
+      <c r="X8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1120,6 +1172,12 @@
       <c r="V9" t="n">
         <v>981</v>
       </c>
+      <c r="W9" t="n">
+        <v>22</v>
+      </c>
+      <c r="X9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1192,6 +1250,12 @@
       <c r="V10" t="n">
         <v>362</v>
       </c>
+      <c r="W10" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1264,6 +1328,12 @@
       <c r="V11" t="n">
         <v>883</v>
       </c>
+      <c r="W11" t="n">
+        <v>45</v>
+      </c>
+      <c r="X11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1336,6 +1406,12 @@
       <c r="V12" t="n">
         <v>1583</v>
       </c>
+      <c r="W12" t="n">
+        <v>172</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1408,6 +1484,12 @@
       <c r="V13" t="n">
         <v>442</v>
       </c>
+      <c r="W13" t="n">
+        <v>30</v>
+      </c>
+      <c r="X13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1480,6 +1562,12 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1552,6 +1640,12 @@
       <c r="V15" t="n">
         <v>989</v>
       </c>
+      <c r="W15" t="n">
+        <v>26</v>
+      </c>
+      <c r="X15" t="n">
+        <v>989</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1624,6 +1718,12 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1696,6 +1796,12 @@
       <c r="V17" t="n">
         <v>821</v>
       </c>
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1768,6 +1874,12 @@
       <c r="V18" t="n">
         <v>956</v>
       </c>
+      <c r="W18" t="n">
+        <v>125</v>
+      </c>
+      <c r="X18" t="n">
+        <v>956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1840,6 +1952,12 @@
       <c r="V19" t="n">
         <v>349</v>
       </c>
+      <c r="W19" t="n">
+        <v>4</v>
+      </c>
+      <c r="X19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1912,6 +2030,12 @@
       <c r="V20" t="n">
         <v>349</v>
       </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1984,6 +2108,12 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2056,6 +2186,12 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2128,6 +2264,12 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2200,6 +2342,12 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
+      <c r="W24" t="n">
+        <v>25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2272,6 +2420,12 @@
       <c r="V25" t="n">
         <v>901</v>
       </c>
+      <c r="W25" t="n">
+        <v>29</v>
+      </c>
+      <c r="X25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2344,6 +2498,12 @@
       <c r="V26" t="n">
         <v>623</v>
       </c>
+      <c r="W26" t="n">
+        <v>8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2414,6 +2574,12 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,16 @@
           <t>CF天梯分_2022-01-19 08:19:40</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-20 08:20:07</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-20 08:20:07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -632,6 +642,12 @@
       <c r="X2" t="n">
         <v>1783</v>
       </c>
+      <c r="Y2" t="n">
+        <v>730</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -710,6 +726,12 @@
       <c r="X3" t="n">
         <v>1014</v>
       </c>
+      <c r="Y3" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -788,6 +810,12 @@
       <c r="X4" t="n">
         <v>1584</v>
       </c>
+      <c r="Y4" t="n">
+        <v>386</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -866,6 +894,12 @@
       <c r="X5" t="n">
         <v>0</v>
       </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -944,6 +978,12 @@
       <c r="X6" t="n">
         <v>1413</v>
       </c>
+      <c r="Y6" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1413</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1022,6 +1062,12 @@
       <c r="X7" t="n">
         <v>1407</v>
       </c>
+      <c r="Y7" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1100,6 +1146,12 @@
       <c r="X8" t="n">
         <v>365</v>
       </c>
+      <c r="Y8" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1178,6 +1230,12 @@
       <c r="X9" t="n">
         <v>981</v>
       </c>
+      <c r="Y9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1256,6 +1314,12 @@
       <c r="X10" t="n">
         <v>362</v>
       </c>
+      <c r="Y10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1334,6 +1398,12 @@
       <c r="X11" t="n">
         <v>883</v>
       </c>
+      <c r="Y11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1412,6 +1482,12 @@
       <c r="X12" t="n">
         <v>1583</v>
       </c>
+      <c r="Y12" t="n">
+        <v>172</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1490,6 +1566,12 @@
       <c r="X13" t="n">
         <v>442</v>
       </c>
+      <c r="Y13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1568,6 +1650,12 @@
       <c r="X14" t="n">
         <v>0</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1646,6 +1734,12 @@
       <c r="X15" t="n">
         <v>989</v>
       </c>
+      <c r="Y15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>989</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1724,6 +1818,12 @@
       <c r="X16" t="n">
         <v>0</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1802,6 +1902,12 @@
       <c r="X17" t="n">
         <v>821</v>
       </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1880,6 +1986,12 @@
       <c r="X18" t="n">
         <v>956</v>
       </c>
+      <c r="Y18" t="n">
+        <v>125</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1958,6 +2070,12 @@
       <c r="X19" t="n">
         <v>349</v>
       </c>
+      <c r="Y19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2036,6 +2154,12 @@
       <c r="X20" t="n">
         <v>349</v>
       </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2114,6 +2238,12 @@
       <c r="X21" t="n">
         <v>0</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2192,6 +2322,12 @@
       <c r="X22" t="n">
         <v>0</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2270,6 +2406,12 @@
       <c r="X23" t="n">
         <v>0</v>
       </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2348,6 +2490,12 @@
       <c r="X24" t="n">
         <v>0</v>
       </c>
+      <c r="Y24" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2426,6 +2574,12 @@
       <c r="X25" t="n">
         <v>901</v>
       </c>
+      <c r="Y25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2504,6 +2658,12 @@
       <c r="X26" t="n">
         <v>623</v>
       </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2580,6 +2740,12 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,16 @@
           <t>CF天梯分_2022-01-20 08:20:07</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-21 08:20:12</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-21 08:20:12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -648,6 +658,12 @@
       <c r="Z2" t="n">
         <v>1783</v>
       </c>
+      <c r="AA2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -732,6 +748,12 @@
       <c r="Z3" t="n">
         <v>1014</v>
       </c>
+      <c r="AA3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -816,6 +838,12 @@
       <c r="Z4" t="n">
         <v>1584</v>
       </c>
+      <c r="AA4" t="n">
+        <v>386</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -900,6 +928,12 @@
       <c r="Z5" t="n">
         <v>0</v>
       </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -984,6 +1018,12 @@
       <c r="Z6" t="n">
         <v>1413</v>
       </c>
+      <c r="AA6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1413</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1068,6 +1108,12 @@
       <c r="Z7" t="n">
         <v>1407</v>
       </c>
+      <c r="AA7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1152,6 +1198,12 @@
       <c r="Z8" t="n">
         <v>365</v>
       </c>
+      <c r="AA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1236,6 +1288,12 @@
       <c r="Z9" t="n">
         <v>981</v>
       </c>
+      <c r="AA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1320,6 +1378,12 @@
       <c r="Z10" t="n">
         <v>362</v>
       </c>
+      <c r="AA10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1404,6 +1468,12 @@
       <c r="Z11" t="n">
         <v>883</v>
       </c>
+      <c r="AA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1488,6 +1558,12 @@
       <c r="Z12" t="n">
         <v>1583</v>
       </c>
+      <c r="AA12" t="n">
+        <v>172</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1572,6 +1648,12 @@
       <c r="Z13" t="n">
         <v>442</v>
       </c>
+      <c r="AA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1656,6 +1738,12 @@
       <c r="Z14" t="n">
         <v>0</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1740,6 +1828,12 @@
       <c r="Z15" t="n">
         <v>989</v>
       </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>989</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1824,6 +1918,12 @@
       <c r="Z16" t="n">
         <v>0</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1908,6 +2008,12 @@
       <c r="Z17" t="n">
         <v>821</v>
       </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1992,6 +2098,12 @@
       <c r="Z18" t="n">
         <v>956</v>
       </c>
+      <c r="AA18" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2076,6 +2188,12 @@
       <c r="Z19" t="n">
         <v>349</v>
       </c>
+      <c r="AA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2160,6 +2278,12 @@
       <c r="Z20" t="n">
         <v>349</v>
       </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2244,6 +2368,12 @@
       <c r="Z21" t="n">
         <v>0</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2328,6 +2458,12 @@
       <c r="Z22" t="n">
         <v>0</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2412,6 +2548,12 @@
       <c r="Z23" t="n">
         <v>0</v>
       </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2496,6 +2638,12 @@
       <c r="Z24" t="n">
         <v>0</v>
       </c>
+      <c r="AA24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2580,6 +2728,12 @@
       <c r="Z25" t="n">
         <v>901</v>
       </c>
+      <c r="AA25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2664,6 +2818,12 @@
       <c r="Z26" t="n">
         <v>623</v>
       </c>
+      <c r="AA26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2746,6 +2906,12 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,16 @@
           <t>CF天梯分_2022-01-21 08:20:12</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-22 08:19:22</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-22 08:19:22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -664,6 +674,12 @@
       <c r="AB2" t="n">
         <v>1783</v>
       </c>
+      <c r="AC2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -754,6 +770,12 @@
       <c r="AB3" t="n">
         <v>1014</v>
       </c>
+      <c r="AC3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -844,6 +866,12 @@
       <c r="AB4" t="n">
         <v>1584</v>
       </c>
+      <c r="AC4" t="n">
+        <v>386</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -934,6 +962,12 @@
       <c r="AB5" t="n">
         <v>0</v>
       </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1024,6 +1058,12 @@
       <c r="AB6" t="n">
         <v>1413</v>
       </c>
+      <c r="AC6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1413</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1114,6 +1154,12 @@
       <c r="AB7" t="n">
         <v>1407</v>
       </c>
+      <c r="AC7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1204,6 +1250,12 @@
       <c r="AB8" t="n">
         <v>365</v>
       </c>
+      <c r="AC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1294,6 +1346,12 @@
       <c r="AB9" t="n">
         <v>981</v>
       </c>
+      <c r="AC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1384,6 +1442,12 @@
       <c r="AB10" t="n">
         <v>362</v>
       </c>
+      <c r="AC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1474,6 +1538,12 @@
       <c r="AB11" t="n">
         <v>883</v>
       </c>
+      <c r="AC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1564,6 +1634,12 @@
       <c r="AB12" t="n">
         <v>1583</v>
       </c>
+      <c r="AC12" t="n">
+        <v>172</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1583</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1654,6 +1730,12 @@
       <c r="AB13" t="n">
         <v>442</v>
       </c>
+      <c r="AC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1744,6 +1826,12 @@
       <c r="AB14" t="n">
         <v>0</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1834,6 +1922,12 @@
       <c r="AB15" t="n">
         <v>989</v>
       </c>
+      <c r="AC15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>989</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1924,6 +2018,12 @@
       <c r="AB16" t="n">
         <v>0</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2014,6 +2114,12 @@
       <c r="AB17" t="n">
         <v>821</v>
       </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2104,6 +2210,12 @@
       <c r="AB18" t="n">
         <v>956</v>
       </c>
+      <c r="AC18" t="n">
+        <v>128</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2194,6 +2306,12 @@
       <c r="AB19" t="n">
         <v>349</v>
       </c>
+      <c r="AC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2284,6 +2402,12 @@
       <c r="AB20" t="n">
         <v>349</v>
       </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2374,6 +2498,12 @@
       <c r="AB21" t="n">
         <v>0</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2464,6 +2594,12 @@
       <c r="AB22" t="n">
         <v>0</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2554,6 +2690,12 @@
       <c r="AB23" t="n">
         <v>0</v>
       </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2644,6 +2786,12 @@
       <c r="AB24" t="n">
         <v>0</v>
       </c>
+      <c r="AC24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2734,6 +2882,12 @@
       <c r="AB25" t="n">
         <v>901</v>
       </c>
+      <c r="AC25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2824,6 +2978,12 @@
       <c r="AB26" t="n">
         <v>623</v>
       </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2912,6 +3072,12 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,16 @@
           <t>CF天梯分_2022-01-22 08:19:22</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-23 08:19:05</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-23 08:19:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -680,6 +690,12 @@
       <c r="AD2" t="n">
         <v>1783</v>
       </c>
+      <c r="AE2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -776,6 +792,12 @@
       <c r="AD3" t="n">
         <v>1014</v>
       </c>
+      <c r="AE3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -872,6 +894,12 @@
       <c r="AD4" t="n">
         <v>1584</v>
       </c>
+      <c r="AE4" t="n">
+        <v>392</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -968,6 +996,12 @@
       <c r="AD5" t="n">
         <v>0</v>
       </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1064,6 +1098,12 @@
       <c r="AD6" t="n">
         <v>1413</v>
       </c>
+      <c r="AE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1160,6 +1200,12 @@
       <c r="AD7" t="n">
         <v>1407</v>
       </c>
+      <c r="AE7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1256,6 +1302,12 @@
       <c r="AD8" t="n">
         <v>365</v>
       </c>
+      <c r="AE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1352,6 +1404,12 @@
       <c r="AD9" t="n">
         <v>981</v>
       </c>
+      <c r="AE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1448,6 +1506,12 @@
       <c r="AD10" t="n">
         <v>362</v>
       </c>
+      <c r="AE10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1544,6 +1608,12 @@
       <c r="AD11" t="n">
         <v>883</v>
       </c>
+      <c r="AE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1640,6 +1710,12 @@
       <c r="AD12" t="n">
         <v>1583</v>
       </c>
+      <c r="AE12" t="n">
+        <v>176</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1736,6 +1812,12 @@
       <c r="AD13" t="n">
         <v>442</v>
       </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1832,6 +1914,12 @@
       <c r="AD14" t="n">
         <v>0</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1928,6 +2016,12 @@
       <c r="AD15" t="n">
         <v>989</v>
       </c>
+      <c r="AE15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2024,6 +2118,12 @@
       <c r="AD16" t="n">
         <v>0</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2120,6 +2220,12 @@
       <c r="AD17" t="n">
         <v>821</v>
       </c>
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2216,6 +2322,12 @@
       <c r="AD18" t="n">
         <v>956</v>
       </c>
+      <c r="AE18" t="n">
+        <v>129</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2312,6 +2424,12 @@
       <c r="AD19" t="n">
         <v>349</v>
       </c>
+      <c r="AE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2408,6 +2526,12 @@
       <c r="AD20" t="n">
         <v>349</v>
       </c>
+      <c r="AE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2504,6 +2628,12 @@
       <c r="AD21" t="n">
         <v>0</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2600,6 +2730,12 @@
       <c r="AD22" t="n">
         <v>0</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2696,6 +2832,12 @@
       <c r="AD23" t="n">
         <v>0</v>
       </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2792,6 +2934,12 @@
       <c r="AD24" t="n">
         <v>0</v>
       </c>
+      <c r="AE24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2888,6 +3036,12 @@
       <c r="AD25" t="n">
         <v>901</v>
       </c>
+      <c r="AE25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2984,6 +3138,12 @@
       <c r="AD26" t="n">
         <v>623</v>
       </c>
+      <c r="AE26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3078,6 +3238,12 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,16 @@
           <t>CF天梯分_2022-01-23 08:19:05</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-24 08:20:03</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-24 08:20:03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -696,6 +706,12 @@
       <c r="AF2" t="n">
         <v>1783</v>
       </c>
+      <c r="AG2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -798,6 +814,12 @@
       <c r="AF3" t="n">
         <v>1014</v>
       </c>
+      <c r="AG3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -900,6 +922,12 @@
       <c r="AF4" t="n">
         <v>1594</v>
       </c>
+      <c r="AG4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1002,6 +1030,12 @@
       <c r="AF5" t="n">
         <v>0</v>
       </c>
+      <c r="AG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1138,12 @@
       <c r="AF6" t="n">
         <v>1430</v>
       </c>
+      <c r="AG6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1206,6 +1246,12 @@
       <c r="AF7" t="n">
         <v>1407</v>
       </c>
+      <c r="AG7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1308,6 +1354,12 @@
       <c r="AF8" t="n">
         <v>365</v>
       </c>
+      <c r="AG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1410,6 +1462,12 @@
       <c r="AF9" t="n">
         <v>981</v>
       </c>
+      <c r="AG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1512,6 +1570,12 @@
       <c r="AF10" t="n">
         <v>362</v>
       </c>
+      <c r="AG10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1614,6 +1678,12 @@
       <c r="AF11" t="n">
         <v>883</v>
       </c>
+      <c r="AG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1716,6 +1786,12 @@
       <c r="AF12" t="n">
         <v>1596</v>
       </c>
+      <c r="AG12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1818,6 +1894,12 @@
       <c r="AF13" t="n">
         <v>442</v>
       </c>
+      <c r="AG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1920,6 +2002,12 @@
       <c r="AF14" t="n">
         <v>0</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2022,6 +2110,12 @@
       <c r="AF15" t="n">
         <v>1014</v>
       </c>
+      <c r="AG15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2124,6 +2218,12 @@
       <c r="AF16" t="n">
         <v>0</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2226,6 +2326,12 @@
       <c r="AF17" t="n">
         <v>821</v>
       </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2328,6 +2434,12 @@
       <c r="AF18" t="n">
         <v>940</v>
       </c>
+      <c r="AG18" t="n">
+        <v>129</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2430,6 +2542,12 @@
       <c r="AF19" t="n">
         <v>349</v>
       </c>
+      <c r="AG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2532,6 +2650,12 @@
       <c r="AF20" t="n">
         <v>349</v>
       </c>
+      <c r="AG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2634,6 +2758,12 @@
       <c r="AF21" t="n">
         <v>0</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2736,6 +2866,12 @@
       <c r="AF22" t="n">
         <v>0</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2838,6 +2974,12 @@
       <c r="AF23" t="n">
         <v>0</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2940,6 +3082,12 @@
       <c r="AF24" t="n">
         <v>0</v>
       </c>
+      <c r="AG24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3042,6 +3190,12 @@
       <c r="AF25" t="n">
         <v>901</v>
       </c>
+      <c r="AG25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3144,6 +3298,12 @@
       <c r="AF26" t="n">
         <v>623</v>
       </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3244,6 +3404,12 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,16 @@
           <t>CF天梯分_2022-01-24 08:20:03</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-25 08:20:23</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-25 08:20:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -712,6 +722,12 @@
       <c r="AH2" t="n">
         <v>1783</v>
       </c>
+      <c r="AI2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -820,6 +836,12 @@
       <c r="AH3" t="n">
         <v>1014</v>
       </c>
+      <c r="AI3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -928,6 +950,12 @@
       <c r="AH4" t="n">
         <v>1594</v>
       </c>
+      <c r="AI4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1036,6 +1064,12 @@
       <c r="AH5" t="n">
         <v>0</v>
       </c>
+      <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1144,6 +1178,12 @@
       <c r="AH6" t="n">
         <v>1430</v>
       </c>
+      <c r="AI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1252,6 +1292,12 @@
       <c r="AH7" t="n">
         <v>1407</v>
       </c>
+      <c r="AI7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1360,6 +1406,12 @@
       <c r="AH8" t="n">
         <v>365</v>
       </c>
+      <c r="AI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1468,6 +1520,12 @@
       <c r="AH9" t="n">
         <v>981</v>
       </c>
+      <c r="AI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1576,6 +1634,12 @@
       <c r="AH10" t="n">
         <v>362</v>
       </c>
+      <c r="AI10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1684,6 +1748,12 @@
       <c r="AH11" t="n">
         <v>883</v>
       </c>
+      <c r="AI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1792,6 +1862,12 @@
       <c r="AH12" t="n">
         <v>1596</v>
       </c>
+      <c r="AI12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1900,6 +1976,12 @@
       <c r="AH13" t="n">
         <v>442</v>
       </c>
+      <c r="AI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2008,6 +2090,12 @@
       <c r="AH14" t="n">
         <v>0</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2116,6 +2204,12 @@
       <c r="AH15" t="n">
         <v>1014</v>
       </c>
+      <c r="AI15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2224,6 +2318,12 @@
       <c r="AH16" t="n">
         <v>0</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2332,6 +2432,12 @@
       <c r="AH17" t="n">
         <v>821</v>
       </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2440,6 +2546,12 @@
       <c r="AH18" t="n">
         <v>940</v>
       </c>
+      <c r="AI18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2548,6 +2660,12 @@
       <c r="AH19" t="n">
         <v>349</v>
       </c>
+      <c r="AI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2656,6 +2774,12 @@
       <c r="AH20" t="n">
         <v>349</v>
       </c>
+      <c r="AI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2764,6 +2888,12 @@
       <c r="AH21" t="n">
         <v>0</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +3002,12 @@
       <c r="AH22" t="n">
         <v>0</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2980,6 +3116,12 @@
       <c r="AH23" t="n">
         <v>0</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3088,6 +3230,12 @@
       <c r="AH24" t="n">
         <v>0</v>
       </c>
+      <c r="AI24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3196,6 +3344,12 @@
       <c r="AH25" t="n">
         <v>901</v>
       </c>
+      <c r="AI25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3304,6 +3458,12 @@
       <c r="AH26" t="n">
         <v>623</v>
       </c>
+      <c r="AI26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3410,6 +3570,12 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,6 +614,16 @@
           <t>CF天梯分_2022-01-25 08:20:23</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-25 15:08:18</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-25 15:08:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -728,6 +738,12 @@
       <c r="AJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="AK2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -842,6 +858,12 @@
       <c r="AJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="AK3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -956,6 +978,12 @@
       <c r="AJ4" t="n">
         <v>1594</v>
       </c>
+      <c r="AK4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1098,12 @@
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1184,6 +1218,12 @@
       <c r="AJ6" t="n">
         <v>1430</v>
       </c>
+      <c r="AK6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1298,6 +1338,12 @@
       <c r="AJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="AK7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1412,6 +1458,12 @@
       <c r="AJ8" t="n">
         <v>365</v>
       </c>
+      <c r="AK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1526,6 +1578,12 @@
       <c r="AJ9" t="n">
         <v>981</v>
       </c>
+      <c r="AK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1640,6 +1698,12 @@
       <c r="AJ10" t="n">
         <v>362</v>
       </c>
+      <c r="AK10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1754,6 +1818,12 @@
       <c r="AJ11" t="n">
         <v>883</v>
       </c>
+      <c r="AK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1868,6 +1938,12 @@
       <c r="AJ12" t="n">
         <v>1596</v>
       </c>
+      <c r="AK12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1982,6 +2058,12 @@
       <c r="AJ13" t="n">
         <v>442</v>
       </c>
+      <c r="AK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2096,6 +2178,12 @@
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2210,6 +2298,12 @@
       <c r="AJ15" t="n">
         <v>1014</v>
       </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2324,6 +2418,12 @@
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2438,6 +2538,12 @@
       <c r="AJ17" t="n">
         <v>821</v>
       </c>
+      <c r="AK17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2552,6 +2658,12 @@
       <c r="AJ18" t="n">
         <v>940</v>
       </c>
+      <c r="AK18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2666,6 +2778,12 @@
       <c r="AJ19" t="n">
         <v>349</v>
       </c>
+      <c r="AK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2780,6 +2898,12 @@
       <c r="AJ20" t="n">
         <v>349</v>
       </c>
+      <c r="AK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2894,6 +3018,12 @@
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3138,12 @@
       <c r="AJ22" t="n">
         <v>0</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3122,6 +3258,12 @@
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3236,6 +3378,12 @@
       <c r="AJ24" t="n">
         <v>0</v>
       </c>
+      <c r="AK24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3350,6 +3498,12 @@
       <c r="AJ25" t="n">
         <v>901</v>
       </c>
+      <c r="AK25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3464,6 +3618,12 @@
       <c r="AJ26" t="n">
         <v>623</v>
       </c>
+      <c r="AK26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3576,6 +3736,12 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,16 @@
           <t>CF天梯分_2022-01-25 15:08:18</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-26 08:19:32</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-26 08:19:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -744,6 +754,12 @@
       <c r="AL2" t="n">
         <v>1783</v>
       </c>
+      <c r="AM2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,6 +880,12 @@
       <c r="AL3" t="n">
         <v>1014</v>
       </c>
+      <c r="AM3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -984,6 +1006,12 @@
       <c r="AL4" t="n">
         <v>1594</v>
       </c>
+      <c r="AM4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1104,6 +1132,12 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
+      <c r="AM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1224,6 +1258,12 @@
       <c r="AL6" t="n">
         <v>1430</v>
       </c>
+      <c r="AM6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1344,6 +1384,12 @@
       <c r="AL7" t="n">
         <v>1407</v>
       </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1464,6 +1510,12 @@
       <c r="AL8" t="n">
         <v>365</v>
       </c>
+      <c r="AM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1584,6 +1636,12 @@
       <c r="AL9" t="n">
         <v>981</v>
       </c>
+      <c r="AM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1704,6 +1762,12 @@
       <c r="AL10" t="n">
         <v>362</v>
       </c>
+      <c r="AM10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1824,6 +1888,12 @@
       <c r="AL11" t="n">
         <v>883</v>
       </c>
+      <c r="AM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1944,6 +2014,12 @@
       <c r="AL12" t="n">
         <v>1596</v>
       </c>
+      <c r="AM12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2064,6 +2140,12 @@
       <c r="AL13" t="n">
         <v>442</v>
       </c>
+      <c r="AM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2184,6 +2266,12 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2304,6 +2392,12 @@
       <c r="AL15" t="n">
         <v>1014</v>
       </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2424,6 +2518,12 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2544,6 +2644,12 @@
       <c r="AL17" t="n">
         <v>821</v>
       </c>
+      <c r="AM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2664,6 +2770,12 @@
       <c r="AL18" t="n">
         <v>940</v>
       </c>
+      <c r="AM18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2784,6 +2896,12 @@
       <c r="AL19" t="n">
         <v>349</v>
       </c>
+      <c r="AM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2904,6 +3022,12 @@
       <c r="AL20" t="n">
         <v>349</v>
       </c>
+      <c r="AM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3024,6 +3148,12 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3144,6 +3274,12 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3264,6 +3400,12 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3384,6 +3526,12 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
+      <c r="AM24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3504,6 +3652,12 @@
       <c r="AL25" t="n">
         <v>901</v>
       </c>
+      <c r="AM25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3624,6 +3778,12 @@
       <c r="AL26" t="n">
         <v>623</v>
       </c>
+      <c r="AM26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3742,6 +3902,12 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,16 @@
           <t>CF天梯分_2022-01-26 08:19:32</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-27 08:20:33</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-27 08:20:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -760,6 +770,12 @@
       <c r="AN2" t="n">
         <v>1783</v>
       </c>
+      <c r="AO2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -886,6 +902,12 @@
       <c r="AN3" t="n">
         <v>1014</v>
       </c>
+      <c r="AO3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1012,6 +1034,12 @@
       <c r="AN4" t="n">
         <v>1594</v>
       </c>
+      <c r="AO4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1138,6 +1166,12 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1264,6 +1298,12 @@
       <c r="AN6" t="n">
         <v>1430</v>
       </c>
+      <c r="AO6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1390,6 +1430,12 @@
       <c r="AN7" t="n">
         <v>1407</v>
       </c>
+      <c r="AO7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1516,6 +1562,12 @@
       <c r="AN8" t="n">
         <v>365</v>
       </c>
+      <c r="AO8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1642,6 +1694,12 @@
       <c r="AN9" t="n">
         <v>981</v>
       </c>
+      <c r="AO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1768,6 +1826,12 @@
       <c r="AN10" t="n">
         <v>362</v>
       </c>
+      <c r="AO10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1894,6 +1958,12 @@
       <c r="AN11" t="n">
         <v>883</v>
       </c>
+      <c r="AO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2020,6 +2090,12 @@
       <c r="AN12" t="n">
         <v>1596</v>
       </c>
+      <c r="AO12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2146,6 +2222,12 @@
       <c r="AN13" t="n">
         <v>442</v>
       </c>
+      <c r="AO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2272,6 +2354,12 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2398,6 +2486,12 @@
       <c r="AN15" t="n">
         <v>1014</v>
       </c>
+      <c r="AO15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2524,6 +2618,12 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2650,6 +2750,12 @@
       <c r="AN17" t="n">
         <v>821</v>
       </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2776,6 +2882,12 @@
       <c r="AN18" t="n">
         <v>940</v>
       </c>
+      <c r="AO18" t="n">
+        <v>131</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2902,6 +3014,12 @@
       <c r="AN19" t="n">
         <v>349</v>
       </c>
+      <c r="AO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3028,6 +3146,12 @@
       <c r="AN20" t="n">
         <v>349</v>
       </c>
+      <c r="AO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3154,6 +3278,12 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3280,6 +3410,12 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
+      <c r="AO22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3406,6 +3542,12 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3532,6 +3674,12 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
+      <c r="AO24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3658,6 +3806,12 @@
       <c r="AN25" t="n">
         <v>901</v>
       </c>
+      <c r="AO25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3784,6 +3938,12 @@
       <c r="AN26" t="n">
         <v>623</v>
       </c>
+      <c r="AO26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3908,6 +4068,12 @@
         <v>0</v>
       </c>
       <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP27"/>
+  <dimension ref="A1:AR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,16 @@
           <t>CF天梯分_2022-01-27 08:20:33</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-28 08:19:53</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-28 08:19:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,6 +786,12 @@
       <c r="AP2" t="n">
         <v>1783</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -908,6 +924,12 @@
       <c r="AP3" t="n">
         <v>1014</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1040,6 +1062,12 @@
       <c r="AP4" t="n">
         <v>1594</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1172,6 +1200,12 @@
       <c r="AP5" t="n">
         <v>0</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1304,6 +1338,12 @@
       <c r="AP6" t="n">
         <v>1430</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1436,6 +1476,12 @@
       <c r="AP7" t="n">
         <v>1407</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1568,6 +1614,12 @@
       <c r="AP8" t="n">
         <v>365</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1700,6 +1752,12 @@
       <c r="AP9" t="n">
         <v>981</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1832,6 +1890,12 @@
       <c r="AP10" t="n">
         <v>362</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1964,6 +2028,12 @@
       <c r="AP11" t="n">
         <v>883</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2096,6 +2166,12 @@
       <c r="AP12" t="n">
         <v>1596</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2228,6 +2304,12 @@
       <c r="AP13" t="n">
         <v>442</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2360,6 +2442,12 @@
       <c r="AP14" t="n">
         <v>0</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2492,6 +2580,12 @@
       <c r="AP15" t="n">
         <v>1014</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>954</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2624,6 +2718,12 @@
       <c r="AP16" t="n">
         <v>0</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2756,6 +2856,12 @@
       <c r="AP17" t="n">
         <v>821</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2888,6 +2994,12 @@
       <c r="AP18" t="n">
         <v>940</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>132</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>946</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3020,6 +3132,12 @@
       <c r="AP19" t="n">
         <v>349</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3152,6 +3270,12 @@
       <c r="AP20" t="n">
         <v>349</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3284,6 +3408,12 @@
       <c r="AP21" t="n">
         <v>0</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3416,6 +3546,12 @@
       <c r="AP22" t="n">
         <v>0</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3548,6 +3684,12 @@
       <c r="AP23" t="n">
         <v>0</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3680,6 +3822,12 @@
       <c r="AP24" t="n">
         <v>0</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3812,6 +3960,12 @@
       <c r="AP25" t="n">
         <v>901</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3944,6 +4098,12 @@
       <c r="AP26" t="n">
         <v>623</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4074,6 +4234,12 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,16 @@
           <t>CF天梯分_2022-01-28 08:19:53</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-29 08:19:13</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-29 08:19:13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -792,6 +802,12 @@
       <c r="AR2" t="n">
         <v>1783</v>
       </c>
+      <c r="AS2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -930,6 +946,12 @@
       <c r="AR3" t="n">
         <v>1014</v>
       </c>
+      <c r="AS3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1068,6 +1090,12 @@
       <c r="AR4" t="n">
         <v>1594</v>
       </c>
+      <c r="AS4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1206,6 +1234,12 @@
       <c r="AR5" t="n">
         <v>0</v>
       </c>
+      <c r="AS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1344,6 +1378,12 @@
       <c r="AR6" t="n">
         <v>1430</v>
       </c>
+      <c r="AS6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1482,6 +1522,12 @@
       <c r="AR7" t="n">
         <v>1407</v>
       </c>
+      <c r="AS7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1620,6 +1666,12 @@
       <c r="AR8" t="n">
         <v>365</v>
       </c>
+      <c r="AS8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1758,6 +1810,12 @@
       <c r="AR9" t="n">
         <v>981</v>
       </c>
+      <c r="AS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1896,6 +1954,12 @@
       <c r="AR10" t="n">
         <v>362</v>
       </c>
+      <c r="AS10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2034,6 +2098,12 @@
       <c r="AR11" t="n">
         <v>883</v>
       </c>
+      <c r="AS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2172,6 +2242,12 @@
       <c r="AR12" t="n">
         <v>1596</v>
       </c>
+      <c r="AS12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2310,6 +2386,12 @@
       <c r="AR13" t="n">
         <v>442</v>
       </c>
+      <c r="AS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2448,6 +2530,12 @@
       <c r="AR14" t="n">
         <v>0</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2586,6 +2674,12 @@
       <c r="AR15" t="n">
         <v>954</v>
       </c>
+      <c r="AS15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>954</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2724,6 +2818,12 @@
       <c r="AR16" t="n">
         <v>0</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2862,6 +2962,12 @@
       <c r="AR17" t="n">
         <v>821</v>
       </c>
+      <c r="AS17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3000,6 +3106,12 @@
       <c r="AR18" t="n">
         <v>946</v>
       </c>
+      <c r="AS18" t="n">
+        <v>132</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>946</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3138,6 +3250,12 @@
       <c r="AR19" t="n">
         <v>349</v>
       </c>
+      <c r="AS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3276,6 +3394,12 @@
       <c r="AR20" t="n">
         <v>349</v>
       </c>
+      <c r="AS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3414,6 +3538,12 @@
       <c r="AR21" t="n">
         <v>0</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3552,6 +3682,12 @@
       <c r="AR22" t="n">
         <v>0</v>
       </c>
+      <c r="AS22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3690,6 +3826,12 @@
       <c r="AR23" t="n">
         <v>0</v>
       </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3828,6 +3970,12 @@
       <c r="AR24" t="n">
         <v>0</v>
       </c>
+      <c r="AS24" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3966,6 +4114,12 @@
       <c r="AR25" t="n">
         <v>901</v>
       </c>
+      <c r="AS25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4104,6 +4258,12 @@
       <c r="AR26" t="n">
         <v>623</v>
       </c>
+      <c r="AS26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4240,6 +4400,12 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT27"/>
+  <dimension ref="A1:AV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,16 @@
           <t>CF天梯分_2022-01-29 08:19:13</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-30 08:18:56</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-30 08:18:56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -808,6 +818,12 @@
       <c r="AT2" t="n">
         <v>1783</v>
       </c>
+      <c r="AU2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -952,6 +968,12 @@
       <c r="AT3" t="n">
         <v>1014</v>
       </c>
+      <c r="AU3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1096,6 +1118,12 @@
       <c r="AT4" t="n">
         <v>1594</v>
       </c>
+      <c r="AU4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1240,6 +1268,12 @@
       <c r="AT5" t="n">
         <v>0</v>
       </c>
+      <c r="AU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1384,6 +1418,12 @@
       <c r="AT6" t="n">
         <v>1430</v>
       </c>
+      <c r="AU6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1528,6 +1568,12 @@
       <c r="AT7" t="n">
         <v>1407</v>
       </c>
+      <c r="AU7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1672,6 +1718,12 @@
       <c r="AT8" t="n">
         <v>365</v>
       </c>
+      <c r="AU8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1816,6 +1868,12 @@
       <c r="AT9" t="n">
         <v>981</v>
       </c>
+      <c r="AU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1960,6 +2018,12 @@
       <c r="AT10" t="n">
         <v>362</v>
       </c>
+      <c r="AU10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2104,6 +2168,12 @@
       <c r="AT11" t="n">
         <v>883</v>
       </c>
+      <c r="AU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2248,6 +2318,12 @@
       <c r="AT12" t="n">
         <v>1596</v>
       </c>
+      <c r="AU12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2392,6 +2468,12 @@
       <c r="AT13" t="n">
         <v>442</v>
       </c>
+      <c r="AU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2536,6 +2618,12 @@
       <c r="AT14" t="n">
         <v>0</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2680,6 +2768,12 @@
       <c r="AT15" t="n">
         <v>954</v>
       </c>
+      <c r="AU15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>954</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2824,6 +2918,12 @@
       <c r="AT16" t="n">
         <v>0</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2968,6 +3068,12 @@
       <c r="AT17" t="n">
         <v>821</v>
       </c>
+      <c r="AU17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3112,6 +3218,12 @@
       <c r="AT18" t="n">
         <v>946</v>
       </c>
+      <c r="AU18" t="n">
+        <v>132</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>946</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3256,6 +3368,12 @@
       <c r="AT19" t="n">
         <v>349</v>
       </c>
+      <c r="AU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3400,6 +3518,12 @@
       <c r="AT20" t="n">
         <v>349</v>
       </c>
+      <c r="AU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3544,6 +3668,12 @@
       <c r="AT21" t="n">
         <v>0</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3688,6 +3818,12 @@
       <c r="AT22" t="n">
         <v>0</v>
       </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3832,6 +3968,12 @@
       <c r="AT23" t="n">
         <v>0</v>
       </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3976,6 +4118,12 @@
       <c r="AT24" t="n">
         <v>0</v>
       </c>
+      <c r="AU24" t="n">
+        <v>53</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4120,6 +4268,12 @@
       <c r="AT25" t="n">
         <v>901</v>
       </c>
+      <c r="AU25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4264,6 +4418,12 @@
       <c r="AT26" t="n">
         <v>623</v>
       </c>
+      <c r="AU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4406,6 +4566,12 @@
         <v>0</v>
       </c>
       <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV27"/>
+  <dimension ref="A1:AX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,6 +674,16 @@
           <t>CF天梯分_2022-01-30 08:18:56</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-01-31 08:20:15</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-01-31 08:20:15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -824,6 +834,12 @@
       <c r="AV2" t="n">
         <v>1783</v>
       </c>
+      <c r="AW2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -974,6 +990,12 @@
       <c r="AV3" t="n">
         <v>1014</v>
       </c>
+      <c r="AW3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1124,6 +1146,12 @@
       <c r="AV4" t="n">
         <v>1594</v>
       </c>
+      <c r="AW4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1274,6 +1302,12 @@
       <c r="AV5" t="n">
         <v>0</v>
       </c>
+      <c r="AW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1424,6 +1458,12 @@
       <c r="AV6" t="n">
         <v>1430</v>
       </c>
+      <c r="AW6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1574,6 +1614,12 @@
       <c r="AV7" t="n">
         <v>1407</v>
       </c>
+      <c r="AW7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1724,6 +1770,12 @@
       <c r="AV8" t="n">
         <v>365</v>
       </c>
+      <c r="AW8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1874,6 +1926,12 @@
       <c r="AV9" t="n">
         <v>981</v>
       </c>
+      <c r="AW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2024,6 +2082,12 @@
       <c r="AV10" t="n">
         <v>362</v>
       </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2174,6 +2238,12 @@
       <c r="AV11" t="n">
         <v>883</v>
       </c>
+      <c r="AW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2324,6 +2394,12 @@
       <c r="AV12" t="n">
         <v>1596</v>
       </c>
+      <c r="AW12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2474,6 +2550,12 @@
       <c r="AV13" t="n">
         <v>442</v>
       </c>
+      <c r="AW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2624,6 +2706,12 @@
       <c r="AV14" t="n">
         <v>0</v>
       </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2774,6 +2862,12 @@
       <c r="AV15" t="n">
         <v>954</v>
       </c>
+      <c r="AW15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>956</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2924,6 +3018,12 @@
       <c r="AV16" t="n">
         <v>0</v>
       </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3074,6 +3174,12 @@
       <c r="AV17" t="n">
         <v>821</v>
       </c>
+      <c r="AW17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3224,6 +3330,12 @@
       <c r="AV18" t="n">
         <v>946</v>
       </c>
+      <c r="AW18" t="n">
+        <v>132</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3374,6 +3486,12 @@
       <c r="AV19" t="n">
         <v>349</v>
       </c>
+      <c r="AW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3524,6 +3642,12 @@
       <c r="AV20" t="n">
         <v>349</v>
       </c>
+      <c r="AW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3674,6 +3798,12 @@
       <c r="AV21" t="n">
         <v>0</v>
       </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3824,6 +3954,12 @@
       <c r="AV22" t="n">
         <v>0</v>
       </c>
+      <c r="AW22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3974,6 +4110,12 @@
       <c r="AV23" t="n">
         <v>0</v>
       </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4124,6 +4266,12 @@
       <c r="AV24" t="n">
         <v>0</v>
       </c>
+      <c r="AW24" t="n">
+        <v>64</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4274,6 +4422,12 @@
       <c r="AV25" t="n">
         <v>901</v>
       </c>
+      <c r="AW25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4424,6 +4578,12 @@
       <c r="AV26" t="n">
         <v>623</v>
       </c>
+      <c r="AW26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4572,6 +4732,12 @@
         <v>0</v>
       </c>
       <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX27"/>
+  <dimension ref="A1:AZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,6 +684,16 @@
           <t>CF天梯分_2022-01-31 08:20:15</t>
         </is>
       </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-01 08:20:23</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-01 08:20:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -840,6 +850,12 @@
       <c r="AX2" t="n">
         <v>1783</v>
       </c>
+      <c r="AY2" t="n">
+        <v>730</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -996,6 +1012,12 @@
       <c r="AX3" t="n">
         <v>1014</v>
       </c>
+      <c r="AY3" t="n">
+        <v>84</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1152,6 +1174,12 @@
       <c r="AX4" t="n">
         <v>1595</v>
       </c>
+      <c r="AY4" t="n">
+        <v>395</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1308,6 +1336,12 @@
       <c r="AX5" t="n">
         <v>0</v>
       </c>
+      <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1464,6 +1498,12 @@
       <c r="AX6" t="n">
         <v>1431</v>
       </c>
+      <c r="AY6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1620,6 +1660,12 @@
       <c r="AX7" t="n">
         <v>1407</v>
       </c>
+      <c r="AY7" t="n">
+        <v>131</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1776,6 +1822,12 @@
       <c r="AX8" t="n">
         <v>365</v>
       </c>
+      <c r="AY8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1932,6 +1984,12 @@
       <c r="AX9" t="n">
         <v>981</v>
       </c>
+      <c r="AY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2088,6 +2146,12 @@
       <c r="AX10" t="n">
         <v>362</v>
       </c>
+      <c r="AY10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2244,6 +2308,12 @@
       <c r="AX11" t="n">
         <v>883</v>
       </c>
+      <c r="AY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2400,6 +2470,12 @@
       <c r="AX12" t="n">
         <v>1597</v>
       </c>
+      <c r="AY12" t="n">
+        <v>177</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2556,6 +2632,12 @@
       <c r="AX13" t="n">
         <v>442</v>
       </c>
+      <c r="AY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2712,6 +2794,12 @@
       <c r="AX14" t="n">
         <v>0</v>
       </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2868,6 +2956,12 @@
       <c r="AX15" t="n">
         <v>956</v>
       </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3024,6 +3118,12 @@
       <c r="AX16" t="n">
         <v>0</v>
       </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3180,6 +3280,12 @@
       <c r="AX17" t="n">
         <v>821</v>
       </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3336,6 +3442,12 @@
       <c r="AX18" t="n">
         <v>950</v>
       </c>
+      <c r="AY18" t="n">
+        <v>132</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3492,6 +3604,12 @@
       <c r="AX19" t="n">
         <v>349</v>
       </c>
+      <c r="AY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3648,6 +3766,12 @@
       <c r="AX20" t="n">
         <v>349</v>
       </c>
+      <c r="AY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3804,6 +3928,12 @@
       <c r="AX21" t="n">
         <v>0</v>
       </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3960,6 +4090,12 @@
       <c r="AX22" t="n">
         <v>0</v>
       </c>
+      <c r="AY22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4116,6 +4252,12 @@
       <c r="AX23" t="n">
         <v>0</v>
       </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4272,6 +4414,12 @@
       <c r="AX24" t="n">
         <v>0</v>
       </c>
+      <c r="AY24" t="n">
+        <v>64</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4428,6 +4576,12 @@
       <c r="AX25" t="n">
         <v>901</v>
       </c>
+      <c r="AY25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4584,6 +4738,12 @@
       <c r="AX26" t="n">
         <v>623</v>
       </c>
+      <c r="AY26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4738,6 +4898,12 @@
         <v>0</v>
       </c>
       <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ27"/>
+  <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,16 @@
           <t>CF天梯分_2022-02-01 08:20:23</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-02 08:19:53</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-02 08:19:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -856,6 +866,12 @@
       <c r="AZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="BA2" t="n">
+        <v>730</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1018,6 +1034,12 @@
       <c r="AZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="BA3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1180,6 +1202,12 @@
       <c r="AZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="BA4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1342,6 +1370,12 @@
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
+      <c r="BA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1504,6 +1538,12 @@
       <c r="AZ6" t="n">
         <v>1431</v>
       </c>
+      <c r="BA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1666,6 +1706,12 @@
       <c r="AZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="BA7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1828,6 +1874,12 @@
       <c r="AZ8" t="n">
         <v>365</v>
       </c>
+      <c r="BA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1990,6 +2042,12 @@
       <c r="AZ9" t="n">
         <v>981</v>
       </c>
+      <c r="BA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2152,6 +2210,12 @@
       <c r="AZ10" t="n">
         <v>362</v>
       </c>
+      <c r="BA10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2314,6 +2378,12 @@
       <c r="AZ11" t="n">
         <v>883</v>
       </c>
+      <c r="BA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2476,6 +2546,12 @@
       <c r="AZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="BA12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2638,6 +2714,12 @@
       <c r="AZ13" t="n">
         <v>442</v>
       </c>
+      <c r="BA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2800,6 +2882,12 @@
       <c r="AZ14" t="n">
         <v>0</v>
       </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2962,6 +3050,12 @@
       <c r="AZ15" t="n">
         <v>981</v>
       </c>
+      <c r="BA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3124,6 +3218,12 @@
       <c r="AZ16" t="n">
         <v>0</v>
       </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3286,6 +3386,12 @@
       <c r="AZ17" t="n">
         <v>821</v>
       </c>
+      <c r="BA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3448,6 +3554,12 @@
       <c r="AZ18" t="n">
         <v>950</v>
       </c>
+      <c r="BA18" t="n">
+        <v>132</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3610,6 +3722,12 @@
       <c r="AZ19" t="n">
         <v>349</v>
       </c>
+      <c r="BA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3772,6 +3890,12 @@
       <c r="AZ20" t="n">
         <v>349</v>
       </c>
+      <c r="BA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3934,6 +4058,12 @@
       <c r="AZ21" t="n">
         <v>0</v>
       </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4096,6 +4226,12 @@
       <c r="AZ22" t="n">
         <v>0</v>
       </c>
+      <c r="BA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4258,6 +4394,12 @@
       <c r="AZ23" t="n">
         <v>0</v>
       </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4420,6 +4562,12 @@
       <c r="AZ24" t="n">
         <v>0</v>
       </c>
+      <c r="BA24" t="n">
+        <v>64</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4582,6 +4730,12 @@
       <c r="AZ25" t="n">
         <v>901</v>
       </c>
+      <c r="BA25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4744,6 +4898,12 @@
       <c r="AZ26" t="n">
         <v>623</v>
       </c>
+      <c r="BA26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4904,6 +5064,12 @@
         <v>0</v>
       </c>
       <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB27"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +704,16 @@
           <t>CF天梯分_2022-02-02 08:19:53</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-03 08:19:57</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-03 08:19:57</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -872,6 +882,12 @@
       <c r="BB2" t="n">
         <v>1783</v>
       </c>
+      <c r="BC2" t="n">
+        <v>730</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1040,6 +1056,12 @@
       <c r="BB3" t="n">
         <v>1014</v>
       </c>
+      <c r="BC3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1208,6 +1230,12 @@
       <c r="BB4" t="n">
         <v>1595</v>
       </c>
+      <c r="BC4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1376,6 +1404,12 @@
       <c r="BB5" t="n">
         <v>0</v>
       </c>
+      <c r="BC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1544,6 +1578,12 @@
       <c r="BB6" t="n">
         <v>1431</v>
       </c>
+      <c r="BC6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1712,6 +1752,12 @@
       <c r="BB7" t="n">
         <v>1407</v>
       </c>
+      <c r="BC7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1880,6 +1926,12 @@
       <c r="BB8" t="n">
         <v>365</v>
       </c>
+      <c r="BC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2048,6 +2100,12 @@
       <c r="BB9" t="n">
         <v>981</v>
       </c>
+      <c r="BC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2216,6 +2274,12 @@
       <c r="BB10" t="n">
         <v>362</v>
       </c>
+      <c r="BC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2384,6 +2448,12 @@
       <c r="BB11" t="n">
         <v>883</v>
       </c>
+      <c r="BC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2552,6 +2622,12 @@
       <c r="BB12" t="n">
         <v>1597</v>
       </c>
+      <c r="BC12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2720,6 +2796,12 @@
       <c r="BB13" t="n">
         <v>442</v>
       </c>
+      <c r="BC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2888,6 +2970,12 @@
       <c r="BB14" t="n">
         <v>0</v>
       </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3056,6 +3144,12 @@
       <c r="BB15" t="n">
         <v>981</v>
       </c>
+      <c r="BC15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3224,6 +3318,12 @@
       <c r="BB16" t="n">
         <v>0</v>
       </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3392,6 +3492,12 @@
       <c r="BB17" t="n">
         <v>821</v>
       </c>
+      <c r="BC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3560,6 +3666,12 @@
       <c r="BB18" t="n">
         <v>950</v>
       </c>
+      <c r="BC18" t="n">
+        <v>132</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3728,6 +3840,12 @@
       <c r="BB19" t="n">
         <v>349</v>
       </c>
+      <c r="BC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3896,6 +4014,12 @@
       <c r="BB20" t="n">
         <v>349</v>
       </c>
+      <c r="BC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4064,6 +4188,12 @@
       <c r="BB21" t="n">
         <v>0</v>
       </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4232,6 +4362,12 @@
       <c r="BB22" t="n">
         <v>0</v>
       </c>
+      <c r="BC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4400,6 +4536,12 @@
       <c r="BB23" t="n">
         <v>0</v>
       </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4568,6 +4710,12 @@
       <c r="BB24" t="n">
         <v>0</v>
       </c>
+      <c r="BC24" t="n">
+        <v>64</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4736,6 +4884,12 @@
       <c r="BB25" t="n">
         <v>901</v>
       </c>
+      <c r="BC25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4904,6 +5058,12 @@
       <c r="BB26" t="n">
         <v>623</v>
       </c>
+      <c r="BC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5070,6 +5230,12 @@
         <v>0</v>
       </c>
       <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD27"/>
+  <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +714,16 @@
           <t>CF天梯分_2022-02-03 08:19:57</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-04 08:17:09</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-04 08:17:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -888,6 +898,12 @@
       <c r="BD2" t="n">
         <v>1783</v>
       </c>
+      <c r="BE2" t="n">
+        <v>730</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1062,6 +1078,12 @@
       <c r="BD3" t="n">
         <v>1014</v>
       </c>
+      <c r="BE3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1236,6 +1258,12 @@
       <c r="BD4" t="n">
         <v>1595</v>
       </c>
+      <c r="BE4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1410,6 +1438,12 @@
       <c r="BD5" t="n">
         <v>0</v>
       </c>
+      <c r="BE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1584,6 +1618,12 @@
       <c r="BD6" t="n">
         <v>1431</v>
       </c>
+      <c r="BE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1758,6 +1798,12 @@
       <c r="BD7" t="n">
         <v>1407</v>
       </c>
+      <c r="BE7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1932,6 +1978,12 @@
       <c r="BD8" t="n">
         <v>365</v>
       </c>
+      <c r="BE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2106,6 +2158,12 @@
       <c r="BD9" t="n">
         <v>981</v>
       </c>
+      <c r="BE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2280,6 +2338,12 @@
       <c r="BD10" t="n">
         <v>362</v>
       </c>
+      <c r="BE10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2454,6 +2518,12 @@
       <c r="BD11" t="n">
         <v>883</v>
       </c>
+      <c r="BE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2628,6 +2698,12 @@
       <c r="BD12" t="n">
         <v>1597</v>
       </c>
+      <c r="BE12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2802,6 +2878,12 @@
       <c r="BD13" t="n">
         <v>442</v>
       </c>
+      <c r="BE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2976,6 +3058,12 @@
       <c r="BD14" t="n">
         <v>0</v>
       </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3150,6 +3238,12 @@
       <c r="BD15" t="n">
         <v>981</v>
       </c>
+      <c r="BE15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3324,6 +3418,12 @@
       <c r="BD16" t="n">
         <v>0</v>
       </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3498,6 +3598,12 @@
       <c r="BD17" t="n">
         <v>821</v>
       </c>
+      <c r="BE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3672,6 +3778,12 @@
       <c r="BD18" t="n">
         <v>950</v>
       </c>
+      <c r="BE18" t="n">
+        <v>138</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3846,6 +3958,12 @@
       <c r="BD19" t="n">
         <v>349</v>
       </c>
+      <c r="BE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4020,6 +4138,12 @@
       <c r="BD20" t="n">
         <v>349</v>
       </c>
+      <c r="BE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4194,6 +4318,12 @@
       <c r="BD21" t="n">
         <v>0</v>
       </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4368,6 +4498,12 @@
       <c r="BD22" t="n">
         <v>0</v>
       </c>
+      <c r="BE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4542,6 +4678,12 @@
       <c r="BD23" t="n">
         <v>0</v>
       </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4716,6 +4858,12 @@
       <c r="BD24" t="n">
         <v>0</v>
       </c>
+      <c r="BE24" t="n">
+        <v>64</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4890,6 +5038,12 @@
       <c r="BD25" t="n">
         <v>901</v>
       </c>
+      <c r="BE25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5064,6 +5218,12 @@
       <c r="BD26" t="n">
         <v>623</v>
       </c>
+      <c r="BE26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5236,6 +5396,12 @@
         <v>0</v>
       </c>
       <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF27"/>
+  <dimension ref="A1:BH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,16 @@
           <t>CF天梯分_2022-02-04 08:17:09</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-05 08:17:03</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-05 08:17:03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -904,6 +914,12 @@
       <c r="BF2" t="n">
         <v>1783</v>
       </c>
+      <c r="BG2" t="n">
+        <v>730</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1084,6 +1100,12 @@
       <c r="BF3" t="n">
         <v>1014</v>
       </c>
+      <c r="BG3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1264,6 +1286,12 @@
       <c r="BF4" t="n">
         <v>1595</v>
       </c>
+      <c r="BG4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1444,6 +1472,12 @@
       <c r="BF5" t="n">
         <v>0</v>
       </c>
+      <c r="BG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1624,6 +1658,12 @@
       <c r="BF6" t="n">
         <v>1431</v>
       </c>
+      <c r="BG6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1804,6 +1844,12 @@
       <c r="BF7" t="n">
         <v>1407</v>
       </c>
+      <c r="BG7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1984,6 +2030,12 @@
       <c r="BF8" t="n">
         <v>365</v>
       </c>
+      <c r="BG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2164,6 +2216,12 @@
       <c r="BF9" t="n">
         <v>981</v>
       </c>
+      <c r="BG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2344,6 +2402,12 @@
       <c r="BF10" t="n">
         <v>362</v>
       </c>
+      <c r="BG10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2524,6 +2588,12 @@
       <c r="BF11" t="n">
         <v>883</v>
       </c>
+      <c r="BG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2704,6 +2774,12 @@
       <c r="BF12" t="n">
         <v>1597</v>
       </c>
+      <c r="BG12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2884,6 +2960,12 @@
       <c r="BF13" t="n">
         <v>442</v>
       </c>
+      <c r="BG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3064,6 +3146,12 @@
       <c r="BF14" t="n">
         <v>0</v>
       </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3244,6 +3332,12 @@
       <c r="BF15" t="n">
         <v>981</v>
       </c>
+      <c r="BG15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3424,6 +3518,12 @@
       <c r="BF16" t="n">
         <v>0</v>
       </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3604,6 +3704,12 @@
       <c r="BF17" t="n">
         <v>821</v>
       </c>
+      <c r="BG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3784,6 +3890,12 @@
       <c r="BF18" t="n">
         <v>950</v>
       </c>
+      <c r="BG18" t="n">
+        <v>138</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3964,6 +4076,12 @@
       <c r="BF19" t="n">
         <v>349</v>
       </c>
+      <c r="BG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4144,6 +4262,12 @@
       <c r="BF20" t="n">
         <v>349</v>
       </c>
+      <c r="BG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4324,6 +4448,12 @@
       <c r="BF21" t="n">
         <v>0</v>
       </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4504,6 +4634,12 @@
       <c r="BF22" t="n">
         <v>0</v>
       </c>
+      <c r="BG22" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4684,6 +4820,12 @@
       <c r="BF23" t="n">
         <v>0</v>
       </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4864,6 +5006,12 @@
       <c r="BF24" t="n">
         <v>0</v>
       </c>
+      <c r="BG24" t="n">
+        <v>64</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5044,6 +5192,12 @@
       <c r="BF25" t="n">
         <v>901</v>
       </c>
+      <c r="BG25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5224,6 +5378,12 @@
       <c r="BF26" t="n">
         <v>623</v>
       </c>
+      <c r="BG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5402,6 +5562,12 @@
         <v>0</v>
       </c>
       <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +734,16 @@
           <t>CF天梯分_2022-02-05 08:17:03</t>
         </is>
       </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-06 08:18:42</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-06 08:18:42</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -920,6 +930,12 @@
       <c r="BH2" t="n">
         <v>1783</v>
       </c>
+      <c r="BI2" t="n">
+        <v>730</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1106,6 +1122,12 @@
       <c r="BH3" t="n">
         <v>1014</v>
       </c>
+      <c r="BI3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1292,6 +1314,12 @@
       <c r="BH4" t="n">
         <v>1595</v>
       </c>
+      <c r="BI4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1478,6 +1506,12 @@
       <c r="BH5" t="n">
         <v>0</v>
       </c>
+      <c r="BI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1664,6 +1698,12 @@
       <c r="BH6" t="n">
         <v>1431</v>
       </c>
+      <c r="BI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1850,6 +1890,12 @@
       <c r="BH7" t="n">
         <v>1407</v>
       </c>
+      <c r="BI7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2036,6 +2082,12 @@
       <c r="BH8" t="n">
         <v>365</v>
       </c>
+      <c r="BI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2222,6 +2274,12 @@
       <c r="BH9" t="n">
         <v>981</v>
       </c>
+      <c r="BI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2408,6 +2466,12 @@
       <c r="BH10" t="n">
         <v>362</v>
       </c>
+      <c r="BI10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2594,6 +2658,12 @@
       <c r="BH11" t="n">
         <v>883</v>
       </c>
+      <c r="BI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2780,6 +2850,12 @@
       <c r="BH12" t="n">
         <v>1597</v>
       </c>
+      <c r="BI12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2966,6 +3042,12 @@
       <c r="BH13" t="n">
         <v>442</v>
       </c>
+      <c r="BI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3152,6 +3234,12 @@
       <c r="BH14" t="n">
         <v>0</v>
       </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3338,6 +3426,12 @@
       <c r="BH15" t="n">
         <v>981</v>
       </c>
+      <c r="BI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3524,6 +3618,12 @@
       <c r="BH16" t="n">
         <v>0</v>
       </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3710,6 +3810,12 @@
       <c r="BH17" t="n">
         <v>821</v>
       </c>
+      <c r="BI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3896,6 +4002,12 @@
       <c r="BH18" t="n">
         <v>950</v>
       </c>
+      <c r="BI18" t="n">
+        <v>146</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4082,6 +4194,12 @@
       <c r="BH19" t="n">
         <v>349</v>
       </c>
+      <c r="BI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4268,6 +4386,12 @@
       <c r="BH20" t="n">
         <v>349</v>
       </c>
+      <c r="BI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4454,6 +4578,12 @@
       <c r="BH21" t="n">
         <v>0</v>
       </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4640,6 +4770,12 @@
       <c r="BH22" t="n">
         <v>0</v>
       </c>
+      <c r="BI22" t="n">
+        <v>31</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4826,6 +4962,12 @@
       <c r="BH23" t="n">
         <v>0</v>
       </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5012,6 +5154,12 @@
       <c r="BH24" t="n">
         <v>0</v>
       </c>
+      <c r="BI24" t="n">
+        <v>64</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5198,6 +5346,12 @@
       <c r="BH25" t="n">
         <v>901</v>
       </c>
+      <c r="BI25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5384,6 +5538,12 @@
       <c r="BH26" t="n">
         <v>623</v>
       </c>
+      <c r="BI26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5568,6 +5728,12 @@
         <v>0</v>
       </c>
       <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ27"/>
+  <dimension ref="A1:BL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,16 @@
           <t>CF天梯分_2022-02-06 08:18:42</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-07 08:20:14</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-07 08:20:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -936,6 +946,12 @@
       <c r="BJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="BK2" t="n">
+        <v>730</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1128,6 +1144,12 @@
       <c r="BJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="BK3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1320,6 +1342,12 @@
       <c r="BJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="BK4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1512,6 +1540,12 @@
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
+      <c r="BK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1704,6 +1738,12 @@
       <c r="BJ6" t="n">
         <v>1431</v>
       </c>
+      <c r="BK6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1896,6 +1936,12 @@
       <c r="BJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="BK7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2088,6 +2134,12 @@
       <c r="BJ8" t="n">
         <v>365</v>
       </c>
+      <c r="BK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2280,6 +2332,12 @@
       <c r="BJ9" t="n">
         <v>981</v>
       </c>
+      <c r="BK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2472,6 +2530,12 @@
       <c r="BJ10" t="n">
         <v>362</v>
       </c>
+      <c r="BK10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2664,6 +2728,12 @@
       <c r="BJ11" t="n">
         <v>883</v>
       </c>
+      <c r="BK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2856,6 +2926,12 @@
       <c r="BJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="BK12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3048,6 +3124,12 @@
       <c r="BJ13" t="n">
         <v>442</v>
       </c>
+      <c r="BK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3240,6 +3322,12 @@
       <c r="BJ14" t="n">
         <v>0</v>
       </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3432,6 +3520,12 @@
       <c r="BJ15" t="n">
         <v>981</v>
       </c>
+      <c r="BK15" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3624,6 +3718,12 @@
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3816,6 +3916,12 @@
       <c r="BJ17" t="n">
         <v>821</v>
       </c>
+      <c r="BK17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4008,6 +4114,12 @@
       <c r="BJ18" t="n">
         <v>950</v>
       </c>
+      <c r="BK18" t="n">
+        <v>147</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4200,6 +4312,12 @@
       <c r="BJ19" t="n">
         <v>349</v>
       </c>
+      <c r="BK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4392,6 +4510,12 @@
       <c r="BJ20" t="n">
         <v>349</v>
       </c>
+      <c r="BK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4584,6 +4708,12 @@
       <c r="BJ21" t="n">
         <v>0</v>
       </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4776,6 +4906,12 @@
       <c r="BJ22" t="n">
         <v>0</v>
       </c>
+      <c r="BK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4968,6 +5104,12 @@
       <c r="BJ23" t="n">
         <v>0</v>
       </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5160,6 +5302,12 @@
       <c r="BJ24" t="n">
         <v>0</v>
       </c>
+      <c r="BK24" t="n">
+        <v>77</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5352,6 +5500,12 @@
       <c r="BJ25" t="n">
         <v>901</v>
       </c>
+      <c r="BK25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5544,6 +5698,12 @@
       <c r="BJ26" t="n">
         <v>623</v>
       </c>
+      <c r="BK26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5734,6 +5894,12 @@
         <v>0</v>
       </c>
       <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:BN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +754,16 @@
           <t>CF天梯分_2022-02-07 08:20:14</t>
         </is>
       </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-08 08:19:51</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-08 08:19:51</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -952,6 +962,12 @@
       <c r="BL2" t="n">
         <v>1783</v>
       </c>
+      <c r="BM2" t="n">
+        <v>730</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1150,6 +1166,12 @@
       <c r="BL3" t="n">
         <v>1014</v>
       </c>
+      <c r="BM3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1348,6 +1370,12 @@
       <c r="BL4" t="n">
         <v>1595</v>
       </c>
+      <c r="BM4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1546,6 +1574,12 @@
       <c r="BL5" t="n">
         <v>0</v>
       </c>
+      <c r="BM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1744,6 +1778,12 @@
       <c r="BL6" t="n">
         <v>1431</v>
       </c>
+      <c r="BM6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1942,6 +1982,12 @@
       <c r="BL7" t="n">
         <v>1407</v>
       </c>
+      <c r="BM7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2140,6 +2186,12 @@
       <c r="BL8" t="n">
         <v>365</v>
       </c>
+      <c r="BM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2338,6 +2390,12 @@
       <c r="BL9" t="n">
         <v>981</v>
       </c>
+      <c r="BM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2536,6 +2594,12 @@
       <c r="BL10" t="n">
         <v>362</v>
       </c>
+      <c r="BM10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2734,6 +2798,12 @@
       <c r="BL11" t="n">
         <v>883</v>
       </c>
+      <c r="BM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2932,6 +3002,12 @@
       <c r="BL12" t="n">
         <v>1597</v>
       </c>
+      <c r="BM12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3130,6 +3206,12 @@
       <c r="BL13" t="n">
         <v>442</v>
       </c>
+      <c r="BM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3328,6 +3410,12 @@
       <c r="BL14" t="n">
         <v>0</v>
       </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3526,6 +3614,12 @@
       <c r="BL15" t="n">
         <v>917</v>
       </c>
+      <c r="BM15" t="n">
+        <v>35</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3724,6 +3818,12 @@
       <c r="BL16" t="n">
         <v>0</v>
       </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3922,6 +4022,12 @@
       <c r="BL17" t="n">
         <v>821</v>
       </c>
+      <c r="BM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4120,6 +4226,12 @@
       <c r="BL18" t="n">
         <v>935</v>
       </c>
+      <c r="BM18" t="n">
+        <v>147</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4318,6 +4430,12 @@
       <c r="BL19" t="n">
         <v>349</v>
       </c>
+      <c r="BM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4516,6 +4634,12 @@
       <c r="BL20" t="n">
         <v>349</v>
       </c>
+      <c r="BM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4714,6 +4838,12 @@
       <c r="BL21" t="n">
         <v>0</v>
       </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4912,6 +5042,12 @@
       <c r="BL22" t="n">
         <v>0</v>
       </c>
+      <c r="BM22" t="n">
+        <v>43</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5110,6 +5246,12 @@
       <c r="BL23" t="n">
         <v>0</v>
       </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5308,6 +5450,12 @@
       <c r="BL24" t="n">
         <v>0</v>
       </c>
+      <c r="BM24" t="n">
+        <v>77</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5506,6 +5654,12 @@
       <c r="BL25" t="n">
         <v>901</v>
       </c>
+      <c r="BM25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5704,6 +5858,12 @@
       <c r="BL26" t="n">
         <v>623</v>
       </c>
+      <c r="BM26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5900,6 +6060,12 @@
         <v>0</v>
       </c>
       <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN27"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,16 @@
           <t>CF天梯分_2022-02-08 08:19:51</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-09 08:20:31</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-09 08:20:31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -968,6 +978,12 @@
       <c r="BN2" t="n">
         <v>1783</v>
       </c>
+      <c r="BO2" t="n">
+        <v>731</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1172,6 +1188,12 @@
       <c r="BN3" t="n">
         <v>1014</v>
       </c>
+      <c r="BO3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1376,6 +1398,12 @@
       <c r="BN4" t="n">
         <v>1595</v>
       </c>
+      <c r="BO4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1580,6 +1608,12 @@
       <c r="BN5" t="n">
         <v>0</v>
       </c>
+      <c r="BO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1784,6 +1818,12 @@
       <c r="BN6" t="n">
         <v>1431</v>
       </c>
+      <c r="BO6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1988,6 +2028,12 @@
       <c r="BN7" t="n">
         <v>1407</v>
       </c>
+      <c r="BO7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2192,6 +2238,12 @@
       <c r="BN8" t="n">
         <v>365</v>
       </c>
+      <c r="BO8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2396,6 +2448,12 @@
       <c r="BN9" t="n">
         <v>981</v>
       </c>
+      <c r="BO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2600,6 +2658,12 @@
       <c r="BN10" t="n">
         <v>362</v>
       </c>
+      <c r="BO10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2804,6 +2868,12 @@
       <c r="BN11" t="n">
         <v>883</v>
       </c>
+      <c r="BO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3008,6 +3078,12 @@
       <c r="BN12" t="n">
         <v>1597</v>
       </c>
+      <c r="BO12" t="n">
+        <v>179</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3212,6 +3288,12 @@
       <c r="BN13" t="n">
         <v>442</v>
       </c>
+      <c r="BO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3416,6 +3498,12 @@
       <c r="BN14" t="n">
         <v>0</v>
       </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3620,6 +3708,12 @@
       <c r="BN15" t="n">
         <v>917</v>
       </c>
+      <c r="BO15" t="n">
+        <v>35</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3824,6 +3918,12 @@
       <c r="BN16" t="n">
         <v>0</v>
       </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4028,6 +4128,12 @@
       <c r="BN17" t="n">
         <v>821</v>
       </c>
+      <c r="BO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4232,6 +4338,12 @@
       <c r="BN18" t="n">
         <v>935</v>
       </c>
+      <c r="BO18" t="n">
+        <v>152</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4436,6 +4548,12 @@
       <c r="BN19" t="n">
         <v>349</v>
       </c>
+      <c r="BO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4640,6 +4758,12 @@
       <c r="BN20" t="n">
         <v>349</v>
       </c>
+      <c r="BO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4844,6 +4968,12 @@
       <c r="BN21" t="n">
         <v>0</v>
       </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5048,6 +5178,12 @@
       <c r="BN22" t="n">
         <v>0</v>
       </c>
+      <c r="BO22" t="n">
+        <v>53</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5252,6 +5388,12 @@
       <c r="BN23" t="n">
         <v>0</v>
       </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5456,6 +5598,12 @@
       <c r="BN24" t="n">
         <v>0</v>
       </c>
+      <c r="BO24" t="n">
+        <v>77</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5660,6 +5808,12 @@
       <c r="BN25" t="n">
         <v>901</v>
       </c>
+      <c r="BO25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5864,6 +6018,12 @@
       <c r="BN26" t="n">
         <v>623</v>
       </c>
+      <c r="BO26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6066,6 +6226,12 @@
         <v>0</v>
       </c>
       <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,6 +774,16 @@
           <t>CF天梯分_2022-02-09 08:20:31</t>
         </is>
       </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-10 08:19:33</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-10 08:19:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -984,6 +994,12 @@
       <c r="BP2" t="n">
         <v>1783</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>732</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1194,6 +1210,12 @@
       <c r="BP3" t="n">
         <v>1014</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1404,6 +1426,12 @@
       <c r="BP4" t="n">
         <v>1595</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1614,6 +1642,12 @@
       <c r="BP5" t="n">
         <v>0</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1824,6 +1858,12 @@
       <c r="BP6" t="n">
         <v>1431</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2034,6 +2074,12 @@
       <c r="BP7" t="n">
         <v>1407</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2244,6 +2290,12 @@
       <c r="BP8" t="n">
         <v>365</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2454,6 +2506,12 @@
       <c r="BP9" t="n">
         <v>981</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2664,6 +2722,12 @@
       <c r="BP10" t="n">
         <v>362</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2874,6 +2938,12 @@
       <c r="BP11" t="n">
         <v>883</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3084,6 +3154,12 @@
       <c r="BP12" t="n">
         <v>1597</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>179</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3294,6 +3370,12 @@
       <c r="BP13" t="n">
         <v>442</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3504,6 +3586,12 @@
       <c r="BP14" t="n">
         <v>0</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3714,6 +3802,12 @@
       <c r="BP15" t="n">
         <v>917</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>35</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3924,6 +4018,12 @@
       <c r="BP16" t="n">
         <v>0</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4134,6 +4234,12 @@
       <c r="BP17" t="n">
         <v>821</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4344,6 +4450,12 @@
       <c r="BP18" t="n">
         <v>935</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>159</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4554,6 +4666,12 @@
       <c r="BP19" t="n">
         <v>349</v>
       </c>
+      <c r="BQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4764,6 +4882,12 @@
       <c r="BP20" t="n">
         <v>349</v>
       </c>
+      <c r="BQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4974,6 +5098,12 @@
       <c r="BP21" t="n">
         <v>0</v>
       </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5184,6 +5314,12 @@
       <c r="BP22" t="n">
         <v>0</v>
       </c>
+      <c r="BQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5394,6 +5530,12 @@
       <c r="BP23" t="n">
         <v>0</v>
       </c>
+      <c r="BQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5604,6 +5746,12 @@
       <c r="BP24" t="n">
         <v>0</v>
       </c>
+      <c r="BQ24" t="n">
+        <v>77</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5814,6 +5962,12 @@
       <c r="BP25" t="n">
         <v>901</v>
       </c>
+      <c r="BQ25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6024,6 +6178,12 @@
       <c r="BP26" t="n">
         <v>623</v>
       </c>
+      <c r="BQ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6232,6 +6392,12 @@
         <v>0</v>
       </c>
       <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR27"/>
+  <dimension ref="A1:BT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,6 +784,16 @@
           <t>CF天梯分_2022-02-10 08:19:33</t>
         </is>
       </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-11 08:19:34</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-11 08:19:34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1000,6 +1010,12 @@
       <c r="BR2" t="n">
         <v>1783</v>
       </c>
+      <c r="BS2" t="n">
+        <v>733</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1216,6 +1232,12 @@
       <c r="BR3" t="n">
         <v>1014</v>
       </c>
+      <c r="BS3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1432,6 +1454,12 @@
       <c r="BR4" t="n">
         <v>1595</v>
       </c>
+      <c r="BS4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1648,6 +1676,12 @@
       <c r="BR5" t="n">
         <v>0</v>
       </c>
+      <c r="BS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1864,6 +1898,12 @@
       <c r="BR6" t="n">
         <v>1431</v>
       </c>
+      <c r="BS6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2080,6 +2120,12 @@
       <c r="BR7" t="n">
         <v>1407</v>
       </c>
+      <c r="BS7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2296,6 +2342,12 @@
       <c r="BR8" t="n">
         <v>365</v>
       </c>
+      <c r="BS8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2512,6 +2564,12 @@
       <c r="BR9" t="n">
         <v>981</v>
       </c>
+      <c r="BS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2728,6 +2786,12 @@
       <c r="BR10" t="n">
         <v>362</v>
       </c>
+      <c r="BS10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2944,6 +3008,12 @@
       <c r="BR11" t="n">
         <v>883</v>
       </c>
+      <c r="BS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3160,6 +3230,12 @@
       <c r="BR12" t="n">
         <v>1597</v>
       </c>
+      <c r="BS12" t="n">
+        <v>179</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3376,6 +3452,12 @@
       <c r="BR13" t="n">
         <v>442</v>
       </c>
+      <c r="BS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3592,6 +3674,12 @@
       <c r="BR14" t="n">
         <v>0</v>
       </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3808,6 +3896,12 @@
       <c r="BR15" t="n">
         <v>917</v>
       </c>
+      <c r="BS15" t="n">
+        <v>35</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4024,6 +4118,12 @@
       <c r="BR16" t="n">
         <v>0</v>
       </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4240,6 +4340,12 @@
       <c r="BR17" t="n">
         <v>821</v>
       </c>
+      <c r="BS17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4456,6 +4562,12 @@
       <c r="BR18" t="n">
         <v>935</v>
       </c>
+      <c r="BS18" t="n">
+        <v>161</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4672,6 +4784,12 @@
       <c r="BR19" t="n">
         <v>349</v>
       </c>
+      <c r="BS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4888,6 +5006,12 @@
       <c r="BR20" t="n">
         <v>349</v>
       </c>
+      <c r="BS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5104,6 +5228,12 @@
       <c r="BR21" t="n">
         <v>0</v>
       </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5320,6 +5450,12 @@
       <c r="BR22" t="n">
         <v>0</v>
       </c>
+      <c r="BS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5536,6 +5672,12 @@
       <c r="BR23" t="n">
         <v>0</v>
       </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5752,6 +5894,12 @@
       <c r="BR24" t="n">
         <v>0</v>
       </c>
+      <c r="BS24" t="n">
+        <v>86</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5968,6 +6116,12 @@
       <c r="BR25" t="n">
         <v>901</v>
       </c>
+      <c r="BS25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6184,6 +6338,12 @@
       <c r="BR26" t="n">
         <v>623</v>
       </c>
+      <c r="BS26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6398,6 +6558,12 @@
         <v>0</v>
       </c>
       <c r="BR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT27"/>
+  <dimension ref="A1:BV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,6 +794,16 @@
           <t>CF天梯分_2022-02-11 08:19:34</t>
         </is>
       </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-12 08:19:28</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-12 08:19:28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1016,6 +1026,12 @@
       <c r="BT2" t="n">
         <v>1783</v>
       </c>
+      <c r="BU2" t="n">
+        <v>733</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1238,6 +1254,12 @@
       <c r="BT3" t="n">
         <v>1014</v>
       </c>
+      <c r="BU3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1460,6 +1482,12 @@
       <c r="BT4" t="n">
         <v>1595</v>
       </c>
+      <c r="BU4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1682,6 +1710,12 @@
       <c r="BT5" t="n">
         <v>0</v>
       </c>
+      <c r="BU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1904,6 +1938,12 @@
       <c r="BT6" t="n">
         <v>1431</v>
       </c>
+      <c r="BU6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2126,6 +2166,12 @@
       <c r="BT7" t="n">
         <v>1407</v>
       </c>
+      <c r="BU7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2348,6 +2394,12 @@
       <c r="BT8" t="n">
         <v>365</v>
       </c>
+      <c r="BU8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2570,6 +2622,12 @@
       <c r="BT9" t="n">
         <v>981</v>
       </c>
+      <c r="BU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2792,6 +2850,12 @@
       <c r="BT10" t="n">
         <v>362</v>
       </c>
+      <c r="BU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3014,6 +3078,12 @@
       <c r="BT11" t="n">
         <v>883</v>
       </c>
+      <c r="BU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3236,6 +3306,12 @@
       <c r="BT12" t="n">
         <v>1597</v>
       </c>
+      <c r="BU12" t="n">
+        <v>179</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3458,6 +3534,12 @@
       <c r="BT13" t="n">
         <v>442</v>
       </c>
+      <c r="BU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3680,6 +3762,12 @@
       <c r="BT14" t="n">
         <v>0</v>
       </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3902,6 +3990,12 @@
       <c r="BT15" t="n">
         <v>917</v>
       </c>
+      <c r="BU15" t="n">
+        <v>35</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4124,6 +4218,12 @@
       <c r="BT16" t="n">
         <v>0</v>
       </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4346,6 +4446,12 @@
       <c r="BT17" t="n">
         <v>821</v>
       </c>
+      <c r="BU17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4568,6 +4674,12 @@
       <c r="BT18" t="n">
         <v>935</v>
       </c>
+      <c r="BU18" t="n">
+        <v>161</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4790,6 +4902,12 @@
       <c r="BT19" t="n">
         <v>349</v>
       </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5012,6 +5130,12 @@
       <c r="BT20" t="n">
         <v>349</v>
       </c>
+      <c r="BU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5234,6 +5358,12 @@
       <c r="BT21" t="n">
         <v>0</v>
       </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5456,6 +5586,12 @@
       <c r="BT22" t="n">
         <v>0</v>
       </c>
+      <c r="BU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5678,6 +5814,12 @@
       <c r="BT23" t="n">
         <v>0</v>
       </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5900,6 +6042,12 @@
       <c r="BT24" t="n">
         <v>0</v>
       </c>
+      <c r="BU24" t="n">
+        <v>86</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6122,6 +6270,12 @@
       <c r="BT25" t="n">
         <v>901</v>
       </c>
+      <c r="BU25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6344,6 +6498,12 @@
       <c r="BT26" t="n">
         <v>623</v>
       </c>
+      <c r="BU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6564,6 +6724,12 @@
         <v>0</v>
       </c>
       <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV27"/>
+  <dimension ref="A1:BX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,6 +804,16 @@
           <t>CF天梯分_2022-02-12 08:19:28</t>
         </is>
       </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-13 08:19:32</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-13 08:19:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1032,6 +1042,12 @@
       <c r="BV2" t="n">
         <v>1783</v>
       </c>
+      <c r="BW2" t="n">
+        <v>733</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1260,6 +1276,12 @@
       <c r="BV3" t="n">
         <v>1014</v>
       </c>
+      <c r="BW3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1488,6 +1510,12 @@
       <c r="BV4" t="n">
         <v>1595</v>
       </c>
+      <c r="BW4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1716,6 +1744,12 @@
       <c r="BV5" t="n">
         <v>0</v>
       </c>
+      <c r="BW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1944,6 +1978,12 @@
       <c r="BV6" t="n">
         <v>1431</v>
       </c>
+      <c r="BW6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2172,6 +2212,12 @@
       <c r="BV7" t="n">
         <v>1407</v>
       </c>
+      <c r="BW7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2400,6 +2446,12 @@
       <c r="BV8" t="n">
         <v>365</v>
       </c>
+      <c r="BW8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2628,6 +2680,12 @@
       <c r="BV9" t="n">
         <v>981</v>
       </c>
+      <c r="BW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2856,6 +2914,12 @@
       <c r="BV10" t="n">
         <v>362</v>
       </c>
+      <c r="BW10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3084,6 +3148,12 @@
       <c r="BV11" t="n">
         <v>883</v>
       </c>
+      <c r="BW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3312,6 +3382,12 @@
       <c r="BV12" t="n">
         <v>1597</v>
       </c>
+      <c r="BW12" t="n">
+        <v>179</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3540,6 +3616,12 @@
       <c r="BV13" t="n">
         <v>442</v>
       </c>
+      <c r="BW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3768,6 +3850,12 @@
       <c r="BV14" t="n">
         <v>0</v>
       </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3996,6 +4084,12 @@
       <c r="BV15" t="n">
         <v>917</v>
       </c>
+      <c r="BW15" t="n">
+        <v>36</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4224,6 +4318,12 @@
       <c r="BV16" t="n">
         <v>0</v>
       </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4452,6 +4552,12 @@
       <c r="BV17" t="n">
         <v>821</v>
       </c>
+      <c r="BW17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4680,6 +4786,12 @@
       <c r="BV18" t="n">
         <v>935</v>
       </c>
+      <c r="BW18" t="n">
+        <v>161</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4908,6 +5020,12 @@
       <c r="BV19" t="n">
         <v>349</v>
       </c>
+      <c r="BW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5136,6 +5254,12 @@
       <c r="BV20" t="n">
         <v>349</v>
       </c>
+      <c r="BW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5364,6 +5488,12 @@
       <c r="BV21" t="n">
         <v>0</v>
       </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5592,6 +5722,12 @@
       <c r="BV22" t="n">
         <v>0</v>
       </c>
+      <c r="BW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5820,6 +5956,12 @@
       <c r="BV23" t="n">
         <v>0</v>
       </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6048,6 +6190,12 @@
       <c r="BV24" t="n">
         <v>0</v>
       </c>
+      <c r="BW24" t="n">
+        <v>86</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6276,6 +6424,12 @@
       <c r="BV25" t="n">
         <v>901</v>
       </c>
+      <c r="BW25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6504,6 +6658,12 @@
       <c r="BV26" t="n">
         <v>623</v>
       </c>
+      <c r="BW26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6730,6 +6890,12 @@
         <v>0</v>
       </c>
       <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX27"/>
+  <dimension ref="A1:BZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,6 +814,16 @@
           <t>CF天梯分_2022-02-13 08:19:32</t>
         </is>
       </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-14 08:20:28</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-14 08:20:28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1048,6 +1058,12 @@
       <c r="BX2" t="n">
         <v>1783</v>
       </c>
+      <c r="BY2" t="n">
+        <v>733</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1298,12 @@
       <c r="BX3" t="n">
         <v>1014</v>
       </c>
+      <c r="BY3" t="n">
+        <v>84</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1516,6 +1538,12 @@
       <c r="BX4" t="n">
         <v>1595</v>
       </c>
+      <c r="BY4" t="n">
+        <v>395</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1750,6 +1778,12 @@
       <c r="BX5" t="n">
         <v>0</v>
       </c>
+      <c r="BY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1984,6 +2018,12 @@
       <c r="BX6" t="n">
         <v>1431</v>
       </c>
+      <c r="BY6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2218,6 +2258,12 @@
       <c r="BX7" t="n">
         <v>1407</v>
       </c>
+      <c r="BY7" t="n">
+        <v>131</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2452,6 +2498,12 @@
       <c r="BX8" t="n">
         <v>365</v>
       </c>
+      <c r="BY8" t="n">
+        <v>36</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2686,6 +2738,12 @@
       <c r="BX9" t="n">
         <v>981</v>
       </c>
+      <c r="BY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2920,6 +2978,12 @@
       <c r="BX10" t="n">
         <v>362</v>
       </c>
+      <c r="BY10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3154,6 +3218,12 @@
       <c r="BX11" t="n">
         <v>883</v>
       </c>
+      <c r="BY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3388,6 +3458,12 @@
       <c r="BX12" t="n">
         <v>1597</v>
       </c>
+      <c r="BY12" t="n">
+        <v>179</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3622,6 +3698,12 @@
       <c r="BX13" t="n">
         <v>442</v>
       </c>
+      <c r="BY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3856,6 +3938,12 @@
       <c r="BX14" t="n">
         <v>0</v>
       </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4090,6 +4178,12 @@
       <c r="BX15" t="n">
         <v>940</v>
       </c>
+      <c r="BY15" t="n">
+        <v>36</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4324,6 +4418,12 @@
       <c r="BX16" t="n">
         <v>0</v>
       </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4558,6 +4658,12 @@
       <c r="BX17" t="n">
         <v>821</v>
       </c>
+      <c r="BY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4792,6 +4898,12 @@
       <c r="BX18" t="n">
         <v>936</v>
       </c>
+      <c r="BY18" t="n">
+        <v>161</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5026,6 +5138,12 @@
       <c r="BX19" t="n">
         <v>349</v>
       </c>
+      <c r="BY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5260,6 +5378,12 @@
       <c r="BX20" t="n">
         <v>349</v>
       </c>
+      <c r="BY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5494,6 +5618,12 @@
       <c r="BX21" t="n">
         <v>0</v>
       </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5728,6 +5858,12 @@
       <c r="BX22" t="n">
         <v>0</v>
       </c>
+      <c r="BY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5962,6 +6098,12 @@
       <c r="BX23" t="n">
         <v>0</v>
       </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6196,6 +6338,12 @@
       <c r="BX24" t="n">
         <v>0</v>
       </c>
+      <c r="BY24" t="n">
+        <v>86</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6430,6 +6578,12 @@
       <c r="BX25" t="n">
         <v>901</v>
       </c>
+      <c r="BY25" t="n">
+        <v>31</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6664,6 +6818,12 @@
       <c r="BX26" t="n">
         <v>623</v>
       </c>
+      <c r="BY26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6896,6 +7056,12 @@
         <v>0</v>
       </c>
       <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ27"/>
+  <dimension ref="A1:CB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,6 +824,16 @@
           <t>CF天梯分_2022-02-14 08:20:28</t>
         </is>
       </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-15 08:20:04</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-15 08:20:04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1064,6 +1074,12 @@
       <c r="BZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="CA2" t="n">
+        <v>733</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1304,6 +1320,12 @@
       <c r="BZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="CA3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1544,6 +1566,12 @@
       <c r="BZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="CA4" t="n">
+        <v>395</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1784,6 +1812,12 @@
       <c r="BZ5" t="n">
         <v>0</v>
       </c>
+      <c r="CA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2024,6 +2058,12 @@
       <c r="BZ6" t="n">
         <v>1431</v>
       </c>
+      <c r="CA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2264,6 +2304,12 @@
       <c r="BZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="CA7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2504,6 +2550,12 @@
       <c r="BZ8" t="n">
         <v>365</v>
       </c>
+      <c r="CA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2744,6 +2796,12 @@
       <c r="BZ9" t="n">
         <v>981</v>
       </c>
+      <c r="CA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2984,6 +3042,12 @@
       <c r="BZ10" t="n">
         <v>362</v>
       </c>
+      <c r="CA10" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3224,6 +3288,12 @@
       <c r="BZ11" t="n">
         <v>883</v>
       </c>
+      <c r="CA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3464,6 +3534,12 @@
       <c r="BZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="CA12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3704,6 +3780,12 @@
       <c r="BZ13" t="n">
         <v>442</v>
       </c>
+      <c r="CA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3944,6 +4026,12 @@
       <c r="BZ14" t="n">
         <v>0</v>
       </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4184,6 +4272,12 @@
       <c r="BZ15" t="n">
         <v>940</v>
       </c>
+      <c r="CA15" t="n">
+        <v>38</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>1028</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4424,6 +4518,12 @@
       <c r="BZ16" t="n">
         <v>0</v>
       </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4664,6 +4764,12 @@
       <c r="BZ17" t="n">
         <v>821</v>
       </c>
+      <c r="CA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4904,6 +5010,12 @@
       <c r="BZ18" t="n">
         <v>936</v>
       </c>
+      <c r="CA18" t="n">
+        <v>161</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5144,6 +5256,12 @@
       <c r="BZ19" t="n">
         <v>349</v>
       </c>
+      <c r="CA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5384,6 +5502,12 @@
       <c r="BZ20" t="n">
         <v>349</v>
       </c>
+      <c r="CA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5624,6 +5748,12 @@
       <c r="BZ21" t="n">
         <v>0</v>
       </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5864,6 +5994,12 @@
       <c r="BZ22" t="n">
         <v>0</v>
       </c>
+      <c r="CA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6104,6 +6240,12 @@
       <c r="BZ23" t="n">
         <v>0</v>
       </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6344,6 +6486,12 @@
       <c r="BZ24" t="n">
         <v>0</v>
       </c>
+      <c r="CA24" t="n">
+        <v>86</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6584,6 +6732,12 @@
       <c r="BZ25" t="n">
         <v>901</v>
       </c>
+      <c r="CA25" t="n">
+        <v>31</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6824,6 +6978,12 @@
       <c r="BZ26" t="n">
         <v>623</v>
       </c>
+      <c r="CA26" t="n">
+        <v>15</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7062,6 +7222,12 @@
         <v>0</v>
       </c>
       <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB27"/>
+  <dimension ref="A1:CD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,6 +834,16 @@
           <t>CF天梯分_2022-02-15 08:20:04</t>
         </is>
       </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-16 08:19:52</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-16 08:19:52</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1080,6 +1090,12 @@
       <c r="CB2" t="n">
         <v>1783</v>
       </c>
+      <c r="CC2" t="n">
+        <v>733</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1326,6 +1342,12 @@
       <c r="CB3" t="n">
         <v>1014</v>
       </c>
+      <c r="CC3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1572,6 +1594,12 @@
       <c r="CB4" t="n">
         <v>1595</v>
       </c>
+      <c r="CC4" t="n">
+        <v>395</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1818,6 +1846,12 @@
       <c r="CB5" t="n">
         <v>0</v>
       </c>
+      <c r="CC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2064,6 +2098,12 @@
       <c r="CB6" t="n">
         <v>1431</v>
       </c>
+      <c r="CC6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2310,6 +2350,12 @@
       <c r="CB7" t="n">
         <v>1407</v>
       </c>
+      <c r="CC7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2556,6 +2602,12 @@
       <c r="CB8" t="n">
         <v>365</v>
       </c>
+      <c r="CC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2802,6 +2854,12 @@
       <c r="CB9" t="n">
         <v>981</v>
       </c>
+      <c r="CC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3048,6 +3106,12 @@
       <c r="CB10" t="n">
         <v>362</v>
       </c>
+      <c r="CC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3294,6 +3358,12 @@
       <c r="CB11" t="n">
         <v>883</v>
       </c>
+      <c r="CC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3540,6 +3610,12 @@
       <c r="CB12" t="n">
         <v>1597</v>
       </c>
+      <c r="CC12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3786,6 +3862,12 @@
       <c r="CB13" t="n">
         <v>442</v>
       </c>
+      <c r="CC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4032,6 +4114,12 @@
       <c r="CB14" t="n">
         <v>0</v>
       </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4278,6 +4366,12 @@
       <c r="CB15" t="n">
         <v>1028</v>
       </c>
+      <c r="CC15" t="n">
+        <v>39</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>1028</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4524,6 +4618,12 @@
       <c r="CB16" t="n">
         <v>0</v>
       </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4770,6 +4870,12 @@
       <c r="CB17" t="n">
         <v>821</v>
       </c>
+      <c r="CC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5016,6 +5122,12 @@
       <c r="CB18" t="n">
         <v>936</v>
       </c>
+      <c r="CC18" t="n">
+        <v>161</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5262,6 +5374,12 @@
       <c r="CB19" t="n">
         <v>349</v>
       </c>
+      <c r="CC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5508,6 +5626,12 @@
       <c r="CB20" t="n">
         <v>349</v>
       </c>
+      <c r="CC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5754,6 +5878,12 @@
       <c r="CB21" t="n">
         <v>0</v>
       </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6000,6 +6130,12 @@
       <c r="CB22" t="n">
         <v>0</v>
       </c>
+      <c r="CC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6246,6 +6382,12 @@
       <c r="CB23" t="n">
         <v>0</v>
       </c>
+      <c r="CC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6492,6 +6634,12 @@
       <c r="CB24" t="n">
         <v>0</v>
       </c>
+      <c r="CC24" t="n">
+        <v>108</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6738,6 +6886,12 @@
       <c r="CB25" t="n">
         <v>901</v>
       </c>
+      <c r="CC25" t="n">
+        <v>31</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6984,6 +7138,12 @@
       <c r="CB26" t="n">
         <v>623</v>
       </c>
+      <c r="CC26" t="n">
+        <v>15</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7228,6 +7388,12 @@
         <v>0</v>
       </c>
       <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD27"/>
+  <dimension ref="A1:CF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,6 +844,16 @@
           <t>CF天梯分_2022-02-16 08:19:52</t>
         </is>
       </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-17 08:19:51</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-17 08:19:51</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1096,6 +1106,12 @@
       <c r="CD2" t="n">
         <v>1783</v>
       </c>
+      <c r="CE2" t="n">
+        <v>735</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1348,6 +1364,12 @@
       <c r="CD3" t="n">
         <v>1014</v>
       </c>
+      <c r="CE3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1600,6 +1622,12 @@
       <c r="CD4" t="n">
         <v>1595</v>
       </c>
+      <c r="CE4" t="n">
+        <v>395</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1852,6 +1880,12 @@
       <c r="CD5" t="n">
         <v>0</v>
       </c>
+      <c r="CE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2104,6 +2138,12 @@
       <c r="CD6" t="n">
         <v>1431</v>
       </c>
+      <c r="CE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2356,6 +2396,12 @@
       <c r="CD7" t="n">
         <v>1407</v>
       </c>
+      <c r="CE7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2608,6 +2654,12 @@
       <c r="CD8" t="n">
         <v>365</v>
       </c>
+      <c r="CE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2860,6 +2912,12 @@
       <c r="CD9" t="n">
         <v>981</v>
       </c>
+      <c r="CE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3112,6 +3170,12 @@
       <c r="CD10" t="n">
         <v>362</v>
       </c>
+      <c r="CE10" t="n">
+        <v>9</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3364,6 +3428,12 @@
       <c r="CD11" t="n">
         <v>883</v>
       </c>
+      <c r="CE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3616,6 +3686,12 @@
       <c r="CD12" t="n">
         <v>1597</v>
       </c>
+      <c r="CE12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3868,6 +3944,12 @@
       <c r="CD13" t="n">
         <v>442</v>
       </c>
+      <c r="CE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4120,6 +4202,12 @@
       <c r="CD14" t="n">
         <v>0</v>
       </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4372,6 +4460,12 @@
       <c r="CD15" t="n">
         <v>1028</v>
       </c>
+      <c r="CE15" t="n">
+        <v>42</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>1028</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4624,6 +4718,12 @@
       <c r="CD16" t="n">
         <v>0</v>
       </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4876,6 +4976,12 @@
       <c r="CD17" t="n">
         <v>821</v>
       </c>
+      <c r="CE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5128,6 +5234,12 @@
       <c r="CD18" t="n">
         <v>936</v>
       </c>
+      <c r="CE18" t="n">
+        <v>161</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5380,6 +5492,12 @@
       <c r="CD19" t="n">
         <v>349</v>
       </c>
+      <c r="CE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5632,6 +5750,12 @@
       <c r="CD20" t="n">
         <v>349</v>
       </c>
+      <c r="CE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5884,6 +6008,12 @@
       <c r="CD21" t="n">
         <v>0</v>
       </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6136,6 +6266,12 @@
       <c r="CD22" t="n">
         <v>0</v>
       </c>
+      <c r="CE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6388,6 +6524,12 @@
       <c r="CD23" t="n">
         <v>0</v>
       </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6640,6 +6782,12 @@
       <c r="CD24" t="n">
         <v>0</v>
       </c>
+      <c r="CE24" t="n">
+        <v>117</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6892,6 +7040,12 @@
       <c r="CD25" t="n">
         <v>901</v>
       </c>
+      <c r="CE25" t="n">
+        <v>31</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7144,6 +7298,12 @@
       <c r="CD26" t="n">
         <v>623</v>
       </c>
+      <c r="CE26" t="n">
+        <v>16</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7394,6 +7554,12 @@
         <v>0</v>
       </c>
       <c r="CD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF27"/>
+  <dimension ref="A1:CH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,6 +854,16 @@
           <t>CF天梯分_2022-02-17 08:19:51</t>
         </is>
       </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-18 08:20:20</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-18 08:20:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1112,6 +1122,12 @@
       <c r="CF2" t="n">
         <v>1783</v>
       </c>
+      <c r="CG2" t="n">
+        <v>735</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1370,6 +1386,12 @@
       <c r="CF3" t="n">
         <v>1014</v>
       </c>
+      <c r="CG3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1628,6 +1650,12 @@
       <c r="CF4" t="n">
         <v>1595</v>
       </c>
+      <c r="CG4" t="n">
+        <v>395</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1886,6 +1914,12 @@
       <c r="CF5" t="n">
         <v>0</v>
       </c>
+      <c r="CG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2144,6 +2178,12 @@
       <c r="CF6" t="n">
         <v>1431</v>
       </c>
+      <c r="CG6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2402,6 +2442,12 @@
       <c r="CF7" t="n">
         <v>1407</v>
       </c>
+      <c r="CG7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2660,6 +2706,12 @@
       <c r="CF8" t="n">
         <v>365</v>
       </c>
+      <c r="CG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2918,6 +2970,12 @@
       <c r="CF9" t="n">
         <v>981</v>
       </c>
+      <c r="CG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3176,6 +3234,12 @@
       <c r="CF10" t="n">
         <v>362</v>
       </c>
+      <c r="CG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3434,6 +3498,12 @@
       <c r="CF11" t="n">
         <v>883</v>
       </c>
+      <c r="CG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3692,6 +3762,12 @@
       <c r="CF12" t="n">
         <v>1597</v>
       </c>
+      <c r="CG12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3950,6 +4026,12 @@
       <c r="CF13" t="n">
         <v>442</v>
       </c>
+      <c r="CG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4208,6 +4290,12 @@
       <c r="CF14" t="n">
         <v>0</v>
       </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4466,6 +4554,12 @@
       <c r="CF15" t="n">
         <v>1028</v>
       </c>
+      <c r="CG15" t="n">
+        <v>42</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>1030</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4724,6 +4818,12 @@
       <c r="CF16" t="n">
         <v>0</v>
       </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4982,6 +5082,12 @@
       <c r="CF17" t="n">
         <v>821</v>
       </c>
+      <c r="CG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5240,6 +5346,12 @@
       <c r="CF18" t="n">
         <v>936</v>
       </c>
+      <c r="CG18" t="n">
+        <v>161</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5498,6 +5610,12 @@
       <c r="CF19" t="n">
         <v>349</v>
       </c>
+      <c r="CG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5756,6 +5874,12 @@
       <c r="CF20" t="n">
         <v>349</v>
       </c>
+      <c r="CG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6014,6 +6138,12 @@
       <c r="CF21" t="n">
         <v>0</v>
       </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6272,6 +6402,12 @@
       <c r="CF22" t="n">
         <v>0</v>
       </c>
+      <c r="CG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6530,6 +6666,12 @@
       <c r="CF23" t="n">
         <v>0</v>
       </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6788,6 +6930,12 @@
       <c r="CF24" t="n">
         <v>0</v>
       </c>
+      <c r="CG24" t="n">
+        <v>152</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7046,6 +7194,12 @@
       <c r="CF25" t="n">
         <v>901</v>
       </c>
+      <c r="CG25" t="n">
+        <v>31</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7304,6 +7458,12 @@
       <c r="CF26" t="n">
         <v>623</v>
       </c>
+      <c r="CG26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7560,6 +7720,12 @@
         <v>0</v>
       </c>
       <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH27"/>
+  <dimension ref="A1:CJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,6 +864,16 @@
           <t>CF天梯分_2022-02-18 08:20:20</t>
         </is>
       </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-19 08:19:49</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-19 08:19:49</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1128,6 +1138,12 @@
       <c r="CH2" t="n">
         <v>1783</v>
       </c>
+      <c r="CI2" t="n">
+        <v>735</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1392,6 +1408,12 @@
       <c r="CH3" t="n">
         <v>1014</v>
       </c>
+      <c r="CI3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1656,6 +1678,12 @@
       <c r="CH4" t="n">
         <v>1595</v>
       </c>
+      <c r="CI4" t="n">
+        <v>395</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1920,6 +1948,12 @@
       <c r="CH5" t="n">
         <v>0</v>
       </c>
+      <c r="CI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2184,6 +2218,12 @@
       <c r="CH6" t="n">
         <v>1431</v>
       </c>
+      <c r="CI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2448,6 +2488,12 @@
       <c r="CH7" t="n">
         <v>1407</v>
       </c>
+      <c r="CI7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2712,6 +2758,12 @@
       <c r="CH8" t="n">
         <v>365</v>
       </c>
+      <c r="CI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2976,6 +3028,12 @@
       <c r="CH9" t="n">
         <v>981</v>
       </c>
+      <c r="CI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3240,6 +3298,12 @@
       <c r="CH10" t="n">
         <v>362</v>
       </c>
+      <c r="CI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3504,6 +3568,12 @@
       <c r="CH11" t="n">
         <v>883</v>
       </c>
+      <c r="CI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3768,6 +3838,12 @@
       <c r="CH12" t="n">
         <v>1597</v>
       </c>
+      <c r="CI12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4032,6 +4108,12 @@
       <c r="CH13" t="n">
         <v>442</v>
       </c>
+      <c r="CI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4296,6 +4378,12 @@
       <c r="CH14" t="n">
         <v>0</v>
       </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4560,6 +4648,12 @@
       <c r="CH15" t="n">
         <v>1030</v>
       </c>
+      <c r="CI15" t="n">
+        <v>42</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>1030</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4824,6 +4918,12 @@
       <c r="CH16" t="n">
         <v>0</v>
       </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5088,6 +5188,12 @@
       <c r="CH17" t="n">
         <v>821</v>
       </c>
+      <c r="CI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5352,6 +5458,12 @@
       <c r="CH18" t="n">
         <v>936</v>
       </c>
+      <c r="CI18" t="n">
+        <v>164</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5616,6 +5728,12 @@
       <c r="CH19" t="n">
         <v>349</v>
       </c>
+      <c r="CI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5880,6 +5998,12 @@
       <c r="CH20" t="n">
         <v>349</v>
       </c>
+      <c r="CI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6144,6 +6268,12 @@
       <c r="CH21" t="n">
         <v>0</v>
       </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6408,6 +6538,12 @@
       <c r="CH22" t="n">
         <v>0</v>
       </c>
+      <c r="CI22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6672,6 +6808,12 @@
       <c r="CH23" t="n">
         <v>0</v>
       </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6936,6 +7078,12 @@
       <c r="CH24" t="n">
         <v>0</v>
       </c>
+      <c r="CI24" t="n">
+        <v>152</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7200,6 +7348,12 @@
       <c r="CH25" t="n">
         <v>901</v>
       </c>
+      <c r="CI25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7464,6 +7618,12 @@
       <c r="CH26" t="n">
         <v>623</v>
       </c>
+      <c r="CI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7726,6 +7886,12 @@
         <v>0</v>
       </c>
       <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ27"/>
+  <dimension ref="A1:CL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,6 +874,16 @@
           <t>CF天梯分_2022-02-19 08:19:49</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-20 08:19:48</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-20 08:19:48</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1144,6 +1154,12 @@
       <c r="CJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="CK2" t="n">
+        <v>735</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1414,6 +1430,12 @@
       <c r="CJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="CK3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1684,6 +1706,12 @@
       <c r="CJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="CK4" t="n">
+        <v>395</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1954,6 +1982,12 @@
       <c r="CJ5" t="n">
         <v>0</v>
       </c>
+      <c r="CK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2224,6 +2258,12 @@
       <c r="CJ6" t="n">
         <v>1431</v>
       </c>
+      <c r="CK6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2494,6 +2534,12 @@
       <c r="CJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="CK7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2764,6 +2810,12 @@
       <c r="CJ8" t="n">
         <v>365</v>
       </c>
+      <c r="CK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3034,6 +3086,12 @@
       <c r="CJ9" t="n">
         <v>981</v>
       </c>
+      <c r="CK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3304,6 +3362,12 @@
       <c r="CJ10" t="n">
         <v>362</v>
       </c>
+      <c r="CK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3574,6 +3638,12 @@
       <c r="CJ11" t="n">
         <v>883</v>
       </c>
+      <c r="CK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3844,6 +3914,12 @@
       <c r="CJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="CK12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4114,6 +4190,12 @@
       <c r="CJ13" t="n">
         <v>442</v>
       </c>
+      <c r="CK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4384,6 +4466,12 @@
       <c r="CJ14" t="n">
         <v>0</v>
       </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4654,6 +4742,12 @@
       <c r="CJ15" t="n">
         <v>1030</v>
       </c>
+      <c r="CK15" t="n">
+        <v>42</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>1030</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4924,6 +5018,12 @@
       <c r="CJ16" t="n">
         <v>0</v>
       </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5194,6 +5294,12 @@
       <c r="CJ17" t="n">
         <v>821</v>
       </c>
+      <c r="CK17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5464,6 +5570,12 @@
       <c r="CJ18" t="n">
         <v>936</v>
       </c>
+      <c r="CK18" t="n">
+        <v>164</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5734,6 +5846,12 @@
       <c r="CJ19" t="n">
         <v>349</v>
       </c>
+      <c r="CK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6004,6 +6122,12 @@
       <c r="CJ20" t="n">
         <v>349</v>
       </c>
+      <c r="CK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6274,6 +6398,12 @@
       <c r="CJ21" t="n">
         <v>0</v>
       </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6544,6 +6674,12 @@
       <c r="CJ22" t="n">
         <v>0</v>
       </c>
+      <c r="CK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6814,6 +6950,12 @@
       <c r="CJ23" t="n">
         <v>0</v>
       </c>
+      <c r="CK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7084,6 +7226,12 @@
       <c r="CJ24" t="n">
         <v>0</v>
       </c>
+      <c r="CK24" t="n">
+        <v>173</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7354,6 +7502,12 @@
       <c r="CJ25" t="n">
         <v>901</v>
       </c>
+      <c r="CK25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7624,6 +7778,12 @@
       <c r="CJ26" t="n">
         <v>623</v>
       </c>
+      <c r="CK26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7892,6 +8052,12 @@
         <v>0</v>
       </c>
       <c r="CJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL27"/>
+  <dimension ref="A1:CN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,6 +884,16 @@
           <t>CF天梯分_2022-02-20 08:19:48</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-21 08:21:01</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-21 08:21:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1160,6 +1170,12 @@
       <c r="CL2" t="n">
         <v>1783</v>
       </c>
+      <c r="CM2" t="n">
+        <v>736</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1436,6 +1452,12 @@
       <c r="CL3" t="n">
         <v>1014</v>
       </c>
+      <c r="CM3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1712,6 +1734,12 @@
       <c r="CL4" t="n">
         <v>1595</v>
       </c>
+      <c r="CM4" t="n">
+        <v>396</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1988,6 +2016,12 @@
       <c r="CL5" t="n">
         <v>0</v>
       </c>
+      <c r="CM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2264,6 +2298,12 @@
       <c r="CL6" t="n">
         <v>1431</v>
       </c>
+      <c r="CM6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2540,6 +2580,12 @@
       <c r="CL7" t="n">
         <v>1407</v>
       </c>
+      <c r="CM7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2816,6 +2862,12 @@
       <c r="CL8" t="n">
         <v>365</v>
       </c>
+      <c r="CM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3092,6 +3144,12 @@
       <c r="CL9" t="n">
         <v>981</v>
       </c>
+      <c r="CM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3368,6 +3426,12 @@
       <c r="CL10" t="n">
         <v>362</v>
       </c>
+      <c r="CM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3644,6 +3708,12 @@
       <c r="CL11" t="n">
         <v>883</v>
       </c>
+      <c r="CM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3920,6 +3990,12 @@
       <c r="CL12" t="n">
         <v>1597</v>
       </c>
+      <c r="CM12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4196,6 +4272,12 @@
       <c r="CL13" t="n">
         <v>442</v>
       </c>
+      <c r="CM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4472,6 +4554,12 @@
       <c r="CL14" t="n">
         <v>0</v>
       </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4748,6 +4836,12 @@
       <c r="CL15" t="n">
         <v>1030</v>
       </c>
+      <c r="CM15" t="n">
+        <v>44</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>962</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5024,6 +5118,12 @@
       <c r="CL16" t="n">
         <v>0</v>
       </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5300,6 +5400,12 @@
       <c r="CL17" t="n">
         <v>821</v>
       </c>
+      <c r="CM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5576,6 +5682,12 @@
       <c r="CL18" t="n">
         <v>936</v>
       </c>
+      <c r="CM18" t="n">
+        <v>164</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5852,6 +5964,12 @@
       <c r="CL19" t="n">
         <v>349</v>
       </c>
+      <c r="CM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6128,6 +6246,12 @@
       <c r="CL20" t="n">
         <v>349</v>
       </c>
+      <c r="CM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6404,6 +6528,12 @@
       <c r="CL21" t="n">
         <v>0</v>
       </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6680,6 +6810,12 @@
       <c r="CL22" t="n">
         <v>0</v>
       </c>
+      <c r="CM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6956,6 +7092,12 @@
       <c r="CL23" t="n">
         <v>0</v>
       </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7232,6 +7374,12 @@
       <c r="CL24" t="n">
         <v>0</v>
       </c>
+      <c r="CM24" t="n">
+        <v>173</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7508,6 +7656,12 @@
       <c r="CL25" t="n">
         <v>901</v>
       </c>
+      <c r="CM25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7784,6 +7938,12 @@
       <c r="CL26" t="n">
         <v>623</v>
       </c>
+      <c r="CM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8058,6 +8218,12 @@
         <v>0</v>
       </c>
       <c r="CL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN27"/>
+  <dimension ref="A1:CP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,6 +894,16 @@
           <t>CF天梯分_2022-02-21 08:21:01</t>
         </is>
       </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-22 08:21:11</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-22 08:21:11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1176,6 +1186,12 @@
       <c r="CN2" t="n">
         <v>1783</v>
       </c>
+      <c r="CO2" t="n">
+        <v>736</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1458,6 +1474,12 @@
       <c r="CN3" t="n">
         <v>1014</v>
       </c>
+      <c r="CO3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1740,6 +1762,12 @@
       <c r="CN4" t="n">
         <v>1595</v>
       </c>
+      <c r="CO4" t="n">
+        <v>396</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2022,6 +2050,12 @@
       <c r="CN5" t="n">
         <v>0</v>
       </c>
+      <c r="CO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2304,6 +2338,12 @@
       <c r="CN6" t="n">
         <v>1431</v>
       </c>
+      <c r="CO6" t="n">
+        <v>40</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2586,6 +2626,12 @@
       <c r="CN7" t="n">
         <v>1407</v>
       </c>
+      <c r="CO7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2868,6 +2914,12 @@
       <c r="CN8" t="n">
         <v>365</v>
       </c>
+      <c r="CO8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3150,6 +3202,12 @@
       <c r="CN9" t="n">
         <v>981</v>
       </c>
+      <c r="CO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3432,6 +3490,12 @@
       <c r="CN10" t="n">
         <v>362</v>
       </c>
+      <c r="CO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3714,6 +3778,12 @@
       <c r="CN11" t="n">
         <v>883</v>
       </c>
+      <c r="CO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3996,6 +4066,12 @@
       <c r="CN12" t="n">
         <v>1597</v>
       </c>
+      <c r="CO12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4278,6 +4354,12 @@
       <c r="CN13" t="n">
         <v>442</v>
       </c>
+      <c r="CO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4560,6 +4642,12 @@
       <c r="CN14" t="n">
         <v>0</v>
       </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4842,6 +4930,12 @@
       <c r="CN15" t="n">
         <v>962</v>
       </c>
+      <c r="CO15" t="n">
+        <v>45</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>962</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5124,6 +5218,12 @@
       <c r="CN16" t="n">
         <v>0</v>
       </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5406,6 +5506,12 @@
       <c r="CN17" t="n">
         <v>821</v>
       </c>
+      <c r="CO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5688,6 +5794,12 @@
       <c r="CN18" t="n">
         <v>936</v>
       </c>
+      <c r="CO18" t="n">
+        <v>164</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5970,6 +6082,12 @@
       <c r="CN19" t="n">
         <v>349</v>
       </c>
+      <c r="CO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6252,6 +6370,12 @@
       <c r="CN20" t="n">
         <v>349</v>
       </c>
+      <c r="CO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6534,6 +6658,12 @@
       <c r="CN21" t="n">
         <v>0</v>
       </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6816,6 +6946,12 @@
       <c r="CN22" t="n">
         <v>0</v>
       </c>
+      <c r="CO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7098,6 +7234,12 @@
       <c r="CN23" t="n">
         <v>0</v>
       </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7380,6 +7522,12 @@
       <c r="CN24" t="n">
         <v>0</v>
       </c>
+      <c r="CO24" t="n">
+        <v>173</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7662,6 +7810,12 @@
       <c r="CN25" t="n">
         <v>901</v>
       </c>
+      <c r="CO25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7944,6 +8098,12 @@
       <c r="CN26" t="n">
         <v>623</v>
       </c>
+      <c r="CO26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8224,6 +8384,12 @@
         <v>0</v>
       </c>
       <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP27"/>
+  <dimension ref="A1:CR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,6 +904,16 @@
           <t>CF天梯分_2022-02-22 08:21:11</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-23 08:20:14</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-23 08:20:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1192,6 +1202,12 @@
       <c r="CP2" t="n">
         <v>1783</v>
       </c>
+      <c r="CQ2" t="n">
+        <v>736</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1480,6 +1496,12 @@
       <c r="CP3" t="n">
         <v>1014</v>
       </c>
+      <c r="CQ3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1768,6 +1790,12 @@
       <c r="CP4" t="n">
         <v>1595</v>
       </c>
+      <c r="CQ4" t="n">
+        <v>396</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2056,6 +2084,12 @@
       <c r="CP5" t="n">
         <v>0</v>
       </c>
+      <c r="CQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2344,6 +2378,12 @@
       <c r="CP6" t="n">
         <v>1431</v>
       </c>
+      <c r="CQ6" t="n">
+        <v>44</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2632,6 +2672,12 @@
       <c r="CP7" t="n">
         <v>1407</v>
       </c>
+      <c r="CQ7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2920,6 +2966,12 @@
       <c r="CP8" t="n">
         <v>365</v>
       </c>
+      <c r="CQ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3208,6 +3260,12 @@
       <c r="CP9" t="n">
         <v>981</v>
       </c>
+      <c r="CQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3496,6 +3554,12 @@
       <c r="CP10" t="n">
         <v>362</v>
       </c>
+      <c r="CQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3784,6 +3848,12 @@
       <c r="CP11" t="n">
         <v>883</v>
       </c>
+      <c r="CQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4072,6 +4142,12 @@
       <c r="CP12" t="n">
         <v>1597</v>
       </c>
+      <c r="CQ12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4360,6 +4436,12 @@
       <c r="CP13" t="n">
         <v>442</v>
       </c>
+      <c r="CQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4648,6 +4730,12 @@
       <c r="CP14" t="n">
         <v>0</v>
       </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4936,6 +5024,12 @@
       <c r="CP15" t="n">
         <v>962</v>
       </c>
+      <c r="CQ15" t="n">
+        <v>47</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5224,6 +5318,12 @@
       <c r="CP16" t="n">
         <v>0</v>
       </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5512,6 +5612,12 @@
       <c r="CP17" t="n">
         <v>821</v>
       </c>
+      <c r="CQ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5800,6 +5906,12 @@
       <c r="CP18" t="n">
         <v>936</v>
       </c>
+      <c r="CQ18" t="n">
+        <v>166</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6088,6 +6200,12 @@
       <c r="CP19" t="n">
         <v>349</v>
       </c>
+      <c r="CQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6376,6 +6494,12 @@
       <c r="CP20" t="n">
         <v>349</v>
       </c>
+      <c r="CQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6664,6 +6788,12 @@
       <c r="CP21" t="n">
         <v>0</v>
       </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6952,6 +7082,12 @@
       <c r="CP22" t="n">
         <v>0</v>
       </c>
+      <c r="CQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7240,6 +7376,12 @@
       <c r="CP23" t="n">
         <v>0</v>
       </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7528,6 +7670,12 @@
       <c r="CP24" t="n">
         <v>0</v>
       </c>
+      <c r="CQ24" t="n">
+        <v>192</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7816,6 +7964,12 @@
       <c r="CP25" t="n">
         <v>901</v>
       </c>
+      <c r="CQ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8104,6 +8258,12 @@
       <c r="CP26" t="n">
         <v>623</v>
       </c>
+      <c r="CQ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8390,6 +8550,12 @@
         <v>0</v>
       </c>
       <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR27"/>
+  <dimension ref="A1:CT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,6 +914,16 @@
           <t>CF天梯分_2022-02-23 08:20:14</t>
         </is>
       </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-24 08:20:44</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-24 08:20:44</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1208,6 +1218,12 @@
       <c r="CR2" t="n">
         <v>1783</v>
       </c>
+      <c r="CS2" t="n">
+        <v>736</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1502,6 +1518,12 @@
       <c r="CR3" t="n">
         <v>1014</v>
       </c>
+      <c r="CS3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1796,6 +1818,12 @@
       <c r="CR4" t="n">
         <v>1595</v>
       </c>
+      <c r="CS4" t="n">
+        <v>401</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2090,6 +2118,12 @@
       <c r="CR5" t="n">
         <v>0</v>
       </c>
+      <c r="CS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2384,6 +2418,12 @@
       <c r="CR6" t="n">
         <v>1431</v>
       </c>
+      <c r="CS6" t="n">
+        <v>44</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2678,6 +2718,12 @@
       <c r="CR7" t="n">
         <v>1407</v>
       </c>
+      <c r="CS7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2972,6 +3018,12 @@
       <c r="CR8" t="n">
         <v>365</v>
       </c>
+      <c r="CS8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3266,6 +3318,12 @@
       <c r="CR9" t="n">
         <v>981</v>
       </c>
+      <c r="CS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3560,6 +3618,12 @@
       <c r="CR10" t="n">
         <v>362</v>
       </c>
+      <c r="CS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3854,6 +3918,12 @@
       <c r="CR11" t="n">
         <v>883</v>
       </c>
+      <c r="CS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4148,6 +4218,12 @@
       <c r="CR12" t="n">
         <v>1597</v>
       </c>
+      <c r="CS12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4442,6 +4518,12 @@
       <c r="CR13" t="n">
         <v>442</v>
       </c>
+      <c r="CS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4736,6 +4818,12 @@
       <c r="CR14" t="n">
         <v>0</v>
       </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5030,6 +5118,12 @@
       <c r="CR15" t="n">
         <v>964</v>
       </c>
+      <c r="CS15" t="n">
+        <v>48</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5324,6 +5418,12 @@
       <c r="CR16" t="n">
         <v>0</v>
       </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5618,6 +5718,12 @@
       <c r="CR17" t="n">
         <v>821</v>
       </c>
+      <c r="CS17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5912,6 +6018,12 @@
       <c r="CR18" t="n">
         <v>936</v>
       </c>
+      <c r="CS18" t="n">
+        <v>166</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6206,6 +6318,12 @@
       <c r="CR19" t="n">
         <v>349</v>
       </c>
+      <c r="CS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6500,6 +6618,12 @@
       <c r="CR20" t="n">
         <v>349</v>
       </c>
+      <c r="CS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6794,6 +6918,12 @@
       <c r="CR21" t="n">
         <v>0</v>
       </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7088,6 +7218,12 @@
       <c r="CR22" t="n">
         <v>0</v>
       </c>
+      <c r="CS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7382,6 +7518,12 @@
       <c r="CR23" t="n">
         <v>0</v>
       </c>
+      <c r="CS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7676,6 +7818,12 @@
       <c r="CR24" t="n">
         <v>0</v>
       </c>
+      <c r="CS24" t="n">
+        <v>209</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7970,6 +8118,12 @@
       <c r="CR25" t="n">
         <v>901</v>
       </c>
+      <c r="CS25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8264,6 +8418,12 @@
       <c r="CR26" t="n">
         <v>623</v>
       </c>
+      <c r="CS26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8556,6 +8716,12 @@
         <v>0</v>
       </c>
       <c r="CR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT27"/>
+  <dimension ref="A1:CV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,6 +924,16 @@
           <t>CF天梯分_2022-02-24 08:20:44</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-25 08:20:42</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-25 08:20:42</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1224,6 +1234,12 @@
       <c r="CT2" t="n">
         <v>1783</v>
       </c>
+      <c r="CU2" t="n">
+        <v>736</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1524,6 +1540,12 @@
       <c r="CT3" t="n">
         <v>1014</v>
       </c>
+      <c r="CU3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1824,6 +1846,12 @@
       <c r="CT4" t="n">
         <v>1595</v>
       </c>
+      <c r="CU4" t="n">
+        <v>404</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2124,6 +2152,12 @@
       <c r="CT5" t="n">
         <v>0</v>
       </c>
+      <c r="CU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2424,6 +2458,12 @@
       <c r="CT6" t="n">
         <v>1500</v>
       </c>
+      <c r="CU6" t="n">
+        <v>44</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2724,6 +2764,12 @@
       <c r="CT7" t="n">
         <v>1407</v>
       </c>
+      <c r="CU7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3024,6 +3070,12 @@
       <c r="CT8" t="n">
         <v>365</v>
       </c>
+      <c r="CU8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3324,6 +3376,12 @@
       <c r="CT9" t="n">
         <v>981</v>
       </c>
+      <c r="CU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3624,6 +3682,12 @@
       <c r="CT10" t="n">
         <v>362</v>
       </c>
+      <c r="CU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3924,6 +3988,12 @@
       <c r="CT11" t="n">
         <v>883</v>
       </c>
+      <c r="CU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4224,6 +4294,12 @@
       <c r="CT12" t="n">
         <v>1597</v>
       </c>
+      <c r="CU12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4524,6 +4600,12 @@
       <c r="CT13" t="n">
         <v>442</v>
       </c>
+      <c r="CU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4824,6 +4906,12 @@
       <c r="CT14" t="n">
         <v>0</v>
       </c>
+      <c r="CU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5124,6 +5212,12 @@
       <c r="CT15" t="n">
         <v>957</v>
       </c>
+      <c r="CU15" t="n">
+        <v>48</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5424,6 +5518,12 @@
       <c r="CT16" t="n">
         <v>0</v>
       </c>
+      <c r="CU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5724,6 +5824,12 @@
       <c r="CT17" t="n">
         <v>821</v>
       </c>
+      <c r="CU17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6024,6 +6130,12 @@
       <c r="CT18" t="n">
         <v>926</v>
       </c>
+      <c r="CU18" t="n">
+        <v>166</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6324,6 +6436,12 @@
       <c r="CT19" t="n">
         <v>349</v>
       </c>
+      <c r="CU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6624,6 +6742,12 @@
       <c r="CT20" t="n">
         <v>349</v>
       </c>
+      <c r="CU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6924,6 +7048,12 @@
       <c r="CT21" t="n">
         <v>0</v>
       </c>
+      <c r="CU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7224,6 +7354,12 @@
       <c r="CT22" t="n">
         <v>0</v>
       </c>
+      <c r="CU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7524,6 +7660,12 @@
       <c r="CT23" t="n">
         <v>0</v>
       </c>
+      <c r="CU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7824,6 +7966,12 @@
       <c r="CT24" t="n">
         <v>0</v>
       </c>
+      <c r="CU24" t="n">
+        <v>209</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8124,6 +8272,12 @@
       <c r="CT25" t="n">
         <v>901</v>
       </c>
+      <c r="CU25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8424,6 +8578,12 @@
       <c r="CT26" t="n">
         <v>623</v>
       </c>
+      <c r="CU26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8722,6 +8882,12 @@
         <v>0</v>
       </c>
       <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV27"/>
+  <dimension ref="A1:CX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,16 @@
           <t>CF天梯分_2022-02-25 08:20:42</t>
         </is>
       </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-26 08:20:01</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-26 08:20:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1240,6 +1250,12 @@
       <c r="CV2" t="n">
         <v>1783</v>
       </c>
+      <c r="CW2" t="n">
+        <v>736</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1546,6 +1562,12 @@
       <c r="CV3" t="n">
         <v>1014</v>
       </c>
+      <c r="CW3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1852,6 +1874,12 @@
       <c r="CV4" t="n">
         <v>1595</v>
       </c>
+      <c r="CW4" t="n">
+        <v>404</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2158,6 +2186,12 @@
       <c r="CV5" t="n">
         <v>0</v>
       </c>
+      <c r="CW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2464,6 +2498,12 @@
       <c r="CV6" t="n">
         <v>1500</v>
       </c>
+      <c r="CW6" t="n">
+        <v>44</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2770,6 +2810,12 @@
       <c r="CV7" t="n">
         <v>1407</v>
       </c>
+      <c r="CW7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3076,6 +3122,12 @@
       <c r="CV8" t="n">
         <v>365</v>
       </c>
+      <c r="CW8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3382,6 +3434,12 @@
       <c r="CV9" t="n">
         <v>981</v>
       </c>
+      <c r="CW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3688,6 +3746,12 @@
       <c r="CV10" t="n">
         <v>362</v>
       </c>
+      <c r="CW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3994,6 +4058,12 @@
       <c r="CV11" t="n">
         <v>883</v>
       </c>
+      <c r="CW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4300,6 +4370,12 @@
       <c r="CV12" t="n">
         <v>1597</v>
       </c>
+      <c r="CW12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4606,6 +4682,12 @@
       <c r="CV13" t="n">
         <v>442</v>
       </c>
+      <c r="CW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4912,6 +4994,12 @@
       <c r="CV14" t="n">
         <v>0</v>
       </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5218,6 +5306,12 @@
       <c r="CV15" t="n">
         <v>957</v>
       </c>
+      <c r="CW15" t="n">
+        <v>48</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5524,6 +5618,12 @@
       <c r="CV16" t="n">
         <v>0</v>
       </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5830,6 +5930,12 @@
       <c r="CV17" t="n">
         <v>821</v>
       </c>
+      <c r="CW17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6136,6 +6242,12 @@
       <c r="CV18" t="n">
         <v>926</v>
       </c>
+      <c r="CW18" t="n">
+        <v>166</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6442,6 +6554,12 @@
       <c r="CV19" t="n">
         <v>349</v>
       </c>
+      <c r="CW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6748,6 +6866,12 @@
       <c r="CV20" t="n">
         <v>349</v>
       </c>
+      <c r="CW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7054,6 +7178,12 @@
       <c r="CV21" t="n">
         <v>0</v>
       </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7360,6 +7490,12 @@
       <c r="CV22" t="n">
         <v>0</v>
       </c>
+      <c r="CW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7666,6 +7802,12 @@
       <c r="CV23" t="n">
         <v>0</v>
       </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7972,6 +8114,12 @@
       <c r="CV24" t="n">
         <v>0</v>
       </c>
+      <c r="CW24" t="n">
+        <v>232</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8278,6 +8426,12 @@
       <c r="CV25" t="n">
         <v>901</v>
       </c>
+      <c r="CW25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8584,6 +8738,12 @@
       <c r="CV26" t="n">
         <v>623</v>
       </c>
+      <c r="CW26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8888,6 +9048,12 @@
         <v>0</v>
       </c>
       <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX27"/>
+  <dimension ref="A1:CZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,6 +944,16 @@
           <t>CF天梯分_2022-02-26 08:20:01</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-27 08:19:57</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-27 08:19:57</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1256,6 +1266,12 @@
       <c r="CX2" t="n">
         <v>1783</v>
       </c>
+      <c r="CY2" t="n">
+        <v>736</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1568,6 +1584,12 @@
       <c r="CX3" t="n">
         <v>1014</v>
       </c>
+      <c r="CY3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1880,6 +1902,12 @@
       <c r="CX4" t="n">
         <v>1595</v>
       </c>
+      <c r="CY4" t="n">
+        <v>404</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2192,6 +2220,12 @@
       <c r="CX5" t="n">
         <v>0</v>
       </c>
+      <c r="CY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2504,6 +2538,12 @@
       <c r="CX6" t="n">
         <v>1500</v>
       </c>
+      <c r="CY6" t="n">
+        <v>44</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2816,6 +2856,12 @@
       <c r="CX7" t="n">
         <v>1407</v>
       </c>
+      <c r="CY7" t="n">
+        <v>131</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3128,6 +3174,12 @@
       <c r="CX8" t="n">
         <v>365</v>
       </c>
+      <c r="CY8" t="n">
+        <v>36</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3440,6 +3492,12 @@
       <c r="CX9" t="n">
         <v>981</v>
       </c>
+      <c r="CY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3752,6 +3810,12 @@
       <c r="CX10" t="n">
         <v>362</v>
       </c>
+      <c r="CY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4064,6 +4128,12 @@
       <c r="CX11" t="n">
         <v>883</v>
       </c>
+      <c r="CY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4376,6 +4446,12 @@
       <c r="CX12" t="n">
         <v>1597</v>
       </c>
+      <c r="CY12" t="n">
+        <v>179</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4688,6 +4764,12 @@
       <c r="CX13" t="n">
         <v>442</v>
       </c>
+      <c r="CY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5000,6 +5082,12 @@
       <c r="CX14" t="n">
         <v>0</v>
       </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5312,6 +5400,12 @@
       <c r="CX15" t="n">
         <v>957</v>
       </c>
+      <c r="CY15" t="n">
+        <v>48</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5624,6 +5718,12 @@
       <c r="CX16" t="n">
         <v>0</v>
       </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5936,6 +6036,12 @@
       <c r="CX17" t="n">
         <v>821</v>
       </c>
+      <c r="CY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6248,6 +6354,12 @@
       <c r="CX18" t="n">
         <v>926</v>
       </c>
+      <c r="CY18" t="n">
+        <v>166</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6560,6 +6672,12 @@
       <c r="CX19" t="n">
         <v>349</v>
       </c>
+      <c r="CY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6872,6 +6990,12 @@
       <c r="CX20" t="n">
         <v>349</v>
       </c>
+      <c r="CY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7184,6 +7308,12 @@
       <c r="CX21" t="n">
         <v>0</v>
       </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7496,6 +7626,12 @@
       <c r="CX22" t="n">
         <v>0</v>
       </c>
+      <c r="CY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7808,6 +7944,12 @@
       <c r="CX23" t="n">
         <v>0</v>
       </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8120,6 +8262,12 @@
       <c r="CX24" t="n">
         <v>0</v>
       </c>
+      <c r="CY24" t="n">
+        <v>256</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8432,6 +8580,12 @@
       <c r="CX25" t="n">
         <v>901</v>
       </c>
+      <c r="CY25" t="n">
+        <v>32</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8744,6 +8898,12 @@
       <c r="CX26" t="n">
         <v>623</v>
       </c>
+      <c r="CY26" t="n">
+        <v>23</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9054,6 +9214,12 @@
         <v>0</v>
       </c>
       <c r="CX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ27"/>
+  <dimension ref="A1:DB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,6 +954,16 @@
           <t>CF天梯分_2022-02-27 08:19:57</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-02-28 08:21:27</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-02-28 08:21:27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1272,6 +1282,12 @@
       <c r="CZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="DA2" t="n">
+        <v>737</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1590,6 +1606,12 @@
       <c r="CZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="DA3" t="n">
+        <v>84</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1908,6 +1930,12 @@
       <c r="CZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="DA4" t="n">
+        <v>404</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2226,6 +2254,12 @@
       <c r="CZ5" t="n">
         <v>0</v>
       </c>
+      <c r="DA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2544,6 +2578,12 @@
       <c r="CZ6" t="n">
         <v>1500</v>
       </c>
+      <c r="DA6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2862,6 +2902,12 @@
       <c r="CZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="DA7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3180,6 +3226,12 @@
       <c r="CZ8" t="n">
         <v>365</v>
       </c>
+      <c r="DA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3498,6 +3550,12 @@
       <c r="CZ9" t="n">
         <v>981</v>
       </c>
+      <c r="DA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3816,6 +3874,12 @@
       <c r="CZ10" t="n">
         <v>362</v>
       </c>
+      <c r="DA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4134,6 +4198,12 @@
       <c r="CZ11" t="n">
         <v>883</v>
       </c>
+      <c r="DA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4452,6 +4522,12 @@
       <c r="CZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="DA12" t="n">
+        <v>179</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4770,6 +4846,12 @@
       <c r="CZ13" t="n">
         <v>442</v>
       </c>
+      <c r="DA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5088,6 +5170,12 @@
       <c r="CZ14" t="n">
         <v>0</v>
       </c>
+      <c r="DA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5406,6 +5494,12 @@
       <c r="CZ15" t="n">
         <v>957</v>
       </c>
+      <c r="DA15" t="n">
+        <v>48</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5724,6 +5818,12 @@
       <c r="CZ16" t="n">
         <v>0</v>
       </c>
+      <c r="DA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6042,6 +6142,12 @@
       <c r="CZ17" t="n">
         <v>821</v>
       </c>
+      <c r="DA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6360,6 +6466,12 @@
       <c r="CZ18" t="n">
         <v>926</v>
       </c>
+      <c r="DA18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6678,6 +6790,12 @@
       <c r="CZ19" t="n">
         <v>349</v>
       </c>
+      <c r="DA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6996,6 +7114,12 @@
       <c r="CZ20" t="n">
         <v>349</v>
       </c>
+      <c r="DA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7314,6 +7438,12 @@
       <c r="CZ21" t="n">
         <v>0</v>
       </c>
+      <c r="DA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7632,6 +7762,12 @@
       <c r="CZ22" t="n">
         <v>0</v>
       </c>
+      <c r="DA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7950,6 +8086,12 @@
       <c r="CZ23" t="n">
         <v>0</v>
       </c>
+      <c r="DA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8268,6 +8410,12 @@
       <c r="CZ24" t="n">
         <v>0</v>
       </c>
+      <c r="DA24" t="n">
+        <v>256</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8586,6 +8734,12 @@
       <c r="CZ25" t="n">
         <v>901</v>
       </c>
+      <c r="DA25" t="n">
+        <v>32</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8904,6 +9058,12 @@
       <c r="CZ26" t="n">
         <v>623</v>
       </c>
+      <c r="DA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9220,6 +9380,12 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB27"/>
+  <dimension ref="A1:DD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,6 +964,16 @@
           <t>CF天梯分_2022-02-28 08:21:27</t>
         </is>
       </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-01 08:26:23</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-01 08:26:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1288,6 +1298,12 @@
       <c r="DB2" t="n">
         <v>1783</v>
       </c>
+      <c r="DC2" t="n">
+        <v>737</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1612,6 +1628,12 @@
       <c r="DB3" t="n">
         <v>1014</v>
       </c>
+      <c r="DC3" t="n">
+        <v>84</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1936,6 +1958,12 @@
       <c r="DB4" t="n">
         <v>1595</v>
       </c>
+      <c r="DC4" t="n">
+        <v>404</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2260,6 +2288,12 @@
       <c r="DB5" t="n">
         <v>0</v>
       </c>
+      <c r="DC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2584,6 +2618,12 @@
       <c r="DB6" t="n">
         <v>1500</v>
       </c>
+      <c r="DC6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2908,6 +2948,12 @@
       <c r="DB7" t="n">
         <v>1407</v>
       </c>
+      <c r="DC7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3232,6 +3278,12 @@
       <c r="DB8" t="n">
         <v>365</v>
       </c>
+      <c r="DC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3556,6 +3608,12 @@
       <c r="DB9" t="n">
         <v>981</v>
       </c>
+      <c r="DC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3880,6 +3938,12 @@
       <c r="DB10" t="n">
         <v>362</v>
       </c>
+      <c r="DC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4204,6 +4268,12 @@
       <c r="DB11" t="n">
         <v>883</v>
       </c>
+      <c r="DC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4528,6 +4598,12 @@
       <c r="DB12" t="n">
         <v>1597</v>
       </c>
+      <c r="DC12" t="n">
+        <v>179</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4852,6 +4928,12 @@
       <c r="DB13" t="n">
         <v>442</v>
       </c>
+      <c r="DC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5176,6 +5258,12 @@
       <c r="DB14" t="n">
         <v>0</v>
       </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5500,6 +5588,12 @@
       <c r="DB15" t="n">
         <v>957</v>
       </c>
+      <c r="DC15" t="n">
+        <v>48</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5824,6 +5918,12 @@
       <c r="DB16" t="n">
         <v>0</v>
       </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6148,6 +6248,12 @@
       <c r="DB17" t="n">
         <v>821</v>
       </c>
+      <c r="DC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6472,6 +6578,12 @@
       <c r="DB18" t="n">
         <v>926</v>
       </c>
+      <c r="DC18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6796,6 +6908,12 @@
       <c r="DB19" t="n">
         <v>349</v>
       </c>
+      <c r="DC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7120,6 +7238,12 @@
       <c r="DB20" t="n">
         <v>349</v>
       </c>
+      <c r="DC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7444,6 +7568,12 @@
       <c r="DB21" t="n">
         <v>0</v>
       </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7768,6 +7898,12 @@
       <c r="DB22" t="n">
         <v>0</v>
       </c>
+      <c r="DC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8092,6 +8228,12 @@
       <c r="DB23" t="n">
         <v>0</v>
       </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8416,6 +8558,12 @@
       <c r="DB24" t="n">
         <v>0</v>
       </c>
+      <c r="DC24" t="n">
+        <v>270</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8740,6 +8888,12 @@
       <c r="DB25" t="n">
         <v>901</v>
       </c>
+      <c r="DC25" t="n">
+        <v>32</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9064,6 +9218,12 @@
       <c r="DB26" t="n">
         <v>623</v>
       </c>
+      <c r="DC26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9386,6 +9546,12 @@
         <v>0</v>
       </c>
       <c r="DB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD27"/>
+  <dimension ref="A1:DF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,16 @@
           <t>CF天梯分_2022-03-01 08:26:23</t>
         </is>
       </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-02 08:26:20</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-02 08:26:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1304,6 +1314,12 @@
       <c r="DD2" t="n">
         <v>1783</v>
       </c>
+      <c r="DE2" t="n">
+        <v>737</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1634,6 +1650,12 @@
       <c r="DD3" t="n">
         <v>1014</v>
       </c>
+      <c r="DE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1964,6 +1986,12 @@
       <c r="DD4" t="n">
         <v>1595</v>
       </c>
+      <c r="DE4" t="n">
+        <v>404</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2294,6 +2322,12 @@
       <c r="DD5" t="n">
         <v>0</v>
       </c>
+      <c r="DE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2624,6 +2658,12 @@
       <c r="DD6" t="n">
         <v>1500</v>
       </c>
+      <c r="DE6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2954,6 +2994,12 @@
       <c r="DD7" t="n">
         <v>1407</v>
       </c>
+      <c r="DE7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3284,6 +3330,12 @@
       <c r="DD8" t="n">
         <v>365</v>
       </c>
+      <c r="DE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3614,6 +3666,12 @@
       <c r="DD9" t="n">
         <v>981</v>
       </c>
+      <c r="DE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3944,6 +4002,12 @@
       <c r="DD10" t="n">
         <v>362</v>
       </c>
+      <c r="DE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4274,6 +4338,12 @@
       <c r="DD11" t="n">
         <v>883</v>
       </c>
+      <c r="DE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4604,6 +4674,12 @@
       <c r="DD12" t="n">
         <v>1597</v>
       </c>
+      <c r="DE12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4934,6 +5010,12 @@
       <c r="DD13" t="n">
         <v>442</v>
       </c>
+      <c r="DE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5264,6 +5346,12 @@
       <c r="DD14" t="n">
         <v>0</v>
       </c>
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5594,6 +5682,12 @@
       <c r="DD15" t="n">
         <v>957</v>
       </c>
+      <c r="DE15" t="n">
+        <v>48</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5924,6 +6018,12 @@
       <c r="DD16" t="n">
         <v>0</v>
       </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6254,6 +6354,12 @@
       <c r="DD17" t="n">
         <v>821</v>
       </c>
+      <c r="DE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6584,6 +6690,12 @@
       <c r="DD18" t="n">
         <v>926</v>
       </c>
+      <c r="DE18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6914,6 +7026,12 @@
       <c r="DD19" t="n">
         <v>349</v>
       </c>
+      <c r="DE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7244,6 +7362,12 @@
       <c r="DD20" t="n">
         <v>349</v>
       </c>
+      <c r="DE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7574,6 +7698,12 @@
       <c r="DD21" t="n">
         <v>0</v>
       </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7904,6 +8034,12 @@
       <c r="DD22" t="n">
         <v>0</v>
       </c>
+      <c r="DE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8234,6 +8370,12 @@
       <c r="DD23" t="n">
         <v>0</v>
       </c>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8564,6 +8706,12 @@
       <c r="DD24" t="n">
         <v>0</v>
       </c>
+      <c r="DE24" t="n">
+        <v>270</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8894,6 +9042,12 @@
       <c r="DD25" t="n">
         <v>901</v>
       </c>
+      <c r="DE25" t="n">
+        <v>32</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9224,6 +9378,12 @@
       <c r="DD26" t="n">
         <v>623</v>
       </c>
+      <c r="DE26" t="n">
+        <v>23</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9552,6 +9712,12 @@
         <v>0</v>
       </c>
       <c r="DD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF27"/>
+  <dimension ref="A1:DH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,6 +984,16 @@
           <t>CF天梯分_2022-03-02 08:26:20</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-03 08:25:36</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-03 08:25:36</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1320,6 +1330,12 @@
       <c r="DF2" t="n">
         <v>1783</v>
       </c>
+      <c r="DG2" t="n">
+        <v>738</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1656,6 +1672,12 @@
       <c r="DF3" t="n">
         <v>1014</v>
       </c>
+      <c r="DG3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1992,6 +2014,12 @@
       <c r="DF4" t="n">
         <v>1595</v>
       </c>
+      <c r="DG4" t="n">
+        <v>404</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2328,6 +2356,12 @@
       <c r="DF5" t="n">
         <v>0</v>
       </c>
+      <c r="DG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2664,6 +2698,12 @@
       <c r="DF6" t="n">
         <v>1500</v>
       </c>
+      <c r="DG6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3000,6 +3040,12 @@
       <c r="DF7" t="n">
         <v>1407</v>
       </c>
+      <c r="DG7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3336,6 +3382,12 @@
       <c r="DF8" t="n">
         <v>365</v>
       </c>
+      <c r="DG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3672,6 +3724,12 @@
       <c r="DF9" t="n">
         <v>981</v>
       </c>
+      <c r="DG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4008,6 +4066,12 @@
       <c r="DF10" t="n">
         <v>362</v>
       </c>
+      <c r="DG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4344,6 +4408,12 @@
       <c r="DF11" t="n">
         <v>883</v>
       </c>
+      <c r="DG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4680,6 +4750,12 @@
       <c r="DF12" t="n">
         <v>1597</v>
       </c>
+      <c r="DG12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5016,6 +5092,12 @@
       <c r="DF13" t="n">
         <v>442</v>
       </c>
+      <c r="DG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5352,6 +5434,12 @@
       <c r="DF14" t="n">
         <v>0</v>
       </c>
+      <c r="DG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5688,6 +5776,12 @@
       <c r="DF15" t="n">
         <v>957</v>
       </c>
+      <c r="DG15" t="n">
+        <v>48</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6024,6 +6118,12 @@
       <c r="DF16" t="n">
         <v>0</v>
       </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6360,6 +6460,12 @@
       <c r="DF17" t="n">
         <v>821</v>
       </c>
+      <c r="DG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6696,6 +6802,12 @@
       <c r="DF18" t="n">
         <v>926</v>
       </c>
+      <c r="DG18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7032,6 +7144,12 @@
       <c r="DF19" t="n">
         <v>349</v>
       </c>
+      <c r="DG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7368,6 +7486,12 @@
       <c r="DF20" t="n">
         <v>349</v>
       </c>
+      <c r="DG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7704,6 +7828,12 @@
       <c r="DF21" t="n">
         <v>0</v>
       </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8040,6 +8170,12 @@
       <c r="DF22" t="n">
         <v>0</v>
       </c>
+      <c r="DG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8376,6 +8512,12 @@
       <c r="DF23" t="n">
         <v>0</v>
       </c>
+      <c r="DG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8712,6 +8854,12 @@
       <c r="DF24" t="n">
         <v>0</v>
       </c>
+      <c r="DG24" t="n">
+        <v>285</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9048,6 +9196,12 @@
       <c r="DF25" t="n">
         <v>901</v>
       </c>
+      <c r="DG25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9384,6 +9538,12 @@
       <c r="DF26" t="n">
         <v>623</v>
       </c>
+      <c r="DG26" t="n">
+        <v>23</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9718,6 +9878,12 @@
         <v>0</v>
       </c>
       <c r="DF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH27"/>
+  <dimension ref="A1:DJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,6 +994,16 @@
           <t>CF天梯分_2022-03-03 08:25:36</t>
         </is>
       </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-05 08:20:19</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-05 08:20:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1336,6 +1346,12 @@
       <c r="DH2" t="n">
         <v>1783</v>
       </c>
+      <c r="DI2" t="n">
+        <v>739</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1678,6 +1694,12 @@
       <c r="DH3" t="n">
         <v>1014</v>
       </c>
+      <c r="DI3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2020,6 +2042,12 @@
       <c r="DH4" t="n">
         <v>1595</v>
       </c>
+      <c r="DI4" t="n">
+        <v>405</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2362,6 +2390,12 @@
       <c r="DH5" t="n">
         <v>0</v>
       </c>
+      <c r="DI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2704,6 +2738,12 @@
       <c r="DH6" t="n">
         <v>1500</v>
       </c>
+      <c r="DI6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3046,6 +3086,12 @@
       <c r="DH7" t="n">
         <v>1407</v>
       </c>
+      <c r="DI7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3388,6 +3434,12 @@
       <c r="DH8" t="n">
         <v>365</v>
       </c>
+      <c r="DI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3730,6 +3782,12 @@
       <c r="DH9" t="n">
         <v>981</v>
       </c>
+      <c r="DI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4072,6 +4130,12 @@
       <c r="DH10" t="n">
         <v>362</v>
       </c>
+      <c r="DI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4414,6 +4478,12 @@
       <c r="DH11" t="n">
         <v>883</v>
       </c>
+      <c r="DI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4756,6 +4826,12 @@
       <c r="DH12" t="n">
         <v>1597</v>
       </c>
+      <c r="DI12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5098,6 +5174,12 @@
       <c r="DH13" t="n">
         <v>442</v>
       </c>
+      <c r="DI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5440,6 +5522,12 @@
       <c r="DH14" t="n">
         <v>0</v>
       </c>
+      <c r="DI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5782,6 +5870,12 @@
       <c r="DH15" t="n">
         <v>957</v>
       </c>
+      <c r="DI15" t="n">
+        <v>49</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6124,6 +6218,12 @@
       <c r="DH16" t="n">
         <v>0</v>
       </c>
+      <c r="DI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6466,6 +6566,12 @@
       <c r="DH17" t="n">
         <v>821</v>
       </c>
+      <c r="DI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6808,6 +6914,12 @@
       <c r="DH18" t="n">
         <v>926</v>
       </c>
+      <c r="DI18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7150,6 +7262,12 @@
       <c r="DH19" t="n">
         <v>349</v>
       </c>
+      <c r="DI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7492,6 +7610,12 @@
       <c r="DH20" t="n">
         <v>349</v>
       </c>
+      <c r="DI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7834,6 +7958,12 @@
       <c r="DH21" t="n">
         <v>0</v>
       </c>
+      <c r="DI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8176,6 +8306,12 @@
       <c r="DH22" t="n">
         <v>0</v>
       </c>
+      <c r="DI22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8518,6 +8654,12 @@
       <c r="DH23" t="n">
         <v>0</v>
       </c>
+      <c r="DI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -8860,6 +9002,12 @@
       <c r="DH24" t="n">
         <v>0</v>
       </c>
+      <c r="DI24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9202,6 +9350,12 @@
       <c r="DH25" t="n">
         <v>901</v>
       </c>
+      <c r="DI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9544,6 +9698,12 @@
       <c r="DH26" t="n">
         <v>623</v>
       </c>
+      <c r="DI26" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9884,6 +10044,12 @@
         <v>0</v>
       </c>
       <c r="DH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ27"/>
+  <dimension ref="A1:DL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,6 +1004,16 @@
           <t>CF天梯分_2022-03-05 08:20:19</t>
         </is>
       </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-06 08:20:32</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-06 08:20:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1352,6 +1362,12 @@
       <c r="DJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="DK2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1700,6 +1716,12 @@
       <c r="DJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="DK3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2048,6 +2070,12 @@
       <c r="DJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="DK4" t="n">
+        <v>405</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2396,6 +2424,12 @@
       <c r="DJ5" t="n">
         <v>0</v>
       </c>
+      <c r="DK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2744,6 +2778,12 @@
       <c r="DJ6" t="n">
         <v>1500</v>
       </c>
+      <c r="DK6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3092,6 +3132,12 @@
       <c r="DJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="DK7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3440,6 +3486,12 @@
       <c r="DJ8" t="n">
         <v>365</v>
       </c>
+      <c r="DK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3788,6 +3840,12 @@
       <c r="DJ9" t="n">
         <v>981</v>
       </c>
+      <c r="DK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4136,6 +4194,12 @@
       <c r="DJ10" t="n">
         <v>362</v>
       </c>
+      <c r="DK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4484,6 +4548,12 @@
       <c r="DJ11" t="n">
         <v>883</v>
       </c>
+      <c r="DK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4832,6 +4902,12 @@
       <c r="DJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="DK12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5180,6 +5256,12 @@
       <c r="DJ13" t="n">
         <v>442</v>
       </c>
+      <c r="DK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5528,6 +5610,12 @@
       <c r="DJ14" t="n">
         <v>0</v>
       </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5876,6 +5964,12 @@
       <c r="DJ15" t="n">
         <v>905</v>
       </c>
+      <c r="DK15" t="n">
+        <v>49</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6224,6 +6318,12 @@
       <c r="DJ16" t="n">
         <v>0</v>
       </c>
+      <c r="DK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6572,6 +6672,12 @@
       <c r="DJ17" t="n">
         <v>821</v>
       </c>
+      <c r="DK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6920,6 +7026,12 @@
       <c r="DJ18" t="n">
         <v>926</v>
       </c>
+      <c r="DK18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7268,6 +7380,12 @@
       <c r="DJ19" t="n">
         <v>349</v>
       </c>
+      <c r="DK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7616,6 +7734,12 @@
       <c r="DJ20" t="n">
         <v>349</v>
       </c>
+      <c r="DK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7964,6 +8088,12 @@
       <c r="DJ21" t="n">
         <v>0</v>
       </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8312,6 +8442,12 @@
       <c r="DJ22" t="n">
         <v>0</v>
       </c>
+      <c r="DK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8660,6 +8796,12 @@
       <c r="DJ23" t="n">
         <v>0</v>
       </c>
+      <c r="DK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9008,6 +9150,12 @@
       <c r="DJ24" t="n">
         <v>0</v>
       </c>
+      <c r="DK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9356,6 +9504,12 @@
       <c r="DJ25" t="n">
         <v>901</v>
       </c>
+      <c r="DK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9704,6 +9858,12 @@
       <c r="DJ26" t="n">
         <v>623</v>
       </c>
+      <c r="DK26" t="n">
+        <v>25</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10050,6 +10210,12 @@
         <v>0</v>
       </c>
       <c r="DJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL27"/>
+  <dimension ref="A1:DN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1014,16 @@
           <t>CF天梯分_2022-03-06 08:20:32</t>
         </is>
       </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-07 08:22:38</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-07 08:22:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1368,6 +1378,12 @@
       <c r="DL2" t="n">
         <v>1783</v>
       </c>
+      <c r="DM2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1722,6 +1738,12 @@
       <c r="DL3" t="n">
         <v>1014</v>
       </c>
+      <c r="DM3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2076,6 +2098,12 @@
       <c r="DL4" t="n">
         <v>1595</v>
       </c>
+      <c r="DM4" t="n">
+        <v>405</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2430,6 +2458,12 @@
       <c r="DL5" t="n">
         <v>0</v>
       </c>
+      <c r="DM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2784,6 +2818,12 @@
       <c r="DL6" t="n">
         <v>1500</v>
       </c>
+      <c r="DM6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3138,6 +3178,12 @@
       <c r="DL7" t="n">
         <v>1407</v>
       </c>
+      <c r="DM7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3492,6 +3538,12 @@
       <c r="DL8" t="n">
         <v>365</v>
       </c>
+      <c r="DM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3846,6 +3898,12 @@
       <c r="DL9" t="n">
         <v>981</v>
       </c>
+      <c r="DM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4200,6 +4258,12 @@
       <c r="DL10" t="n">
         <v>362</v>
       </c>
+      <c r="DM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4554,6 +4618,12 @@
       <c r="DL11" t="n">
         <v>883</v>
       </c>
+      <c r="DM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4908,6 +4978,12 @@
       <c r="DL12" t="n">
         <v>1597</v>
       </c>
+      <c r="DM12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5262,6 +5338,12 @@
       <c r="DL13" t="n">
         <v>442</v>
       </c>
+      <c r="DM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5616,6 +5698,12 @@
       <c r="DL14" t="n">
         <v>0</v>
       </c>
+      <c r="DM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5970,6 +6058,12 @@
       <c r="DL15" t="n">
         <v>905</v>
       </c>
+      <c r="DM15" t="n">
+        <v>49</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6324,6 +6418,12 @@
       <c r="DL16" t="n">
         <v>0</v>
       </c>
+      <c r="DM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6678,6 +6778,12 @@
       <c r="DL17" t="n">
         <v>821</v>
       </c>
+      <c r="DM17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7032,6 +7138,12 @@
       <c r="DL18" t="n">
         <v>926</v>
       </c>
+      <c r="DM18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7386,6 +7498,12 @@
       <c r="DL19" t="n">
         <v>349</v>
       </c>
+      <c r="DM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7740,6 +7858,12 @@
       <c r="DL20" t="n">
         <v>349</v>
       </c>
+      <c r="DM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8094,6 +8218,12 @@
       <c r="DL21" t="n">
         <v>0</v>
       </c>
+      <c r="DM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8448,6 +8578,12 @@
       <c r="DL22" t="n">
         <v>0</v>
       </c>
+      <c r="DM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8802,6 +8938,12 @@
       <c r="DL23" t="n">
         <v>0</v>
       </c>
+      <c r="DM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9156,6 +9298,12 @@
       <c r="DL24" t="n">
         <v>0</v>
       </c>
+      <c r="DM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9510,6 +9658,12 @@
       <c r="DL25" t="n">
         <v>901</v>
       </c>
+      <c r="DM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9864,6 +10018,12 @@
       <c r="DL26" t="n">
         <v>623</v>
       </c>
+      <c r="DM26" t="n">
+        <v>25</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10216,6 +10376,12 @@
         <v>0</v>
       </c>
       <c r="DL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN27"/>
+  <dimension ref="A1:DP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,6 +1024,16 @@
           <t>CF天梯分_2022-03-07 08:22:38</t>
         </is>
       </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-08 08:21:36</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-08 08:21:36</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1384,6 +1394,12 @@
       <c r="DN2" t="n">
         <v>1783</v>
       </c>
+      <c r="DO2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1744,6 +1760,12 @@
       <c r="DN3" t="n">
         <v>1014</v>
       </c>
+      <c r="DO3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2104,6 +2126,12 @@
       <c r="DN4" t="n">
         <v>1595</v>
       </c>
+      <c r="DO4" t="n">
+        <v>408</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2464,6 +2492,12 @@
       <c r="DN5" t="n">
         <v>0</v>
       </c>
+      <c r="DO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2824,6 +2858,12 @@
       <c r="DN6" t="n">
         <v>1500</v>
       </c>
+      <c r="DO6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3184,6 +3224,12 @@
       <c r="DN7" t="n">
         <v>1407</v>
       </c>
+      <c r="DO7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3544,6 +3590,12 @@
       <c r="DN8" t="n">
         <v>365</v>
       </c>
+      <c r="DO8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3904,6 +3956,12 @@
       <c r="DN9" t="n">
         <v>981</v>
       </c>
+      <c r="DO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4264,6 +4322,12 @@
       <c r="DN10" t="n">
         <v>362</v>
       </c>
+      <c r="DO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4624,6 +4688,12 @@
       <c r="DN11" t="n">
         <v>883</v>
       </c>
+      <c r="DO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4984,6 +5054,12 @@
       <c r="DN12" t="n">
         <v>1597</v>
       </c>
+      <c r="DO12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5344,6 +5420,12 @@
       <c r="DN13" t="n">
         <v>442</v>
       </c>
+      <c r="DO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5704,6 +5786,12 @@
       <c r="DN14" t="n">
         <v>0</v>
       </c>
+      <c r="DO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6064,6 +6152,12 @@
       <c r="DN15" t="n">
         <v>905</v>
       </c>
+      <c r="DO15" t="n">
+        <v>49</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6424,6 +6518,12 @@
       <c r="DN16" t="n">
         <v>0</v>
       </c>
+      <c r="DO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6784,6 +6884,12 @@
       <c r="DN17" t="n">
         <v>821</v>
       </c>
+      <c r="DO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7144,6 +7250,12 @@
       <c r="DN18" t="n">
         <v>926</v>
       </c>
+      <c r="DO18" t="n">
+        <v>166</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7504,6 +7616,12 @@
       <c r="DN19" t="n">
         <v>349</v>
       </c>
+      <c r="DO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7864,6 +7982,12 @@
       <c r="DN20" t="n">
         <v>349</v>
       </c>
+      <c r="DO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8224,6 +8348,12 @@
       <c r="DN21" t="n">
         <v>0</v>
       </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8584,6 +8714,12 @@
       <c r="DN22" t="n">
         <v>0</v>
       </c>
+      <c r="DO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8944,6 +9080,12 @@
       <c r="DN23" t="n">
         <v>0</v>
       </c>
+      <c r="DO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9304,6 +9446,12 @@
       <c r="DN24" t="n">
         <v>0</v>
       </c>
+      <c r="DO24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9664,6 +9812,12 @@
       <c r="DN25" t="n">
         <v>901</v>
       </c>
+      <c r="DO25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10024,6 +10178,12 @@
       <c r="DN26" t="n">
         <v>623</v>
       </c>
+      <c r="DO26" t="n">
+        <v>25</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10382,6 +10542,12 @@
         <v>0</v>
       </c>
       <c r="DN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP27"/>
+  <dimension ref="A1:DR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1034,16 @@
           <t>CF天梯分_2022-03-08 08:21:36</t>
         </is>
       </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-09 08:21:10</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-09 08:21:10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1400,6 +1410,12 @@
       <c r="DP2" t="n">
         <v>1783</v>
       </c>
+      <c r="DQ2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1766,6 +1782,12 @@
       <c r="DP3" t="n">
         <v>1014</v>
       </c>
+      <c r="DQ3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2132,6 +2154,12 @@
       <c r="DP4" t="n">
         <v>1595</v>
       </c>
+      <c r="DQ4" t="n">
+        <v>408</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2498,6 +2526,12 @@
       <c r="DP5" t="n">
         <v>0</v>
       </c>
+      <c r="DQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2864,6 +2898,12 @@
       <c r="DP6" t="n">
         <v>1500</v>
       </c>
+      <c r="DQ6" t="n">
+        <v>44</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3230,6 +3270,12 @@
       <c r="DP7" t="n">
         <v>1407</v>
       </c>
+      <c r="DQ7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3596,6 +3642,12 @@
       <c r="DP8" t="n">
         <v>365</v>
       </c>
+      <c r="DQ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3962,6 +4014,12 @@
       <c r="DP9" t="n">
         <v>981</v>
       </c>
+      <c r="DQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4328,6 +4386,12 @@
       <c r="DP10" t="n">
         <v>362</v>
       </c>
+      <c r="DQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4694,6 +4758,12 @@
       <c r="DP11" t="n">
         <v>883</v>
       </c>
+      <c r="DQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5060,6 +5130,12 @@
       <c r="DP12" t="n">
         <v>1597</v>
       </c>
+      <c r="DQ12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5426,6 +5502,12 @@
       <c r="DP13" t="n">
         <v>442</v>
       </c>
+      <c r="DQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5792,6 +5874,12 @@
       <c r="DP14" t="n">
         <v>0</v>
       </c>
+      <c r="DQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6158,6 +6246,12 @@
       <c r="DP15" t="n">
         <v>905</v>
       </c>
+      <c r="DQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>907</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6524,6 +6618,12 @@
       <c r="DP16" t="n">
         <v>0</v>
       </c>
+      <c r="DQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6890,6 +6990,12 @@
       <c r="DP17" t="n">
         <v>821</v>
       </c>
+      <c r="DQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7256,6 +7362,12 @@
       <c r="DP18" t="n">
         <v>926</v>
       </c>
+      <c r="DQ18" t="n">
+        <v>167</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7622,6 +7734,12 @@
       <c r="DP19" t="n">
         <v>349</v>
       </c>
+      <c r="DQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7988,6 +8106,12 @@
       <c r="DP20" t="n">
         <v>349</v>
       </c>
+      <c r="DQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8354,6 +8478,12 @@
       <c r="DP21" t="n">
         <v>0</v>
       </c>
+      <c r="DQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8720,6 +8850,12 @@
       <c r="DP22" t="n">
         <v>0</v>
       </c>
+      <c r="DQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9086,6 +9222,12 @@
       <c r="DP23" t="n">
         <v>0</v>
       </c>
+      <c r="DQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9452,6 +9594,12 @@
       <c r="DP24" t="n">
         <v>0</v>
       </c>
+      <c r="DQ24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9818,6 +9966,12 @@
       <c r="DP25" t="n">
         <v>901</v>
       </c>
+      <c r="DQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10184,6 +10338,12 @@
       <c r="DP26" t="n">
         <v>623</v>
       </c>
+      <c r="DQ26" t="n">
+        <v>27</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10548,6 +10708,12 @@
         <v>0</v>
       </c>
       <c r="DP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR27"/>
+  <dimension ref="A1:DT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,6 +1044,16 @@
           <t>CF天梯分_2022-03-09 08:21:10</t>
         </is>
       </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-10 08:21:46</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-10 08:21:46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1416,6 +1426,12 @@
       <c r="DR2" t="n">
         <v>1783</v>
       </c>
+      <c r="DS2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1788,6 +1804,12 @@
       <c r="DR3" t="n">
         <v>1014</v>
       </c>
+      <c r="DS3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2160,6 +2182,12 @@
       <c r="DR4" t="n">
         <v>1595</v>
       </c>
+      <c r="DS4" t="n">
+        <v>408</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2532,6 +2560,12 @@
       <c r="DR5" t="n">
         <v>0</v>
       </c>
+      <c r="DS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2904,6 +2938,12 @@
       <c r="DR6" t="n">
         <v>1500</v>
       </c>
+      <c r="DS6" t="n">
+        <v>47</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3276,6 +3316,12 @@
       <c r="DR7" t="n">
         <v>1407</v>
       </c>
+      <c r="DS7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3648,6 +3694,12 @@
       <c r="DR8" t="n">
         <v>365</v>
       </c>
+      <c r="DS8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4020,6 +4072,12 @@
       <c r="DR9" t="n">
         <v>981</v>
       </c>
+      <c r="DS9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4392,6 +4450,12 @@
       <c r="DR10" t="n">
         <v>362</v>
       </c>
+      <c r="DS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4764,6 +4828,12 @@
       <c r="DR11" t="n">
         <v>883</v>
       </c>
+      <c r="DS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5136,6 +5206,12 @@
       <c r="DR12" t="n">
         <v>1597</v>
       </c>
+      <c r="DS12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5508,6 +5584,12 @@
       <c r="DR13" t="n">
         <v>442</v>
       </c>
+      <c r="DS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5880,6 +5962,12 @@
       <c r="DR14" t="n">
         <v>0</v>
       </c>
+      <c r="DS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6252,6 +6340,12 @@
       <c r="DR15" t="n">
         <v>907</v>
       </c>
+      <c r="DS15" t="n">
+        <v>51</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6624,6 +6718,12 @@
       <c r="DR16" t="n">
         <v>0</v>
       </c>
+      <c r="DS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6996,6 +7096,12 @@
       <c r="DR17" t="n">
         <v>821</v>
       </c>
+      <c r="DS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7368,6 +7474,12 @@
       <c r="DR18" t="n">
         <v>926</v>
       </c>
+      <c r="DS18" t="n">
+        <v>167</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7740,6 +7852,12 @@
       <c r="DR19" t="n">
         <v>349</v>
       </c>
+      <c r="DS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8112,6 +8230,12 @@
       <c r="DR20" t="n">
         <v>349</v>
       </c>
+      <c r="DS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8484,6 +8608,12 @@
       <c r="DR21" t="n">
         <v>0</v>
       </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8856,6 +8986,12 @@
       <c r="DR22" t="n">
         <v>0</v>
       </c>
+      <c r="DS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9228,6 +9364,12 @@
       <c r="DR23" t="n">
         <v>0</v>
       </c>
+      <c r="DS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9600,6 +9742,12 @@
       <c r="DR24" t="n">
         <v>0</v>
       </c>
+      <c r="DS24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9972,6 +10120,12 @@
       <c r="DR25" t="n">
         <v>901</v>
       </c>
+      <c r="DS25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10344,6 +10498,12 @@
       <c r="DR26" t="n">
         <v>623</v>
       </c>
+      <c r="DS26" t="n">
+        <v>27</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10714,6 +10874,12 @@
         <v>0</v>
       </c>
       <c r="DR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT27"/>
+  <dimension ref="A1:DV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,6 +1054,16 @@
           <t>CF天梯分_2022-03-10 08:21:46</t>
         </is>
       </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-11 08:21:26</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-11 08:21:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1432,6 +1442,12 @@
       <c r="DT2" t="n">
         <v>1783</v>
       </c>
+      <c r="DU2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1810,6 +1826,12 @@
       <c r="DT3" t="n">
         <v>1014</v>
       </c>
+      <c r="DU3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2188,6 +2210,12 @@
       <c r="DT4" t="n">
         <v>1595</v>
       </c>
+      <c r="DU4" t="n">
+        <v>408</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2566,6 +2594,12 @@
       <c r="DT5" t="n">
         <v>0</v>
       </c>
+      <c r="DU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2944,6 +2978,12 @@
       <c r="DT6" t="n">
         <v>1500</v>
       </c>
+      <c r="DU6" t="n">
+        <v>50</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3322,6 +3362,12 @@
       <c r="DT7" t="n">
         <v>1407</v>
       </c>
+      <c r="DU7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3700,6 +3746,12 @@
       <c r="DT8" t="n">
         <v>365</v>
       </c>
+      <c r="DU8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4078,6 +4130,12 @@
       <c r="DT9" t="n">
         <v>981</v>
       </c>
+      <c r="DU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4456,6 +4514,12 @@
       <c r="DT10" t="n">
         <v>362</v>
       </c>
+      <c r="DU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4834,6 +4898,12 @@
       <c r="DT11" t="n">
         <v>883</v>
       </c>
+      <c r="DU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5212,6 +5282,12 @@
       <c r="DT12" t="n">
         <v>1597</v>
       </c>
+      <c r="DU12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5590,6 +5666,12 @@
       <c r="DT13" t="n">
         <v>442</v>
       </c>
+      <c r="DU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5968,6 +6050,12 @@
       <c r="DT14" t="n">
         <v>0</v>
       </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6346,6 +6434,12 @@
       <c r="DT15" t="n">
         <v>905</v>
       </c>
+      <c r="DU15" t="n">
+        <v>51</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6724,6 +6818,12 @@
       <c r="DT16" t="n">
         <v>0</v>
       </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7102,6 +7202,12 @@
       <c r="DT17" t="n">
         <v>821</v>
       </c>
+      <c r="DU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7480,6 +7586,12 @@
       <c r="DT18" t="n">
         <v>892</v>
       </c>
+      <c r="DU18" t="n">
+        <v>167</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7858,6 +7970,12 @@
       <c r="DT19" t="n">
         <v>349</v>
       </c>
+      <c r="DU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8236,6 +8354,12 @@
       <c r="DT20" t="n">
         <v>349</v>
       </c>
+      <c r="DU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8614,6 +8738,12 @@
       <c r="DT21" t="n">
         <v>0</v>
       </c>
+      <c r="DU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8992,6 +9122,12 @@
       <c r="DT22" t="n">
         <v>0</v>
       </c>
+      <c r="DU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9370,6 +9506,12 @@
       <c r="DT23" t="n">
         <v>0</v>
       </c>
+      <c r="DU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9748,6 +9890,12 @@
       <c r="DT24" t="n">
         <v>0</v>
       </c>
+      <c r="DU24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10126,6 +10274,12 @@
       <c r="DT25" t="n">
         <v>901</v>
       </c>
+      <c r="DU25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10504,6 +10658,12 @@
       <c r="DT26" t="n">
         <v>784</v>
       </c>
+      <c r="DU26" t="n">
+        <v>27</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10880,6 +11040,12 @@
         <v>0</v>
       </c>
       <c r="DT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV27"/>
+  <dimension ref="A1:DX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,16 @@
           <t>CF天梯分_2022-03-11 08:21:26</t>
         </is>
       </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-11 15:49:19</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-11 15:49:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1448,6 +1458,12 @@
       <c r="DV2" t="n">
         <v>1783</v>
       </c>
+      <c r="DW2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1832,6 +1848,12 @@
       <c r="DV3" t="n">
         <v>1014</v>
       </c>
+      <c r="DW3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2216,6 +2238,12 @@
       <c r="DV4" t="n">
         <v>1595</v>
       </c>
+      <c r="DW4" t="n">
+        <v>408</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2600,6 +2628,12 @@
       <c r="DV5" t="n">
         <v>0</v>
       </c>
+      <c r="DW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2984,6 +3018,12 @@
       <c r="DV6" t="n">
         <v>1500</v>
       </c>
+      <c r="DW6" t="n">
+        <v>50</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3368,6 +3408,12 @@
       <c r="DV7" t="n">
         <v>1407</v>
       </c>
+      <c r="DW7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3752,6 +3798,12 @@
       <c r="DV8" t="n">
         <v>365</v>
       </c>
+      <c r="DW8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4136,6 +4188,12 @@
       <c r="DV9" t="n">
         <v>981</v>
       </c>
+      <c r="DW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4520,6 +4578,12 @@
       <c r="DV10" t="n">
         <v>362</v>
       </c>
+      <c r="DW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4904,6 +4968,12 @@
       <c r="DV11" t="n">
         <v>883</v>
       </c>
+      <c r="DW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5288,6 +5358,12 @@
       <c r="DV12" t="n">
         <v>1597</v>
       </c>
+      <c r="DW12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5672,6 +5748,12 @@
       <c r="DV13" t="n">
         <v>442</v>
       </c>
+      <c r="DW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6056,6 +6138,12 @@
       <c r="DV14" t="n">
         <v>0</v>
       </c>
+      <c r="DW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6440,6 +6528,12 @@
       <c r="DV15" t="n">
         <v>905</v>
       </c>
+      <c r="DW15" t="n">
+        <v>52</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6824,6 +6918,12 @@
       <c r="DV16" t="n">
         <v>0</v>
       </c>
+      <c r="DW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7208,6 +7308,12 @@
       <c r="DV17" t="n">
         <v>821</v>
       </c>
+      <c r="DW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7592,6 +7698,12 @@
       <c r="DV18" t="n">
         <v>892</v>
       </c>
+      <c r="DW18" t="n">
+        <v>167</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7976,6 +8088,12 @@
       <c r="DV19" t="n">
         <v>349</v>
       </c>
+      <c r="DW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8360,6 +8478,12 @@
       <c r="DV20" t="n">
         <v>349</v>
       </c>
+      <c r="DW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8744,6 +8868,12 @@
       <c r="DV21" t="n">
         <v>0</v>
       </c>
+      <c r="DW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9128,6 +9258,12 @@
       <c r="DV22" t="n">
         <v>0</v>
       </c>
+      <c r="DW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9512,6 +9648,12 @@
       <c r="DV23" t="n">
         <v>0</v>
       </c>
+      <c r="DW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9896,6 +10038,12 @@
       <c r="DV24" t="n">
         <v>0</v>
       </c>
+      <c r="DW24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10280,6 +10428,12 @@
       <c r="DV25" t="n">
         <v>901</v>
       </c>
+      <c r="DW25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10664,6 +10818,12 @@
       <c r="DV26" t="n">
         <v>784</v>
       </c>
+      <c r="DW26" t="n">
+        <v>27</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11046,6 +11206,12 @@
         <v>0</v>
       </c>
       <c r="DV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX27"/>
+  <dimension ref="A1:DZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,16 @@
           <t>CF天梯分_2022-03-11 15:49:19</t>
         </is>
       </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-12 08:20:29</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-12 08:20:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1464,6 +1474,12 @@
       <c r="DX2" t="n">
         <v>1783</v>
       </c>
+      <c r="DY2" t="n">
+        <v>740</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1854,6 +1870,12 @@
       <c r="DX3" t="n">
         <v>1014</v>
       </c>
+      <c r="DY3" t="n">
+        <v>85</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2244,6 +2266,12 @@
       <c r="DX4" t="n">
         <v>1595</v>
       </c>
+      <c r="DY4" t="n">
+        <v>408</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2634,6 +2662,12 @@
       <c r="DX5" t="n">
         <v>0</v>
       </c>
+      <c r="DY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3024,6 +3058,12 @@
       <c r="DX6" t="n">
         <v>1500</v>
       </c>
+      <c r="DY6" t="n">
+        <v>50</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3414,6 +3454,12 @@
       <c r="DX7" t="n">
         <v>1407</v>
       </c>
+      <c r="DY7" t="n">
+        <v>132</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3804,6 +3850,12 @@
       <c r="DX8" t="n">
         <v>365</v>
       </c>
+      <c r="DY8" t="n">
+        <v>36</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4194,6 +4246,12 @@
       <c r="DX9" t="n">
         <v>981</v>
       </c>
+      <c r="DY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4584,6 +4642,12 @@
       <c r="DX10" t="n">
         <v>362</v>
       </c>
+      <c r="DY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4974,6 +5038,12 @@
       <c r="DX11" t="n">
         <v>883</v>
       </c>
+      <c r="DY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5364,6 +5434,12 @@
       <c r="DX12" t="n">
         <v>1597</v>
       </c>
+      <c r="DY12" t="n">
+        <v>180</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5754,6 +5830,12 @@
       <c r="DX13" t="n">
         <v>442</v>
       </c>
+      <c r="DY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6144,6 +6226,12 @@
       <c r="DX14" t="n">
         <v>0</v>
       </c>
+      <c r="DY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6534,6 +6622,12 @@
       <c r="DX15" t="n">
         <v>905</v>
       </c>
+      <c r="DY15" t="n">
+        <v>52</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6924,6 +7018,12 @@
       <c r="DX16" t="n">
         <v>0</v>
       </c>
+      <c r="DY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7314,6 +7414,12 @@
       <c r="DX17" t="n">
         <v>821</v>
       </c>
+      <c r="DY17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7704,6 +7810,12 @@
       <c r="DX18" t="n">
         <v>892</v>
       </c>
+      <c r="DY18" t="n">
+        <v>167</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8094,6 +8206,12 @@
       <c r="DX19" t="n">
         <v>349</v>
       </c>
+      <c r="DY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8484,6 +8602,12 @@
       <c r="DX20" t="n">
         <v>349</v>
       </c>
+      <c r="DY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8874,6 +8998,12 @@
       <c r="DX21" t="n">
         <v>0</v>
       </c>
+      <c r="DY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9264,6 +9394,12 @@
       <c r="DX22" t="n">
         <v>0</v>
       </c>
+      <c r="DY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9654,6 +9790,12 @@
       <c r="DX23" t="n">
         <v>0</v>
       </c>
+      <c r="DY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10044,6 +10186,12 @@
       <c r="DX24" t="n">
         <v>0</v>
       </c>
+      <c r="DY24" t="n">
+        <v>301</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10434,6 +10582,12 @@
       <c r="DX25" t="n">
         <v>901</v>
       </c>
+      <c r="DY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10824,6 +10978,12 @@
       <c r="DX26" t="n">
         <v>784</v>
       </c>
+      <c r="DY26" t="n">
+        <v>27</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11212,6 +11372,12 @@
         <v>0</v>
       </c>
       <c r="DX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ27"/>
+  <dimension ref="A1:EB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,6 +1084,16 @@
           <t>CF天梯分_2022-03-12 08:20:29</t>
         </is>
       </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-13 08:20:19</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-13 08:20:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1480,6 +1490,12 @@
       <c r="DZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="EA2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1876,6 +1892,12 @@
       <c r="DZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="EA3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2272,6 +2294,12 @@
       <c r="DZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="EA4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2668,6 +2696,12 @@
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
+      <c r="EA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3064,6 +3098,12 @@
       <c r="DZ6" t="n">
         <v>1500</v>
       </c>
+      <c r="EA6" t="n">
+        <v>50</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3460,6 +3500,12 @@
       <c r="DZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="EA7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3856,6 +3902,12 @@
       <c r="DZ8" t="n">
         <v>365</v>
       </c>
+      <c r="EA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4252,6 +4304,12 @@
       <c r="DZ9" t="n">
         <v>981</v>
       </c>
+      <c r="EA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4648,6 +4706,12 @@
       <c r="DZ10" t="n">
         <v>362</v>
       </c>
+      <c r="EA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5044,6 +5108,12 @@
       <c r="DZ11" t="n">
         <v>883</v>
       </c>
+      <c r="EA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5440,6 +5510,12 @@
       <c r="DZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="EA12" t="n">
+        <v>180</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5836,6 +5912,12 @@
       <c r="DZ13" t="n">
         <v>442</v>
       </c>
+      <c r="EA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6232,6 +6314,12 @@
       <c r="DZ14" t="n">
         <v>0</v>
       </c>
+      <c r="EA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6628,6 +6716,12 @@
       <c r="DZ15" t="n">
         <v>905</v>
       </c>
+      <c r="EA15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7024,6 +7118,12 @@
       <c r="DZ16" t="n">
         <v>0</v>
       </c>
+      <c r="EA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7420,6 +7520,12 @@
       <c r="DZ17" t="n">
         <v>821</v>
       </c>
+      <c r="EA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7816,6 +7922,12 @@
       <c r="DZ18" t="n">
         <v>892</v>
       </c>
+      <c r="EA18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EB18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8212,6 +8324,12 @@
       <c r="DZ19" t="n">
         <v>349</v>
       </c>
+      <c r="EA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8608,6 +8726,12 @@
       <c r="DZ20" t="n">
         <v>349</v>
       </c>
+      <c r="EA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9004,6 +9128,12 @@
       <c r="DZ21" t="n">
         <v>0</v>
       </c>
+      <c r="EA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9400,6 +9530,12 @@
       <c r="DZ22" t="n">
         <v>0</v>
       </c>
+      <c r="EA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9796,6 +9932,12 @@
       <c r="DZ23" t="n">
         <v>0</v>
       </c>
+      <c r="EA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10192,6 +10334,12 @@
       <c r="DZ24" t="n">
         <v>0</v>
       </c>
+      <c r="EA24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10588,6 +10736,12 @@
       <c r="DZ25" t="n">
         <v>901</v>
       </c>
+      <c r="EA25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10984,6 +11138,12 @@
       <c r="DZ26" t="n">
         <v>784</v>
       </c>
+      <c r="EA26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11378,6 +11538,12 @@
         <v>0</v>
       </c>
       <c r="DZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EB27"/>
+  <dimension ref="A1:ED27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,6 +1094,16 @@
           <t>CF天梯分_2022-03-13 08:20:19</t>
         </is>
       </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-14 08:21:36</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-14 08:21:36</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1496,6 +1506,12 @@
       <c r="EB2" t="n">
         <v>1783</v>
       </c>
+      <c r="EC2" t="n">
+        <v>740</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1898,6 +1914,12 @@
       <c r="EB3" t="n">
         <v>1014</v>
       </c>
+      <c r="EC3" t="n">
+        <v>85</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2300,6 +2322,12 @@
       <c r="EB4" t="n">
         <v>1595</v>
       </c>
+      <c r="EC4" t="n">
+        <v>408</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2702,6 +2730,12 @@
       <c r="EB5" t="n">
         <v>0</v>
       </c>
+      <c r="EC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3104,6 +3138,12 @@
       <c r="EB6" t="n">
         <v>1500</v>
       </c>
+      <c r="EC6" t="n">
+        <v>50</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3506,6 +3546,12 @@
       <c r="EB7" t="n">
         <v>1407</v>
       </c>
+      <c r="EC7" t="n">
+        <v>132</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3908,6 +3954,12 @@
       <c r="EB8" t="n">
         <v>365</v>
       </c>
+      <c r="EC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4310,6 +4362,12 @@
       <c r="EB9" t="n">
         <v>981</v>
       </c>
+      <c r="EC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4712,6 +4770,12 @@
       <c r="EB10" t="n">
         <v>362</v>
       </c>
+      <c r="EC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5114,6 +5178,12 @@
       <c r="EB11" t="n">
         <v>883</v>
       </c>
+      <c r="EC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5516,6 +5586,12 @@
       <c r="EB12" t="n">
         <v>1597</v>
       </c>
+      <c r="EC12" t="n">
+        <v>180</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5918,6 +5994,12 @@
       <c r="EB13" t="n">
         <v>442</v>
       </c>
+      <c r="EC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6320,6 +6402,12 @@
       <c r="EB14" t="n">
         <v>0</v>
       </c>
+      <c r="EC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6722,6 +6810,12 @@
       <c r="EB15" t="n">
         <v>905</v>
       </c>
+      <c r="EC15" t="n">
+        <v>52</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7124,6 +7218,12 @@
       <c r="EB16" t="n">
         <v>0</v>
       </c>
+      <c r="EC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7526,6 +7626,12 @@
       <c r="EB17" t="n">
         <v>821</v>
       </c>
+      <c r="EC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7928,6 +8034,12 @@
       <c r="EB18" t="n">
         <v>892</v>
       </c>
+      <c r="EC18" t="n">
+        <v>167</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8330,6 +8442,12 @@
       <c r="EB19" t="n">
         <v>349</v>
       </c>
+      <c r="EC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8732,6 +8850,12 @@
       <c r="EB20" t="n">
         <v>349</v>
       </c>
+      <c r="EC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9134,6 +9258,12 @@
       <c r="EB21" t="n">
         <v>0</v>
       </c>
+      <c r="EC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9536,6 +9666,12 @@
       <c r="EB22" t="n">
         <v>0</v>
       </c>
+      <c r="EC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9938,6 +10074,12 @@
       <c r="EB23" t="n">
         <v>0</v>
       </c>
+      <c r="EC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10340,6 +10482,12 @@
       <c r="EB24" t="n">
         <v>0</v>
       </c>
+      <c r="EC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10742,6 +10890,12 @@
       <c r="EB25" t="n">
         <v>901</v>
       </c>
+      <c r="EC25" t="n">
+        <v>34</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11144,6 +11298,12 @@
       <c r="EB26" t="n">
         <v>784</v>
       </c>
+      <c r="EC26" t="n">
+        <v>27</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11544,6 +11704,12 @@
         <v>0</v>
       </c>
       <c r="EB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED27"/>
+  <dimension ref="A1:EF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,6 +1104,16 @@
           <t>CF天梯分_2022-03-14 08:21:36</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-15 08:21:44</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-15 08:21:44</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1512,6 +1522,12 @@
       <c r="ED2" t="n">
         <v>1783</v>
       </c>
+      <c r="EE2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1920,6 +1936,12 @@
       <c r="ED3" t="n">
         <v>1014</v>
       </c>
+      <c r="EE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2328,6 +2350,12 @@
       <c r="ED4" t="n">
         <v>1595</v>
       </c>
+      <c r="EE4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2736,6 +2764,12 @@
       <c r="ED5" t="n">
         <v>0</v>
       </c>
+      <c r="EE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3144,6 +3178,12 @@
       <c r="ED6" t="n">
         <v>1500</v>
       </c>
+      <c r="EE6" t="n">
+        <v>50</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3552,6 +3592,12 @@
       <c r="ED7" t="n">
         <v>1407</v>
       </c>
+      <c r="EE7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3960,6 +4006,12 @@
       <c r="ED8" t="n">
         <v>365</v>
       </c>
+      <c r="EE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4368,6 +4420,12 @@
       <c r="ED9" t="n">
         <v>981</v>
       </c>
+      <c r="EE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4776,6 +4834,12 @@
       <c r="ED10" t="n">
         <v>362</v>
       </c>
+      <c r="EE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5184,6 +5248,12 @@
       <c r="ED11" t="n">
         <v>883</v>
       </c>
+      <c r="EE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5592,6 +5662,12 @@
       <c r="ED12" t="n">
         <v>1597</v>
       </c>
+      <c r="EE12" t="n">
+        <v>180</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6000,6 +6076,12 @@
       <c r="ED13" t="n">
         <v>442</v>
       </c>
+      <c r="EE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6408,6 +6490,12 @@
       <c r="ED14" t="n">
         <v>0</v>
       </c>
+      <c r="EE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6816,6 +6904,12 @@
       <c r="ED15" t="n">
         <v>905</v>
       </c>
+      <c r="EE15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7224,6 +7318,12 @@
       <c r="ED16" t="n">
         <v>0</v>
       </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7632,6 +7732,12 @@
       <c r="ED17" t="n">
         <v>821</v>
       </c>
+      <c r="EE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8040,6 +8146,12 @@
       <c r="ED18" t="n">
         <v>892</v>
       </c>
+      <c r="EE18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8448,6 +8560,12 @@
       <c r="ED19" t="n">
         <v>349</v>
       </c>
+      <c r="EE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8856,6 +8974,12 @@
       <c r="ED20" t="n">
         <v>349</v>
       </c>
+      <c r="EE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9264,6 +9388,12 @@
       <c r="ED21" t="n">
         <v>0</v>
       </c>
+      <c r="EE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9672,6 +9802,12 @@
       <c r="ED22" t="n">
         <v>0</v>
       </c>
+      <c r="EE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10080,6 +10216,12 @@
       <c r="ED23" t="n">
         <v>0</v>
       </c>
+      <c r="EE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10488,6 +10630,12 @@
       <c r="ED24" t="n">
         <v>0</v>
       </c>
+      <c r="EE24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10896,6 +11044,12 @@
       <c r="ED25" t="n">
         <v>901</v>
       </c>
+      <c r="EE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11304,6 +11458,12 @@
       <c r="ED26" t="n">
         <v>784</v>
       </c>
+      <c r="EE26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11710,6 +11870,12 @@
         <v>0</v>
       </c>
       <c r="ED27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EF27"/>
+  <dimension ref="A1:EH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,6 +1114,16 @@
           <t>CF天梯分_2022-03-15 08:21:44</t>
         </is>
       </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-16 08:21:17</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-16 08:21:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1528,6 +1538,12 @@
       <c r="EF2" t="n">
         <v>1783</v>
       </c>
+      <c r="EG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1942,6 +1958,12 @@
       <c r="EF3" t="n">
         <v>1014</v>
       </c>
+      <c r="EG3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2356,6 +2378,12 @@
       <c r="EF4" t="n">
         <v>1595</v>
       </c>
+      <c r="EG4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2770,6 +2798,12 @@
       <c r="EF5" t="n">
         <v>0</v>
       </c>
+      <c r="EG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3184,6 +3218,12 @@
       <c r="EF6" t="n">
         <v>1500</v>
       </c>
+      <c r="EG6" t="n">
+        <v>50</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3598,6 +3638,12 @@
       <c r="EF7" t="n">
         <v>1407</v>
       </c>
+      <c r="EG7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4012,6 +4058,12 @@
       <c r="EF8" t="n">
         <v>365</v>
       </c>
+      <c r="EG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4426,6 +4478,12 @@
       <c r="EF9" t="n">
         <v>981</v>
       </c>
+      <c r="EG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4840,6 +4898,12 @@
       <c r="EF10" t="n">
         <v>362</v>
       </c>
+      <c r="EG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5254,6 +5318,12 @@
       <c r="EF11" t="n">
         <v>883</v>
       </c>
+      <c r="EG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5668,6 +5738,12 @@
       <c r="EF12" t="n">
         <v>1597</v>
       </c>
+      <c r="EG12" t="n">
+        <v>180</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6082,6 +6158,12 @@
       <c r="EF13" t="n">
         <v>442</v>
       </c>
+      <c r="EG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6496,6 +6578,12 @@
       <c r="EF14" t="n">
         <v>0</v>
       </c>
+      <c r="EG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6910,6 +6998,12 @@
       <c r="EF15" t="n">
         <v>905</v>
       </c>
+      <c r="EG15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7324,6 +7418,12 @@
       <c r="EF16" t="n">
         <v>0</v>
       </c>
+      <c r="EG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7738,6 +7838,12 @@
       <c r="EF17" t="n">
         <v>821</v>
       </c>
+      <c r="EG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8152,6 +8258,12 @@
       <c r="EF18" t="n">
         <v>892</v>
       </c>
+      <c r="EG18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8566,6 +8678,12 @@
       <c r="EF19" t="n">
         <v>349</v>
       </c>
+      <c r="EG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8980,6 +9098,12 @@
       <c r="EF20" t="n">
         <v>349</v>
       </c>
+      <c r="EG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9394,6 +9518,12 @@
       <c r="EF21" t="n">
         <v>0</v>
       </c>
+      <c r="EG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9808,6 +9938,12 @@
       <c r="EF22" t="n">
         <v>0</v>
       </c>
+      <c r="EG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10222,6 +10358,12 @@
       <c r="EF23" t="n">
         <v>0</v>
       </c>
+      <c r="EG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10636,6 +10778,12 @@
       <c r="EF24" t="n">
         <v>0</v>
       </c>
+      <c r="EG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11050,6 +11198,12 @@
       <c r="EF25" t="n">
         <v>901</v>
       </c>
+      <c r="EG25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11464,6 +11618,12 @@
       <c r="EF26" t="n">
         <v>784</v>
       </c>
+      <c r="EG26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11876,6 +12036,12 @@
         <v>0</v>
       </c>
       <c r="EF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH27"/>
+  <dimension ref="A1:EJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,6 +1124,16 @@
           <t>CF天梯分_2022-03-16 08:21:17</t>
         </is>
       </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-17 08:21:08</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-17 08:21:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1544,6 +1554,12 @@
       <c r="EH2" t="n">
         <v>1783</v>
       </c>
+      <c r="EI2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1964,6 +1980,12 @@
       <c r="EH3" t="n">
         <v>1014</v>
       </c>
+      <c r="EI3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2384,6 +2406,12 @@
       <c r="EH4" t="n">
         <v>1595</v>
       </c>
+      <c r="EI4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2804,6 +2832,12 @@
       <c r="EH5" t="n">
         <v>0</v>
       </c>
+      <c r="EI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3224,6 +3258,12 @@
       <c r="EH6" t="n">
         <v>1500</v>
       </c>
+      <c r="EI6" t="n">
+        <v>50</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3644,6 +3684,12 @@
       <c r="EH7" t="n">
         <v>1407</v>
       </c>
+      <c r="EI7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4064,6 +4110,12 @@
       <c r="EH8" t="n">
         <v>365</v>
       </c>
+      <c r="EI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4484,6 +4536,12 @@
       <c r="EH9" t="n">
         <v>981</v>
       </c>
+      <c r="EI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4904,6 +4962,12 @@
       <c r="EH10" t="n">
         <v>362</v>
       </c>
+      <c r="EI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5324,6 +5388,12 @@
       <c r="EH11" t="n">
         <v>883</v>
       </c>
+      <c r="EI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5744,6 +5814,12 @@
       <c r="EH12" t="n">
         <v>1597</v>
       </c>
+      <c r="EI12" t="n">
+        <v>180</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6164,6 +6240,12 @@
       <c r="EH13" t="n">
         <v>442</v>
       </c>
+      <c r="EI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6584,6 +6666,12 @@
       <c r="EH14" t="n">
         <v>0</v>
       </c>
+      <c r="EI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7004,6 +7092,12 @@
       <c r="EH15" t="n">
         <v>905</v>
       </c>
+      <c r="EI15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7424,6 +7518,12 @@
       <c r="EH16" t="n">
         <v>0</v>
       </c>
+      <c r="EI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7844,6 +7944,12 @@
       <c r="EH17" t="n">
         <v>821</v>
       </c>
+      <c r="EI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8264,6 +8370,12 @@
       <c r="EH18" t="n">
         <v>892</v>
       </c>
+      <c r="EI18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8684,6 +8796,12 @@
       <c r="EH19" t="n">
         <v>349</v>
       </c>
+      <c r="EI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9104,6 +9222,12 @@
       <c r="EH20" t="n">
         <v>349</v>
       </c>
+      <c r="EI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9524,6 +9648,12 @@
       <c r="EH21" t="n">
         <v>0</v>
       </c>
+      <c r="EI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9944,6 +10074,12 @@
       <c r="EH22" t="n">
         <v>0</v>
       </c>
+      <c r="EI22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10364,6 +10500,12 @@
       <c r="EH23" t="n">
         <v>0</v>
       </c>
+      <c r="EI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10784,6 +10926,12 @@
       <c r="EH24" t="n">
         <v>0</v>
       </c>
+      <c r="EI24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11204,6 +11352,12 @@
       <c r="EH25" t="n">
         <v>901</v>
       </c>
+      <c r="EI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11624,6 +11778,12 @@
       <c r="EH26" t="n">
         <v>784</v>
       </c>
+      <c r="EI26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12042,6 +12202,12 @@
         <v>0</v>
       </c>
       <c r="EH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ27"/>
+  <dimension ref="A1:EL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,6 +1134,16 @@
           <t>CF天梯分_2022-03-17 08:21:08</t>
         </is>
       </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-18 08:21:11</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-18 08:21:11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1560,6 +1570,12 @@
       <c r="EJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="EK2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1986,6 +2002,12 @@
       <c r="EJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="EK3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2412,6 +2434,12 @@
       <c r="EJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="EK4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2838,6 +2866,12 @@
       <c r="EJ5" t="n">
         <v>0</v>
       </c>
+      <c r="EK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3264,6 +3298,12 @@
       <c r="EJ6" t="n">
         <v>1500</v>
       </c>
+      <c r="EK6" t="n">
+        <v>50</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3690,6 +3730,12 @@
       <c r="EJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="EK7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4116,6 +4162,12 @@
       <c r="EJ8" t="n">
         <v>365</v>
       </c>
+      <c r="EK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4542,6 +4594,12 @@
       <c r="EJ9" t="n">
         <v>981</v>
       </c>
+      <c r="EK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4968,6 +5026,12 @@
       <c r="EJ10" t="n">
         <v>362</v>
       </c>
+      <c r="EK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5394,6 +5458,12 @@
       <c r="EJ11" t="n">
         <v>883</v>
       </c>
+      <c r="EK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5820,6 +5890,12 @@
       <c r="EJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="EK12" t="n">
+        <v>180</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6246,6 +6322,12 @@
       <c r="EJ13" t="n">
         <v>442</v>
       </c>
+      <c r="EK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6672,6 +6754,12 @@
       <c r="EJ14" t="n">
         <v>0</v>
       </c>
+      <c r="EK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7098,6 +7186,12 @@
       <c r="EJ15" t="n">
         <v>905</v>
       </c>
+      <c r="EK15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7524,6 +7618,12 @@
       <c r="EJ16" t="n">
         <v>0</v>
       </c>
+      <c r="EK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7950,6 +8050,12 @@
       <c r="EJ17" t="n">
         <v>821</v>
       </c>
+      <c r="EK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8376,6 +8482,12 @@
       <c r="EJ18" t="n">
         <v>892</v>
       </c>
+      <c r="EK18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8802,6 +8914,12 @@
       <c r="EJ19" t="n">
         <v>349</v>
       </c>
+      <c r="EK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9228,6 +9346,12 @@
       <c r="EJ20" t="n">
         <v>349</v>
       </c>
+      <c r="EK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9654,6 +9778,12 @@
       <c r="EJ21" t="n">
         <v>0</v>
       </c>
+      <c r="EK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10080,6 +10210,12 @@
       <c r="EJ22" t="n">
         <v>0</v>
       </c>
+      <c r="EK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10506,6 +10642,12 @@
       <c r="EJ23" t="n">
         <v>0</v>
       </c>
+      <c r="EK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10932,6 +11074,12 @@
       <c r="EJ24" t="n">
         <v>0</v>
       </c>
+      <c r="EK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11358,6 +11506,12 @@
       <c r="EJ25" t="n">
         <v>901</v>
       </c>
+      <c r="EK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11784,6 +11938,12 @@
       <c r="EJ26" t="n">
         <v>784</v>
       </c>
+      <c r="EK26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12208,6 +12368,12 @@
         <v>0</v>
       </c>
       <c r="EJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL27"/>
+  <dimension ref="A1:EN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,6 +1144,16 @@
           <t>CF天梯分_2022-03-18 08:21:11</t>
         </is>
       </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-19 08:20:24</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-19 08:20:24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1576,6 +1586,12 @@
       <c r="EL2" t="n">
         <v>1783</v>
       </c>
+      <c r="EM2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2008,6 +2024,12 @@
       <c r="EL3" t="n">
         <v>1014</v>
       </c>
+      <c r="EM3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2440,6 +2462,12 @@
       <c r="EL4" t="n">
         <v>1595</v>
       </c>
+      <c r="EM4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2872,6 +2900,12 @@
       <c r="EL5" t="n">
         <v>0</v>
       </c>
+      <c r="EM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3304,6 +3338,12 @@
       <c r="EL6" t="n">
         <v>1500</v>
       </c>
+      <c r="EM6" t="n">
+        <v>50</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3736,6 +3776,12 @@
       <c r="EL7" t="n">
         <v>1407</v>
       </c>
+      <c r="EM7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4168,6 +4214,12 @@
       <c r="EL8" t="n">
         <v>365</v>
       </c>
+      <c r="EM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4600,6 +4652,12 @@
       <c r="EL9" t="n">
         <v>981</v>
       </c>
+      <c r="EM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5032,6 +5090,12 @@
       <c r="EL10" t="n">
         <v>362</v>
       </c>
+      <c r="EM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5464,6 +5528,12 @@
       <c r="EL11" t="n">
         <v>883</v>
       </c>
+      <c r="EM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5896,6 +5966,12 @@
       <c r="EL12" t="n">
         <v>1597</v>
       </c>
+      <c r="EM12" t="n">
+        <v>180</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6328,6 +6404,12 @@
       <c r="EL13" t="n">
         <v>442</v>
       </c>
+      <c r="EM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6760,6 +6842,12 @@
       <c r="EL14" t="n">
         <v>0</v>
       </c>
+      <c r="EM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7192,6 +7280,12 @@
       <c r="EL15" t="n">
         <v>905</v>
       </c>
+      <c r="EM15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7624,6 +7718,12 @@
       <c r="EL16" t="n">
         <v>0</v>
       </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8056,6 +8156,12 @@
       <c r="EL17" t="n">
         <v>821</v>
       </c>
+      <c r="EM17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8488,6 +8594,12 @@
       <c r="EL18" t="n">
         <v>892</v>
       </c>
+      <c r="EM18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8920,6 +9032,12 @@
       <c r="EL19" t="n">
         <v>349</v>
       </c>
+      <c r="EM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9352,6 +9470,12 @@
       <c r="EL20" t="n">
         <v>349</v>
       </c>
+      <c r="EM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9784,6 +9908,12 @@
       <c r="EL21" t="n">
         <v>0</v>
       </c>
+      <c r="EM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10216,6 +10346,12 @@
       <c r="EL22" t="n">
         <v>0</v>
       </c>
+      <c r="EM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10648,6 +10784,12 @@
       <c r="EL23" t="n">
         <v>0</v>
       </c>
+      <c r="EM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11080,6 +11222,12 @@
       <c r="EL24" t="n">
         <v>0</v>
       </c>
+      <c r="EM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11512,6 +11660,12 @@
       <c r="EL25" t="n">
         <v>901</v>
       </c>
+      <c r="EM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11944,6 +12098,12 @@
       <c r="EL26" t="n">
         <v>784</v>
       </c>
+      <c r="EM26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12374,6 +12534,12 @@
         <v>0</v>
       </c>
       <c r="EL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EN27"/>
+  <dimension ref="A1:EP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,6 +1154,16 @@
           <t>CF天梯分_2022-03-19 08:20:24</t>
         </is>
       </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-20 08:20:29</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-20 08:20:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1592,6 +1602,12 @@
       <c r="EN2" t="n">
         <v>1783</v>
       </c>
+      <c r="EO2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2030,6 +2046,12 @@
       <c r="EN3" t="n">
         <v>1014</v>
       </c>
+      <c r="EO3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2468,6 +2490,12 @@
       <c r="EN4" t="n">
         <v>1595</v>
       </c>
+      <c r="EO4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2906,6 +2934,12 @@
       <c r="EN5" t="n">
         <v>0</v>
       </c>
+      <c r="EO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3344,6 +3378,12 @@
       <c r="EN6" t="n">
         <v>1500</v>
       </c>
+      <c r="EO6" t="n">
+        <v>50</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3782,6 +3822,12 @@
       <c r="EN7" t="n">
         <v>1407</v>
       </c>
+      <c r="EO7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4220,6 +4266,12 @@
       <c r="EN8" t="n">
         <v>365</v>
       </c>
+      <c r="EO8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4658,6 +4710,12 @@
       <c r="EN9" t="n">
         <v>981</v>
       </c>
+      <c r="EO9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5096,6 +5154,12 @@
       <c r="EN10" t="n">
         <v>362</v>
       </c>
+      <c r="EO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5534,6 +5598,12 @@
       <c r="EN11" t="n">
         <v>883</v>
       </c>
+      <c r="EO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5972,6 +6042,12 @@
       <c r="EN12" t="n">
         <v>1597</v>
       </c>
+      <c r="EO12" t="n">
+        <v>180</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6410,6 +6486,12 @@
       <c r="EN13" t="n">
         <v>442</v>
       </c>
+      <c r="EO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6848,6 +6930,12 @@
       <c r="EN14" t="n">
         <v>0</v>
       </c>
+      <c r="EO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7286,6 +7374,12 @@
       <c r="EN15" t="n">
         <v>905</v>
       </c>
+      <c r="EO15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7724,6 +7818,12 @@
       <c r="EN16" t="n">
         <v>0</v>
       </c>
+      <c r="EO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8162,6 +8262,12 @@
       <c r="EN17" t="n">
         <v>821</v>
       </c>
+      <c r="EO17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8600,6 +8706,12 @@
       <c r="EN18" t="n">
         <v>892</v>
       </c>
+      <c r="EO18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9038,6 +9150,12 @@
       <c r="EN19" t="n">
         <v>349</v>
       </c>
+      <c r="EO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9476,6 +9594,12 @@
       <c r="EN20" t="n">
         <v>349</v>
       </c>
+      <c r="EO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9914,6 +10038,12 @@
       <c r="EN21" t="n">
         <v>0</v>
       </c>
+      <c r="EO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10352,6 +10482,12 @@
       <c r="EN22" t="n">
         <v>0</v>
       </c>
+      <c r="EO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10790,6 +10926,12 @@
       <c r="EN23" t="n">
         <v>0</v>
       </c>
+      <c r="EO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11228,6 +11370,12 @@
       <c r="EN24" t="n">
         <v>0</v>
       </c>
+      <c r="EO24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11666,6 +11814,12 @@
       <c r="EN25" t="n">
         <v>901</v>
       </c>
+      <c r="EO25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12104,6 +12258,12 @@
       <c r="EN26" t="n">
         <v>784</v>
       </c>
+      <c r="EO26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12540,6 +12700,12 @@
         <v>0</v>
       </c>
       <c r="EN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP27"/>
+  <dimension ref="A1:ER27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,6 +1164,16 @@
           <t>CF天梯分_2022-03-20 08:20:29</t>
         </is>
       </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-21 08:23:06</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-21 08:23:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1608,6 +1618,12 @@
       <c r="EP2" t="n">
         <v>1783</v>
       </c>
+      <c r="EQ2" t="n">
+        <v>740</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2052,6 +2068,12 @@
       <c r="EP3" t="n">
         <v>1014</v>
       </c>
+      <c r="EQ3" t="n">
+        <v>85</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2496,6 +2518,12 @@
       <c r="EP4" t="n">
         <v>1595</v>
       </c>
+      <c r="EQ4" t="n">
+        <v>408</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2940,6 +2968,12 @@
       <c r="EP5" t="n">
         <v>0</v>
       </c>
+      <c r="EQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3384,6 +3418,12 @@
       <c r="EP6" t="n">
         <v>1500</v>
       </c>
+      <c r="EQ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3828,6 +3868,12 @@
       <c r="EP7" t="n">
         <v>1407</v>
       </c>
+      <c r="EQ7" t="n">
+        <v>132</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4272,6 +4318,12 @@
       <c r="EP8" t="n">
         <v>365</v>
       </c>
+      <c r="EQ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4716,6 +4768,12 @@
       <c r="EP9" t="n">
         <v>981</v>
       </c>
+      <c r="EQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5160,6 +5218,12 @@
       <c r="EP10" t="n">
         <v>362</v>
       </c>
+      <c r="EQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5604,6 +5668,12 @@
       <c r="EP11" t="n">
         <v>883</v>
       </c>
+      <c r="EQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6048,6 +6118,12 @@
       <c r="EP12" t="n">
         <v>1597</v>
       </c>
+      <c r="EQ12" t="n">
+        <v>182</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6492,6 +6568,12 @@
       <c r="EP13" t="n">
         <v>442</v>
       </c>
+      <c r="EQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6936,6 +7018,12 @@
       <c r="EP14" t="n">
         <v>0</v>
       </c>
+      <c r="EQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7380,6 +7468,12 @@
       <c r="EP15" t="n">
         <v>905</v>
       </c>
+      <c r="EQ15" t="n">
+        <v>52</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7824,6 +7918,12 @@
       <c r="EP16" t="n">
         <v>0</v>
       </c>
+      <c r="EQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8268,6 +8368,12 @@
       <c r="EP17" t="n">
         <v>821</v>
       </c>
+      <c r="EQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8712,6 +8818,12 @@
       <c r="EP18" t="n">
         <v>892</v>
       </c>
+      <c r="EQ18" t="n">
+        <v>167</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9156,6 +9268,12 @@
       <c r="EP19" t="n">
         <v>349</v>
       </c>
+      <c r="EQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9600,6 +9718,12 @@
       <c r="EP20" t="n">
         <v>349</v>
       </c>
+      <c r="EQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10044,6 +10168,12 @@
       <c r="EP21" t="n">
         <v>0</v>
       </c>
+      <c r="EQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10488,6 +10618,12 @@
       <c r="EP22" t="n">
         <v>0</v>
       </c>
+      <c r="EQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10932,6 +11068,12 @@
       <c r="EP23" t="n">
         <v>0</v>
       </c>
+      <c r="EQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11376,6 +11518,12 @@
       <c r="EP24" t="n">
         <v>0</v>
       </c>
+      <c r="EQ24" t="n">
+        <v>301</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11820,6 +11968,12 @@
       <c r="EP25" t="n">
         <v>901</v>
       </c>
+      <c r="EQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12264,6 +12418,12 @@
       <c r="EP26" t="n">
         <v>784</v>
       </c>
+      <c r="EQ26" t="n">
+        <v>27</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12706,6 +12866,12 @@
         <v>0</v>
       </c>
       <c r="EP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER27"/>
+  <dimension ref="A1:ET27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1174,6 +1174,16 @@
           <t>CF天梯分_2022-03-21 08:23:06</t>
         </is>
       </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-22 08:22:33</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-22 08:22:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1624,6 +1634,12 @@
       <c r="ER2" t="n">
         <v>1783</v>
       </c>
+      <c r="ES2" t="n">
+        <v>740</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2074,6 +2090,12 @@
       <c r="ER3" t="n">
         <v>1014</v>
       </c>
+      <c r="ES3" t="n">
+        <v>85</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2524,6 +2546,12 @@
       <c r="ER4" t="n">
         <v>1595</v>
       </c>
+      <c r="ES4" t="n">
+        <v>408</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2974,6 +3002,12 @@
       <c r="ER5" t="n">
         <v>0</v>
       </c>
+      <c r="ES5" t="n">
+        <v>17</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3424,6 +3458,12 @@
       <c r="ER6" t="n">
         <v>1500</v>
       </c>
+      <c r="ES6" t="n">
+        <v>51</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3874,6 +3914,12 @@
       <c r="ER7" t="n">
         <v>1407</v>
       </c>
+      <c r="ES7" t="n">
+        <v>132</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4324,6 +4370,12 @@
       <c r="ER8" t="n">
         <v>365</v>
       </c>
+      <c r="ES8" t="n">
+        <v>36</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4774,6 +4826,12 @@
       <c r="ER9" t="n">
         <v>981</v>
       </c>
+      <c r="ES9" t="n">
+        <v>22</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5224,6 +5282,12 @@
       <c r="ER10" t="n">
         <v>362</v>
       </c>
+      <c r="ES10" t="n">
+        <v>10</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5674,6 +5738,12 @@
       <c r="ER11" t="n">
         <v>883</v>
       </c>
+      <c r="ES11" t="n">
+        <v>45</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6124,6 +6194,12 @@
       <c r="ER12" t="n">
         <v>1597</v>
       </c>
+      <c r="ES12" t="n">
+        <v>182</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6574,6 +6650,12 @@
       <c r="ER13" t="n">
         <v>442</v>
       </c>
+      <c r="ES13" t="n">
+        <v>30</v>
+      </c>
+      <c r="ET13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7024,6 +7106,12 @@
       <c r="ER14" t="n">
         <v>0</v>
       </c>
+      <c r="ES14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7474,6 +7562,12 @@
       <c r="ER15" t="n">
         <v>905</v>
       </c>
+      <c r="ES15" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7924,6 +8018,12 @@
       <c r="ER16" t="n">
         <v>0</v>
       </c>
+      <c r="ES16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8374,6 +8474,12 @@
       <c r="ER17" t="n">
         <v>821</v>
       </c>
+      <c r="ES17" t="n">
+        <v>13</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8824,6 +8930,12 @@
       <c r="ER18" t="n">
         <v>892</v>
       </c>
+      <c r="ES18" t="n">
+        <v>167</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9274,6 +9386,12 @@
       <c r="ER19" t="n">
         <v>349</v>
       </c>
+      <c r="ES19" t="n">
+        <v>4</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9724,6 +9842,12 @@
       <c r="ER20" t="n">
         <v>349</v>
       </c>
+      <c r="ES20" t="n">
+        <v>2</v>
+      </c>
+      <c r="ET20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10174,6 +10298,12 @@
       <c r="ER21" t="n">
         <v>0</v>
       </c>
+      <c r="ES21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10624,6 +10754,12 @@
       <c r="ER22" t="n">
         <v>0</v>
       </c>
+      <c r="ES22" t="n">
+        <v>57</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11074,6 +11210,12 @@
       <c r="ER23" t="n">
         <v>0</v>
       </c>
+      <c r="ES23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11524,6 +11666,12 @@
       <c r="ER24" t="n">
         <v>0</v>
       </c>
+      <c r="ES24" t="n">
+        <v>301</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11974,6 +12122,12 @@
       <c r="ER25" t="n">
         <v>901</v>
       </c>
+      <c r="ES25" t="n">
+        <v>34</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12424,6 +12578,12 @@
       <c r="ER26" t="n">
         <v>784</v>
       </c>
+      <c r="ES26" t="n">
+        <v>27</v>
+      </c>
+      <c r="ET26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12872,6 +13032,12 @@
         <v>0</v>
       </c>
       <c r="ER27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET27"/>
+  <dimension ref="A1:EV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1184,6 +1184,16 @@
           <t>CF天梯分_2022-03-22 08:22:33</t>
         </is>
       </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-23 08:22:16</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-23 08:22:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1640,6 +1650,12 @@
       <c r="ET2" t="n">
         <v>1783</v>
       </c>
+      <c r="EU2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2096,6 +2112,12 @@
       <c r="ET3" t="n">
         <v>1014</v>
       </c>
+      <c r="EU3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2552,6 +2574,12 @@
       <c r="ET4" t="n">
         <v>1595</v>
       </c>
+      <c r="EU4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3008,6 +3036,12 @@
       <c r="ET5" t="n">
         <v>0</v>
       </c>
+      <c r="EU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3464,6 +3498,12 @@
       <c r="ET6" t="n">
         <v>1500</v>
       </c>
+      <c r="EU6" t="n">
+        <v>51</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3920,6 +3960,12 @@
       <c r="ET7" t="n">
         <v>1407</v>
       </c>
+      <c r="EU7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4376,6 +4422,12 @@
       <c r="ET8" t="n">
         <v>365</v>
       </c>
+      <c r="EU8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4832,6 +4884,12 @@
       <c r="ET9" t="n">
         <v>981</v>
       </c>
+      <c r="EU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5288,6 +5346,12 @@
       <c r="ET10" t="n">
         <v>362</v>
       </c>
+      <c r="EU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5744,6 +5808,12 @@
       <c r="ET11" t="n">
         <v>883</v>
       </c>
+      <c r="EU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6200,6 +6270,12 @@
       <c r="ET12" t="n">
         <v>1597</v>
       </c>
+      <c r="EU12" t="n">
+        <v>182</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6656,6 +6732,12 @@
       <c r="ET13" t="n">
         <v>442</v>
       </c>
+      <c r="EU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7112,6 +7194,12 @@
       <c r="ET14" t="n">
         <v>0</v>
       </c>
+      <c r="EU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7568,6 +7656,12 @@
       <c r="ET15" t="n">
         <v>905</v>
       </c>
+      <c r="EU15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8024,6 +8118,12 @@
       <c r="ET16" t="n">
         <v>0</v>
       </c>
+      <c r="EU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8480,6 +8580,12 @@
       <c r="ET17" t="n">
         <v>821</v>
       </c>
+      <c r="EU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8936,6 +9042,12 @@
       <c r="ET18" t="n">
         <v>892</v>
       </c>
+      <c r="EU18" t="n">
+        <v>167</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9392,6 +9504,12 @@
       <c r="ET19" t="n">
         <v>349</v>
       </c>
+      <c r="EU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9848,6 +9966,12 @@
       <c r="ET20" t="n">
         <v>349</v>
       </c>
+      <c r="EU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10304,6 +10428,12 @@
       <c r="ET21" t="n">
         <v>0</v>
       </c>
+      <c r="EU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10760,6 +10890,12 @@
       <c r="ET22" t="n">
         <v>0</v>
       </c>
+      <c r="EU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11216,6 +11352,12 @@
       <c r="ET23" t="n">
         <v>0</v>
       </c>
+      <c r="EU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11672,6 +11814,12 @@
       <c r="ET24" t="n">
         <v>0</v>
       </c>
+      <c r="EU24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12128,6 +12276,12 @@
       <c r="ET25" t="n">
         <v>901</v>
       </c>
+      <c r="EU25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12584,6 +12738,12 @@
       <c r="ET26" t="n">
         <v>784</v>
       </c>
+      <c r="EU26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13038,6 +13198,12 @@
         <v>0</v>
       </c>
       <c r="ET27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV27"/>
+  <dimension ref="A1:EX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,6 +1194,16 @@
           <t>CF天梯分_2022-03-23 08:22:16</t>
         </is>
       </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-24 08:21:24</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-24 08:21:24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1656,6 +1666,12 @@
       <c r="EV2" t="n">
         <v>1783</v>
       </c>
+      <c r="EW2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2118,6 +2134,12 @@
       <c r="EV3" t="n">
         <v>1014</v>
       </c>
+      <c r="EW3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2580,6 +2602,12 @@
       <c r="EV4" t="n">
         <v>1595</v>
       </c>
+      <c r="EW4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3042,6 +3070,12 @@
       <c r="EV5" t="n">
         <v>0</v>
       </c>
+      <c r="EW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3504,6 +3538,12 @@
       <c r="EV6" t="n">
         <v>1500</v>
       </c>
+      <c r="EW6" t="n">
+        <v>51</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3966,6 +4006,12 @@
       <c r="EV7" t="n">
         <v>1407</v>
       </c>
+      <c r="EW7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4428,6 +4474,12 @@
       <c r="EV8" t="n">
         <v>365</v>
       </c>
+      <c r="EW8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4890,6 +4942,12 @@
       <c r="EV9" t="n">
         <v>981</v>
       </c>
+      <c r="EW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5352,6 +5410,12 @@
       <c r="EV10" t="n">
         <v>362</v>
       </c>
+      <c r="EW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5814,6 +5878,12 @@
       <c r="EV11" t="n">
         <v>883</v>
       </c>
+      <c r="EW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6276,6 +6346,12 @@
       <c r="EV12" t="n">
         <v>1597</v>
       </c>
+      <c r="EW12" t="n">
+        <v>182</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6738,6 +6814,12 @@
       <c r="EV13" t="n">
         <v>442</v>
       </c>
+      <c r="EW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7200,6 +7282,12 @@
       <c r="EV14" t="n">
         <v>0</v>
       </c>
+      <c r="EW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7662,6 +7750,12 @@
       <c r="EV15" t="n">
         <v>905</v>
       </c>
+      <c r="EW15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8124,6 +8218,12 @@
       <c r="EV16" t="n">
         <v>0</v>
       </c>
+      <c r="EW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8586,6 +8686,12 @@
       <c r="EV17" t="n">
         <v>821</v>
       </c>
+      <c r="EW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9048,6 +9154,12 @@
       <c r="EV18" t="n">
         <v>892</v>
       </c>
+      <c r="EW18" t="n">
+        <v>169</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9510,6 +9622,12 @@
       <c r="EV19" t="n">
         <v>349</v>
       </c>
+      <c r="EW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9972,6 +10090,12 @@
       <c r="EV20" t="n">
         <v>349</v>
       </c>
+      <c r="EW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10434,6 +10558,12 @@
       <c r="EV21" t="n">
         <v>0</v>
       </c>
+      <c r="EW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10896,6 +11026,12 @@
       <c r="EV22" t="n">
         <v>0</v>
       </c>
+      <c r="EW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11358,6 +11494,12 @@
       <c r="EV23" t="n">
         <v>0</v>
       </c>
+      <c r="EW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11820,6 +11962,12 @@
       <c r="EV24" t="n">
         <v>0</v>
       </c>
+      <c r="EW24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12282,6 +12430,12 @@
       <c r="EV25" t="n">
         <v>901</v>
       </c>
+      <c r="EW25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12744,6 +12898,12 @@
       <c r="EV26" t="n">
         <v>784</v>
       </c>
+      <c r="EW26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13204,6 +13364,12 @@
         <v>0</v>
       </c>
       <c r="EV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX27"/>
+  <dimension ref="A1:EZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,6 +1204,16 @@
           <t>CF天梯分_2022-03-24 08:21:24</t>
         </is>
       </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-25 08:21:43</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-25 08:21:43</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1672,6 +1682,12 @@
       <c r="EX2" t="n">
         <v>1783</v>
       </c>
+      <c r="EY2" t="n">
+        <v>740</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2140,6 +2156,12 @@
       <c r="EX3" t="n">
         <v>1014</v>
       </c>
+      <c r="EY3" t="n">
+        <v>85</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2608,6 +2630,12 @@
       <c r="EX4" t="n">
         <v>1595</v>
       </c>
+      <c r="EY4" t="n">
+        <v>408</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3076,6 +3104,12 @@
       <c r="EX5" t="n">
         <v>0</v>
       </c>
+      <c r="EY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3544,6 +3578,12 @@
       <c r="EX6" t="n">
         <v>1500</v>
       </c>
+      <c r="EY6" t="n">
+        <v>51</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4012,6 +4052,12 @@
       <c r="EX7" t="n">
         <v>1407</v>
       </c>
+      <c r="EY7" t="n">
+        <v>132</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4480,6 +4526,12 @@
       <c r="EX8" t="n">
         <v>365</v>
       </c>
+      <c r="EY8" t="n">
+        <v>36</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4948,6 +5000,12 @@
       <c r="EX9" t="n">
         <v>981</v>
       </c>
+      <c r="EY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5416,6 +5474,12 @@
       <c r="EX10" t="n">
         <v>362</v>
       </c>
+      <c r="EY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5884,6 +5948,12 @@
       <c r="EX11" t="n">
         <v>883</v>
       </c>
+      <c r="EY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6352,6 +6422,12 @@
       <c r="EX12" t="n">
         <v>1597</v>
       </c>
+      <c r="EY12" t="n">
+        <v>182</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6820,6 +6896,12 @@
       <c r="EX13" t="n">
         <v>442</v>
       </c>
+      <c r="EY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7288,6 +7370,12 @@
       <c r="EX14" t="n">
         <v>0</v>
       </c>
+      <c r="EY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7756,6 +7844,12 @@
       <c r="EX15" t="n">
         <v>905</v>
       </c>
+      <c r="EY15" t="n">
+        <v>52</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8224,6 +8318,12 @@
       <c r="EX16" t="n">
         <v>0</v>
       </c>
+      <c r="EY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8692,6 +8792,12 @@
       <c r="EX17" t="n">
         <v>821</v>
       </c>
+      <c r="EY17" t="n">
+        <v>13</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9160,6 +9266,12 @@
       <c r="EX18" t="n">
         <v>892</v>
       </c>
+      <c r="EY18" t="n">
+        <v>173</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>857</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9628,6 +9740,12 @@
       <c r="EX19" t="n">
         <v>349</v>
       </c>
+      <c r="EY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10096,6 +10214,12 @@
       <c r="EX20" t="n">
         <v>349</v>
       </c>
+      <c r="EY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10564,6 +10688,12 @@
       <c r="EX21" t="n">
         <v>0</v>
       </c>
+      <c r="EY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11032,6 +11162,12 @@
       <c r="EX22" t="n">
         <v>0</v>
       </c>
+      <c r="EY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11500,6 +11636,12 @@
       <c r="EX23" t="n">
         <v>0</v>
       </c>
+      <c r="EY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11968,6 +12110,12 @@
       <c r="EX24" t="n">
         <v>0</v>
       </c>
+      <c r="EY24" t="n">
+        <v>301</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12436,6 +12584,12 @@
       <c r="EX25" t="n">
         <v>901</v>
       </c>
+      <c r="EY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12904,6 +13058,12 @@
       <c r="EX26" t="n">
         <v>784</v>
       </c>
+      <c r="EY26" t="n">
+        <v>27</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13370,6 +13530,12 @@
         <v>0</v>
       </c>
       <c r="EX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ27"/>
+  <dimension ref="A1:FB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,6 +1214,16 @@
           <t>CF天梯分_2022-03-25 08:21:43</t>
         </is>
       </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-26 08:20:37</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-26 08:20:37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1688,6 +1698,12 @@
       <c r="EZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="FA2" t="n">
+        <v>740</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2162,6 +2178,12 @@
       <c r="EZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="FA3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2636,6 +2658,12 @@
       <c r="EZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="FA4" t="n">
+        <v>409</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3110,6 +3138,12 @@
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
+      <c r="FA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3584,6 +3618,12 @@
       <c r="EZ6" t="n">
         <v>1500</v>
       </c>
+      <c r="FA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4058,6 +4098,12 @@
       <c r="EZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="FA7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4532,6 +4578,12 @@
       <c r="EZ8" t="n">
         <v>365</v>
       </c>
+      <c r="FA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5006,6 +5058,12 @@
       <c r="EZ9" t="n">
         <v>981</v>
       </c>
+      <c r="FA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5480,6 +5538,12 @@
       <c r="EZ10" t="n">
         <v>362</v>
       </c>
+      <c r="FA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5954,6 +6018,12 @@
       <c r="EZ11" t="n">
         <v>883</v>
       </c>
+      <c r="FA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6428,6 +6498,12 @@
       <c r="EZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="FA12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6902,6 +6978,12 @@
       <c r="EZ13" t="n">
         <v>442</v>
       </c>
+      <c r="FA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7376,6 +7458,12 @@
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
+      <c r="FA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7850,6 +7938,12 @@
       <c r="EZ15" t="n">
         <v>905</v>
       </c>
+      <c r="FA15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8324,6 +8418,12 @@
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
+      <c r="FA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8798,6 +8898,12 @@
       <c r="EZ17" t="n">
         <v>821</v>
       </c>
+      <c r="FA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9272,6 +9378,12 @@
       <c r="EZ18" t="n">
         <v>857</v>
       </c>
+      <c r="FA18" t="n">
+        <v>173</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>857</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9746,6 +9858,12 @@
       <c r="EZ19" t="n">
         <v>349</v>
       </c>
+      <c r="FA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10220,6 +10338,12 @@
       <c r="EZ20" t="n">
         <v>349</v>
       </c>
+      <c r="FA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10694,6 +10818,12 @@
       <c r="EZ21" t="n">
         <v>0</v>
       </c>
+      <c r="FA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11168,6 +11298,12 @@
       <c r="EZ22" t="n">
         <v>0</v>
       </c>
+      <c r="FA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11642,6 +11778,12 @@
       <c r="EZ23" t="n">
         <v>0</v>
       </c>
+      <c r="FA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12116,6 +12258,12 @@
       <c r="EZ24" t="n">
         <v>0</v>
       </c>
+      <c r="FA24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12590,6 +12738,12 @@
       <c r="EZ25" t="n">
         <v>901</v>
       </c>
+      <c r="FA25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13064,6 +13218,12 @@
       <c r="EZ26" t="n">
         <v>784</v>
       </c>
+      <c r="FA26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FB26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13536,6 +13696,12 @@
         <v>0</v>
       </c>
       <c r="EZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB27"/>
+  <dimension ref="A1:FD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,6 +1224,16 @@
           <t>CF天梯分_2022-03-26 08:20:37</t>
         </is>
       </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-27 08:20:37</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-27 08:20:37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1714,12 @@
       <c r="FB2" t="n">
         <v>1783</v>
       </c>
+      <c r="FC2" t="n">
+        <v>740</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2184,6 +2200,12 @@
       <c r="FB3" t="n">
         <v>1014</v>
       </c>
+      <c r="FC3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2664,6 +2686,12 @@
       <c r="FB4" t="n">
         <v>1595</v>
       </c>
+      <c r="FC4" t="n">
+        <v>409</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3144,6 +3172,12 @@
       <c r="FB5" t="n">
         <v>0</v>
       </c>
+      <c r="FC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3624,6 +3658,12 @@
       <c r="FB6" t="n">
         <v>1500</v>
       </c>
+      <c r="FC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4104,6 +4144,12 @@
       <c r="FB7" t="n">
         <v>1407</v>
       </c>
+      <c r="FC7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4584,6 +4630,12 @@
       <c r="FB8" t="n">
         <v>365</v>
       </c>
+      <c r="FC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5064,6 +5116,12 @@
       <c r="FB9" t="n">
         <v>981</v>
       </c>
+      <c r="FC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5544,6 +5602,12 @@
       <c r="FB10" t="n">
         <v>362</v>
       </c>
+      <c r="FC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6024,6 +6088,12 @@
       <c r="FB11" t="n">
         <v>883</v>
       </c>
+      <c r="FC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6504,6 +6574,12 @@
       <c r="FB12" t="n">
         <v>1597</v>
       </c>
+      <c r="FC12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6984,6 +7060,12 @@
       <c r="FB13" t="n">
         <v>442</v>
       </c>
+      <c r="FC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7464,6 +7546,12 @@
       <c r="FB14" t="n">
         <v>0</v>
       </c>
+      <c r="FC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7944,6 +8032,12 @@
       <c r="FB15" t="n">
         <v>905</v>
       </c>
+      <c r="FC15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8424,6 +8518,12 @@
       <c r="FB16" t="n">
         <v>0</v>
       </c>
+      <c r="FC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8904,6 +9004,12 @@
       <c r="FB17" t="n">
         <v>821</v>
       </c>
+      <c r="FC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9384,6 +9490,12 @@
       <c r="FB18" t="n">
         <v>857</v>
       </c>
+      <c r="FC18" t="n">
+        <v>173</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>857</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9864,6 +9976,12 @@
       <c r="FB19" t="n">
         <v>349</v>
       </c>
+      <c r="FC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10344,6 +10462,12 @@
       <c r="FB20" t="n">
         <v>349</v>
       </c>
+      <c r="FC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10824,6 +10948,12 @@
       <c r="FB21" t="n">
         <v>0</v>
       </c>
+      <c r="FC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11304,6 +11434,12 @@
       <c r="FB22" t="n">
         <v>0</v>
       </c>
+      <c r="FC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11784,6 +11920,12 @@
       <c r="FB23" t="n">
         <v>0</v>
       </c>
+      <c r="FC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12264,6 +12406,12 @@
       <c r="FB24" t="n">
         <v>0</v>
       </c>
+      <c r="FC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12744,6 +12892,12 @@
       <c r="FB25" t="n">
         <v>901</v>
       </c>
+      <c r="FC25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FD25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13224,6 +13378,12 @@
       <c r="FB26" t="n">
         <v>784</v>
       </c>
+      <c r="FC26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FD26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13702,6 +13862,12 @@
         <v>0</v>
       </c>
       <c r="FB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD27"/>
+  <dimension ref="A1:FF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,6 +1234,16 @@
           <t>CF天梯分_2022-03-27 08:20:37</t>
         </is>
       </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-28 08:25:57</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-28 08:25:57</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1720,6 +1730,12 @@
       <c r="FD2" t="n">
         <v>1783</v>
       </c>
+      <c r="FE2" t="n">
+        <v>740</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2206,6 +2222,12 @@
       <c r="FD3" t="n">
         <v>1014</v>
       </c>
+      <c r="FE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2692,6 +2714,12 @@
       <c r="FD4" t="n">
         <v>1595</v>
       </c>
+      <c r="FE4" t="n">
+        <v>409</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3178,6 +3206,12 @@
       <c r="FD5" t="n">
         <v>0</v>
       </c>
+      <c r="FE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3664,6 +3698,12 @@
       <c r="FD6" t="n">
         <v>1500</v>
       </c>
+      <c r="FE6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4150,6 +4190,12 @@
       <c r="FD7" t="n">
         <v>1407</v>
       </c>
+      <c r="FE7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4636,6 +4682,12 @@
       <c r="FD8" t="n">
         <v>365</v>
       </c>
+      <c r="FE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5122,6 +5174,12 @@
       <c r="FD9" t="n">
         <v>981</v>
       </c>
+      <c r="FE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5608,6 +5666,12 @@
       <c r="FD10" t="n">
         <v>362</v>
       </c>
+      <c r="FE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6094,6 +6158,12 @@
       <c r="FD11" t="n">
         <v>883</v>
       </c>
+      <c r="FE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6580,6 +6650,12 @@
       <c r="FD12" t="n">
         <v>1597</v>
       </c>
+      <c r="FE12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7066,6 +7142,12 @@
       <c r="FD13" t="n">
         <v>442</v>
       </c>
+      <c r="FE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7552,6 +7634,12 @@
       <c r="FD14" t="n">
         <v>0</v>
       </c>
+      <c r="FE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8038,6 +8126,12 @@
       <c r="FD15" t="n">
         <v>905</v>
       </c>
+      <c r="FE15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8524,6 +8618,12 @@
       <c r="FD16" t="n">
         <v>0</v>
       </c>
+      <c r="FE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9010,6 +9110,12 @@
       <c r="FD17" t="n">
         <v>821</v>
       </c>
+      <c r="FE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9496,6 +9602,12 @@
       <c r="FD18" t="n">
         <v>857</v>
       </c>
+      <c r="FE18" t="n">
+        <v>175</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9982,6 +10094,12 @@
       <c r="FD19" t="n">
         <v>349</v>
       </c>
+      <c r="FE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10468,6 +10586,12 @@
       <c r="FD20" t="n">
         <v>349</v>
       </c>
+      <c r="FE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10954,6 +11078,12 @@
       <c r="FD21" t="n">
         <v>0</v>
       </c>
+      <c r="FE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11440,6 +11570,12 @@
       <c r="FD22" t="n">
         <v>0</v>
       </c>
+      <c r="FE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11926,6 +12062,12 @@
       <c r="FD23" t="n">
         <v>0</v>
       </c>
+      <c r="FE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12412,6 +12554,12 @@
       <c r="FD24" t="n">
         <v>0</v>
       </c>
+      <c r="FE24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12898,6 +13046,12 @@
       <c r="FD25" t="n">
         <v>901</v>
       </c>
+      <c r="FE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13384,6 +13538,12 @@
       <c r="FD26" t="n">
         <v>784</v>
       </c>
+      <c r="FE26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13868,6 +14028,12 @@
         <v>0</v>
       </c>
       <c r="FD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF27"/>
+  <dimension ref="A1:FH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,6 +1244,16 @@
           <t>CF天梯分_2022-03-28 08:25:57</t>
         </is>
       </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-29 08:26:33</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-29 08:26:33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1736,6 +1746,12 @@
       <c r="FF2" t="n">
         <v>1783</v>
       </c>
+      <c r="FG2" t="n">
+        <v>740</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2228,6 +2244,12 @@
       <c r="FF3" t="n">
         <v>1014</v>
       </c>
+      <c r="FG3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2720,6 +2742,12 @@
       <c r="FF4" t="n">
         <v>1595</v>
       </c>
+      <c r="FG4" t="n">
+        <v>409</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3212,6 +3240,12 @@
       <c r="FF5" t="n">
         <v>0</v>
       </c>
+      <c r="FG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3704,6 +3738,12 @@
       <c r="FF6" t="n">
         <v>1500</v>
       </c>
+      <c r="FG6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4196,6 +4236,12 @@
       <c r="FF7" t="n">
         <v>1407</v>
       </c>
+      <c r="FG7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4688,6 +4734,12 @@
       <c r="FF8" t="n">
         <v>365</v>
       </c>
+      <c r="FG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5180,6 +5232,12 @@
       <c r="FF9" t="n">
         <v>981</v>
       </c>
+      <c r="FG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5672,6 +5730,12 @@
       <c r="FF10" t="n">
         <v>362</v>
       </c>
+      <c r="FG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6164,6 +6228,12 @@
       <c r="FF11" t="n">
         <v>883</v>
       </c>
+      <c r="FG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6656,6 +6726,12 @@
       <c r="FF12" t="n">
         <v>1597</v>
       </c>
+      <c r="FG12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7148,6 +7224,12 @@
       <c r="FF13" t="n">
         <v>442</v>
       </c>
+      <c r="FG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7640,6 +7722,12 @@
       <c r="FF14" t="n">
         <v>0</v>
       </c>
+      <c r="FG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8132,6 +8220,12 @@
       <c r="FF15" t="n">
         <v>905</v>
       </c>
+      <c r="FG15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8624,6 +8718,12 @@
       <c r="FF16" t="n">
         <v>0</v>
       </c>
+      <c r="FG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9116,6 +9216,12 @@
       <c r="FF17" t="n">
         <v>821</v>
       </c>
+      <c r="FG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9608,6 +9714,12 @@
       <c r="FF18" t="n">
         <v>941</v>
       </c>
+      <c r="FG18" t="n">
+        <v>175</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10100,6 +10212,12 @@
       <c r="FF19" t="n">
         <v>349</v>
       </c>
+      <c r="FG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10592,6 +10710,12 @@
       <c r="FF20" t="n">
         <v>349</v>
       </c>
+      <c r="FG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11084,6 +11208,12 @@
       <c r="FF21" t="n">
         <v>0</v>
       </c>
+      <c r="FG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11576,6 +11706,12 @@
       <c r="FF22" t="n">
         <v>0</v>
       </c>
+      <c r="FG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12068,6 +12204,12 @@
       <c r="FF23" t="n">
         <v>0</v>
       </c>
+      <c r="FG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12560,6 +12702,12 @@
       <c r="FF24" t="n">
         <v>0</v>
       </c>
+      <c r="FG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13052,6 +13200,12 @@
       <c r="FF25" t="n">
         <v>901</v>
       </c>
+      <c r="FG25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13544,6 +13698,12 @@
       <c r="FF26" t="n">
         <v>784</v>
       </c>
+      <c r="FG26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14034,6 +14194,12 @@
         <v>-1</v>
       </c>
       <c r="FF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH27"/>
+  <dimension ref="A1:FJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,6 +1254,16 @@
           <t>CF天梯分_2022-03-29 08:26:33</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-30 08:22:47</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-30 08:22:47</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1752,6 +1762,12 @@
       <c r="FH2" t="n">
         <v>1783</v>
       </c>
+      <c r="FI2" t="n">
+        <v>740</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2250,6 +2266,12 @@
       <c r="FH3" t="n">
         <v>1014</v>
       </c>
+      <c r="FI3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2748,6 +2770,12 @@
       <c r="FH4" t="n">
         <v>1595</v>
       </c>
+      <c r="FI4" t="n">
+        <v>409</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3246,6 +3274,12 @@
       <c r="FH5" t="n">
         <v>0</v>
       </c>
+      <c r="FI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3744,6 +3778,12 @@
       <c r="FH6" t="n">
         <v>1500</v>
       </c>
+      <c r="FI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4242,6 +4282,12 @@
       <c r="FH7" t="n">
         <v>1407</v>
       </c>
+      <c r="FI7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4740,6 +4786,12 @@
       <c r="FH8" t="n">
         <v>365</v>
       </c>
+      <c r="FI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5238,6 +5290,12 @@
       <c r="FH9" t="n">
         <v>981</v>
       </c>
+      <c r="FI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5736,6 +5794,12 @@
       <c r="FH10" t="n">
         <v>362</v>
       </c>
+      <c r="FI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6234,6 +6298,12 @@
       <c r="FH11" t="n">
         <v>883</v>
       </c>
+      <c r="FI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6732,6 +6802,12 @@
       <c r="FH12" t="n">
         <v>1597</v>
       </c>
+      <c r="FI12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7230,6 +7306,12 @@
       <c r="FH13" t="n">
         <v>442</v>
       </c>
+      <c r="FI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7728,6 +7810,12 @@
       <c r="FH14" t="n">
         <v>0</v>
       </c>
+      <c r="FI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8226,6 +8314,12 @@
       <c r="FH15" t="n">
         <v>905</v>
       </c>
+      <c r="FI15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8724,6 +8818,12 @@
       <c r="FH16" t="n">
         <v>0</v>
       </c>
+      <c r="FI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9222,6 +9322,12 @@
       <c r="FH17" t="n">
         <v>821</v>
       </c>
+      <c r="FI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9720,6 +9826,12 @@
       <c r="FH18" t="n">
         <v>941</v>
       </c>
+      <c r="FI18" t="n">
+        <v>175</v>
+      </c>
+      <c r="FJ18" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10218,6 +10330,12 @@
       <c r="FH19" t="n">
         <v>349</v>
       </c>
+      <c r="FI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10716,6 +10834,12 @@
       <c r="FH20" t="n">
         <v>349</v>
       </c>
+      <c r="FI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11214,6 +11338,12 @@
       <c r="FH21" t="n">
         <v>0</v>
       </c>
+      <c r="FI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11712,6 +11842,12 @@
       <c r="FH22" t="n">
         <v>0</v>
       </c>
+      <c r="FI22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12210,6 +12346,12 @@
       <c r="FH23" t="n">
         <v>0</v>
       </c>
+      <c r="FI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12708,6 +12850,12 @@
       <c r="FH24" t="n">
         <v>0</v>
       </c>
+      <c r="FI24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13206,6 +13354,12 @@
       <c r="FH25" t="n">
         <v>901</v>
       </c>
+      <c r="FI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13704,6 +13858,12 @@
       <c r="FH26" t="n">
         <v>784</v>
       </c>
+      <c r="FI26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14200,6 +14360,12 @@
         <v>0</v>
       </c>
       <c r="FH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FJ27"/>
+  <dimension ref="A1:FL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,6 +1264,16 @@
           <t>CF天梯分_2022-03-30 08:22:47</t>
         </is>
       </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-03-31 08:24:02</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-03-31 08:24:02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1768,6 +1778,12 @@
       <c r="FJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="FK2" t="n">
+        <v>740</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2272,6 +2288,12 @@
       <c r="FJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="FK3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2776,6 +2798,12 @@
       <c r="FJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="FK4" t="n">
+        <v>409</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3280,6 +3308,12 @@
       <c r="FJ5" t="n">
         <v>0</v>
       </c>
+      <c r="FK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3784,6 +3818,12 @@
       <c r="FJ6" t="n">
         <v>1500</v>
       </c>
+      <c r="FK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4288,6 +4328,12 @@
       <c r="FJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="FK7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4792,6 +4838,12 @@
       <c r="FJ8" t="n">
         <v>365</v>
       </c>
+      <c r="FK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5296,6 +5348,12 @@
       <c r="FJ9" t="n">
         <v>981</v>
       </c>
+      <c r="FK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5800,6 +5858,12 @@
       <c r="FJ10" t="n">
         <v>362</v>
       </c>
+      <c r="FK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6304,6 +6368,12 @@
       <c r="FJ11" t="n">
         <v>883</v>
       </c>
+      <c r="FK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6808,6 +6878,12 @@
       <c r="FJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="FK12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7312,6 +7388,12 @@
       <c r="FJ13" t="n">
         <v>442</v>
       </c>
+      <c r="FK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7816,6 +7898,12 @@
       <c r="FJ14" t="n">
         <v>0</v>
       </c>
+      <c r="FK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8320,6 +8408,12 @@
       <c r="FJ15" t="n">
         <v>905</v>
       </c>
+      <c r="FK15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8824,6 +8918,12 @@
       <c r="FJ16" t="n">
         <v>0</v>
       </c>
+      <c r="FK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9328,6 +9428,12 @@
       <c r="FJ17" t="n">
         <v>821</v>
       </c>
+      <c r="FK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9832,6 +9938,12 @@
       <c r="FJ18" t="n">
         <v>941</v>
       </c>
+      <c r="FK18" t="n">
+        <v>175</v>
+      </c>
+      <c r="FL18" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10336,6 +10448,12 @@
       <c r="FJ19" t="n">
         <v>349</v>
       </c>
+      <c r="FK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10840,6 +10958,12 @@
       <c r="FJ20" t="n">
         <v>349</v>
       </c>
+      <c r="FK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11344,6 +11468,12 @@
       <c r="FJ21" t="n">
         <v>0</v>
       </c>
+      <c r="FK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11848,6 +11978,12 @@
       <c r="FJ22" t="n">
         <v>0</v>
       </c>
+      <c r="FK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12352,6 +12488,12 @@
       <c r="FJ23" t="n">
         <v>0</v>
       </c>
+      <c r="FK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12856,6 +12998,12 @@
       <c r="FJ24" t="n">
         <v>0</v>
       </c>
+      <c r="FK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13360,6 +13508,12 @@
       <c r="FJ25" t="n">
         <v>901</v>
       </c>
+      <c r="FK25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13864,6 +14018,12 @@
       <c r="FJ26" t="n">
         <v>784</v>
       </c>
+      <c r="FK26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FL26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14366,6 +14526,12 @@
         <v>0</v>
       </c>
       <c r="FJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FL27"/>
+  <dimension ref="A1:FN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,6 +1274,16 @@
           <t>CF天梯分_2022-03-31 08:24:02</t>
         </is>
       </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-02 08:21:35</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-02 08:21:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1784,6 +1794,12 @@
       <c r="FL2" t="n">
         <v>1783</v>
       </c>
+      <c r="FM2" t="n">
+        <v>744</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2294,6 +2310,12 @@
       <c r="FL3" t="n">
         <v>1014</v>
       </c>
+      <c r="FM3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2804,6 +2826,12 @@
       <c r="FL4" t="n">
         <v>1595</v>
       </c>
+      <c r="FM4" t="n">
+        <v>416</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3314,6 +3342,12 @@
       <c r="FL5" t="n">
         <v>0</v>
       </c>
+      <c r="FM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3824,6 +3858,12 @@
       <c r="FL6" t="n">
         <v>1500</v>
       </c>
+      <c r="FM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4334,6 +4374,12 @@
       <c r="FL7" t="n">
         <v>1407</v>
       </c>
+      <c r="FM7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4844,6 +4890,12 @@
       <c r="FL8" t="n">
         <v>365</v>
       </c>
+      <c r="FM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5354,6 +5406,12 @@
       <c r="FL9" t="n">
         <v>981</v>
       </c>
+      <c r="FM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5864,6 +5922,12 @@
       <c r="FL10" t="n">
         <v>362</v>
       </c>
+      <c r="FM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6374,6 +6438,12 @@
       <c r="FL11" t="n">
         <v>883</v>
       </c>
+      <c r="FM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6884,6 +6954,12 @@
       <c r="FL12" t="n">
         <v>1597</v>
       </c>
+      <c r="FM12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7394,6 +7470,12 @@
       <c r="FL13" t="n">
         <v>442</v>
       </c>
+      <c r="FM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7904,6 +7986,12 @@
       <c r="FL14" t="n">
         <v>0</v>
       </c>
+      <c r="FM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8414,6 +8502,12 @@
       <c r="FL15" t="n">
         <v>905</v>
       </c>
+      <c r="FM15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8924,6 +9018,12 @@
       <c r="FL16" t="n">
         <v>0</v>
       </c>
+      <c r="FM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9434,6 +9534,12 @@
       <c r="FL17" t="n">
         <v>821</v>
       </c>
+      <c r="FM17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9944,6 +10050,12 @@
       <c r="FL18" t="n">
         <v>941</v>
       </c>
+      <c r="FM18" t="n">
+        <v>179</v>
+      </c>
+      <c r="FN18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10454,6 +10566,12 @@
       <c r="FL19" t="n">
         <v>349</v>
       </c>
+      <c r="FM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10964,6 +11082,12 @@
       <c r="FL20" t="n">
         <v>349</v>
       </c>
+      <c r="FM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11474,6 +11598,12 @@
       <c r="FL21" t="n">
         <v>0</v>
       </c>
+      <c r="FM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11984,6 +12114,12 @@
       <c r="FL22" t="n">
         <v>0</v>
       </c>
+      <c r="FM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12494,6 +12630,12 @@
       <c r="FL23" t="n">
         <v>0</v>
       </c>
+      <c r="FM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13004,6 +13146,12 @@
       <c r="FL24" t="n">
         <v>0</v>
       </c>
+      <c r="FM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13514,6 +13662,12 @@
       <c r="FL25" t="n">
         <v>901</v>
       </c>
+      <c r="FM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14024,6 +14178,12 @@
       <c r="FL26" t="n">
         <v>784</v>
       </c>
+      <c r="FM26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FN26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14532,6 +14692,12 @@
         <v>0</v>
       </c>
       <c r="FL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FN27"/>
+  <dimension ref="A1:FP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,6 +1284,16 @@
           <t>CF天梯分_2022-04-02 08:21:35</t>
         </is>
       </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-03 08:20:49</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-03 08:20:49</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1800,6 +1810,12 @@
       <c r="FN2" t="n">
         <v>1783</v>
       </c>
+      <c r="FO2" t="n">
+        <v>744</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2316,6 +2332,12 @@
       <c r="FN3" t="n">
         <v>1014</v>
       </c>
+      <c r="FO3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2832,6 +2854,12 @@
       <c r="FN4" t="n">
         <v>1595</v>
       </c>
+      <c r="FO4" t="n">
+        <v>416</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3348,6 +3376,12 @@
       <c r="FN5" t="n">
         <v>0</v>
       </c>
+      <c r="FO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3864,6 +3898,12 @@
       <c r="FN6" t="n">
         <v>1500</v>
       </c>
+      <c r="FO6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4380,6 +4420,12 @@
       <c r="FN7" t="n">
         <v>1407</v>
       </c>
+      <c r="FO7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4896,6 +4942,12 @@
       <c r="FN8" t="n">
         <v>365</v>
       </c>
+      <c r="FO8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5412,6 +5464,12 @@
       <c r="FN9" t="n">
         <v>981</v>
       </c>
+      <c r="FO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5928,6 +5986,12 @@
       <c r="FN10" t="n">
         <v>362</v>
       </c>
+      <c r="FO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6444,6 +6508,12 @@
       <c r="FN11" t="n">
         <v>883</v>
       </c>
+      <c r="FO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6960,6 +7030,12 @@
       <c r="FN12" t="n">
         <v>1597</v>
       </c>
+      <c r="FO12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7476,6 +7552,12 @@
       <c r="FN13" t="n">
         <v>442</v>
       </c>
+      <c r="FO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7992,6 +8074,12 @@
       <c r="FN14" t="n">
         <v>0</v>
       </c>
+      <c r="FO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8508,6 +8596,12 @@
       <c r="FN15" t="n">
         <v>905</v>
       </c>
+      <c r="FO15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9024,6 +9118,12 @@
       <c r="FN16" t="n">
         <v>0</v>
       </c>
+      <c r="FO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9540,6 +9640,12 @@
       <c r="FN17" t="n">
         <v>821</v>
       </c>
+      <c r="FO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10056,6 +10162,12 @@
       <c r="FN18" t="n">
         <v>912</v>
       </c>
+      <c r="FO18" t="n">
+        <v>180</v>
+      </c>
+      <c r="FP18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10572,6 +10684,12 @@
       <c r="FN19" t="n">
         <v>349</v>
       </c>
+      <c r="FO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11088,6 +11206,12 @@
       <c r="FN20" t="n">
         <v>349</v>
       </c>
+      <c r="FO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11604,6 +11728,12 @@
       <c r="FN21" t="n">
         <v>0</v>
       </c>
+      <c r="FO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12120,6 +12250,12 @@
       <c r="FN22" t="n">
         <v>0</v>
       </c>
+      <c r="FO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12636,6 +12772,12 @@
       <c r="FN23" t="n">
         <v>0</v>
       </c>
+      <c r="FO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13152,6 +13294,12 @@
       <c r="FN24" t="n">
         <v>0</v>
       </c>
+      <c r="FO24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13668,6 +13816,12 @@
       <c r="FN25" t="n">
         <v>901</v>
       </c>
+      <c r="FO25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14184,6 +14338,12 @@
       <c r="FN26" t="n">
         <v>784</v>
       </c>
+      <c r="FO26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FP26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14698,6 +14858,12 @@
         <v>0</v>
       </c>
       <c r="FN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FP27"/>
+  <dimension ref="A1:FR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,6 +1294,16 @@
           <t>CF天梯分_2022-04-03 08:20:49</t>
         </is>
       </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-04 08:27:21</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-04 08:27:21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1816,6 +1826,12 @@
       <c r="FP2" t="n">
         <v>1783</v>
       </c>
+      <c r="FQ2" t="n">
+        <v>744</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2338,6 +2354,12 @@
       <c r="FP3" t="n">
         <v>1014</v>
       </c>
+      <c r="FQ3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2860,6 +2882,12 @@
       <c r="FP4" t="n">
         <v>1595</v>
       </c>
+      <c r="FQ4" t="n">
+        <v>416</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3382,6 +3410,12 @@
       <c r="FP5" t="n">
         <v>0</v>
       </c>
+      <c r="FQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3904,6 +3938,12 @@
       <c r="FP6" t="n">
         <v>1500</v>
       </c>
+      <c r="FQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4426,6 +4466,12 @@
       <c r="FP7" t="n">
         <v>1407</v>
       </c>
+      <c r="FQ7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4948,6 +4994,12 @@
       <c r="FP8" t="n">
         <v>365</v>
       </c>
+      <c r="FQ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5470,6 +5522,12 @@
       <c r="FP9" t="n">
         <v>981</v>
       </c>
+      <c r="FQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5992,6 +6050,12 @@
       <c r="FP10" t="n">
         <v>362</v>
       </c>
+      <c r="FQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6514,6 +6578,12 @@
       <c r="FP11" t="n">
         <v>883</v>
       </c>
+      <c r="FQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7036,6 +7106,12 @@
       <c r="FP12" t="n">
         <v>1597</v>
       </c>
+      <c r="FQ12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7558,6 +7634,12 @@
       <c r="FP13" t="n">
         <v>442</v>
       </c>
+      <c r="FQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8080,6 +8162,12 @@
       <c r="FP14" t="n">
         <v>0</v>
       </c>
+      <c r="FQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8602,6 +8690,12 @@
       <c r="FP15" t="n">
         <v>905</v>
       </c>
+      <c r="FQ15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9124,6 +9218,12 @@
       <c r="FP16" t="n">
         <v>0</v>
       </c>
+      <c r="FQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9646,6 +9746,12 @@
       <c r="FP17" t="n">
         <v>821</v>
       </c>
+      <c r="FQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10168,6 +10274,12 @@
       <c r="FP18" t="n">
         <v>912</v>
       </c>
+      <c r="FQ18" t="n">
+        <v>180</v>
+      </c>
+      <c r="FR18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10690,6 +10802,12 @@
       <c r="FP19" t="n">
         <v>349</v>
       </c>
+      <c r="FQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11212,6 +11330,12 @@
       <c r="FP20" t="n">
         <v>349</v>
       </c>
+      <c r="FQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11734,6 +11858,12 @@
       <c r="FP21" t="n">
         <v>0</v>
       </c>
+      <c r="FQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12256,6 +12386,12 @@
       <c r="FP22" t="n">
         <v>0</v>
       </c>
+      <c r="FQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12778,6 +12914,12 @@
       <c r="FP23" t="n">
         <v>0</v>
       </c>
+      <c r="FQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13300,6 +13442,12 @@
       <c r="FP24" t="n">
         <v>0</v>
       </c>
+      <c r="FQ24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13822,6 +13970,12 @@
       <c r="FP25" t="n">
         <v>901</v>
       </c>
+      <c r="FQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FR25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14344,6 +14498,12 @@
       <c r="FP26" t="n">
         <v>784</v>
       </c>
+      <c r="FQ26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FR26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14864,6 +15024,12 @@
         <v>0</v>
       </c>
       <c r="FP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FR27"/>
+  <dimension ref="A1:FT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,6 +1304,16 @@
           <t>CF天梯分_2022-04-04 08:27:21</t>
         </is>
       </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-05 08:27:22</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-05 08:27:22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1832,6 +1842,12 @@
       <c r="FR2" t="n">
         <v>1783</v>
       </c>
+      <c r="FS2" t="n">
+        <v>744</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2360,6 +2376,12 @@
       <c r="FR3" t="n">
         <v>1014</v>
       </c>
+      <c r="FS3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2888,6 +2910,12 @@
       <c r="FR4" t="n">
         <v>1595</v>
       </c>
+      <c r="FS4" t="n">
+        <v>416</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3416,6 +3444,12 @@
       <c r="FR5" t="n">
         <v>0</v>
       </c>
+      <c r="FS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3944,6 +3978,12 @@
       <c r="FR6" t="n">
         <v>1500</v>
       </c>
+      <c r="FS6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4472,6 +4512,12 @@
       <c r="FR7" t="n">
         <v>1407</v>
       </c>
+      <c r="FS7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5000,6 +5046,12 @@
       <c r="FR8" t="n">
         <v>365</v>
       </c>
+      <c r="FS8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5528,6 +5580,12 @@
       <c r="FR9" t="n">
         <v>981</v>
       </c>
+      <c r="FS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6056,6 +6114,12 @@
       <c r="FR10" t="n">
         <v>362</v>
       </c>
+      <c r="FS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6584,6 +6648,12 @@
       <c r="FR11" t="n">
         <v>883</v>
       </c>
+      <c r="FS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7112,6 +7182,12 @@
       <c r="FR12" t="n">
         <v>1597</v>
       </c>
+      <c r="FS12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7640,6 +7716,12 @@
       <c r="FR13" t="n">
         <v>442</v>
       </c>
+      <c r="FS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8168,6 +8250,12 @@
       <c r="FR14" t="n">
         <v>0</v>
       </c>
+      <c r="FS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8696,6 +8784,12 @@
       <c r="FR15" t="n">
         <v>905</v>
       </c>
+      <c r="FS15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9224,6 +9318,12 @@
       <c r="FR16" t="n">
         <v>0</v>
       </c>
+      <c r="FS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9752,6 +9852,12 @@
       <c r="FR17" t="n">
         <v>821</v>
       </c>
+      <c r="FS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10280,6 +10386,12 @@
       <c r="FR18" t="n">
         <v>912</v>
       </c>
+      <c r="FS18" t="n">
+        <v>180</v>
+      </c>
+      <c r="FT18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10808,6 +10920,12 @@
       <c r="FR19" t="n">
         <v>349</v>
       </c>
+      <c r="FS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11336,6 +11454,12 @@
       <c r="FR20" t="n">
         <v>349</v>
       </c>
+      <c r="FS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11864,6 +11988,12 @@
       <c r="FR21" t="n">
         <v>0</v>
       </c>
+      <c r="FS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12392,6 +12522,12 @@
       <c r="FR22" t="n">
         <v>0</v>
       </c>
+      <c r="FS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12920,6 +13056,12 @@
       <c r="FR23" t="n">
         <v>0</v>
       </c>
+      <c r="FS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13448,6 +13590,12 @@
       <c r="FR24" t="n">
         <v>0</v>
       </c>
+      <c r="FS24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13976,6 +14124,12 @@
       <c r="FR25" t="n">
         <v>901</v>
       </c>
+      <c r="FS25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FT25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14504,6 +14658,12 @@
       <c r="FR26" t="n">
         <v>784</v>
       </c>
+      <c r="FS26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FT26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15030,6 +15190,12 @@
         <v>0</v>
       </c>
       <c r="FR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FT27"/>
+  <dimension ref="A1:FV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,6 +1314,16 @@
           <t>CF天梯分_2022-04-05 08:27:22</t>
         </is>
       </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-07 08:22:51</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-07 08:22:51</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1848,6 +1858,12 @@
       <c r="FT2" t="n">
         <v>1783</v>
       </c>
+      <c r="FU2" t="n">
+        <v>744</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2382,6 +2398,12 @@
       <c r="FT3" t="n">
         <v>1014</v>
       </c>
+      <c r="FU3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2916,6 +2938,12 @@
       <c r="FT4" t="n">
         <v>1595</v>
       </c>
+      <c r="FU4" t="n">
+        <v>416</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3450,6 +3478,12 @@
       <c r="FT5" t="n">
         <v>0</v>
       </c>
+      <c r="FU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3984,6 +4018,12 @@
       <c r="FT6" t="n">
         <v>1500</v>
       </c>
+      <c r="FU6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4518,6 +4558,12 @@
       <c r="FT7" t="n">
         <v>1407</v>
       </c>
+      <c r="FU7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5052,6 +5098,12 @@
       <c r="FT8" t="n">
         <v>365</v>
       </c>
+      <c r="FU8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5586,6 +5638,12 @@
       <c r="FT9" t="n">
         <v>981</v>
       </c>
+      <c r="FU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6120,6 +6178,12 @@
       <c r="FT10" t="n">
         <v>362</v>
       </c>
+      <c r="FU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6654,6 +6718,12 @@
       <c r="FT11" t="n">
         <v>883</v>
       </c>
+      <c r="FU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7188,6 +7258,12 @@
       <c r="FT12" t="n">
         <v>1597</v>
       </c>
+      <c r="FU12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7722,6 +7798,12 @@
       <c r="FT13" t="n">
         <v>442</v>
       </c>
+      <c r="FU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8256,6 +8338,12 @@
       <c r="FT14" t="n">
         <v>0</v>
       </c>
+      <c r="FU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8790,6 +8878,12 @@
       <c r="FT15" t="n">
         <v>905</v>
       </c>
+      <c r="FU15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9324,6 +9418,12 @@
       <c r="FT16" t="n">
         <v>0</v>
       </c>
+      <c r="FU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9858,6 +9958,12 @@
       <c r="FT17" t="n">
         <v>821</v>
       </c>
+      <c r="FU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10392,6 +10498,12 @@
       <c r="FT18" t="n">
         <v>912</v>
       </c>
+      <c r="FU18" t="n">
+        <v>180</v>
+      </c>
+      <c r="FV18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10926,6 +11038,12 @@
       <c r="FT19" t="n">
         <v>349</v>
       </c>
+      <c r="FU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11460,6 +11578,12 @@
       <c r="FT20" t="n">
         <v>349</v>
       </c>
+      <c r="FU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11994,6 +12118,12 @@
       <c r="FT21" t="n">
         <v>0</v>
       </c>
+      <c r="FU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12528,6 +12658,12 @@
       <c r="FT22" t="n">
         <v>0</v>
       </c>
+      <c r="FU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13062,6 +13198,12 @@
       <c r="FT23" t="n">
         <v>0</v>
       </c>
+      <c r="FU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13596,6 +13738,12 @@
       <c r="FT24" t="n">
         <v>0</v>
       </c>
+      <c r="FU24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14130,6 +14278,12 @@
       <c r="FT25" t="n">
         <v>901</v>
       </c>
+      <c r="FU25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14664,6 +14818,12 @@
       <c r="FT26" t="n">
         <v>784</v>
       </c>
+      <c r="FU26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FV26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15196,6 +15356,12 @@
         <v>0</v>
       </c>
       <c r="FT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FV27"/>
+  <dimension ref="A1:FX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1324,16 @@
           <t>CF天梯分_2022-04-07 08:22:51</t>
         </is>
       </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-08 08:21:55</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-08 08:21:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1864,6 +1874,12 @@
       <c r="FV2" t="n">
         <v>1783</v>
       </c>
+      <c r="FW2" t="n">
+        <v>744</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2404,6 +2420,12 @@
       <c r="FV3" t="n">
         <v>1014</v>
       </c>
+      <c r="FW3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2944,6 +2966,12 @@
       <c r="FV4" t="n">
         <v>1595</v>
       </c>
+      <c r="FW4" t="n">
+        <v>419</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3484,6 +3512,12 @@
       <c r="FV5" t="n">
         <v>0</v>
       </c>
+      <c r="FW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4024,6 +4058,12 @@
       <c r="FV6" t="n">
         <v>1500</v>
       </c>
+      <c r="FW6" t="n">
+        <v>51</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4564,6 +4604,12 @@
       <c r="FV7" t="n">
         <v>1407</v>
       </c>
+      <c r="FW7" t="n">
+        <v>132</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5104,6 +5150,12 @@
       <c r="FV8" t="n">
         <v>365</v>
       </c>
+      <c r="FW8" t="n">
+        <v>36</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5644,6 +5696,12 @@
       <c r="FV9" t="n">
         <v>981</v>
       </c>
+      <c r="FW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6184,6 +6242,12 @@
       <c r="FV10" t="n">
         <v>362</v>
       </c>
+      <c r="FW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6724,6 +6788,12 @@
       <c r="FV11" t="n">
         <v>883</v>
       </c>
+      <c r="FW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7264,6 +7334,12 @@
       <c r="FV12" t="n">
         <v>1597</v>
       </c>
+      <c r="FW12" t="n">
+        <v>182</v>
+      </c>
+      <c r="FX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7804,6 +7880,12 @@
       <c r="FV13" t="n">
         <v>442</v>
       </c>
+      <c r="FW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8344,6 +8426,12 @@
       <c r="FV14" t="n">
         <v>0</v>
       </c>
+      <c r="FW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8884,6 +8972,12 @@
       <c r="FV15" t="n">
         <v>905</v>
       </c>
+      <c r="FW15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9424,6 +9518,12 @@
       <c r="FV16" t="n">
         <v>0</v>
       </c>
+      <c r="FW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9964,6 +10064,12 @@
       <c r="FV17" t="n">
         <v>821</v>
       </c>
+      <c r="FW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10504,6 +10610,12 @@
       <c r="FV18" t="n">
         <v>912</v>
       </c>
+      <c r="FW18" t="n">
+        <v>180</v>
+      </c>
+      <c r="FX18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11044,6 +11156,12 @@
       <c r="FV19" t="n">
         <v>349</v>
       </c>
+      <c r="FW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11584,6 +11702,12 @@
       <c r="FV20" t="n">
         <v>349</v>
       </c>
+      <c r="FW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12124,6 +12248,12 @@
       <c r="FV21" t="n">
         <v>0</v>
       </c>
+      <c r="FW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12664,6 +12794,12 @@
       <c r="FV22" t="n">
         <v>0</v>
       </c>
+      <c r="FW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13204,6 +13340,12 @@
       <c r="FV23" t="n">
         <v>0</v>
       </c>
+      <c r="FW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13744,6 +13886,12 @@
       <c r="FV24" t="n">
         <v>0</v>
       </c>
+      <c r="FW24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14284,6 +14432,12 @@
       <c r="FV25" t="n">
         <v>901</v>
       </c>
+      <c r="FW25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14824,6 +14978,12 @@
       <c r="FV26" t="n">
         <v>784</v>
       </c>
+      <c r="FW26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FX26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15362,6 +15522,12 @@
         <v>0</v>
       </c>
       <c r="FV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FX27"/>
+  <dimension ref="A1:FZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,6 +1334,16 @@
           <t>CF天梯分_2022-04-08 08:21:55</t>
         </is>
       </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-09 08:22:09</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-09 08:22:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1880,6 +1890,12 @@
       <c r="FX2" t="n">
         <v>1783</v>
       </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2426,6 +2442,12 @@
       <c r="FX3" t="n">
         <v>1014</v>
       </c>
+      <c r="FY3" t="n">
+        <v>85</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2972,6 +2994,12 @@
       <c r="FX4" t="n">
         <v>1595</v>
       </c>
+      <c r="FY4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3518,6 +3546,12 @@
       <c r="FX5" t="n">
         <v>0</v>
       </c>
+      <c r="FY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4064,6 +4098,12 @@
       <c r="FX6" t="n">
         <v>1500</v>
       </c>
+      <c r="FY6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4610,6 +4650,12 @@
       <c r="FX7" t="n">
         <v>1407</v>
       </c>
+      <c r="FY7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5156,6 +5202,12 @@
       <c r="FX8" t="n">
         <v>365</v>
       </c>
+      <c r="FY8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5702,6 +5754,12 @@
       <c r="FX9" t="n">
         <v>981</v>
       </c>
+      <c r="FY9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6248,6 +6306,12 @@
       <c r="FX10" t="n">
         <v>362</v>
       </c>
+      <c r="FY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6794,6 +6858,12 @@
       <c r="FX11" t="n">
         <v>883</v>
       </c>
+      <c r="FY11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7340,6 +7410,12 @@
       <c r="FX12" t="n">
         <v>1597</v>
       </c>
+      <c r="FY12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7886,6 +7962,12 @@
       <c r="FX13" t="n">
         <v>442</v>
       </c>
+      <c r="FY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8432,6 +8514,12 @@
       <c r="FX14" t="n">
         <v>0</v>
       </c>
+      <c r="FY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8978,6 +9066,12 @@
       <c r="FX15" t="n">
         <v>905</v>
       </c>
+      <c r="FY15" t="n">
+        <v>52</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9524,6 +9618,12 @@
       <c r="FX16" t="n">
         <v>0</v>
       </c>
+      <c r="FY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10070,6 +10170,12 @@
       <c r="FX17" t="n">
         <v>821</v>
       </c>
+      <c r="FY17" t="n">
+        <v>13</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10616,6 +10722,12 @@
       <c r="FX18" t="n">
         <v>912</v>
       </c>
+      <c r="FY18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11162,6 +11274,12 @@
       <c r="FX19" t="n">
         <v>349</v>
       </c>
+      <c r="FY19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11708,6 +11826,12 @@
       <c r="FX20" t="n">
         <v>349</v>
       </c>
+      <c r="FY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="FZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12254,6 +12378,12 @@
       <c r="FX21" t="n">
         <v>0</v>
       </c>
+      <c r="FY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12800,6 +12930,12 @@
       <c r="FX22" t="n">
         <v>0</v>
       </c>
+      <c r="FY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="FZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13346,6 +13482,12 @@
       <c r="FX23" t="n">
         <v>0</v>
       </c>
+      <c r="FY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -13892,6 +14034,12 @@
       <c r="FX24" t="n">
         <v>0</v>
       </c>
+      <c r="FY24" t="n">
+        <v>301</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14438,6 +14586,12 @@
       <c r="FX25" t="n">
         <v>901</v>
       </c>
+      <c r="FY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="FZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14984,6 +15138,12 @@
       <c r="FX26" t="n">
         <v>784</v>
       </c>
+      <c r="FY26" t="n">
+        <v>27</v>
+      </c>
+      <c r="FZ26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15528,6 +15688,12 @@
         <v>0</v>
       </c>
       <c r="FX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FZ27"/>
+  <dimension ref="A1:GB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,6 +1344,16 @@
           <t>CF天梯分_2022-04-09 08:22:09</t>
         </is>
       </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-10 08:20:58</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-10 08:20:58</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1896,6 +1906,12 @@
       <c r="FZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="GA2" t="n">
+        <v>744</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2448,6 +2464,12 @@
       <c r="FZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="GA3" t="n">
+        <v>85</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3000,6 +3022,12 @@
       <c r="FZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="GA4" t="n">
+        <v>423</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3552,6 +3580,12 @@
       <c r="FZ5" t="n">
         <v>0</v>
       </c>
+      <c r="GA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4104,6 +4138,12 @@
       <c r="FZ6" t="n">
         <v>1500</v>
       </c>
+      <c r="GA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4656,6 +4696,12 @@
       <c r="FZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="GA7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5208,6 +5254,12 @@
       <c r="FZ8" t="n">
         <v>365</v>
       </c>
+      <c r="GA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5760,6 +5812,12 @@
       <c r="FZ9" t="n">
         <v>981</v>
       </c>
+      <c r="GA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6312,6 +6370,12 @@
       <c r="FZ10" t="n">
         <v>362</v>
       </c>
+      <c r="GA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6864,6 +6928,12 @@
       <c r="FZ11" t="n">
         <v>883</v>
       </c>
+      <c r="GA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7416,6 +7486,12 @@
       <c r="FZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="GA12" t="n">
+        <v>182</v>
+      </c>
+      <c r="GB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7968,6 +8044,12 @@
       <c r="FZ13" t="n">
         <v>442</v>
       </c>
+      <c r="GA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8520,6 +8602,12 @@
       <c r="FZ14" t="n">
         <v>0</v>
       </c>
+      <c r="GA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9072,6 +9160,12 @@
       <c r="FZ15" t="n">
         <v>905</v>
       </c>
+      <c r="GA15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9624,6 +9718,12 @@
       <c r="FZ16" t="n">
         <v>0</v>
       </c>
+      <c r="GA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10176,6 +10276,12 @@
       <c r="FZ17" t="n">
         <v>821</v>
       </c>
+      <c r="GA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10728,6 +10834,12 @@
       <c r="FZ18" t="n">
         <v>912</v>
       </c>
+      <c r="GA18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GB18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11280,6 +11392,12 @@
       <c r="FZ19" t="n">
         <v>349</v>
       </c>
+      <c r="GA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11832,6 +11950,12 @@
       <c r="FZ20" t="n">
         <v>349</v>
       </c>
+      <c r="GA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12384,6 +12508,12 @@
       <c r="FZ21" t="n">
         <v>0</v>
       </c>
+      <c r="GA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12936,6 +13066,12 @@
       <c r="FZ22" t="n">
         <v>0</v>
       </c>
+      <c r="GA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13488,6 +13624,12 @@
       <c r="FZ23" t="n">
         <v>0</v>
       </c>
+      <c r="GA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14040,6 +14182,12 @@
       <c r="FZ24" t="n">
         <v>0</v>
       </c>
+      <c r="GA24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14592,6 +14740,12 @@
       <c r="FZ25" t="n">
         <v>901</v>
       </c>
+      <c r="GA25" t="n">
+        <v>34</v>
+      </c>
+      <c r="GB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15144,6 +15298,12 @@
       <c r="FZ26" t="n">
         <v>784</v>
       </c>
+      <c r="GA26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GB26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15694,6 +15854,12 @@
         <v>-1</v>
       </c>
       <c r="FZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GB27"/>
+  <dimension ref="A1:GD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,6 +1354,16 @@
           <t>CF天梯分_2022-04-10 08:20:58</t>
         </is>
       </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-11 08:27:18</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-11 08:27:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1912,6 +1922,12 @@
       <c r="GB2" t="n">
         <v>1783</v>
       </c>
+      <c r="GC2" t="n">
+        <v>745</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2470,6 +2486,12 @@
       <c r="GB3" t="n">
         <v>1014</v>
       </c>
+      <c r="GC3" t="n">
+        <v>88</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3028,6 +3050,12 @@
       <c r="GB4" t="n">
         <v>1595</v>
       </c>
+      <c r="GC4" t="n">
+        <v>423</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3586,6 +3614,12 @@
       <c r="GB5" t="n">
         <v>0</v>
       </c>
+      <c r="GC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4144,6 +4178,12 @@
       <c r="GB6" t="n">
         <v>1500</v>
       </c>
+      <c r="GC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4702,6 +4742,12 @@
       <c r="GB7" t="n">
         <v>1407</v>
       </c>
+      <c r="GC7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5260,6 +5306,12 @@
       <c r="GB8" t="n">
         <v>365</v>
       </c>
+      <c r="GC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5818,6 +5870,12 @@
       <c r="GB9" t="n">
         <v>981</v>
       </c>
+      <c r="GC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6376,6 +6434,12 @@
       <c r="GB10" t="n">
         <v>362</v>
       </c>
+      <c r="GC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6934,6 +6998,12 @@
       <c r="GB11" t="n">
         <v>883</v>
       </c>
+      <c r="GC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7492,6 +7562,12 @@
       <c r="GB12" t="n">
         <v>1597</v>
       </c>
+      <c r="GC12" t="n">
+        <v>182</v>
+      </c>
+      <c r="GD12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8050,6 +8126,12 @@
       <c r="GB13" t="n">
         <v>442</v>
       </c>
+      <c r="GC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8608,6 +8690,12 @@
       <c r="GB14" t="n">
         <v>0</v>
       </c>
+      <c r="GC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9166,6 +9254,12 @@
       <c r="GB15" t="n">
         <v>905</v>
       </c>
+      <c r="GC15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9724,6 +9818,12 @@
       <c r="GB16" t="n">
         <v>0</v>
       </c>
+      <c r="GC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10282,6 +10382,12 @@
       <c r="GB17" t="n">
         <v>821</v>
       </c>
+      <c r="GC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10840,6 +10946,12 @@
       <c r="GB18" t="n">
         <v>912</v>
       </c>
+      <c r="GC18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GD18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11398,6 +11510,12 @@
       <c r="GB19" t="n">
         <v>349</v>
       </c>
+      <c r="GC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11956,6 +12074,12 @@
       <c r="GB20" t="n">
         <v>349</v>
       </c>
+      <c r="GC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12514,6 +12638,12 @@
       <c r="GB21" t="n">
         <v>0</v>
       </c>
+      <c r="GC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13072,6 +13202,12 @@
       <c r="GB22" t="n">
         <v>0</v>
       </c>
+      <c r="GC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13630,6 +13766,12 @@
       <c r="GB23" t="n">
         <v>0</v>
       </c>
+      <c r="GC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14188,6 +14330,12 @@
       <c r="GB24" t="n">
         <v>0</v>
       </c>
+      <c r="GC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14746,6 +14894,12 @@
       <c r="GB25" t="n">
         <v>901</v>
       </c>
+      <c r="GC25" t="n">
+        <v>35</v>
+      </c>
+      <c r="GD25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15304,6 +15458,12 @@
       <c r="GB26" t="n">
         <v>784</v>
       </c>
+      <c r="GC26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GD26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -15860,6 +16020,12 @@
         <v>0</v>
       </c>
       <c r="GB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GD27"/>
+  <dimension ref="A1:GF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1364,6 +1364,16 @@
           <t>CF天梯分_2022-04-11 08:27:18</t>
         </is>
       </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-13 08:28:23</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-13 08:28:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1928,6 +1938,12 @@
       <c r="GD2" t="n">
         <v>1783</v>
       </c>
+      <c r="GE2" t="n">
+        <v>745</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2492,6 +2508,12 @@
       <c r="GD3" t="n">
         <v>1014</v>
       </c>
+      <c r="GE3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3078,12 @@
       <c r="GD4" t="n">
         <v>1595</v>
       </c>
+      <c r="GE4" t="n">
+        <v>427</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3620,6 +3648,12 @@
       <c r="GD5" t="n">
         <v>0</v>
       </c>
+      <c r="GE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4184,6 +4218,12 @@
       <c r="GD6" t="n">
         <v>1500</v>
       </c>
+      <c r="GE6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4748,6 +4788,12 @@
       <c r="GD7" t="n">
         <v>1407</v>
       </c>
+      <c r="GE7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5312,6 +5358,12 @@
       <c r="GD8" t="n">
         <v>365</v>
       </c>
+      <c r="GE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5876,6 +5928,12 @@
       <c r="GD9" t="n">
         <v>981</v>
       </c>
+      <c r="GE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6440,6 +6498,12 @@
       <c r="GD10" t="n">
         <v>362</v>
       </c>
+      <c r="GE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7004,6 +7068,12 @@
       <c r="GD11" t="n">
         <v>883</v>
       </c>
+      <c r="GE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7568,6 +7638,12 @@
       <c r="GD12" t="n">
         <v>1597</v>
       </c>
+      <c r="GE12" t="n">
+        <v>186</v>
+      </c>
+      <c r="GF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8132,6 +8208,12 @@
       <c r="GD13" t="n">
         <v>442</v>
       </c>
+      <c r="GE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8696,6 +8778,12 @@
       <c r="GD14" t="n">
         <v>0</v>
       </c>
+      <c r="GE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9260,6 +9348,12 @@
       <c r="GD15" t="n">
         <v>905</v>
       </c>
+      <c r="GE15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9824,6 +9918,12 @@
       <c r="GD16" t="n">
         <v>0</v>
       </c>
+      <c r="GE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10388,6 +10488,12 @@
       <c r="GD17" t="n">
         <v>821</v>
       </c>
+      <c r="GE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10952,6 +11058,12 @@
       <c r="GD18" t="n">
         <v>912</v>
       </c>
+      <c r="GE18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GF18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11516,6 +11628,12 @@
       <c r="GD19" t="n">
         <v>349</v>
       </c>
+      <c r="GE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12080,6 +12198,12 @@
       <c r="GD20" t="n">
         <v>349</v>
       </c>
+      <c r="GE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12644,6 +12768,12 @@
       <c r="GD21" t="n">
         <v>0</v>
       </c>
+      <c r="GE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13208,6 +13338,12 @@
       <c r="GD22" t="n">
         <v>0</v>
       </c>
+      <c r="GE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13772,6 +13908,12 @@
       <c r="GD23" t="n">
         <v>0</v>
       </c>
+      <c r="GE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14336,6 +14478,12 @@
       <c r="GD24" t="n">
         <v>0</v>
       </c>
+      <c r="GE24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14900,6 +15048,12 @@
       <c r="GD25" t="n">
         <v>901</v>
       </c>
+      <c r="GE25" t="n">
+        <v>35</v>
+      </c>
+      <c r="GF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15464,6 +15618,12 @@
       <c r="GD26" t="n">
         <v>784</v>
       </c>
+      <c r="GE26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GF26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16026,6 +16186,12 @@
         <v>0</v>
       </c>
       <c r="GD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GF27"/>
+  <dimension ref="A1:GH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1374,6 +1374,16 @@
           <t>CF天梯分_2022-04-13 08:28:23</t>
         </is>
       </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-14 08:25:49</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-14 08:25:49</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1944,6 +1954,12 @@
       <c r="GF2" t="n">
         <v>1783</v>
       </c>
+      <c r="GG2" t="n">
+        <v>745</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2514,6 +2530,12 @@
       <c r="GF3" t="n">
         <v>1014</v>
       </c>
+      <c r="GG3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3084,6 +3106,12 @@
       <c r="GF4" t="n">
         <v>1595</v>
       </c>
+      <c r="GG4" t="n">
+        <v>427</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3654,6 +3682,12 @@
       <c r="GF5" t="n">
         <v>0</v>
       </c>
+      <c r="GG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4224,6 +4258,12 @@
       <c r="GF6" t="n">
         <v>1500</v>
       </c>
+      <c r="GG6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4794,6 +4834,12 @@
       <c r="GF7" t="n">
         <v>1407</v>
       </c>
+      <c r="GG7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5364,6 +5410,12 @@
       <c r="GF8" t="n">
         <v>365</v>
       </c>
+      <c r="GG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5934,6 +5986,12 @@
       <c r="GF9" t="n">
         <v>981</v>
       </c>
+      <c r="GG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6504,6 +6562,12 @@
       <c r="GF10" t="n">
         <v>362</v>
       </c>
+      <c r="GG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7074,6 +7138,12 @@
       <c r="GF11" t="n">
         <v>883</v>
       </c>
+      <c r="GG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7644,6 +7714,12 @@
       <c r="GF12" t="n">
         <v>1597</v>
       </c>
+      <c r="GG12" t="n">
+        <v>187</v>
+      </c>
+      <c r="GH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8214,6 +8290,12 @@
       <c r="GF13" t="n">
         <v>442</v>
       </c>
+      <c r="GG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8784,6 +8866,12 @@
       <c r="GF14" t="n">
         <v>0</v>
       </c>
+      <c r="GG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9354,6 +9442,12 @@
       <c r="GF15" t="n">
         <v>905</v>
       </c>
+      <c r="GG15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GH15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9924,6 +10018,12 @@
       <c r="GF16" t="n">
         <v>0</v>
       </c>
+      <c r="GG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10494,6 +10594,12 @@
       <c r="GF17" t="n">
         <v>821</v>
       </c>
+      <c r="GG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11064,6 +11170,12 @@
       <c r="GF18" t="n">
         <v>912</v>
       </c>
+      <c r="GG18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GH18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11634,6 +11746,12 @@
       <c r="GF19" t="n">
         <v>349</v>
       </c>
+      <c r="GG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12204,6 +12322,12 @@
       <c r="GF20" t="n">
         <v>349</v>
       </c>
+      <c r="GG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12774,6 +12898,12 @@
       <c r="GF21" t="n">
         <v>0</v>
       </c>
+      <c r="GG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13344,6 +13474,12 @@
       <c r="GF22" t="n">
         <v>0</v>
       </c>
+      <c r="GG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -13914,6 +14050,12 @@
       <c r="GF23" t="n">
         <v>0</v>
       </c>
+      <c r="GG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14484,6 +14626,12 @@
       <c r="GF24" t="n">
         <v>0</v>
       </c>
+      <c r="GG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15054,6 +15202,12 @@
       <c r="GF25" t="n">
         <v>901</v>
       </c>
+      <c r="GG25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15624,6 +15778,12 @@
       <c r="GF26" t="n">
         <v>784</v>
       </c>
+      <c r="GG26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GH26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16192,6 +16352,12 @@
         <v>0</v>
       </c>
       <c r="GF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GH27"/>
+  <dimension ref="A1:GJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1384,6 +1384,16 @@
           <t>CF天梯分_2022-04-14 08:25:49</t>
         </is>
       </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-15 08:22:58</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-15 08:22:58</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1960,6 +1970,12 @@
       <c r="GH2" t="n">
         <v>1783</v>
       </c>
+      <c r="GI2" t="n">
+        <v>745</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2536,6 +2552,12 @@
       <c r="GH3" t="n">
         <v>1014</v>
       </c>
+      <c r="GI3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3112,6 +3134,12 @@
       <c r="GH4" t="n">
         <v>1595</v>
       </c>
+      <c r="GI4" t="n">
+        <v>427</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3688,6 +3716,12 @@
       <c r="GH5" t="n">
         <v>0</v>
       </c>
+      <c r="GI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4264,6 +4298,12 @@
       <c r="GH6" t="n">
         <v>1500</v>
       </c>
+      <c r="GI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4840,6 +4880,12 @@
       <c r="GH7" t="n">
         <v>1407</v>
       </c>
+      <c r="GI7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5416,6 +5462,12 @@
       <c r="GH8" t="n">
         <v>365</v>
       </c>
+      <c r="GI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5992,6 +6044,12 @@
       <c r="GH9" t="n">
         <v>981</v>
       </c>
+      <c r="GI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6568,6 +6626,12 @@
       <c r="GH10" t="n">
         <v>362</v>
       </c>
+      <c r="GI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7144,6 +7208,12 @@
       <c r="GH11" t="n">
         <v>883</v>
       </c>
+      <c r="GI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7720,6 +7790,12 @@
       <c r="GH12" t="n">
         <v>1597</v>
       </c>
+      <c r="GI12" t="n">
+        <v>187</v>
+      </c>
+      <c r="GJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8296,6 +8372,12 @@
       <c r="GH13" t="n">
         <v>442</v>
       </c>
+      <c r="GI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8872,6 +8954,12 @@
       <c r="GH14" t="n">
         <v>0</v>
       </c>
+      <c r="GI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9448,6 +9536,12 @@
       <c r="GH15" t="n">
         <v>905</v>
       </c>
+      <c r="GI15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GJ15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10024,6 +10118,12 @@
       <c r="GH16" t="n">
         <v>0</v>
       </c>
+      <c r="GI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10600,6 +10700,12 @@
       <c r="GH17" t="n">
         <v>821</v>
       </c>
+      <c r="GI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11176,6 +11282,12 @@
       <c r="GH18" t="n">
         <v>912</v>
       </c>
+      <c r="GI18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GJ18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11752,6 +11864,12 @@
       <c r="GH19" t="n">
         <v>349</v>
       </c>
+      <c r="GI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12328,6 +12446,12 @@
       <c r="GH20" t="n">
         <v>349</v>
       </c>
+      <c r="GI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12904,6 +13028,12 @@
       <c r="GH21" t="n">
         <v>0</v>
       </c>
+      <c r="GI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13480,6 +13610,12 @@
       <c r="GH22" t="n">
         <v>0</v>
       </c>
+      <c r="GI22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14056,6 +14192,12 @@
       <c r="GH23" t="n">
         <v>0</v>
       </c>
+      <c r="GI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14632,6 +14774,12 @@
       <c r="GH24" t="n">
         <v>0</v>
       </c>
+      <c r="GI24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15208,6 +15356,12 @@
       <c r="GH25" t="n">
         <v>901</v>
       </c>
+      <c r="GI25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15784,6 +15938,12 @@
       <c r="GH26" t="n">
         <v>784</v>
       </c>
+      <c r="GI26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GJ26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16358,6 +16518,12 @@
         <v>0</v>
       </c>
       <c r="GH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GJ27"/>
+  <dimension ref="A1:GL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1394,6 +1394,16 @@
           <t>CF天梯分_2022-04-15 08:22:58</t>
         </is>
       </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-16 08:21:37</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-16 08:21:37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1976,6 +1986,12 @@
       <c r="GJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="GK2" t="n">
+        <v>746</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2558,6 +2574,12 @@
       <c r="GJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="GK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3140,6 +3162,12 @@
       <c r="GJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="GK4" t="n">
+        <v>427</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3722,6 +3750,12 @@
       <c r="GJ5" t="n">
         <v>0</v>
       </c>
+      <c r="GK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4304,6 +4338,12 @@
       <c r="GJ6" t="n">
         <v>1500</v>
       </c>
+      <c r="GK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4886,6 +4926,12 @@
       <c r="GJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="GK7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5468,6 +5514,12 @@
       <c r="GJ8" t="n">
         <v>365</v>
       </c>
+      <c r="GK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6050,6 +6102,12 @@
       <c r="GJ9" t="n">
         <v>981</v>
       </c>
+      <c r="GK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6632,6 +6690,12 @@
       <c r="GJ10" t="n">
         <v>362</v>
       </c>
+      <c r="GK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7214,6 +7278,12 @@
       <c r="GJ11" t="n">
         <v>883</v>
       </c>
+      <c r="GK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7796,6 +7866,12 @@
       <c r="GJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="GK12" t="n">
+        <v>187</v>
+      </c>
+      <c r="GL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8378,6 +8454,12 @@
       <c r="GJ13" t="n">
         <v>442</v>
       </c>
+      <c r="GK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8960,6 +9042,12 @@
       <c r="GJ14" t="n">
         <v>0</v>
       </c>
+      <c r="GK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9542,6 +9630,12 @@
       <c r="GJ15" t="n">
         <v>905</v>
       </c>
+      <c r="GK15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GL15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10124,6 +10218,12 @@
       <c r="GJ16" t="n">
         <v>0</v>
       </c>
+      <c r="GK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10706,6 +10806,12 @@
       <c r="GJ17" t="n">
         <v>821</v>
       </c>
+      <c r="GK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11288,6 +11394,12 @@
       <c r="GJ18" t="n">
         <v>912</v>
       </c>
+      <c r="GK18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GL18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11870,6 +11982,12 @@
       <c r="GJ19" t="n">
         <v>349</v>
       </c>
+      <c r="GK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12452,6 +12570,12 @@
       <c r="GJ20" t="n">
         <v>349</v>
       </c>
+      <c r="GK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13034,6 +13158,12 @@
       <c r="GJ21" t="n">
         <v>0</v>
       </c>
+      <c r="GK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13616,6 +13746,12 @@
       <c r="GJ22" t="n">
         <v>0</v>
       </c>
+      <c r="GK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14198,6 +14334,12 @@
       <c r="GJ23" t="n">
         <v>0</v>
       </c>
+      <c r="GK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14780,6 +14922,12 @@
       <c r="GJ24" t="n">
         <v>0</v>
       </c>
+      <c r="GK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15362,6 +15510,12 @@
       <c r="GJ25" t="n">
         <v>901</v>
       </c>
+      <c r="GK25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -15944,6 +16098,12 @@
       <c r="GJ26" t="n">
         <v>784</v>
       </c>
+      <c r="GK26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GL26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16524,6 +16684,12 @@
         <v>0</v>
       </c>
       <c r="GJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GL27"/>
+  <dimension ref="A1:GN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,6 +1404,16 @@
           <t>CF天梯分_2022-04-16 08:21:37</t>
         </is>
       </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-17 08:21:39</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-17 08:21:39</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1992,6 +2002,12 @@
       <c r="GL2" t="n">
         <v>1783</v>
       </c>
+      <c r="GM2" t="n">
+        <v>746</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2580,6 +2596,12 @@
       <c r="GL3" t="n">
         <v>1014</v>
       </c>
+      <c r="GM3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3168,6 +3190,12 @@
       <c r="GL4" t="n">
         <v>1595</v>
       </c>
+      <c r="GM4" t="n">
+        <v>427</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3756,6 +3784,12 @@
       <c r="GL5" t="n">
         <v>0</v>
       </c>
+      <c r="GM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4344,6 +4378,12 @@
       <c r="GL6" t="n">
         <v>1500</v>
       </c>
+      <c r="GM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4932,6 +4972,12 @@
       <c r="GL7" t="n">
         <v>1407</v>
       </c>
+      <c r="GM7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5520,6 +5566,12 @@
       <c r="GL8" t="n">
         <v>365</v>
       </c>
+      <c r="GM8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6108,6 +6160,12 @@
       <c r="GL9" t="n">
         <v>981</v>
       </c>
+      <c r="GM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6696,6 +6754,12 @@
       <c r="GL10" t="n">
         <v>362</v>
       </c>
+      <c r="GM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7284,6 +7348,12 @@
       <c r="GL11" t="n">
         <v>883</v>
       </c>
+      <c r="GM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7872,6 +7942,12 @@
       <c r="GL12" t="n">
         <v>1597</v>
       </c>
+      <c r="GM12" t="n">
+        <v>187</v>
+      </c>
+      <c r="GN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8460,6 +8536,12 @@
       <c r="GL13" t="n">
         <v>442</v>
       </c>
+      <c r="GM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9048,6 +9130,12 @@
       <c r="GL14" t="n">
         <v>0</v>
       </c>
+      <c r="GM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9636,6 +9724,12 @@
       <c r="GL15" t="n">
         <v>905</v>
       </c>
+      <c r="GM15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GN15" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10224,6 +10318,12 @@
       <c r="GL16" t="n">
         <v>0</v>
       </c>
+      <c r="GM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10812,6 +10912,12 @@
       <c r="GL17" t="n">
         <v>821</v>
       </c>
+      <c r="GM17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11400,6 +11506,12 @@
       <c r="GL18" t="n">
         <v>912</v>
       </c>
+      <c r="GM18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GN18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11988,6 +12100,12 @@
       <c r="GL19" t="n">
         <v>349</v>
       </c>
+      <c r="GM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12576,6 +12694,12 @@
       <c r="GL20" t="n">
         <v>349</v>
       </c>
+      <c r="GM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13164,6 +13288,12 @@
       <c r="GL21" t="n">
         <v>0</v>
       </c>
+      <c r="GM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13752,6 +13882,12 @@
       <c r="GL22" t="n">
         <v>0</v>
       </c>
+      <c r="GM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14340,6 +14476,12 @@
       <c r="GL23" t="n">
         <v>0</v>
       </c>
+      <c r="GM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14928,6 +15070,12 @@
       <c r="GL24" t="n">
         <v>0</v>
       </c>
+      <c r="GM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15516,6 +15664,12 @@
       <c r="GL25" t="n">
         <v>901</v>
       </c>
+      <c r="GM25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16104,6 +16258,12 @@
       <c r="GL26" t="n">
         <v>784</v>
       </c>
+      <c r="GM26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GN26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16690,6 +16850,12 @@
         <v>0</v>
       </c>
       <c r="GL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GN27"/>
+  <dimension ref="A1:GP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,6 +1414,16 @@
           <t>CF天梯分_2022-04-17 08:21:39</t>
         </is>
       </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-18 08:23:03</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-18 08:23:03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2008,6 +2018,12 @@
       <c r="GN2" t="n">
         <v>1783</v>
       </c>
+      <c r="GO2" t="n">
+        <v>746</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2602,6 +2618,12 @@
       <c r="GN3" t="n">
         <v>1014</v>
       </c>
+      <c r="GO3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3196,6 +3218,12 @@
       <c r="GN4" t="n">
         <v>1595</v>
       </c>
+      <c r="GO4" t="n">
+        <v>434</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3790,6 +3818,12 @@
       <c r="GN5" t="n">
         <v>0</v>
       </c>
+      <c r="GO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4384,6 +4418,12 @@
       <c r="GN6" t="n">
         <v>1500</v>
       </c>
+      <c r="GO6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4978,6 +5018,12 @@
       <c r="GN7" t="n">
         <v>1407</v>
       </c>
+      <c r="GO7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5572,6 +5618,12 @@
       <c r="GN8" t="n">
         <v>365</v>
       </c>
+      <c r="GO8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6166,6 +6218,12 @@
       <c r="GN9" t="n">
         <v>981</v>
       </c>
+      <c r="GO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6760,6 +6818,12 @@
       <c r="GN10" t="n">
         <v>362</v>
       </c>
+      <c r="GO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7354,6 +7418,12 @@
       <c r="GN11" t="n">
         <v>883</v>
       </c>
+      <c r="GO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7948,6 +8018,12 @@
       <c r="GN12" t="n">
         <v>1597</v>
       </c>
+      <c r="GO12" t="n">
+        <v>190</v>
+      </c>
+      <c r="GP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8542,6 +8618,12 @@
       <c r="GN13" t="n">
         <v>442</v>
       </c>
+      <c r="GO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9136,6 +9218,12 @@
       <c r="GN14" t="n">
         <v>0</v>
       </c>
+      <c r="GO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9730,6 +9818,12 @@
       <c r="GN15" t="n">
         <v>905</v>
       </c>
+      <c r="GO15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GP15" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10324,6 +10418,12 @@
       <c r="GN16" t="n">
         <v>0</v>
       </c>
+      <c r="GO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10918,6 +11018,12 @@
       <c r="GN17" t="n">
         <v>821</v>
       </c>
+      <c r="GO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11512,6 +11618,12 @@
       <c r="GN18" t="n">
         <v>912</v>
       </c>
+      <c r="GO18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GP18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12106,6 +12218,12 @@
       <c r="GN19" t="n">
         <v>349</v>
       </c>
+      <c r="GO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12700,6 +12818,12 @@
       <c r="GN20" t="n">
         <v>349</v>
       </c>
+      <c r="GO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13294,6 +13418,12 @@
       <c r="GN21" t="n">
         <v>0</v>
       </c>
+      <c r="GO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13888,6 +14018,12 @@
       <c r="GN22" t="n">
         <v>0</v>
       </c>
+      <c r="GO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14482,6 +14618,12 @@
       <c r="GN23" t="n">
         <v>0</v>
       </c>
+      <c r="GO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15076,6 +15218,12 @@
       <c r="GN24" t="n">
         <v>0</v>
       </c>
+      <c r="GO24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15670,6 +15818,12 @@
       <c r="GN25" t="n">
         <v>901</v>
       </c>
+      <c r="GO25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16264,6 +16418,12 @@
       <c r="GN26" t="n">
         <v>784</v>
       </c>
+      <c r="GO26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GP26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16856,6 +17016,12 @@
         <v>0</v>
       </c>
       <c r="GN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GP27"/>
+  <dimension ref="A1:GR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,6 +1424,16 @@
           <t>CF天梯分_2022-04-18 08:23:03</t>
         </is>
       </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-19 08:27:21</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-19 08:27:21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2024,6 +2034,12 @@
       <c r="GP2" t="n">
         <v>1783</v>
       </c>
+      <c r="GQ2" t="n">
+        <v>746</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2624,6 +2640,12 @@
       <c r="GP3" t="n">
         <v>1014</v>
       </c>
+      <c r="GQ3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3246,12 @@
       <c r="GP4" t="n">
         <v>1595</v>
       </c>
+      <c r="GQ4" t="n">
+        <v>435</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3824,6 +3852,12 @@
       <c r="GP5" t="n">
         <v>0</v>
       </c>
+      <c r="GQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4424,6 +4458,12 @@
       <c r="GP6" t="n">
         <v>1500</v>
       </c>
+      <c r="GQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5024,6 +5064,12 @@
       <c r="GP7" t="n">
         <v>1407</v>
       </c>
+      <c r="GQ7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5624,6 +5670,12 @@
       <c r="GP8" t="n">
         <v>365</v>
       </c>
+      <c r="GQ8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6224,6 +6276,12 @@
       <c r="GP9" t="n">
         <v>981</v>
       </c>
+      <c r="GQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6824,6 +6882,12 @@
       <c r="GP10" t="n">
         <v>362</v>
       </c>
+      <c r="GQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7424,6 +7488,12 @@
       <c r="GP11" t="n">
         <v>883</v>
       </c>
+      <c r="GQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8024,6 +8094,12 @@
       <c r="GP12" t="n">
         <v>1597</v>
       </c>
+      <c r="GQ12" t="n">
+        <v>193</v>
+      </c>
+      <c r="GR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8624,6 +8700,12 @@
       <c r="GP13" t="n">
         <v>442</v>
       </c>
+      <c r="GQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9224,6 +9306,12 @@
       <c r="GP14" t="n">
         <v>0</v>
       </c>
+      <c r="GQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9824,6 +9912,12 @@
       <c r="GP15" t="n">
         <v>813</v>
       </c>
+      <c r="GQ15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GR15" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10424,6 +10518,12 @@
       <c r="GP16" t="n">
         <v>0</v>
       </c>
+      <c r="GQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11024,6 +11124,12 @@
       <c r="GP17" t="n">
         <v>821</v>
       </c>
+      <c r="GQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11624,6 +11730,12 @@
       <c r="GP18" t="n">
         <v>912</v>
       </c>
+      <c r="GQ18" t="n">
+        <v>180</v>
+      </c>
+      <c r="GR18" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12224,6 +12336,12 @@
       <c r="GP19" t="n">
         <v>349</v>
       </c>
+      <c r="GQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12824,6 +12942,12 @@
       <c r="GP20" t="n">
         <v>349</v>
       </c>
+      <c r="GQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13424,6 +13548,12 @@
       <c r="GP21" t="n">
         <v>0</v>
       </c>
+      <c r="GQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14024,6 +14154,12 @@
       <c r="GP22" t="n">
         <v>0</v>
       </c>
+      <c r="GQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14624,6 +14760,12 @@
       <c r="GP23" t="n">
         <v>0</v>
       </c>
+      <c r="GQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15224,6 +15366,12 @@
       <c r="GP24" t="n">
         <v>0</v>
       </c>
+      <c r="GQ24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15824,6 +15972,12 @@
       <c r="GP25" t="n">
         <v>901</v>
       </c>
+      <c r="GQ25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GR25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16424,6 +16578,12 @@
       <c r="GP26" t="n">
         <v>784</v>
       </c>
+      <c r="GQ26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GR26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17022,6 +17182,12 @@
         <v>0</v>
       </c>
       <c r="GP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GR27"/>
+  <dimension ref="A1:GT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,6 +1434,16 @@
           <t>CF天梯分_2022-04-19 08:27:21</t>
         </is>
       </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-20 08:30:38</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-20 08:30:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2040,6 +2050,12 @@
       <c r="GR2" t="n">
         <v>1783</v>
       </c>
+      <c r="GS2" t="n">
+        <v>746</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2646,6 +2662,12 @@
       <c r="GR3" t="n">
         <v>1014</v>
       </c>
+      <c r="GS3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3252,6 +3274,12 @@
       <c r="GR4" t="n">
         <v>1595</v>
       </c>
+      <c r="GS4" t="n">
+        <v>439</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3858,6 +3886,12 @@
       <c r="GR5" t="n">
         <v>0</v>
       </c>
+      <c r="GS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4464,6 +4498,12 @@
       <c r="GR6" t="n">
         <v>1500</v>
       </c>
+      <c r="GS6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5070,6 +5110,12 @@
       <c r="GR7" t="n">
         <v>1407</v>
       </c>
+      <c r="GS7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5676,6 +5722,12 @@
       <c r="GR8" t="n">
         <v>365</v>
       </c>
+      <c r="GS8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6282,6 +6334,12 @@
       <c r="GR9" t="n">
         <v>981</v>
       </c>
+      <c r="GS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6888,6 +6946,12 @@
       <c r="GR10" t="n">
         <v>362</v>
       </c>
+      <c r="GS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7494,6 +7558,12 @@
       <c r="GR11" t="n">
         <v>883</v>
       </c>
+      <c r="GS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8100,6 +8170,12 @@
       <c r="GR12" t="n">
         <v>1597</v>
       </c>
+      <c r="GS12" t="n">
+        <v>195</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8706,6 +8782,12 @@
       <c r="GR13" t="n">
         <v>442</v>
       </c>
+      <c r="GS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9312,6 +9394,12 @@
       <c r="GR14" t="n">
         <v>0</v>
       </c>
+      <c r="GS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9918,6 +10006,12 @@
       <c r="GR15" t="n">
         <v>813</v>
       </c>
+      <c r="GS15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10524,6 +10618,12 @@
       <c r="GR16" t="n">
         <v>0</v>
       </c>
+      <c r="GS16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11130,6 +11230,12 @@
       <c r="GR17" t="n">
         <v>821</v>
       </c>
+      <c r="GS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11736,6 +11842,12 @@
       <c r="GR18" t="n">
         <v>912</v>
       </c>
+      <c r="GS18" t="n">
+        <v>184</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>971</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12342,6 +12454,12 @@
       <c r="GR19" t="n">
         <v>349</v>
       </c>
+      <c r="GS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12948,6 +13066,12 @@
       <c r="GR20" t="n">
         <v>349</v>
       </c>
+      <c r="GS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13554,6 +13678,12 @@
       <c r="GR21" t="n">
         <v>0</v>
       </c>
+      <c r="GS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14160,6 +14290,12 @@
       <c r="GR22" t="n">
         <v>0</v>
       </c>
+      <c r="GS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14766,6 +14902,12 @@
       <c r="GR23" t="n">
         <v>0</v>
       </c>
+      <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15372,6 +15514,12 @@
       <c r="GR24" t="n">
         <v>0</v>
       </c>
+      <c r="GS24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15978,6 +16126,12 @@
       <c r="GR25" t="n">
         <v>901</v>
       </c>
+      <c r="GS25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GT25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16584,6 +16738,12 @@
       <c r="GR26" t="n">
         <v>784</v>
       </c>
+      <c r="GS26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17188,6 +17348,12 @@
         <v>0</v>
       </c>
       <c r="GR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GT27"/>
+  <dimension ref="A1:GV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,6 +1444,16 @@
           <t>CF天梯分_2022-04-20 08:30:38</t>
         </is>
       </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-21 08:27:06</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-21 08:27:06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2056,6 +2066,12 @@
       <c r="GT2" t="n">
         <v>1783</v>
       </c>
+      <c r="GU2" t="n">
+        <v>747</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2668,6 +2684,12 @@
       <c r="GT3" t="n">
         <v>1014</v>
       </c>
+      <c r="GU3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3280,6 +3302,12 @@
       <c r="GT4" t="n">
         <v>1595</v>
       </c>
+      <c r="GU4" t="n">
+        <v>441</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3892,6 +3920,12 @@
       <c r="GT5" t="n">
         <v>0</v>
       </c>
+      <c r="GU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4504,6 +4538,12 @@
       <c r="GT6" t="n">
         <v>1500</v>
       </c>
+      <c r="GU6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5116,6 +5156,12 @@
       <c r="GT7" t="n">
         <v>1407</v>
       </c>
+      <c r="GU7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5728,6 +5774,12 @@
       <c r="GT8" t="n">
         <v>365</v>
       </c>
+      <c r="GU8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6340,6 +6392,12 @@
       <c r="GT9" t="n">
         <v>981</v>
       </c>
+      <c r="GU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6952,6 +7010,12 @@
       <c r="GT10" t="n">
         <v>362</v>
       </c>
+      <c r="GU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7564,6 +7628,12 @@
       <c r="GT11" t="n">
         <v>883</v>
       </c>
+      <c r="GU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8176,6 +8246,12 @@
       <c r="GT12" t="n">
         <v>1597</v>
       </c>
+      <c r="GU12" t="n">
+        <v>195</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8788,6 +8864,12 @@
       <c r="GT13" t="n">
         <v>442</v>
       </c>
+      <c r="GU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9400,6 +9482,12 @@
       <c r="GT14" t="n">
         <v>0</v>
       </c>
+      <c r="GU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10012,6 +10100,12 @@
       <c r="GT15" t="n">
         <v>813</v>
       </c>
+      <c r="GU15" t="n">
+        <v>52</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10624,6 +10718,12 @@
       <c r="GT16" t="n">
         <v>0</v>
       </c>
+      <c r="GU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11236,6 +11336,12 @@
       <c r="GT17" t="n">
         <v>821</v>
       </c>
+      <c r="GU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11848,6 +11954,12 @@
       <c r="GT18" t="n">
         <v>971</v>
       </c>
+      <c r="GU18" t="n">
+        <v>184</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>971</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12460,6 +12572,12 @@
       <c r="GT19" t="n">
         <v>349</v>
       </c>
+      <c r="GU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13072,6 +13190,12 @@
       <c r="GT20" t="n">
         <v>349</v>
       </c>
+      <c r="GU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13684,6 +13808,12 @@
       <c r="GT21" t="n">
         <v>0</v>
       </c>
+      <c r="GU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14296,6 +14426,12 @@
       <c r="GT22" t="n">
         <v>0</v>
       </c>
+      <c r="GU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14908,6 +15044,12 @@
       <c r="GT23" t="n">
         <v>0</v>
       </c>
+      <c r="GU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15520,6 +15662,12 @@
       <c r="GT24" t="n">
         <v>0</v>
       </c>
+      <c r="GU24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16132,6 +16280,12 @@
       <c r="GT25" t="n">
         <v>901</v>
       </c>
+      <c r="GU25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16744,6 +16898,12 @@
       <c r="GT26" t="n">
         <v>784</v>
       </c>
+      <c r="GU26" t="n">
+        <v>27</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17354,6 +17514,12 @@
         <v>0</v>
       </c>
       <c r="GT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GV27"/>
+  <dimension ref="A1:GX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,6 +1454,16 @@
           <t>CF天梯分_2022-04-21 08:27:06</t>
         </is>
       </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-22 08:23:08</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-22 08:23:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2072,6 +2082,12 @@
       <c r="GV2" t="n">
         <v>1783</v>
       </c>
+      <c r="GW2" t="n">
+        <v>747</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2690,6 +2706,12 @@
       <c r="GV3" t="n">
         <v>1014</v>
       </c>
+      <c r="GW3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3308,6 +3330,12 @@
       <c r="GV4" t="n">
         <v>1595</v>
       </c>
+      <c r="GW4" t="n">
+        <v>443</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3926,6 +3954,12 @@
       <c r="GV5" t="n">
         <v>0</v>
       </c>
+      <c r="GW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4544,6 +4578,12 @@
       <c r="GV6" t="n">
         <v>1500</v>
       </c>
+      <c r="GW6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5162,6 +5202,12 @@
       <c r="GV7" t="n">
         <v>1407</v>
       </c>
+      <c r="GW7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5780,6 +5826,12 @@
       <c r="GV8" t="n">
         <v>365</v>
       </c>
+      <c r="GW8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6398,6 +6450,12 @@
       <c r="GV9" t="n">
         <v>981</v>
       </c>
+      <c r="GW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7016,6 +7074,12 @@
       <c r="GV10" t="n">
         <v>362</v>
       </c>
+      <c r="GW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7634,6 +7698,12 @@
       <c r="GV11" t="n">
         <v>883</v>
       </c>
+      <c r="GW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8252,6 +8322,12 @@
       <c r="GV12" t="n">
         <v>1597</v>
       </c>
+      <c r="GW12" t="n">
+        <v>197</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8870,6 +8946,12 @@
       <c r="GV13" t="n">
         <v>442</v>
       </c>
+      <c r="GW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9488,6 +9570,12 @@
       <c r="GV14" t="n">
         <v>0</v>
       </c>
+      <c r="GW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10106,6 +10194,12 @@
       <c r="GV15" t="n">
         <v>813</v>
       </c>
+      <c r="GW15" t="n">
+        <v>59</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10724,6 +10818,12 @@
       <c r="GV16" t="n">
         <v>0</v>
       </c>
+      <c r="GW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11342,6 +11442,12 @@
       <c r="GV17" t="n">
         <v>821</v>
       </c>
+      <c r="GW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11960,6 +12066,12 @@
       <c r="GV18" t="n">
         <v>971</v>
       </c>
+      <c r="GW18" t="n">
+        <v>184</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12578,6 +12690,12 @@
       <c r="GV19" t="n">
         <v>349</v>
       </c>
+      <c r="GW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13196,6 +13314,12 @@
       <c r="GV20" t="n">
         <v>349</v>
       </c>
+      <c r="GW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13814,6 +13938,12 @@
       <c r="GV21" t="n">
         <v>0</v>
       </c>
+      <c r="GW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14432,6 +14562,12 @@
       <c r="GV22" t="n">
         <v>0</v>
       </c>
+      <c r="GW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15050,6 +15186,12 @@
       <c r="GV23" t="n">
         <v>0</v>
       </c>
+      <c r="GW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15668,6 +15810,12 @@
       <c r="GV24" t="n">
         <v>0</v>
       </c>
+      <c r="GW24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16286,6 +16434,12 @@
       <c r="GV25" t="n">
         <v>901</v>
       </c>
+      <c r="GW25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16904,6 +17058,12 @@
       <c r="GV26" t="n">
         <v>784</v>
       </c>
+      <c r="GW26" t="n">
+        <v>28</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17520,6 +17680,12 @@
         <v>0</v>
       </c>
       <c r="GV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GX27"/>
+  <dimension ref="A1:GZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1464,6 +1464,16 @@
           <t>CF天梯分_2022-04-22 08:23:08</t>
         </is>
       </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-23 08:21:27</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-23 08:21:27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2088,6 +2098,12 @@
       <c r="GX2" t="n">
         <v>1783</v>
       </c>
+      <c r="GY2" t="n">
+        <v>753</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2712,6 +2728,12 @@
       <c r="GX3" t="n">
         <v>1014</v>
       </c>
+      <c r="GY3" t="n">
+        <v>90</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3336,6 +3358,12 @@
       <c r="GX4" t="n">
         <v>1595</v>
       </c>
+      <c r="GY4" t="n">
+        <v>444</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3960,6 +3988,12 @@
       <c r="GX5" t="n">
         <v>0</v>
       </c>
+      <c r="GY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4584,6 +4618,12 @@
       <c r="GX6" t="n">
         <v>1500</v>
       </c>
+      <c r="GY6" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5208,6 +5248,12 @@
       <c r="GX7" t="n">
         <v>1407</v>
       </c>
+      <c r="GY7" t="n">
+        <v>132</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5832,6 +5878,12 @@
       <c r="GX8" t="n">
         <v>365</v>
       </c>
+      <c r="GY8" t="n">
+        <v>36</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6456,6 +6508,12 @@
       <c r="GX9" t="n">
         <v>981</v>
       </c>
+      <c r="GY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7080,6 +7138,12 @@
       <c r="GX10" t="n">
         <v>362</v>
       </c>
+      <c r="GY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7704,6 +7768,12 @@
       <c r="GX11" t="n">
         <v>883</v>
       </c>
+      <c r="GY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8328,6 +8398,12 @@
       <c r="GX12" t="n">
         <v>1597</v>
       </c>
+      <c r="GY12" t="n">
+        <v>198</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8952,6 +9028,12 @@
       <c r="GX13" t="n">
         <v>442</v>
       </c>
+      <c r="GY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9576,6 +9658,12 @@
       <c r="GX14" t="n">
         <v>0</v>
       </c>
+      <c r="GY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10200,6 +10288,12 @@
       <c r="GX15" t="n">
         <v>964</v>
       </c>
+      <c r="GY15" t="n">
+        <v>59</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10824,6 +10918,12 @@
       <c r="GX16" t="n">
         <v>0</v>
       </c>
+      <c r="GY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11448,6 +11548,12 @@
       <c r="GX17" t="n">
         <v>821</v>
       </c>
+      <c r="GY17" t="n">
+        <v>13</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12072,6 +12178,12 @@
       <c r="GX18" t="n">
         <v>972</v>
       </c>
+      <c r="GY18" t="n">
+        <v>184</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12696,6 +12808,12 @@
       <c r="GX19" t="n">
         <v>349</v>
       </c>
+      <c r="GY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13320,6 +13438,12 @@
       <c r="GX20" t="n">
         <v>349</v>
       </c>
+      <c r="GY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13944,6 +14068,12 @@
       <c r="GX21" t="n">
         <v>0</v>
       </c>
+      <c r="GY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14568,6 +14698,12 @@
       <c r="GX22" t="n">
         <v>0</v>
       </c>
+      <c r="GY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15192,6 +15328,12 @@
       <c r="GX23" t="n">
         <v>0</v>
       </c>
+      <c r="GY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15816,6 +15958,12 @@
       <c r="GX24" t="n">
         <v>0</v>
       </c>
+      <c r="GY24" t="n">
+        <v>301</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16440,6 +16588,12 @@
       <c r="GX25" t="n">
         <v>901</v>
       </c>
+      <c r="GY25" t="n">
+        <v>37</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17064,6 +17218,12 @@
       <c r="GX26" t="n">
         <v>825</v>
       </c>
+      <c r="GY26" t="n">
+        <v>28</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17686,6 +17846,12 @@
         <v>0</v>
       </c>
       <c r="GX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ27"/>
+  <dimension ref="A1:HB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,6 +1474,16 @@
           <t>CF天梯分_2022-04-23 08:21:27</t>
         </is>
       </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-24 08:22:09</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-24 08:22:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2104,6 +2114,12 @@
       <c r="GZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="HA2" t="n">
+        <v>754</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2734,6 +2750,12 @@
       <c r="GZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="HA3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3364,6 +3386,12 @@
       <c r="GZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="HA4" t="n">
+        <v>451</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3994,6 +4022,12 @@
       <c r="GZ5" t="n">
         <v>0</v>
       </c>
+      <c r="HA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4658,12 @@
       <c r="GZ6" t="n">
         <v>1500</v>
       </c>
+      <c r="HA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5254,6 +5294,12 @@
       <c r="GZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="HA7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5884,6 +5930,12 @@
       <c r="GZ8" t="n">
         <v>365</v>
       </c>
+      <c r="HA8" t="n">
+        <v>36</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6514,6 +6566,12 @@
       <c r="GZ9" t="n">
         <v>981</v>
       </c>
+      <c r="HA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7144,6 +7202,12 @@
       <c r="GZ10" t="n">
         <v>362</v>
       </c>
+      <c r="HA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7774,6 +7838,12 @@
       <c r="GZ11" t="n">
         <v>883</v>
       </c>
+      <c r="HA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8404,6 +8474,12 @@
       <c r="GZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="HA12" t="n">
+        <v>198</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9034,6 +9110,12 @@
       <c r="GZ13" t="n">
         <v>442</v>
       </c>
+      <c r="HA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9664,6 +9746,12 @@
       <c r="GZ14" t="n">
         <v>0</v>
       </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10294,6 +10382,12 @@
       <c r="GZ15" t="n">
         <v>964</v>
       </c>
+      <c r="HA15" t="n">
+        <v>59</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10924,6 +11018,12 @@
       <c r="GZ16" t="n">
         <v>0</v>
       </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11554,6 +11654,12 @@
       <c r="GZ17" t="n">
         <v>821</v>
       </c>
+      <c r="HA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12184,6 +12290,12 @@
       <c r="GZ18" t="n">
         <v>972</v>
       </c>
+      <c r="HA18" t="n">
+        <v>184</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12814,6 +12926,12 @@
       <c r="GZ19" t="n">
         <v>349</v>
       </c>
+      <c r="HA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13444,6 +13562,12 @@
       <c r="GZ20" t="n">
         <v>349</v>
       </c>
+      <c r="HA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14074,6 +14198,12 @@
       <c r="GZ21" t="n">
         <v>0</v>
       </c>
+      <c r="HA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14704,6 +14834,12 @@
       <c r="GZ22" t="n">
         <v>0</v>
       </c>
+      <c r="HA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15334,6 +15470,12 @@
       <c r="GZ23" t="n">
         <v>0</v>
       </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15964,6 +16106,12 @@
       <c r="GZ24" t="n">
         <v>0</v>
       </c>
+      <c r="HA24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16594,6 +16742,12 @@
       <c r="GZ25" t="n">
         <v>901</v>
       </c>
+      <c r="HA25" t="n">
+        <v>37</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17224,6 +17378,12 @@
       <c r="GZ26" t="n">
         <v>825</v>
       </c>
+      <c r="HA26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17852,6 +18012,12 @@
         <v>0</v>
       </c>
       <c r="GZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB27"/>
+  <dimension ref="A1:HD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,6 +1484,16 @@
           <t>CF天梯分_2022-04-24 08:22:09</t>
         </is>
       </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-25 08:24:09</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-25 08:24:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2120,6 +2130,12 @@
       <c r="HB2" t="n">
         <v>1783</v>
       </c>
+      <c r="HC2" t="n">
+        <v>754</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2756,6 +2772,12 @@
       <c r="HB3" t="n">
         <v>1014</v>
       </c>
+      <c r="HC3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3392,6 +3414,12 @@
       <c r="HB4" t="n">
         <v>1595</v>
       </c>
+      <c r="HC4" t="n">
+        <v>452</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4028,6 +4056,12 @@
       <c r="HB5" t="n">
         <v>0</v>
       </c>
+      <c r="HC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4664,6 +4698,12 @@
       <c r="HB6" t="n">
         <v>1500</v>
       </c>
+      <c r="HC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5300,6 +5340,12 @@
       <c r="HB7" t="n">
         <v>1407</v>
       </c>
+      <c r="HC7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5936,6 +5982,12 @@
       <c r="HB8" t="n">
         <v>365</v>
       </c>
+      <c r="HC8" t="n">
+        <v>36</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6572,6 +6624,12 @@
       <c r="HB9" t="n">
         <v>981</v>
       </c>
+      <c r="HC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7208,6 +7266,12 @@
       <c r="HB10" t="n">
         <v>362</v>
       </c>
+      <c r="HC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7844,6 +7908,12 @@
       <c r="HB11" t="n">
         <v>883</v>
       </c>
+      <c r="HC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8480,6 +8550,12 @@
       <c r="HB12" t="n">
         <v>1597</v>
       </c>
+      <c r="HC12" t="n">
+        <v>198</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9116,6 +9192,12 @@
       <c r="HB13" t="n">
         <v>442</v>
       </c>
+      <c r="HC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9752,6 +9834,12 @@
       <c r="HB14" t="n">
         <v>0</v>
       </c>
+      <c r="HC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10388,6 +10476,12 @@
       <c r="HB15" t="n">
         <v>966</v>
       </c>
+      <c r="HC15" t="n">
+        <v>59</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11024,6 +11118,12 @@
       <c r="HB16" t="n">
         <v>0</v>
       </c>
+      <c r="HC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11660,6 +11760,12 @@
       <c r="HB17" t="n">
         <v>821</v>
       </c>
+      <c r="HC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12296,6 +12402,12 @@
       <c r="HB18" t="n">
         <v>972</v>
       </c>
+      <c r="HC18" t="n">
+        <v>184</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12932,6 +13044,12 @@
       <c r="HB19" t="n">
         <v>349</v>
       </c>
+      <c r="HC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13568,6 +13686,12 @@
       <c r="HB20" t="n">
         <v>349</v>
       </c>
+      <c r="HC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14204,6 +14328,12 @@
       <c r="HB21" t="n">
         <v>0</v>
       </c>
+      <c r="HC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14840,6 +14970,12 @@
       <c r="HB22" t="n">
         <v>0</v>
       </c>
+      <c r="HC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15476,6 +15612,12 @@
       <c r="HB23" t="n">
         <v>0</v>
       </c>
+      <c r="HC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16112,6 +16254,12 @@
       <c r="HB24" t="n">
         <v>0</v>
       </c>
+      <c r="HC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16748,6 +16896,12 @@
       <c r="HB25" t="n">
         <v>901</v>
       </c>
+      <c r="HC25" t="n">
+        <v>37</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17384,6 +17538,12 @@
       <c r="HB26" t="n">
         <v>825</v>
       </c>
+      <c r="HC26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18018,6 +18178,12 @@
         <v>0</v>
       </c>
       <c r="HB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD27"/>
+  <dimension ref="A1:HF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,6 +1494,16 @@
           <t>CF天梯分_2022-04-25 08:24:09</t>
         </is>
       </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-26 08:27:40</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-26 08:27:40</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2136,6 +2146,12 @@
       <c r="HD2" t="n">
         <v>1783</v>
       </c>
+      <c r="HE2" t="n">
+        <v>754</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2778,6 +2794,12 @@
       <c r="HD3" t="n">
         <v>1014</v>
       </c>
+      <c r="HE3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3420,6 +3442,12 @@
       <c r="HD4" t="n">
         <v>1595</v>
       </c>
+      <c r="HE4" t="n">
+        <v>452</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4062,6 +4090,12 @@
       <c r="HD5" t="n">
         <v>0</v>
       </c>
+      <c r="HE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4704,6 +4738,12 @@
       <c r="HD6" t="n">
         <v>1500</v>
       </c>
+      <c r="HE6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5346,6 +5386,12 @@
       <c r="HD7" t="n">
         <v>1407</v>
       </c>
+      <c r="HE7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5988,6 +6034,12 @@
       <c r="HD8" t="n">
         <v>365</v>
       </c>
+      <c r="HE8" t="n">
+        <v>36</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6630,6 +6682,12 @@
       <c r="HD9" t="n">
         <v>981</v>
       </c>
+      <c r="HE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7272,6 +7330,12 @@
       <c r="HD10" t="n">
         <v>362</v>
       </c>
+      <c r="HE10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7914,6 +7978,12 @@
       <c r="HD11" t="n">
         <v>883</v>
       </c>
+      <c r="HE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8556,6 +8626,12 @@
       <c r="HD12" t="n">
         <v>1597</v>
       </c>
+      <c r="HE12" t="n">
+        <v>198</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9198,6 +9274,12 @@
       <c r="HD13" t="n">
         <v>442</v>
       </c>
+      <c r="HE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9840,6 +9922,12 @@
       <c r="HD14" t="n">
         <v>0</v>
       </c>
+      <c r="HE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10482,6 +10570,12 @@
       <c r="HD15" t="n">
         <v>966</v>
       </c>
+      <c r="HE15" t="n">
+        <v>59</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11124,6 +11218,12 @@
       <c r="HD16" t="n">
         <v>0</v>
       </c>
+      <c r="HE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11766,6 +11866,12 @@
       <c r="HD17" t="n">
         <v>821</v>
       </c>
+      <c r="HE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12408,6 +12514,12 @@
       <c r="HD18" t="n">
         <v>972</v>
       </c>
+      <c r="HE18" t="n">
+        <v>184</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13050,6 +13162,12 @@
       <c r="HD19" t="n">
         <v>349</v>
       </c>
+      <c r="HE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13692,6 +13810,12 @@
       <c r="HD20" t="n">
         <v>349</v>
       </c>
+      <c r="HE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14334,6 +14458,12 @@
       <c r="HD21" t="n">
         <v>0</v>
       </c>
+      <c r="HE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14976,6 +15106,12 @@
       <c r="HD22" t="n">
         <v>0</v>
       </c>
+      <c r="HE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15618,6 +15754,12 @@
       <c r="HD23" t="n">
         <v>0</v>
       </c>
+      <c r="HE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16260,6 +16402,12 @@
       <c r="HD24" t="n">
         <v>0</v>
       </c>
+      <c r="HE24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16902,6 +17050,12 @@
       <c r="HD25" t="n">
         <v>901</v>
       </c>
+      <c r="HE25" t="n">
+        <v>37</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17544,6 +17698,12 @@
       <c r="HD26" t="n">
         <v>825</v>
       </c>
+      <c r="HE26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18184,6 +18344,12 @@
         <v>0</v>
       </c>
       <c r="HD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HF27"/>
+  <dimension ref="A1:HH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,6 +1504,16 @@
           <t>CF天梯分_2022-04-26 08:27:40</t>
         </is>
       </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-27 08:25:03</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-27 08:25:03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2152,6 +2162,12 @@
       <c r="HF2" t="n">
         <v>1783</v>
       </c>
+      <c r="HG2" t="n">
+        <v>754</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2800,6 +2816,12 @@
       <c r="HF3" t="n">
         <v>1014</v>
       </c>
+      <c r="HG3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3448,6 +3470,12 @@
       <c r="HF4" t="n">
         <v>1595</v>
       </c>
+      <c r="HG4" t="n">
+        <v>452</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4096,6 +4124,12 @@
       <c r="HF5" t="n">
         <v>0</v>
       </c>
+      <c r="HG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4744,6 +4778,12 @@
       <c r="HF6" t="n">
         <v>1500</v>
       </c>
+      <c r="HG6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5392,6 +5432,12 @@
       <c r="HF7" t="n">
         <v>1407</v>
       </c>
+      <c r="HG7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6040,6 +6086,12 @@
       <c r="HF8" t="n">
         <v>365</v>
       </c>
+      <c r="HG8" t="n">
+        <v>36</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6688,6 +6740,12 @@
       <c r="HF9" t="n">
         <v>981</v>
       </c>
+      <c r="HG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7336,6 +7394,12 @@
       <c r="HF10" t="n">
         <v>362</v>
       </c>
+      <c r="HG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7984,6 +8048,12 @@
       <c r="HF11" t="n">
         <v>883</v>
       </c>
+      <c r="HG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8632,6 +8702,12 @@
       <c r="HF12" t="n">
         <v>1597</v>
       </c>
+      <c r="HG12" t="n">
+        <v>198</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9280,6 +9356,12 @@
       <c r="HF13" t="n">
         <v>442</v>
       </c>
+      <c r="HG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9928,6 +10010,12 @@
       <c r="HF14" t="n">
         <v>0</v>
       </c>
+      <c r="HG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10576,6 +10664,12 @@
       <c r="HF15" t="n">
         <v>966</v>
       </c>
+      <c r="HG15" t="n">
+        <v>59</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11224,6 +11318,12 @@
       <c r="HF16" t="n">
         <v>0</v>
       </c>
+      <c r="HG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11872,6 +11972,12 @@
       <c r="HF17" t="n">
         <v>821</v>
       </c>
+      <c r="HG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12626,12 @@
       <c r="HF18" t="n">
         <v>972</v>
       </c>
+      <c r="HG18" t="n">
+        <v>185</v>
+      </c>
+      <c r="HH18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13168,6 +13280,12 @@
       <c r="HF19" t="n">
         <v>349</v>
       </c>
+      <c r="HG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13816,6 +13934,12 @@
       <c r="HF20" t="n">
         <v>349</v>
       </c>
+      <c r="HG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14464,6 +14588,12 @@
       <c r="HF21" t="n">
         <v>0</v>
       </c>
+      <c r="HG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15112,6 +15242,12 @@
       <c r="HF22" t="n">
         <v>0</v>
       </c>
+      <c r="HG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15760,6 +15896,12 @@
       <c r="HF23" t="n">
         <v>0</v>
       </c>
+      <c r="HG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16408,6 +16550,12 @@
       <c r="HF24" t="n">
         <v>0</v>
       </c>
+      <c r="HG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17056,6 +17204,12 @@
       <c r="HF25" t="n">
         <v>901</v>
       </c>
+      <c r="HG25" t="n">
+        <v>37</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17704,6 +17858,12 @@
       <c r="HF26" t="n">
         <v>825</v>
       </c>
+      <c r="HG26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18350,6 +18510,12 @@
         <v>0</v>
       </c>
       <c r="HF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HH27"/>
+  <dimension ref="A1:HJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,6 +1514,16 @@
           <t>CF天梯分_2022-04-27 08:25:03</t>
         </is>
       </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-28 08:29:26</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-28 08:29:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2168,6 +2178,12 @@
       <c r="HH2" t="n">
         <v>1783</v>
       </c>
+      <c r="HI2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2822,6 +2838,12 @@
       <c r="HH3" t="n">
         <v>1014</v>
       </c>
+      <c r="HI3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3476,6 +3498,12 @@
       <c r="HH4" t="n">
         <v>1595</v>
       </c>
+      <c r="HI4" t="n">
+        <v>452</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4130,6 +4158,12 @@
       <c r="HH5" t="n">
         <v>0</v>
       </c>
+      <c r="HI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4784,6 +4818,12 @@
       <c r="HH6" t="n">
         <v>1500</v>
       </c>
+      <c r="HI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5438,6 +5478,12 @@
       <c r="HH7" t="n">
         <v>1407</v>
       </c>
+      <c r="HI7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6092,6 +6138,12 @@
       <c r="HH8" t="n">
         <v>365</v>
       </c>
+      <c r="HI8" t="n">
+        <v>36</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6746,6 +6798,12 @@
       <c r="HH9" t="n">
         <v>981</v>
       </c>
+      <c r="HI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7400,6 +7458,12 @@
       <c r="HH10" t="n">
         <v>362</v>
       </c>
+      <c r="HI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8054,6 +8118,12 @@
       <c r="HH11" t="n">
         <v>883</v>
       </c>
+      <c r="HI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8708,6 +8778,12 @@
       <c r="HH12" t="n">
         <v>1597</v>
       </c>
+      <c r="HI12" t="n">
+        <v>198</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9362,6 +9438,12 @@
       <c r="HH13" t="n">
         <v>442</v>
       </c>
+      <c r="HI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10016,6 +10098,12 @@
       <c r="HH14" t="n">
         <v>0</v>
       </c>
+      <c r="HI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10670,6 +10758,12 @@
       <c r="HH15" t="n">
         <v>966</v>
       </c>
+      <c r="HI15" t="n">
+        <v>59</v>
+      </c>
+      <c r="HJ15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11324,6 +11418,12 @@
       <c r="HH16" t="n">
         <v>0</v>
       </c>
+      <c r="HI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11978,6 +12078,12 @@
       <c r="HH17" t="n">
         <v>821</v>
       </c>
+      <c r="HI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12632,6 +12738,12 @@
       <c r="HH18" t="n">
         <v>972</v>
       </c>
+      <c r="HI18" t="n">
+        <v>185</v>
+      </c>
+      <c r="HJ18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13286,6 +13398,12 @@
       <c r="HH19" t="n">
         <v>349</v>
       </c>
+      <c r="HI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13940,6 +14058,12 @@
       <c r="HH20" t="n">
         <v>349</v>
       </c>
+      <c r="HI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14594,6 +14718,12 @@
       <c r="HH21" t="n">
         <v>0</v>
       </c>
+      <c r="HI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15248,6 +15378,12 @@
       <c r="HH22" t="n">
         <v>0</v>
       </c>
+      <c r="HI22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15902,6 +16038,12 @@
       <c r="HH23" t="n">
         <v>0</v>
       </c>
+      <c r="HI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16556,6 +16698,12 @@
       <c r="HH24" t="n">
         <v>0</v>
       </c>
+      <c r="HI24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17210,6 +17358,12 @@
       <c r="HH25" t="n">
         <v>901</v>
       </c>
+      <c r="HI25" t="n">
+        <v>37</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17864,6 +18018,12 @@
       <c r="HH26" t="n">
         <v>825</v>
       </c>
+      <c r="HI26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HJ26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18516,6 +18676,12 @@
         <v>0</v>
       </c>
       <c r="HH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HJ27"/>
+  <dimension ref="A1:HL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,6 +1524,16 @@
           <t>CF天梯分_2022-04-28 08:29:26</t>
         </is>
       </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-29 08:29:16</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-29 08:29:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2184,6 +2194,12 @@
       <c r="HJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="HK2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2844,6 +2860,12 @@
       <c r="HJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="HK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3504,6 +3526,12 @@
       <c r="HJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="HK4" t="n">
+        <v>452</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4164,6 +4192,12 @@
       <c r="HJ5" t="n">
         <v>0</v>
       </c>
+      <c r="HK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4824,6 +4858,12 @@
       <c r="HJ6" t="n">
         <v>1500</v>
       </c>
+      <c r="HK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5484,6 +5524,12 @@
       <c r="HJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="HK7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6144,6 +6190,12 @@
       <c r="HJ8" t="n">
         <v>365</v>
       </c>
+      <c r="HK8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6804,6 +6856,12 @@
       <c r="HJ9" t="n">
         <v>981</v>
       </c>
+      <c r="HK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7464,6 +7522,12 @@
       <c r="HJ10" t="n">
         <v>362</v>
       </c>
+      <c r="HK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8124,6 +8188,12 @@
       <c r="HJ11" t="n">
         <v>883</v>
       </c>
+      <c r="HK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8784,6 +8854,12 @@
       <c r="HJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="HK12" t="n">
+        <v>198</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9444,6 +9520,12 @@
       <c r="HJ13" t="n">
         <v>442</v>
       </c>
+      <c r="HK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10104,6 +10186,12 @@
       <c r="HJ14" t="n">
         <v>0</v>
       </c>
+      <c r="HK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10764,6 +10852,12 @@
       <c r="HJ15" t="n">
         <v>966</v>
       </c>
+      <c r="HK15" t="n">
+        <v>59</v>
+      </c>
+      <c r="HL15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11424,6 +11518,12 @@
       <c r="HJ16" t="n">
         <v>0</v>
       </c>
+      <c r="HK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12084,6 +12184,12 @@
       <c r="HJ17" t="n">
         <v>821</v>
       </c>
+      <c r="HK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12744,6 +12850,12 @@
       <c r="HJ18" t="n">
         <v>972</v>
       </c>
+      <c r="HK18" t="n">
+        <v>185</v>
+      </c>
+      <c r="HL18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13404,6 +13516,12 @@
       <c r="HJ19" t="n">
         <v>349</v>
       </c>
+      <c r="HK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14064,6 +14182,12 @@
       <c r="HJ20" t="n">
         <v>349</v>
       </c>
+      <c r="HK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14724,6 +14848,12 @@
       <c r="HJ21" t="n">
         <v>0</v>
       </c>
+      <c r="HK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15384,6 +15514,12 @@
       <c r="HJ22" t="n">
         <v>0</v>
       </c>
+      <c r="HK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16044,6 +16180,12 @@
       <c r="HJ23" t="n">
         <v>0</v>
       </c>
+      <c r="HK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16704,6 +16846,12 @@
       <c r="HJ24" t="n">
         <v>0</v>
       </c>
+      <c r="HK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17364,6 +17512,12 @@
       <c r="HJ25" t="n">
         <v>901</v>
       </c>
+      <c r="HK25" t="n">
+        <v>37</v>
+      </c>
+      <c r="HL25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18024,6 +18178,12 @@
       <c r="HJ26" t="n">
         <v>825</v>
       </c>
+      <c r="HK26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HL26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18682,6 +18842,12 @@
         <v>0</v>
       </c>
       <c r="HJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HL27"/>
+  <dimension ref="A1:HN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1534,6 +1534,16 @@
           <t>CF天梯分_2022-04-29 08:29:16</t>
         </is>
       </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-04-30 08:22:15</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-04-30 08:22:15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2200,6 +2210,12 @@
       <c r="HL2" t="n">
         <v>1783</v>
       </c>
+      <c r="HM2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2866,6 +2882,12 @@
       <c r="HL3" t="n">
         <v>1014</v>
       </c>
+      <c r="HM3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3532,6 +3554,12 @@
       <c r="HL4" t="n">
         <v>1595</v>
       </c>
+      <c r="HM4" t="n">
+        <v>452</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4198,6 +4226,12 @@
       <c r="HL5" t="n">
         <v>0</v>
       </c>
+      <c r="HM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4864,6 +4898,12 @@
       <c r="HL6" t="n">
         <v>1500</v>
       </c>
+      <c r="HM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5530,6 +5570,12 @@
       <c r="HL7" t="n">
         <v>1407</v>
       </c>
+      <c r="HM7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6196,6 +6242,12 @@
       <c r="HL8" t="n">
         <v>365</v>
       </c>
+      <c r="HM8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6862,6 +6914,12 @@
       <c r="HL9" t="n">
         <v>981</v>
       </c>
+      <c r="HM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7528,6 +7586,12 @@
       <c r="HL10" t="n">
         <v>362</v>
       </c>
+      <c r="HM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8194,6 +8258,12 @@
       <c r="HL11" t="n">
         <v>883</v>
       </c>
+      <c r="HM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8930,12 @@
       <c r="HL12" t="n">
         <v>1597</v>
       </c>
+      <c r="HM12" t="n">
+        <v>199</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9526,6 +9602,12 @@
       <c r="HL13" t="n">
         <v>442</v>
       </c>
+      <c r="HM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10192,6 +10274,12 @@
       <c r="HL14" t="n">
         <v>0</v>
       </c>
+      <c r="HM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10858,6 +10946,12 @@
       <c r="HL15" t="n">
         <v>966</v>
       </c>
+      <c r="HM15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HN15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11524,6 +11618,12 @@
       <c r="HL16" t="n">
         <v>0</v>
       </c>
+      <c r="HM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12190,6 +12290,12 @@
       <c r="HL17" t="n">
         <v>821</v>
       </c>
+      <c r="HM17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12856,6 +12962,12 @@
       <c r="HL18" t="n">
         <v>972</v>
       </c>
+      <c r="HM18" t="n">
+        <v>185</v>
+      </c>
+      <c r="HN18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13522,6 +13634,12 @@
       <c r="HL19" t="n">
         <v>349</v>
       </c>
+      <c r="HM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14188,6 +14306,12 @@
       <c r="HL20" t="n">
         <v>349</v>
       </c>
+      <c r="HM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14854,6 +14978,12 @@
       <c r="HL21" t="n">
         <v>0</v>
       </c>
+      <c r="HM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15520,6 +15650,12 @@
       <c r="HL22" t="n">
         <v>0</v>
       </c>
+      <c r="HM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16186,6 +16322,12 @@
       <c r="HL23" t="n">
         <v>0</v>
       </c>
+      <c r="HM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16852,6 +16994,12 @@
       <c r="HL24" t="n">
         <v>0</v>
       </c>
+      <c r="HM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17518,6 +17666,12 @@
       <c r="HL25" t="n">
         <v>901</v>
       </c>
+      <c r="HM25" t="n">
+        <v>38</v>
+      </c>
+      <c r="HN25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18184,6 +18338,12 @@
       <c r="HL26" t="n">
         <v>825</v>
       </c>
+      <c r="HM26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HN26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18848,6 +19008,12 @@
         <v>0</v>
       </c>
       <c r="HL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN27"/>
+  <dimension ref="A1:HP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,6 +1544,16 @@
           <t>CF天梯分_2022-04-30 08:22:15</t>
         </is>
       </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-01 08:22:18</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-01 08:22:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2216,6 +2226,12 @@
       <c r="HN2" t="n">
         <v>1783</v>
       </c>
+      <c r="HO2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2888,6 +2904,12 @@
       <c r="HN3" t="n">
         <v>1014</v>
       </c>
+      <c r="HO3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3560,6 +3582,12 @@
       <c r="HN4" t="n">
         <v>1595</v>
       </c>
+      <c r="HO4" t="n">
+        <v>453</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4232,6 +4260,12 @@
       <c r="HN5" t="n">
         <v>0</v>
       </c>
+      <c r="HO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4904,6 +4938,12 @@
       <c r="HN6" t="n">
         <v>1500</v>
       </c>
+      <c r="HO6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5576,6 +5616,12 @@
       <c r="HN7" t="n">
         <v>1407</v>
       </c>
+      <c r="HO7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6248,6 +6294,12 @@
       <c r="HN8" t="n">
         <v>365</v>
       </c>
+      <c r="HO8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6920,6 +6972,12 @@
       <c r="HN9" t="n">
         <v>981</v>
       </c>
+      <c r="HO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7592,6 +7650,12 @@
       <c r="HN10" t="n">
         <v>362</v>
       </c>
+      <c r="HO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8264,6 +8328,12 @@
       <c r="HN11" t="n">
         <v>883</v>
       </c>
+      <c r="HO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8936,6 +9006,12 @@
       <c r="HN12" t="n">
         <v>1597</v>
       </c>
+      <c r="HO12" t="n">
+        <v>199</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9684,12 @@
       <c r="HN13" t="n">
         <v>442</v>
       </c>
+      <c r="HO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10280,6 +10362,12 @@
       <c r="HN14" t="n">
         <v>0</v>
       </c>
+      <c r="HO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10952,6 +11040,12 @@
       <c r="HN15" t="n">
         <v>966</v>
       </c>
+      <c r="HO15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HP15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11624,6 +11718,12 @@
       <c r="HN16" t="n">
         <v>0</v>
       </c>
+      <c r="HO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12296,6 +12396,12 @@
       <c r="HN17" t="n">
         <v>821</v>
       </c>
+      <c r="HO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12968,6 +13074,12 @@
       <c r="HN18" t="n">
         <v>972</v>
       </c>
+      <c r="HO18" t="n">
+        <v>185</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13640,6 +13752,12 @@
       <c r="HN19" t="n">
         <v>349</v>
       </c>
+      <c r="HO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14312,6 +14430,12 @@
       <c r="HN20" t="n">
         <v>349</v>
       </c>
+      <c r="HO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14984,6 +15108,12 @@
       <c r="HN21" t="n">
         <v>0</v>
       </c>
+      <c r="HO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15656,6 +15786,12 @@
       <c r="HN22" t="n">
         <v>0</v>
       </c>
+      <c r="HO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16328,6 +16464,12 @@
       <c r="HN23" t="n">
         <v>0</v>
       </c>
+      <c r="HO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17000,6 +17142,12 @@
       <c r="HN24" t="n">
         <v>0</v>
       </c>
+      <c r="HO24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17672,6 +17820,12 @@
       <c r="HN25" t="n">
         <v>901</v>
       </c>
+      <c r="HO25" t="n">
+        <v>38</v>
+      </c>
+      <c r="HP25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18344,6 +18498,12 @@
       <c r="HN26" t="n">
         <v>825</v>
       </c>
+      <c r="HO26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HP26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19014,6 +19174,12 @@
         <v>0</v>
       </c>
       <c r="HN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP27"/>
+  <dimension ref="A1:HR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,6 +1554,16 @@
           <t>CF天梯分_2022-05-01 08:22:18</t>
         </is>
       </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-02 08:25:20</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-02 08:25:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2232,6 +2242,12 @@
       <c r="HP2" t="n">
         <v>1783</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2910,6 +2926,12 @@
       <c r="HP3" t="n">
         <v>1014</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3588,6 +3610,12 @@
       <c r="HP4" t="n">
         <v>1595</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>455</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4266,6 +4294,12 @@
       <c r="HP5" t="n">
         <v>0</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4944,6 +4978,12 @@
       <c r="HP6" t="n">
         <v>1500</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5622,6 +5662,12 @@
       <c r="HP7" t="n">
         <v>1407</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6300,6 +6346,12 @@
       <c r="HP8" t="n">
         <v>365</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6978,6 +7030,12 @@
       <c r="HP9" t="n">
         <v>981</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7656,6 +7714,12 @@
       <c r="HP10" t="n">
         <v>362</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8334,6 +8398,12 @@
       <c r="HP11" t="n">
         <v>883</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9012,6 +9082,12 @@
       <c r="HP12" t="n">
         <v>1597</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>199</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9690,6 +9766,12 @@
       <c r="HP13" t="n">
         <v>442</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10368,6 +10450,12 @@
       <c r="HP14" t="n">
         <v>0</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11046,6 +11134,12 @@
       <c r="HP15" t="n">
         <v>966</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11724,6 +11818,12 @@
       <c r="HP16" t="n">
         <v>0</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12402,6 +12502,12 @@
       <c r="HP17" t="n">
         <v>821</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13080,6 +13186,12 @@
       <c r="HP18" t="n">
         <v>972</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>185</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13758,6 +13870,12 @@
       <c r="HP19" t="n">
         <v>349</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14436,6 +14554,12 @@
       <c r="HP20" t="n">
         <v>349</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15114,6 +15238,12 @@
       <c r="HP21" t="n">
         <v>0</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15792,6 +15922,12 @@
       <c r="HP22" t="n">
         <v>0</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16470,6 +16606,12 @@
       <c r="HP23" t="n">
         <v>0</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17148,6 +17290,12 @@
       <c r="HP24" t="n">
         <v>0</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17826,6 +17974,12 @@
       <c r="HP25" t="n">
         <v>901</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18504,6 +18658,12 @@
       <c r="HP26" t="n">
         <v>825</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19180,6 +19340,12 @@
         <v>0</v>
       </c>
       <c r="HP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HR27"/>
+  <dimension ref="A1:HT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1564,6 +1564,16 @@
           <t>CF天梯分_2022-05-02 08:25:20</t>
         </is>
       </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-03 08:23:10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-03 08:23:10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2248,6 +2258,12 @@
       <c r="HR2" t="n">
         <v>1783</v>
       </c>
+      <c r="HS2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2932,6 +2948,12 @@
       <c r="HR3" t="n">
         <v>1014</v>
       </c>
+      <c r="HS3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3616,6 +3638,12 @@
       <c r="HR4" t="n">
         <v>1595</v>
       </c>
+      <c r="HS4" t="n">
+        <v>455</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4300,6 +4328,12 @@
       <c r="HR5" t="n">
         <v>0</v>
       </c>
+      <c r="HS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4984,6 +5018,12 @@
       <c r="HR6" t="n">
         <v>1500</v>
       </c>
+      <c r="HS6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5668,6 +5708,12 @@
       <c r="HR7" t="n">
         <v>1407</v>
       </c>
+      <c r="HS7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6352,6 +6398,12 @@
       <c r="HR8" t="n">
         <v>365</v>
       </c>
+      <c r="HS8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7036,6 +7088,12 @@
       <c r="HR9" t="n">
         <v>981</v>
       </c>
+      <c r="HS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7720,6 +7778,12 @@
       <c r="HR10" t="n">
         <v>362</v>
       </c>
+      <c r="HS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8404,6 +8468,12 @@
       <c r="HR11" t="n">
         <v>883</v>
       </c>
+      <c r="HS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9088,6 +9158,12 @@
       <c r="HR12" t="n">
         <v>1597</v>
       </c>
+      <c r="HS12" t="n">
+        <v>199</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9772,6 +9848,12 @@
       <c r="HR13" t="n">
         <v>442</v>
       </c>
+      <c r="HS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10456,6 +10538,12 @@
       <c r="HR14" t="n">
         <v>0</v>
       </c>
+      <c r="HS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11140,6 +11228,12 @@
       <c r="HR15" t="n">
         <v>966</v>
       </c>
+      <c r="HS15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11824,6 +11918,12 @@
       <c r="HR16" t="n">
         <v>0</v>
       </c>
+      <c r="HS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12508,6 +12608,12 @@
       <c r="HR17" t="n">
         <v>821</v>
       </c>
+      <c r="HS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13192,6 +13298,12 @@
       <c r="HR18" t="n">
         <v>972</v>
       </c>
+      <c r="HS18" t="n">
+        <v>188</v>
+      </c>
+      <c r="HT18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13876,6 +13988,12 @@
       <c r="HR19" t="n">
         <v>349</v>
       </c>
+      <c r="HS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14560,6 +14678,12 @@
       <c r="HR20" t="n">
         <v>349</v>
       </c>
+      <c r="HS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15244,6 +15368,12 @@
       <c r="HR21" t="n">
         <v>0</v>
       </c>
+      <c r="HS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15928,6 +16058,12 @@
       <c r="HR22" t="n">
         <v>0</v>
       </c>
+      <c r="HS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16612,6 +16748,12 @@
       <c r="HR23" t="n">
         <v>0</v>
       </c>
+      <c r="HS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17296,6 +17438,12 @@
       <c r="HR24" t="n">
         <v>0</v>
       </c>
+      <c r="HS24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17980,6 +18128,12 @@
       <c r="HR25" t="n">
         <v>901</v>
       </c>
+      <c r="HS25" t="n">
+        <v>38</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18664,6 +18818,12 @@
       <c r="HR26" t="n">
         <v>825</v>
       </c>
+      <c r="HS26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19346,6 +19506,12 @@
         <v>0</v>
       </c>
       <c r="HR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT27"/>
+  <dimension ref="A1:HV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,6 +1574,16 @@
           <t>CF天梯分_2022-05-03 08:23:10</t>
         </is>
       </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-04 08:24:01</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-04 08:24:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2264,6 +2274,12 @@
       <c r="HT2" t="n">
         <v>1783</v>
       </c>
+      <c r="HU2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2954,6 +2970,12 @@
       <c r="HT3" t="n">
         <v>1014</v>
       </c>
+      <c r="HU3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3644,6 +3666,12 @@
       <c r="HT4" t="n">
         <v>1595</v>
       </c>
+      <c r="HU4" t="n">
+        <v>455</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4334,6 +4362,12 @@
       <c r="HT5" t="n">
         <v>0</v>
       </c>
+      <c r="HU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5024,6 +5058,12 @@
       <c r="HT6" t="n">
         <v>1500</v>
       </c>
+      <c r="HU6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5714,6 +5754,12 @@
       <c r="HT7" t="n">
         <v>1407</v>
       </c>
+      <c r="HU7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6404,6 +6450,12 @@
       <c r="HT8" t="n">
         <v>365</v>
       </c>
+      <c r="HU8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7094,6 +7146,12 @@
       <c r="HT9" t="n">
         <v>981</v>
       </c>
+      <c r="HU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7784,6 +7842,12 @@
       <c r="HT10" t="n">
         <v>362</v>
       </c>
+      <c r="HU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8474,6 +8538,12 @@
       <c r="HT11" t="n">
         <v>883</v>
       </c>
+      <c r="HU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9164,6 +9234,12 @@
       <c r="HT12" t="n">
         <v>1597</v>
       </c>
+      <c r="HU12" t="n">
+        <v>199</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9854,6 +9930,12 @@
       <c r="HT13" t="n">
         <v>442</v>
       </c>
+      <c r="HU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10544,6 +10626,12 @@
       <c r="HT14" t="n">
         <v>0</v>
       </c>
+      <c r="HU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11234,6 +11322,12 @@
       <c r="HT15" t="n">
         <v>966</v>
       </c>
+      <c r="HU15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11924,6 +12018,12 @@
       <c r="HT16" t="n">
         <v>0</v>
       </c>
+      <c r="HU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12614,6 +12714,12 @@
       <c r="HT17" t="n">
         <v>821</v>
       </c>
+      <c r="HU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13304,6 +13410,12 @@
       <c r="HT18" t="n">
         <v>972</v>
       </c>
+      <c r="HU18" t="n">
+        <v>189</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14106,12 @@
       <c r="HT19" t="n">
         <v>349</v>
       </c>
+      <c r="HU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14684,6 +14802,12 @@
       <c r="HT20" t="n">
         <v>349</v>
       </c>
+      <c r="HU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15374,6 +15498,12 @@
       <c r="HT21" t="n">
         <v>0</v>
       </c>
+      <c r="HU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16064,6 +16194,12 @@
       <c r="HT22" t="n">
         <v>0</v>
       </c>
+      <c r="HU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16754,6 +16890,12 @@
       <c r="HT23" t="n">
         <v>0</v>
       </c>
+      <c r="HU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17444,6 +17586,12 @@
       <c r="HT24" t="n">
         <v>0</v>
       </c>
+      <c r="HU24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18134,6 +18282,12 @@
       <c r="HT25" t="n">
         <v>901</v>
       </c>
+      <c r="HU25" t="n">
+        <v>38</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18824,6 +18978,12 @@
       <c r="HT26" t="n">
         <v>825</v>
       </c>
+      <c r="HU26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19512,6 +19672,12 @@
         <v>0</v>
       </c>
       <c r="HT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV27"/>
+  <dimension ref="A1:HX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1584,6 +1584,16 @@
           <t>CF天梯分_2022-05-04 08:24:01</t>
         </is>
       </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-05 08:24:05</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-05 08:24:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2280,6 +2290,12 @@
       <c r="HV2" t="n">
         <v>1783</v>
       </c>
+      <c r="HW2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2976,6 +2992,12 @@
       <c r="HV3" t="n">
         <v>1014</v>
       </c>
+      <c r="HW3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3672,6 +3694,12 @@
       <c r="HV4" t="n">
         <v>1595</v>
       </c>
+      <c r="HW4" t="n">
+        <v>455</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4368,6 +4396,12 @@
       <c r="HV5" t="n">
         <v>0</v>
       </c>
+      <c r="HW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5064,6 +5098,12 @@
       <c r="HV6" t="n">
         <v>1500</v>
       </c>
+      <c r="HW6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5760,6 +5800,12 @@
       <c r="HV7" t="n">
         <v>1407</v>
       </c>
+      <c r="HW7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6456,6 +6502,12 @@
       <c r="HV8" t="n">
         <v>365</v>
       </c>
+      <c r="HW8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7152,6 +7204,12 @@
       <c r="HV9" t="n">
         <v>981</v>
       </c>
+      <c r="HW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7848,6 +7906,12 @@
       <c r="HV10" t="n">
         <v>362</v>
       </c>
+      <c r="HW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8544,6 +8608,12 @@
       <c r="HV11" t="n">
         <v>883</v>
       </c>
+      <c r="HW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9240,6 +9310,12 @@
       <c r="HV12" t="n">
         <v>1597</v>
       </c>
+      <c r="HW12" t="n">
+        <v>199</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9936,6 +10012,12 @@
       <c r="HV13" t="n">
         <v>442</v>
       </c>
+      <c r="HW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10632,6 +10714,12 @@
       <c r="HV14" t="n">
         <v>0</v>
       </c>
+      <c r="HW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11328,6 +11416,12 @@
       <c r="HV15" t="n">
         <v>966</v>
       </c>
+      <c r="HW15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12024,6 +12118,12 @@
       <c r="HV16" t="n">
         <v>0</v>
       </c>
+      <c r="HW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12720,6 +12820,12 @@
       <c r="HV17" t="n">
         <v>821</v>
       </c>
+      <c r="HW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13416,6 +13522,12 @@
       <c r="HV18" t="n">
         <v>972</v>
       </c>
+      <c r="HW18" t="n">
+        <v>189</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14112,6 +14224,12 @@
       <c r="HV19" t="n">
         <v>349</v>
       </c>
+      <c r="HW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14808,6 +14926,12 @@
       <c r="HV20" t="n">
         <v>349</v>
       </c>
+      <c r="HW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15504,6 +15628,12 @@
       <c r="HV21" t="n">
         <v>0</v>
       </c>
+      <c r="HW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16200,6 +16330,12 @@
       <c r="HV22" t="n">
         <v>0</v>
       </c>
+      <c r="HW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16896,6 +17032,12 @@
       <c r="HV23" t="n">
         <v>0</v>
       </c>
+      <c r="HW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17592,6 +17734,12 @@
       <c r="HV24" t="n">
         <v>0</v>
       </c>
+      <c r="HW24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18288,6 +18436,12 @@
       <c r="HV25" t="n">
         <v>901</v>
       </c>
+      <c r="HW25" t="n">
+        <v>38</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18984,6 +19138,12 @@
       <c r="HV26" t="n">
         <v>825</v>
       </c>
+      <c r="HW26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19678,6 +19838,12 @@
         <v>0</v>
       </c>
       <c r="HV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HX27"/>
+  <dimension ref="A1:HZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,6 +1594,16 @@
           <t>CF天梯分_2022-05-05 08:24:05</t>
         </is>
       </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-06 08:28:18</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-06 08:28:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2296,6 +2306,12 @@
       <c r="HX2" t="n">
         <v>1783</v>
       </c>
+      <c r="HY2" t="n">
+        <v>755</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2998,6 +3014,12 @@
       <c r="HX3" t="n">
         <v>1014</v>
       </c>
+      <c r="HY3" t="n">
+        <v>90</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3700,6 +3722,12 @@
       <c r="HX4" t="n">
         <v>1595</v>
       </c>
+      <c r="HY4" t="n">
+        <v>455</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4402,6 +4430,12 @@
       <c r="HX5" t="n">
         <v>0</v>
       </c>
+      <c r="HY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5104,6 +5138,12 @@
       <c r="HX6" t="n">
         <v>1500</v>
       </c>
+      <c r="HY6" t="n">
+        <v>51</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5806,6 +5846,12 @@
       <c r="HX7" t="n">
         <v>1407</v>
       </c>
+      <c r="HY7" t="n">
+        <v>132</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6508,6 +6554,12 @@
       <c r="HX8" t="n">
         <v>365</v>
       </c>
+      <c r="HY8" t="n">
+        <v>37</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7210,6 +7262,12 @@
       <c r="HX9" t="n">
         <v>981</v>
       </c>
+      <c r="HY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7912,6 +7970,12 @@
       <c r="HX10" t="n">
         <v>362</v>
       </c>
+      <c r="HY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8614,6 +8678,12 @@
       <c r="HX11" t="n">
         <v>883</v>
       </c>
+      <c r="HY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9316,6 +9386,12 @@
       <c r="HX12" t="n">
         <v>1597</v>
       </c>
+      <c r="HY12" t="n">
+        <v>199</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10018,6 +10094,12 @@
       <c r="HX13" t="n">
         <v>442</v>
       </c>
+      <c r="HY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10720,6 +10802,12 @@
       <c r="HX14" t="n">
         <v>0</v>
       </c>
+      <c r="HY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11422,6 +11510,12 @@
       <c r="HX15" t="n">
         <v>966</v>
       </c>
+      <c r="HY15" t="n">
+        <v>60</v>
+      </c>
+      <c r="HZ15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12124,6 +12218,12 @@
       <c r="HX16" t="n">
         <v>0</v>
       </c>
+      <c r="HY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12826,6 +12926,12 @@
       <c r="HX17" t="n">
         <v>821</v>
       </c>
+      <c r="HY17" t="n">
+        <v>13</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13528,6 +13634,12 @@
       <c r="HX18" t="n">
         <v>972</v>
       </c>
+      <c r="HY18" t="n">
+        <v>189</v>
+      </c>
+      <c r="HZ18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14230,6 +14342,12 @@
       <c r="HX19" t="n">
         <v>349</v>
       </c>
+      <c r="HY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14932,6 +15050,12 @@
       <c r="HX20" t="n">
         <v>349</v>
       </c>
+      <c r="HY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15634,6 +15758,12 @@
       <c r="HX21" t="n">
         <v>0</v>
       </c>
+      <c r="HY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16336,6 +16466,12 @@
       <c r="HX22" t="n">
         <v>0</v>
       </c>
+      <c r="HY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="HZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17038,6 +17174,12 @@
       <c r="HX23" t="n">
         <v>0</v>
       </c>
+      <c r="HY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17740,6 +17882,12 @@
       <c r="HX24" t="n">
         <v>0</v>
       </c>
+      <c r="HY24" t="n">
+        <v>301</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18442,6 +18590,12 @@
       <c r="HX25" t="n">
         <v>901</v>
       </c>
+      <c r="HY25" t="n">
+        <v>38</v>
+      </c>
+      <c r="HZ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19144,6 +19298,12 @@
       <c r="HX26" t="n">
         <v>825</v>
       </c>
+      <c r="HY26" t="n">
+        <v>28</v>
+      </c>
+      <c r="HZ26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19844,6 +20004,12 @@
         <v>0</v>
       </c>
       <c r="HX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ27"/>
+  <dimension ref="A1:IB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1604,6 +1604,16 @@
           <t>CF天梯分_2022-05-06 08:28:18</t>
         </is>
       </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-07 08:23:00</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-07 08:23:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2312,6 +2322,12 @@
       <c r="HZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="IA2" t="n">
+        <v>755</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3020,6 +3036,12 @@
       <c r="HZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="IA3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3728,6 +3750,12 @@
       <c r="HZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="IA4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4436,6 +4464,12 @@
       <c r="HZ5" t="n">
         <v>0</v>
       </c>
+      <c r="IA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5144,6 +5178,12 @@
       <c r="HZ6" t="n">
         <v>1500</v>
       </c>
+      <c r="IA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5852,6 +5892,12 @@
       <c r="HZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="IA7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6560,6 +6606,12 @@
       <c r="HZ8" t="n">
         <v>365</v>
       </c>
+      <c r="IA8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7268,6 +7320,12 @@
       <c r="HZ9" t="n">
         <v>981</v>
       </c>
+      <c r="IA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7976,6 +8034,12 @@
       <c r="HZ10" t="n">
         <v>362</v>
       </c>
+      <c r="IA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8684,6 +8748,12 @@
       <c r="HZ11" t="n">
         <v>883</v>
       </c>
+      <c r="IA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9392,6 +9462,12 @@
       <c r="HZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="IA12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10100,6 +10176,12 @@
       <c r="HZ13" t="n">
         <v>442</v>
       </c>
+      <c r="IA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10808,6 +10890,12 @@
       <c r="HZ14" t="n">
         <v>0</v>
       </c>
+      <c r="IA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11516,6 +11604,12 @@
       <c r="HZ15" t="n">
         <v>966</v>
       </c>
+      <c r="IA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12224,6 +12318,12 @@
       <c r="HZ16" t="n">
         <v>0</v>
       </c>
+      <c r="IA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12932,6 +13032,12 @@
       <c r="HZ17" t="n">
         <v>821</v>
       </c>
+      <c r="IA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13640,6 +13746,12 @@
       <c r="HZ18" t="n">
         <v>972</v>
       </c>
+      <c r="IA18" t="n">
+        <v>189</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14348,6 +14460,12 @@
       <c r="HZ19" t="n">
         <v>349</v>
       </c>
+      <c r="IA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15056,6 +15174,12 @@
       <c r="HZ20" t="n">
         <v>349</v>
       </c>
+      <c r="IA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15764,6 +15888,12 @@
       <c r="HZ21" t="n">
         <v>0</v>
       </c>
+      <c r="IA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16472,6 +16602,12 @@
       <c r="HZ22" t="n">
         <v>0</v>
       </c>
+      <c r="IA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17180,6 +17316,12 @@
       <c r="HZ23" t="n">
         <v>0</v>
       </c>
+      <c r="IA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17888,6 +18030,12 @@
       <c r="HZ24" t="n">
         <v>0</v>
       </c>
+      <c r="IA24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18596,6 +18744,12 @@
       <c r="HZ25" t="n">
         <v>901</v>
       </c>
+      <c r="IA25" t="n">
+        <v>38</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19304,6 +19458,12 @@
       <c r="HZ26" t="n">
         <v>825</v>
       </c>
+      <c r="IA26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20010,6 +20170,12 @@
         <v>0</v>
       </c>
       <c r="HZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB27"/>
+  <dimension ref="A1:ID27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1614,6 +1614,16 @@
           <t>CF天梯分_2022-05-07 08:23:00</t>
         </is>
       </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-08 08:22:44</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-08 08:22:44</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2328,6 +2338,12 @@
       <c r="IB2" t="n">
         <v>1783</v>
       </c>
+      <c r="IC2" t="n">
+        <v>755</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3042,6 +3058,12 @@
       <c r="IB3" t="n">
         <v>1014</v>
       </c>
+      <c r="IC3" t="n">
+        <v>90</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3756,6 +3778,12 @@
       <c r="IB4" t="n">
         <v>1595</v>
       </c>
+      <c r="IC4" t="n">
+        <v>459</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4470,6 +4498,12 @@
       <c r="IB5" t="n">
         <v>0</v>
       </c>
+      <c r="IC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5184,6 +5218,12 @@
       <c r="IB6" t="n">
         <v>1500</v>
       </c>
+      <c r="IC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5898,6 +5938,12 @@
       <c r="IB7" t="n">
         <v>1407</v>
       </c>
+      <c r="IC7" t="n">
+        <v>132</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6612,6 +6658,12 @@
       <c r="IB8" t="n">
         <v>365</v>
       </c>
+      <c r="IC8" t="n">
+        <v>37</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7326,6 +7378,12 @@
       <c r="IB9" t="n">
         <v>981</v>
       </c>
+      <c r="IC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8040,6 +8098,12 @@
       <c r="IB10" t="n">
         <v>362</v>
       </c>
+      <c r="IC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8754,6 +8818,12 @@
       <c r="IB11" t="n">
         <v>883</v>
       </c>
+      <c r="IC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9468,6 +9538,12 @@
       <c r="IB12" t="n">
         <v>1597</v>
       </c>
+      <c r="IC12" t="n">
+        <v>199</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10182,6 +10258,12 @@
       <c r="IB13" t="n">
         <v>442</v>
       </c>
+      <c r="IC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10896,6 +10978,12 @@
       <c r="IB14" t="n">
         <v>0</v>
       </c>
+      <c r="IC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11610,6 +11698,12 @@
       <c r="IB15" t="n">
         <v>966</v>
       </c>
+      <c r="IC15" t="n">
+        <v>60</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12324,6 +12418,12 @@
       <c r="IB16" t="n">
         <v>0</v>
       </c>
+      <c r="IC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13038,6 +13138,12 @@
       <c r="IB17" t="n">
         <v>821</v>
       </c>
+      <c r="IC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13752,6 +13858,12 @@
       <c r="IB18" t="n">
         <v>972</v>
       </c>
+      <c r="IC18" t="n">
+        <v>189</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14466,6 +14578,12 @@
       <c r="IB19" t="n">
         <v>349</v>
       </c>
+      <c r="IC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15180,6 +15298,12 @@
       <c r="IB20" t="n">
         <v>349</v>
       </c>
+      <c r="IC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15894,6 +16018,12 @@
       <c r="IB21" t="n">
         <v>0</v>
       </c>
+      <c r="IC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16608,6 +16738,12 @@
       <c r="IB22" t="n">
         <v>0</v>
       </c>
+      <c r="IC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="ID22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17322,6 +17458,12 @@
       <c r="IB23" t="n">
         <v>0</v>
       </c>
+      <c r="IC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18036,6 +18178,12 @@
       <c r="IB24" t="n">
         <v>0</v>
       </c>
+      <c r="IC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18750,6 +18898,12 @@
       <c r="IB25" t="n">
         <v>901</v>
       </c>
+      <c r="IC25" t="n">
+        <v>38</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19464,6 +19618,12 @@
       <c r="IB26" t="n">
         <v>825</v>
       </c>
+      <c r="IC26" t="n">
+        <v>28</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20176,6 +20336,12 @@
         <v>0</v>
       </c>
       <c r="IB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID27"/>
+  <dimension ref="A1:IF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1624,6 +1624,16 @@
           <t>CF天梯分_2022-05-08 08:22:44</t>
         </is>
       </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-09 08:28:29</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-09 08:28:29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2344,6 +2354,12 @@
       <c r="ID2" t="n">
         <v>1783</v>
       </c>
+      <c r="IE2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3064,6 +3080,12 @@
       <c r="ID3" t="n">
         <v>1014</v>
       </c>
+      <c r="IE3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3784,6 +3806,12 @@
       <c r="ID4" t="n">
         <v>1595</v>
       </c>
+      <c r="IE4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4504,6 +4532,12 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5224,6 +5258,12 @@
       <c r="ID6" t="n">
         <v>1500</v>
       </c>
+      <c r="IE6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5944,6 +5984,12 @@
       <c r="ID7" t="n">
         <v>1407</v>
       </c>
+      <c r="IE7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6664,6 +6710,12 @@
       <c r="ID8" t="n">
         <v>365</v>
       </c>
+      <c r="IE8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7384,6 +7436,12 @@
       <c r="ID9" t="n">
         <v>981</v>
       </c>
+      <c r="IE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8104,6 +8162,12 @@
       <c r="ID10" t="n">
         <v>362</v>
       </c>
+      <c r="IE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8824,6 +8888,12 @@
       <c r="ID11" t="n">
         <v>883</v>
       </c>
+      <c r="IE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9544,6 +9614,12 @@
       <c r="ID12" t="n">
         <v>1597</v>
       </c>
+      <c r="IE12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10264,6 +10340,12 @@
       <c r="ID13" t="n">
         <v>442</v>
       </c>
+      <c r="IE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10984,6 +11066,12 @@
       <c r="ID14" t="n">
         <v>0</v>
       </c>
+      <c r="IE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11704,6 +11792,12 @@
       <c r="ID15" t="n">
         <v>966</v>
       </c>
+      <c r="IE15" t="n">
+        <v>60</v>
+      </c>
+      <c r="IF15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12424,6 +12518,12 @@
       <c r="ID16" t="n">
         <v>0</v>
       </c>
+      <c r="IE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13144,6 +13244,12 @@
       <c r="ID17" t="n">
         <v>821</v>
       </c>
+      <c r="IE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13864,6 +13970,12 @@
       <c r="ID18" t="n">
         <v>972</v>
       </c>
+      <c r="IE18" t="n">
+        <v>189</v>
+      </c>
+      <c r="IF18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14584,6 +14696,12 @@
       <c r="ID19" t="n">
         <v>349</v>
       </c>
+      <c r="IE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15304,6 +15422,12 @@
       <c r="ID20" t="n">
         <v>349</v>
       </c>
+      <c r="IE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16024,6 +16148,12 @@
       <c r="ID21" t="n">
         <v>0</v>
       </c>
+      <c r="IE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16744,6 +16874,12 @@
       <c r="ID22" t="n">
         <v>0</v>
       </c>
+      <c r="IE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17464,6 +17600,12 @@
       <c r="ID23" t="n">
         <v>0</v>
       </c>
+      <c r="IE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18184,6 +18326,12 @@
       <c r="ID24" t="n">
         <v>0</v>
       </c>
+      <c r="IE24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18904,6 +19052,12 @@
       <c r="ID25" t="n">
         <v>901</v>
       </c>
+      <c r="IE25" t="n">
+        <v>38</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19624,6 +19778,12 @@
       <c r="ID26" t="n">
         <v>825</v>
       </c>
+      <c r="IE26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20342,6 +20502,12 @@
         <v>0</v>
       </c>
       <c r="ID27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF27"/>
+  <dimension ref="A1:IH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,6 +1634,16 @@
           <t>CF天梯分_2022-05-09 08:28:29</t>
         </is>
       </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-10 08:28:30</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-10 08:28:30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2360,6 +2370,12 @@
       <c r="IF2" t="n">
         <v>1783</v>
       </c>
+      <c r="IG2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3086,6 +3102,12 @@
       <c r="IF3" t="n">
         <v>1014</v>
       </c>
+      <c r="IG3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3812,6 +3834,12 @@
       <c r="IF4" t="n">
         <v>1595</v>
       </c>
+      <c r="IG4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4538,6 +4566,12 @@
       <c r="IF5" t="n">
         <v>0</v>
       </c>
+      <c r="IG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5264,6 +5298,12 @@
       <c r="IF6" t="n">
         <v>1500</v>
       </c>
+      <c r="IG6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5990,6 +6030,12 @@
       <c r="IF7" t="n">
         <v>1407</v>
       </c>
+      <c r="IG7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6716,6 +6762,12 @@
       <c r="IF8" t="n">
         <v>365</v>
       </c>
+      <c r="IG8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7442,6 +7494,12 @@
       <c r="IF9" t="n">
         <v>981</v>
       </c>
+      <c r="IG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8168,6 +8226,12 @@
       <c r="IF10" t="n">
         <v>362</v>
       </c>
+      <c r="IG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8894,6 +8958,12 @@
       <c r="IF11" t="n">
         <v>883</v>
       </c>
+      <c r="IG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9620,6 +9690,12 @@
       <c r="IF12" t="n">
         <v>1597</v>
       </c>
+      <c r="IG12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10346,6 +10422,12 @@
       <c r="IF13" t="n">
         <v>442</v>
       </c>
+      <c r="IG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11072,6 +11154,12 @@
       <c r="IF14" t="n">
         <v>0</v>
       </c>
+      <c r="IG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11798,6 +11886,12 @@
       <c r="IF15" t="n">
         <v>966</v>
       </c>
+      <c r="IG15" t="n">
+        <v>60</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12524,6 +12618,12 @@
       <c r="IF16" t="n">
         <v>0</v>
       </c>
+      <c r="IG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13250,6 +13350,12 @@
       <c r="IF17" t="n">
         <v>821</v>
       </c>
+      <c r="IG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13976,6 +14082,12 @@
       <c r="IF18" t="n">
         <v>972</v>
       </c>
+      <c r="IG18" t="n">
+        <v>189</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14702,6 +14814,12 @@
       <c r="IF19" t="n">
         <v>349</v>
       </c>
+      <c r="IG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15428,6 +15546,12 @@
       <c r="IF20" t="n">
         <v>349</v>
       </c>
+      <c r="IG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16154,6 +16278,12 @@
       <c r="IF21" t="n">
         <v>0</v>
       </c>
+      <c r="IG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16880,6 +17010,12 @@
       <c r="IF22" t="n">
         <v>0</v>
       </c>
+      <c r="IG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17606,6 +17742,12 @@
       <c r="IF23" t="n">
         <v>0</v>
       </c>
+      <c r="IG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18332,6 +18474,12 @@
       <c r="IF24" t="n">
         <v>0</v>
       </c>
+      <c r="IG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19058,6 +19206,12 @@
       <c r="IF25" t="n">
         <v>901</v>
       </c>
+      <c r="IG25" t="n">
+        <v>38</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19784,6 +19938,12 @@
       <c r="IF26" t="n">
         <v>825</v>
       </c>
+      <c r="IG26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20508,6 +20668,12 @@
         <v>0</v>
       </c>
       <c r="IF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH27"/>
+  <dimension ref="A1:IJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1644,6 +1644,16 @@
           <t>CF天梯分_2022-05-10 08:28:30</t>
         </is>
       </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-11 08:30:00</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-11 08:30:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2376,6 +2386,12 @@
       <c r="IH2" t="n">
         <v>1783</v>
       </c>
+      <c r="II2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3108,6 +3124,12 @@
       <c r="IH3" t="n">
         <v>1014</v>
       </c>
+      <c r="II3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3840,6 +3862,12 @@
       <c r="IH4" t="n">
         <v>1595</v>
       </c>
+      <c r="II4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4572,6 +4600,12 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5304,6 +5338,12 @@
       <c r="IH6" t="n">
         <v>1500</v>
       </c>
+      <c r="II6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6036,6 +6076,12 @@
       <c r="IH7" t="n">
         <v>1407</v>
       </c>
+      <c r="II7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6768,6 +6814,12 @@
       <c r="IH8" t="n">
         <v>365</v>
       </c>
+      <c r="II8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7500,6 +7552,12 @@
       <c r="IH9" t="n">
         <v>981</v>
       </c>
+      <c r="II9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8232,6 +8290,12 @@
       <c r="IH10" t="n">
         <v>362</v>
       </c>
+      <c r="II10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8964,6 +9028,12 @@
       <c r="IH11" t="n">
         <v>883</v>
       </c>
+      <c r="II11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9696,6 +9766,12 @@
       <c r="IH12" t="n">
         <v>1597</v>
       </c>
+      <c r="II12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10428,6 +10504,12 @@
       <c r="IH13" t="n">
         <v>442</v>
       </c>
+      <c r="II13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11160,6 +11242,12 @@
       <c r="IH14" t="n">
         <v>0</v>
       </c>
+      <c r="II14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11892,6 +11980,12 @@
       <c r="IH15" t="n">
         <v>966</v>
       </c>
+      <c r="II15" t="n">
+        <v>66</v>
+      </c>
+      <c r="IJ15" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12624,6 +12718,12 @@
       <c r="IH16" t="n">
         <v>0</v>
       </c>
+      <c r="II16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13356,6 +13456,12 @@
       <c r="IH17" t="n">
         <v>821</v>
       </c>
+      <c r="II17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14088,6 +14194,12 @@
       <c r="IH18" t="n">
         <v>972</v>
       </c>
+      <c r="II18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IJ18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14820,6 +14932,12 @@
       <c r="IH19" t="n">
         <v>349</v>
       </c>
+      <c r="II19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15552,6 +15670,12 @@
       <c r="IH20" t="n">
         <v>349</v>
       </c>
+      <c r="II20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16284,6 +16408,12 @@
       <c r="IH21" t="n">
         <v>0</v>
       </c>
+      <c r="II21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17016,6 +17146,12 @@
       <c r="IH22" t="n">
         <v>0</v>
       </c>
+      <c r="II22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17748,6 +17884,12 @@
       <c r="IH23" t="n">
         <v>0</v>
       </c>
+      <c r="II23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18480,6 +18622,12 @@
       <c r="IH24" t="n">
         <v>0</v>
       </c>
+      <c r="II24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19212,6 +19360,12 @@
       <c r="IH25" t="n">
         <v>901</v>
       </c>
+      <c r="II25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IJ25" t="n">
+        <v>901</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19944,6 +20098,12 @@
       <c r="IH26" t="n">
         <v>825</v>
       </c>
+      <c r="II26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IJ26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20674,6 +20834,12 @@
         <v>0</v>
       </c>
       <c r="IH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="II27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ27"/>
+  <dimension ref="A1:IL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1654,6 +1654,16 @@
           <t>CF天梯分_2022-05-11 08:30:00</t>
         </is>
       </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-12 08:28:15</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-12 08:28:15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2392,6 +2402,12 @@
       <c r="IJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="IK2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3130,6 +3146,12 @@
       <c r="IJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="IK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3868,6 +3890,12 @@
       <c r="IJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="IK4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4606,6 +4634,12 @@
       <c r="IJ5" t="n">
         <v>0</v>
       </c>
+      <c r="IK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5344,6 +5378,12 @@
       <c r="IJ6" t="n">
         <v>1500</v>
       </c>
+      <c r="IK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6082,6 +6122,12 @@
       <c r="IJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="IK7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6820,6 +6866,12 @@
       <c r="IJ8" t="n">
         <v>365</v>
       </c>
+      <c r="IK8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7558,6 +7610,12 @@
       <c r="IJ9" t="n">
         <v>981</v>
       </c>
+      <c r="IK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8296,6 +8354,12 @@
       <c r="IJ10" t="n">
         <v>362</v>
       </c>
+      <c r="IK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9034,6 +9098,12 @@
       <c r="IJ11" t="n">
         <v>883</v>
       </c>
+      <c r="IK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9772,6 +9842,12 @@
       <c r="IJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="IK12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10510,6 +10586,12 @@
       <c r="IJ13" t="n">
         <v>442</v>
       </c>
+      <c r="IK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11248,6 +11330,12 @@
       <c r="IJ14" t="n">
         <v>0</v>
       </c>
+      <c r="IK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11986,6 +12074,12 @@
       <c r="IJ15" t="n">
         <v>966</v>
       </c>
+      <c r="IK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12724,6 +12818,12 @@
       <c r="IJ16" t="n">
         <v>0</v>
       </c>
+      <c r="IK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13462,6 +13562,12 @@
       <c r="IJ17" t="n">
         <v>821</v>
       </c>
+      <c r="IK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14200,6 +14306,12 @@
       <c r="IJ18" t="n">
         <v>972</v>
       </c>
+      <c r="IK18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14938,6 +15050,12 @@
       <c r="IJ19" t="n">
         <v>349</v>
       </c>
+      <c r="IK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15676,6 +15794,12 @@
       <c r="IJ20" t="n">
         <v>349</v>
       </c>
+      <c r="IK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16414,6 +16538,12 @@
       <c r="IJ21" t="n">
         <v>0</v>
       </c>
+      <c r="IK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17152,6 +17282,12 @@
       <c r="IJ22" t="n">
         <v>0</v>
       </c>
+      <c r="IK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17890,6 +18026,12 @@
       <c r="IJ23" t="n">
         <v>0</v>
       </c>
+      <c r="IK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18628,6 +18770,12 @@
       <c r="IJ24" t="n">
         <v>0</v>
       </c>
+      <c r="IK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19366,6 +19514,12 @@
       <c r="IJ25" t="n">
         <v>901</v>
       </c>
+      <c r="IK25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20104,6 +20258,12 @@
       <c r="IJ26" t="n">
         <v>825</v>
       </c>
+      <c r="IK26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20840,6 +21000,12 @@
         <v>0</v>
       </c>
       <c r="IJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL27"/>
+  <dimension ref="A1:IN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1664,6 +1664,16 @@
           <t>CF天梯分_2022-05-12 08:28:15</t>
         </is>
       </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-13 08:23:14</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-13 08:23:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2408,6 +2418,12 @@
       <c r="IL2" t="n">
         <v>1783</v>
       </c>
+      <c r="IM2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3152,6 +3168,12 @@
       <c r="IL3" t="n">
         <v>1014</v>
       </c>
+      <c r="IM3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3896,6 +3918,12 @@
       <c r="IL4" t="n">
         <v>1595</v>
       </c>
+      <c r="IM4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4640,6 +4668,12 @@
       <c r="IL5" t="n">
         <v>0</v>
       </c>
+      <c r="IM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5384,6 +5418,12 @@
       <c r="IL6" t="n">
         <v>1500</v>
       </c>
+      <c r="IM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6128,6 +6168,12 @@
       <c r="IL7" t="n">
         <v>1407</v>
       </c>
+      <c r="IM7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6872,6 +6918,12 @@
       <c r="IL8" t="n">
         <v>365</v>
       </c>
+      <c r="IM8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7616,6 +7668,12 @@
       <c r="IL9" t="n">
         <v>981</v>
       </c>
+      <c r="IM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8360,6 +8418,12 @@
       <c r="IL10" t="n">
         <v>362</v>
       </c>
+      <c r="IM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9104,6 +9168,12 @@
       <c r="IL11" t="n">
         <v>883</v>
       </c>
+      <c r="IM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9848,6 +9918,12 @@
       <c r="IL12" t="n">
         <v>1597</v>
       </c>
+      <c r="IM12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10592,6 +10668,12 @@
       <c r="IL13" t="n">
         <v>442</v>
       </c>
+      <c r="IM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11336,6 +11418,12 @@
       <c r="IL14" t="n">
         <v>0</v>
       </c>
+      <c r="IM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12080,6 +12168,12 @@
       <c r="IL15" t="n">
         <v>1057</v>
       </c>
+      <c r="IM15" t="n">
+        <v>67</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12824,6 +12918,12 @@
       <c r="IL16" t="n">
         <v>0</v>
       </c>
+      <c r="IM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13568,6 +13668,12 @@
       <c r="IL17" t="n">
         <v>821</v>
       </c>
+      <c r="IM17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14312,6 +14418,12 @@
       <c r="IL18" t="n">
         <v>972</v>
       </c>
+      <c r="IM18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15056,6 +15168,12 @@
       <c r="IL19" t="n">
         <v>349</v>
       </c>
+      <c r="IM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15800,6 +15918,12 @@
       <c r="IL20" t="n">
         <v>349</v>
       </c>
+      <c r="IM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16544,6 +16668,12 @@
       <c r="IL21" t="n">
         <v>0</v>
       </c>
+      <c r="IM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17288,6 +17418,12 @@
       <c r="IL22" t="n">
         <v>0</v>
       </c>
+      <c r="IM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18032,6 +18168,12 @@
       <c r="IL23" t="n">
         <v>0</v>
       </c>
+      <c r="IM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18776,6 +18918,12 @@
       <c r="IL24" t="n">
         <v>0</v>
       </c>
+      <c r="IM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19520,6 +19668,12 @@
       <c r="IL25" t="n">
         <v>1057</v>
       </c>
+      <c r="IM25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20264,6 +20418,12 @@
       <c r="IL26" t="n">
         <v>825</v>
       </c>
+      <c r="IM26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21006,6 +21166,12 @@
         <v>0</v>
       </c>
       <c r="IL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IN27"/>
+  <dimension ref="A1:IP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1674,6 +1674,16 @@
           <t>CF天梯分_2022-05-13 08:23:14</t>
         </is>
       </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-14 08:23:01</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-14 08:23:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2424,6 +2434,12 @@
       <c r="IN2" t="n">
         <v>1783</v>
       </c>
+      <c r="IO2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3174,6 +3190,12 @@
       <c r="IN3" t="n">
         <v>1014</v>
       </c>
+      <c r="IO3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3924,6 +3946,12 @@
       <c r="IN4" t="n">
         <v>1595</v>
       </c>
+      <c r="IO4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4674,6 +4702,12 @@
       <c r="IN5" t="n">
         <v>0</v>
       </c>
+      <c r="IO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5424,6 +5458,12 @@
       <c r="IN6" t="n">
         <v>1500</v>
       </c>
+      <c r="IO6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6174,6 +6214,12 @@
       <c r="IN7" t="n">
         <v>1407</v>
       </c>
+      <c r="IO7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6924,6 +6970,12 @@
       <c r="IN8" t="n">
         <v>365</v>
       </c>
+      <c r="IO8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7674,6 +7726,12 @@
       <c r="IN9" t="n">
         <v>981</v>
       </c>
+      <c r="IO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8424,6 +8482,12 @@
       <c r="IN10" t="n">
         <v>362</v>
       </c>
+      <c r="IO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9174,6 +9238,12 @@
       <c r="IN11" t="n">
         <v>883</v>
       </c>
+      <c r="IO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9924,6 +9994,12 @@
       <c r="IN12" t="n">
         <v>1597</v>
       </c>
+      <c r="IO12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10674,6 +10750,12 @@
       <c r="IN13" t="n">
         <v>442</v>
       </c>
+      <c r="IO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11424,6 +11506,12 @@
       <c r="IN14" t="n">
         <v>0</v>
       </c>
+      <c r="IO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12174,6 +12262,12 @@
       <c r="IN15" t="n">
         <v>1057</v>
       </c>
+      <c r="IO15" t="n">
+        <v>67</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12924,6 +13018,12 @@
       <c r="IN16" t="n">
         <v>0</v>
       </c>
+      <c r="IO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13674,6 +13774,12 @@
       <c r="IN17" t="n">
         <v>821</v>
       </c>
+      <c r="IO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14424,6 +14530,12 @@
       <c r="IN18" t="n">
         <v>972</v>
       </c>
+      <c r="IO18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15174,6 +15286,12 @@
       <c r="IN19" t="n">
         <v>349</v>
       </c>
+      <c r="IO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15924,6 +16042,12 @@
       <c r="IN20" t="n">
         <v>349</v>
       </c>
+      <c r="IO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16674,6 +16798,12 @@
       <c r="IN21" t="n">
         <v>0</v>
       </c>
+      <c r="IO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17424,6 +17554,12 @@
       <c r="IN22" t="n">
         <v>0</v>
       </c>
+      <c r="IO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18174,6 +18310,12 @@
       <c r="IN23" t="n">
         <v>0</v>
       </c>
+      <c r="IO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18924,6 +19066,12 @@
       <c r="IN24" t="n">
         <v>0</v>
       </c>
+      <c r="IO24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19674,6 +19822,12 @@
       <c r="IN25" t="n">
         <v>1057</v>
       </c>
+      <c r="IO25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20424,6 +20578,12 @@
       <c r="IN26" t="n">
         <v>825</v>
       </c>
+      <c r="IO26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21172,6 +21332,12 @@
         <v>0</v>
       </c>
       <c r="IN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IP27"/>
+  <dimension ref="A1:IR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1684,6 +1684,16 @@
           <t>CF天梯分_2022-05-14 08:23:01</t>
         </is>
       </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-15 08:22:59</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-15 08:22:59</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2440,6 +2450,12 @@
       <c r="IP2" t="n">
         <v>1783</v>
       </c>
+      <c r="IQ2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3196,6 +3212,12 @@
       <c r="IP3" t="n">
         <v>1014</v>
       </c>
+      <c r="IQ3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3952,6 +3974,12 @@
       <c r="IP4" t="n">
         <v>1595</v>
       </c>
+      <c r="IQ4" t="n">
+        <v>459</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4708,6 +4736,12 @@
       <c r="IP5" t="n">
         <v>0</v>
       </c>
+      <c r="IQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5464,6 +5498,12 @@
       <c r="IP6" t="n">
         <v>1500</v>
       </c>
+      <c r="IQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6220,6 +6260,12 @@
       <c r="IP7" t="n">
         <v>1407</v>
       </c>
+      <c r="IQ7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6976,6 +7022,12 @@
       <c r="IP8" t="n">
         <v>365</v>
       </c>
+      <c r="IQ8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7732,6 +7784,12 @@
       <c r="IP9" t="n">
         <v>981</v>
       </c>
+      <c r="IQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8488,6 +8546,12 @@
       <c r="IP10" t="n">
         <v>362</v>
       </c>
+      <c r="IQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9244,6 +9308,12 @@
       <c r="IP11" t="n">
         <v>883</v>
       </c>
+      <c r="IQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10000,6 +10070,12 @@
       <c r="IP12" t="n">
         <v>1597</v>
       </c>
+      <c r="IQ12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10756,6 +10832,12 @@
       <c r="IP13" t="n">
         <v>442</v>
       </c>
+      <c r="IQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11512,6 +11594,12 @@
       <c r="IP14" t="n">
         <v>0</v>
       </c>
+      <c r="IQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12268,6 +12356,12 @@
       <c r="IP15" t="n">
         <v>1057</v>
       </c>
+      <c r="IQ15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13024,6 +13118,12 @@
       <c r="IP16" t="n">
         <v>0</v>
       </c>
+      <c r="IQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13780,6 +13880,12 @@
       <c r="IP17" t="n">
         <v>821</v>
       </c>
+      <c r="IQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14536,6 +14642,12 @@
       <c r="IP18" t="n">
         <v>972</v>
       </c>
+      <c r="IQ18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15292,6 +15404,12 @@
       <c r="IP19" t="n">
         <v>349</v>
       </c>
+      <c r="IQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16048,6 +16166,12 @@
       <c r="IP20" t="n">
         <v>349</v>
       </c>
+      <c r="IQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16804,6 +16928,12 @@
       <c r="IP21" t="n">
         <v>0</v>
       </c>
+      <c r="IQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17560,6 +17690,12 @@
       <c r="IP22" t="n">
         <v>0</v>
       </c>
+      <c r="IQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18316,6 +18452,12 @@
       <c r="IP23" t="n">
         <v>0</v>
       </c>
+      <c r="IQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19072,6 +19214,12 @@
       <c r="IP24" t="n">
         <v>0</v>
       </c>
+      <c r="IQ24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19828,6 +19976,12 @@
       <c r="IP25" t="n">
         <v>1057</v>
       </c>
+      <c r="IQ25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20584,6 +20738,12 @@
       <c r="IP26" t="n">
         <v>825</v>
       </c>
+      <c r="IQ26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21338,6 +21498,12 @@
         <v>0</v>
       </c>
       <c r="IP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IR27"/>
+  <dimension ref="A1:IT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,6 +1694,16 @@
           <t>CF天梯分_2022-05-15 08:22:59</t>
         </is>
       </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-16 08:29:26</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-16 08:29:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2456,6 +2466,12 @@
       <c r="IR2" t="n">
         <v>1783</v>
       </c>
+      <c r="IS2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3218,6 +3234,12 @@
       <c r="IR3" t="n">
         <v>1014</v>
       </c>
+      <c r="IS3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3980,6 +4002,12 @@
       <c r="IR4" t="n">
         <v>1595</v>
       </c>
+      <c r="IS4" t="n">
+        <v>460</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4742,6 +4770,12 @@
       <c r="IR5" t="n">
         <v>0</v>
       </c>
+      <c r="IS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5504,6 +5538,12 @@
       <c r="IR6" t="n">
         <v>1500</v>
       </c>
+      <c r="IS6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6266,6 +6306,12 @@
       <c r="IR7" t="n">
         <v>1407</v>
       </c>
+      <c r="IS7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7028,6 +7074,12 @@
       <c r="IR8" t="n">
         <v>365</v>
       </c>
+      <c r="IS8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7790,6 +7842,12 @@
       <c r="IR9" t="n">
         <v>981</v>
       </c>
+      <c r="IS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8552,6 +8610,12 @@
       <c r="IR10" t="n">
         <v>362</v>
       </c>
+      <c r="IS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9314,6 +9378,12 @@
       <c r="IR11" t="n">
         <v>883</v>
       </c>
+      <c r="IS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10076,6 +10146,12 @@
       <c r="IR12" t="n">
         <v>1597</v>
       </c>
+      <c r="IS12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10838,6 +10914,12 @@
       <c r="IR13" t="n">
         <v>442</v>
       </c>
+      <c r="IS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11600,6 +11682,12 @@
       <c r="IR14" t="n">
         <v>0</v>
       </c>
+      <c r="IS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12362,6 +12450,12 @@
       <c r="IR15" t="n">
         <v>1057</v>
       </c>
+      <c r="IS15" t="n">
+        <v>67</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13124,6 +13218,12 @@
       <c r="IR16" t="n">
         <v>0</v>
       </c>
+      <c r="IS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13886,6 +13986,12 @@
       <c r="IR17" t="n">
         <v>821</v>
       </c>
+      <c r="IS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14648,6 +14754,12 @@
       <c r="IR18" t="n">
         <v>972</v>
       </c>
+      <c r="IS18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15410,6 +15522,12 @@
       <c r="IR19" t="n">
         <v>349</v>
       </c>
+      <c r="IS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16172,6 +16290,12 @@
       <c r="IR20" t="n">
         <v>349</v>
       </c>
+      <c r="IS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16934,6 +17058,12 @@
       <c r="IR21" t="n">
         <v>0</v>
       </c>
+      <c r="IS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17696,6 +17826,12 @@
       <c r="IR22" t="n">
         <v>0</v>
       </c>
+      <c r="IS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18458,6 +18594,12 @@
       <c r="IR23" t="n">
         <v>0</v>
       </c>
+      <c r="IS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19220,6 +19362,12 @@
       <c r="IR24" t="n">
         <v>0</v>
       </c>
+      <c r="IS24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19982,6 +20130,12 @@
       <c r="IR25" t="n">
         <v>1057</v>
       </c>
+      <c r="IS25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20744,6 +20898,12 @@
       <c r="IR26" t="n">
         <v>825</v>
       </c>
+      <c r="IS26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21504,6 +21664,12 @@
         <v>0</v>
       </c>
       <c r="IR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IT27"/>
+  <dimension ref="A1:IV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1704,6 +1704,16 @@
           <t>CF天梯分_2022-05-16 08:29:26</t>
         </is>
       </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-17 08:29:21</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-17 08:29:21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2472,6 +2482,12 @@
       <c r="IT2" t="n">
         <v>1783</v>
       </c>
+      <c r="IU2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3240,6 +3256,12 @@
       <c r="IT3" t="n">
         <v>1014</v>
       </c>
+      <c r="IU3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4008,6 +4030,12 @@
       <c r="IT4" t="n">
         <v>1595</v>
       </c>
+      <c r="IU4" t="n">
+        <v>460</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4776,6 +4804,12 @@
       <c r="IT5" t="n">
         <v>0</v>
       </c>
+      <c r="IU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5544,6 +5578,12 @@
       <c r="IT6" t="n">
         <v>1500</v>
       </c>
+      <c r="IU6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6312,6 +6352,12 @@
       <c r="IT7" t="n">
         <v>1407</v>
       </c>
+      <c r="IU7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7080,6 +7126,12 @@
       <c r="IT8" t="n">
         <v>365</v>
       </c>
+      <c r="IU8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7848,6 +7900,12 @@
       <c r="IT9" t="n">
         <v>981</v>
       </c>
+      <c r="IU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8616,6 +8674,12 @@
       <c r="IT10" t="n">
         <v>362</v>
       </c>
+      <c r="IU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9384,6 +9448,12 @@
       <c r="IT11" t="n">
         <v>883</v>
       </c>
+      <c r="IU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10152,6 +10222,12 @@
       <c r="IT12" t="n">
         <v>1597</v>
       </c>
+      <c r="IU12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10920,6 +10996,12 @@
       <c r="IT13" t="n">
         <v>442</v>
       </c>
+      <c r="IU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11688,6 +11770,12 @@
       <c r="IT14" t="n">
         <v>0</v>
       </c>
+      <c r="IU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12456,6 +12544,12 @@
       <c r="IT15" t="n">
         <v>1057</v>
       </c>
+      <c r="IU15" t="n">
+        <v>67</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13224,6 +13318,12 @@
       <c r="IT16" t="n">
         <v>0</v>
       </c>
+      <c r="IU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13992,6 +14092,12 @@
       <c r="IT17" t="n">
         <v>821</v>
       </c>
+      <c r="IU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14760,6 +14866,12 @@
       <c r="IT18" t="n">
         <v>972</v>
       </c>
+      <c r="IU18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15528,6 +15640,12 @@
       <c r="IT19" t="n">
         <v>349</v>
       </c>
+      <c r="IU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16296,6 +16414,12 @@
       <c r="IT20" t="n">
         <v>349</v>
       </c>
+      <c r="IU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17064,6 +17188,12 @@
       <c r="IT21" t="n">
         <v>0</v>
       </c>
+      <c r="IU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17832,6 +17962,12 @@
       <c r="IT22" t="n">
         <v>0</v>
       </c>
+      <c r="IU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18600,6 +18736,12 @@
       <c r="IT23" t="n">
         <v>0</v>
       </c>
+      <c r="IU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19368,6 +19510,12 @@
       <c r="IT24" t="n">
         <v>0</v>
       </c>
+      <c r="IU24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20136,6 +20284,12 @@
       <c r="IT25" t="n">
         <v>1057</v>
       </c>
+      <c r="IU25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20904,6 +21058,12 @@
       <c r="IT26" t="n">
         <v>825</v>
       </c>
+      <c r="IU26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21670,6 +21830,12 @@
         <v>0</v>
       </c>
       <c r="IT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IX27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1714,6 +1714,16 @@
           <t>CF天梯分_2022-05-17 08:29:21</t>
         </is>
       </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-18 08:23:25</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-18 08:23:25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2488,6 +2498,12 @@
       <c r="IV2" t="n">
         <v>1783</v>
       </c>
+      <c r="IW2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3262,6 +3278,12 @@
       <c r="IV3" t="n">
         <v>1014</v>
       </c>
+      <c r="IW3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4036,6 +4058,12 @@
       <c r="IV4" t="n">
         <v>1595</v>
       </c>
+      <c r="IW4" t="n">
+        <v>460</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4810,6 +4838,12 @@
       <c r="IV5" t="n">
         <v>0</v>
       </c>
+      <c r="IW5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5584,6 +5618,12 @@
       <c r="IV6" t="n">
         <v>1500</v>
       </c>
+      <c r="IW6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6358,6 +6398,12 @@
       <c r="IV7" t="n">
         <v>1407</v>
       </c>
+      <c r="IW7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7132,6 +7178,12 @@
       <c r="IV8" t="n">
         <v>365</v>
       </c>
+      <c r="IW8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7906,6 +7958,12 @@
       <c r="IV9" t="n">
         <v>981</v>
       </c>
+      <c r="IW9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8680,6 +8738,12 @@
       <c r="IV10" t="n">
         <v>362</v>
       </c>
+      <c r="IW10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9454,6 +9518,12 @@
       <c r="IV11" t="n">
         <v>883</v>
       </c>
+      <c r="IW11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10228,6 +10298,12 @@
       <c r="IV12" t="n">
         <v>1597</v>
       </c>
+      <c r="IW12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11002,6 +11078,12 @@
       <c r="IV13" t="n">
         <v>442</v>
       </c>
+      <c r="IW13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11776,6 +11858,12 @@
       <c r="IV14" t="n">
         <v>0</v>
       </c>
+      <c r="IW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12550,6 +12638,12 @@
       <c r="IV15" t="n">
         <v>1057</v>
       </c>
+      <c r="IW15" t="n">
+        <v>67</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13324,6 +13418,12 @@
       <c r="IV16" t="n">
         <v>0</v>
       </c>
+      <c r="IW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14098,6 +14198,12 @@
       <c r="IV17" t="n">
         <v>821</v>
       </c>
+      <c r="IW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14872,6 +14978,12 @@
       <c r="IV18" t="n">
         <v>972</v>
       </c>
+      <c r="IW18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IX18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15646,6 +15758,12 @@
       <c r="IV19" t="n">
         <v>349</v>
       </c>
+      <c r="IW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16420,6 +16538,12 @@
       <c r="IV20" t="n">
         <v>349</v>
       </c>
+      <c r="IW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17194,6 +17318,12 @@
       <c r="IV21" t="n">
         <v>0</v>
       </c>
+      <c r="IW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17968,6 +18098,12 @@
       <c r="IV22" t="n">
         <v>0</v>
       </c>
+      <c r="IW22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IX22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18742,6 +18878,12 @@
       <c r="IV23" t="n">
         <v>0</v>
       </c>
+      <c r="IW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19516,6 +19658,12 @@
       <c r="IV24" t="n">
         <v>0</v>
       </c>
+      <c r="IW24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20290,6 +20438,12 @@
       <c r="IV25" t="n">
         <v>1057</v>
       </c>
+      <c r="IW25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21064,6 +21218,12 @@
       <c r="IV26" t="n">
         <v>825</v>
       </c>
+      <c r="IW26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21836,6 +21996,12 @@
         <v>0</v>
       </c>
       <c r="IV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IX27"/>
+  <dimension ref="A1:IZ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1724,6 +1724,16 @@
           <t>CF天梯分_2022-05-18 08:23:25</t>
         </is>
       </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-19 08:24:36</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-19 08:24:36</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2504,6 +2514,12 @@
       <c r="IX2" t="n">
         <v>1783</v>
       </c>
+      <c r="IY2" t="n">
+        <v>756</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3284,6 +3300,12 @@
       <c r="IX3" t="n">
         <v>1014</v>
       </c>
+      <c r="IY3" t="n">
+        <v>90</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4064,6 +4086,12 @@
       <c r="IX4" t="n">
         <v>1595</v>
       </c>
+      <c r="IY4" t="n">
+        <v>460</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4844,6 +4872,12 @@
       <c r="IX5" t="n">
         <v>0</v>
       </c>
+      <c r="IY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5624,6 +5658,12 @@
       <c r="IX6" t="n">
         <v>1500</v>
       </c>
+      <c r="IY6" t="n">
+        <v>51</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6404,6 +6444,12 @@
       <c r="IX7" t="n">
         <v>1407</v>
       </c>
+      <c r="IY7" t="n">
+        <v>132</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7184,6 +7230,12 @@
       <c r="IX8" t="n">
         <v>365</v>
       </c>
+      <c r="IY8" t="n">
+        <v>37</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7964,6 +8016,12 @@
       <c r="IX9" t="n">
         <v>981</v>
       </c>
+      <c r="IY9" t="n">
+        <v>22</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8744,6 +8802,12 @@
       <c r="IX10" t="n">
         <v>362</v>
       </c>
+      <c r="IY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9524,6 +9588,12 @@
       <c r="IX11" t="n">
         <v>883</v>
       </c>
+      <c r="IY11" t="n">
+        <v>45</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10304,6 +10374,12 @@
       <c r="IX12" t="n">
         <v>1597</v>
       </c>
+      <c r="IY12" t="n">
+        <v>199</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11084,6 +11160,12 @@
       <c r="IX13" t="n">
         <v>442</v>
       </c>
+      <c r="IY13" t="n">
+        <v>30</v>
+      </c>
+      <c r="IZ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11864,6 +11946,12 @@
       <c r="IX14" t="n">
         <v>0</v>
       </c>
+      <c r="IY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12644,6 +12732,12 @@
       <c r="IX15" t="n">
         <v>1057</v>
       </c>
+      <c r="IY15" t="n">
+        <v>67</v>
+      </c>
+      <c r="IZ15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13424,6 +13518,12 @@
       <c r="IX16" t="n">
         <v>0</v>
       </c>
+      <c r="IY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14204,6 +14304,12 @@
       <c r="IX17" t="n">
         <v>821</v>
       </c>
+      <c r="IY17" t="n">
+        <v>13</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14984,6 +15090,12 @@
       <c r="IX18" t="n">
         <v>972</v>
       </c>
+      <c r="IY18" t="n">
+        <v>200</v>
+      </c>
+      <c r="IZ18" t="n">
+        <v>972</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15764,6 +15876,12 @@
       <c r="IX19" t="n">
         <v>349</v>
       </c>
+      <c r="IY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16544,6 +16662,12 @@
       <c r="IX20" t="n">
         <v>349</v>
       </c>
+      <c r="IY20" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17324,6 +17448,12 @@
       <c r="IX21" t="n">
         <v>0</v>
       </c>
+      <c r="IY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18104,6 +18234,12 @@
       <c r="IX22" t="n">
         <v>0</v>
       </c>
+      <c r="IY22" t="n">
+        <v>57</v>
+      </c>
+      <c r="IZ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18884,6 +19020,12 @@
       <c r="IX23" t="n">
         <v>0</v>
       </c>
+      <c r="IY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19664,6 +19806,12 @@
       <c r="IX24" t="n">
         <v>0</v>
       </c>
+      <c r="IY24" t="n">
+        <v>301</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20444,6 +20592,12 @@
       <c r="IX25" t="n">
         <v>1057</v>
       </c>
+      <c r="IY25" t="n">
+        <v>44</v>
+      </c>
+      <c r="IZ25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21224,6 +21378,12 @@
       <c r="IX26" t="n">
         <v>825</v>
       </c>
+      <c r="IY26" t="n">
+        <v>28</v>
+      </c>
+      <c r="IZ26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22002,6 +22162,12 @@
         <v>0</v>
       </c>
       <c r="IX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IZ27"/>
+  <dimension ref="A1:JB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,6 +1734,16 @@
           <t>CF天梯分_2022-05-19 08:24:36</t>
         </is>
       </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-20 08:24:02</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-20 08:24:02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2520,6 +2530,12 @@
       <c r="IZ2" t="n">
         <v>1783</v>
       </c>
+      <c r="JA2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3306,6 +3322,12 @@
       <c r="IZ3" t="n">
         <v>1014</v>
       </c>
+      <c r="JA3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4092,6 +4114,12 @@
       <c r="IZ4" t="n">
         <v>1595</v>
       </c>
+      <c r="JA4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4878,6 +4906,12 @@
       <c r="IZ5" t="n">
         <v>0</v>
       </c>
+      <c r="JA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5664,6 +5698,12 @@
       <c r="IZ6" t="n">
         <v>1500</v>
       </c>
+      <c r="JA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6450,6 +6490,12 @@
       <c r="IZ7" t="n">
         <v>1407</v>
       </c>
+      <c r="JA7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7236,6 +7282,12 @@
       <c r="IZ8" t="n">
         <v>365</v>
       </c>
+      <c r="JA8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JB8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8022,6 +8074,12 @@
       <c r="IZ9" t="n">
         <v>981</v>
       </c>
+      <c r="JA9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8808,6 +8866,12 @@
       <c r="IZ10" t="n">
         <v>362</v>
       </c>
+      <c r="JA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9594,6 +9658,12 @@
       <c r="IZ11" t="n">
         <v>883</v>
       </c>
+      <c r="JA11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10380,6 +10450,12 @@
       <c r="IZ12" t="n">
         <v>1597</v>
       </c>
+      <c r="JA12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JB12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11166,6 +11242,12 @@
       <c r="IZ13" t="n">
         <v>442</v>
       </c>
+      <c r="JA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JB13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11952,6 +12034,12 @@
       <c r="IZ14" t="n">
         <v>0</v>
       </c>
+      <c r="JA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12738,6 +12826,12 @@
       <c r="IZ15" t="n">
         <v>1057</v>
       </c>
+      <c r="JA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="JB15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13524,6 +13618,12 @@
       <c r="IZ16" t="n">
         <v>0</v>
       </c>
+      <c r="JA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14310,6 +14410,12 @@
       <c r="IZ17" t="n">
         <v>821</v>
       </c>
+      <c r="JA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JB17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15096,6 +15202,12 @@
       <c r="IZ18" t="n">
         <v>972</v>
       </c>
+      <c r="JA18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JB18" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15882,6 +15994,12 @@
       <c r="IZ19" t="n">
         <v>349</v>
       </c>
+      <c r="JA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JB19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16668,6 +16786,12 @@
       <c r="IZ20" t="n">
         <v>349</v>
       </c>
+      <c r="JA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JB20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17454,6 +17578,12 @@
       <c r="IZ21" t="n">
         <v>0</v>
       </c>
+      <c r="JA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18240,6 +18370,12 @@
       <c r="IZ22" t="n">
         <v>0</v>
       </c>
+      <c r="JA22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JB22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19026,6 +19162,12 @@
       <c r="IZ23" t="n">
         <v>0</v>
       </c>
+      <c r="JA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19812,6 +19954,12 @@
       <c r="IZ24" t="n">
         <v>0</v>
       </c>
+      <c r="JA24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JB24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20598,6 +20746,12 @@
       <c r="IZ25" t="n">
         <v>1057</v>
       </c>
+      <c r="JA25" t="n">
+        <v>44</v>
+      </c>
+      <c r="JB25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21384,6 +21538,12 @@
       <c r="IZ26" t="n">
         <v>825</v>
       </c>
+      <c r="JA26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JB26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22168,6 +22328,12 @@
         <v>0</v>
       </c>
       <c r="IZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JB27"/>
+  <dimension ref="A1:JD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1744,6 +1744,16 @@
           <t>CF天梯分_2022-05-20 08:24:02</t>
         </is>
       </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-21 08:23:09</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-21 08:23:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2536,6 +2546,12 @@
       <c r="JB2" t="n">
         <v>1783</v>
       </c>
+      <c r="JC2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3328,6 +3344,12 @@
       <c r="JB3" t="n">
         <v>1014</v>
       </c>
+      <c r="JC3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4120,6 +4142,12 @@
       <c r="JB4" t="n">
         <v>1595</v>
       </c>
+      <c r="JC4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4912,6 +4940,12 @@
       <c r="JB5" t="n">
         <v>0</v>
       </c>
+      <c r="JC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5704,6 +5738,12 @@
       <c r="JB6" t="n">
         <v>1500</v>
       </c>
+      <c r="JC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6496,6 +6536,12 @@
       <c r="JB7" t="n">
         <v>1407</v>
       </c>
+      <c r="JC7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7288,6 +7334,12 @@
       <c r="JB8" t="n">
         <v>365</v>
       </c>
+      <c r="JC8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8080,6 +8132,12 @@
       <c r="JB9" t="n">
         <v>981</v>
       </c>
+      <c r="JC9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8872,6 +8930,12 @@
       <c r="JB10" t="n">
         <v>362</v>
       </c>
+      <c r="JC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9664,6 +9728,12 @@
       <c r="JB11" t="n">
         <v>883</v>
       </c>
+      <c r="JC11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10456,6 +10526,12 @@
       <c r="JB12" t="n">
         <v>1597</v>
       </c>
+      <c r="JC12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JD12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11248,6 +11324,12 @@
       <c r="JB13" t="n">
         <v>442</v>
       </c>
+      <c r="JC13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JD13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12040,6 +12122,12 @@
       <c r="JB14" t="n">
         <v>0</v>
       </c>
+      <c r="JC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12832,6 +12920,12 @@
       <c r="JB15" t="n">
         <v>1057</v>
       </c>
+      <c r="JC15" t="n">
+        <v>67</v>
+      </c>
+      <c r="JD15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13624,6 +13718,12 @@
       <c r="JB16" t="n">
         <v>0</v>
       </c>
+      <c r="JC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14416,6 +14516,12 @@
       <c r="JB17" t="n">
         <v>821</v>
       </c>
+      <c r="JC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JD17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15208,6 +15314,12 @@
       <c r="JB18" t="n">
         <v>926</v>
       </c>
+      <c r="JC18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JD18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16000,6 +16112,12 @@
       <c r="JB19" t="n">
         <v>349</v>
       </c>
+      <c r="JC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JD19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16792,6 +16910,12 @@
       <c r="JB20" t="n">
         <v>349</v>
       </c>
+      <c r="JC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JD20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17584,6 +17708,12 @@
       <c r="JB21" t="n">
         <v>0</v>
       </c>
+      <c r="JC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18376,6 +18506,12 @@
       <c r="JB22" t="n">
         <v>0</v>
       </c>
+      <c r="JC22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JD22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19168,6 +19304,12 @@
       <c r="JB23" t="n">
         <v>0</v>
       </c>
+      <c r="JC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19960,6 +20102,12 @@
       <c r="JB24" t="n">
         <v>0</v>
       </c>
+      <c r="JC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JD24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20752,6 +20900,12 @@
       <c r="JB25" t="n">
         <v>1057</v>
       </c>
+      <c r="JC25" t="n">
+        <v>44</v>
+      </c>
+      <c r="JD25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21544,6 +21698,12 @@
       <c r="JB26" t="n">
         <v>825</v>
       </c>
+      <c r="JC26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JD26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22334,6 +22494,12 @@
         <v>0</v>
       </c>
       <c r="JB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JD27"/>
+  <dimension ref="A1:JF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,6 +1754,16 @@
           <t>CF天梯分_2022-05-21 08:23:09</t>
         </is>
       </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-22 08:22:19</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-22 08:22:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2552,6 +2562,12 @@
       <c r="JD2" t="n">
         <v>1783</v>
       </c>
+      <c r="JE2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3350,6 +3366,12 @@
       <c r="JD3" t="n">
         <v>1014</v>
       </c>
+      <c r="JE3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4148,6 +4170,12 @@
       <c r="JD4" t="n">
         <v>1595</v>
       </c>
+      <c r="JE4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4946,6 +4974,12 @@
       <c r="JD5" t="n">
         <v>0</v>
       </c>
+      <c r="JE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5744,6 +5778,12 @@
       <c r="JD6" t="n">
         <v>1500</v>
       </c>
+      <c r="JE6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6542,6 +6582,12 @@
       <c r="JD7" t="n">
         <v>1407</v>
       </c>
+      <c r="JE7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7340,6 +7386,12 @@
       <c r="JD8" t="n">
         <v>365</v>
       </c>
+      <c r="JE8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8138,6 +8190,12 @@
       <c r="JD9" t="n">
         <v>981</v>
       </c>
+      <c r="JE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8936,6 +8994,12 @@
       <c r="JD10" t="n">
         <v>362</v>
       </c>
+      <c r="JE10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9734,6 +9798,12 @@
       <c r="JD11" t="n">
         <v>883</v>
       </c>
+      <c r="JE11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10532,6 +10602,12 @@
       <c r="JD12" t="n">
         <v>1597</v>
       </c>
+      <c r="JE12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JF12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11330,6 +11406,12 @@
       <c r="JD13" t="n">
         <v>442</v>
       </c>
+      <c r="JE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JF13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12128,6 +12210,12 @@
       <c r="JD14" t="n">
         <v>0</v>
       </c>
+      <c r="JE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12926,6 +13014,12 @@
       <c r="JD15" t="n">
         <v>1057</v>
       </c>
+      <c r="JE15" t="n">
+        <v>67</v>
+      </c>
+      <c r="JF15" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13724,6 +13818,12 @@
       <c r="JD16" t="n">
         <v>0</v>
       </c>
+      <c r="JE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14522,6 +14622,12 @@
       <c r="JD17" t="n">
         <v>821</v>
       </c>
+      <c r="JE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JF17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15320,6 +15426,12 @@
       <c r="JD18" t="n">
         <v>928</v>
       </c>
+      <c r="JE18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JF18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16118,6 +16230,12 @@
       <c r="JD19" t="n">
         <v>349</v>
       </c>
+      <c r="JE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JF19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16916,6 +17034,12 @@
       <c r="JD20" t="n">
         <v>349</v>
       </c>
+      <c r="JE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17714,6 +17838,12 @@
       <c r="JD21" t="n">
         <v>0</v>
       </c>
+      <c r="JE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18512,6 +18642,12 @@
       <c r="JD22" t="n">
         <v>0</v>
       </c>
+      <c r="JE22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19310,6 +19446,12 @@
       <c r="JD23" t="n">
         <v>0</v>
       </c>
+      <c r="JE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20108,6 +20250,12 @@
       <c r="JD24" t="n">
         <v>0</v>
       </c>
+      <c r="JE24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20906,6 +21054,12 @@
       <c r="JD25" t="n">
         <v>1057</v>
       </c>
+      <c r="JE25" t="n">
+        <v>44</v>
+      </c>
+      <c r="JF25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21704,6 +21858,12 @@
       <c r="JD26" t="n">
         <v>825</v>
       </c>
+      <c r="JE26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JF26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22500,6 +22660,12 @@
         <v>0</v>
       </c>
       <c r="JD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JF27"/>
+  <dimension ref="A1:JH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,6 +1764,16 @@
           <t>CF天梯分_2022-05-22 08:22:19</t>
         </is>
       </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-23 08:24:09</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-23 08:24:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2568,6 +2578,12 @@
       <c r="JF2" t="n">
         <v>1783</v>
       </c>
+      <c r="JG2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3372,6 +3388,12 @@
       <c r="JF3" t="n">
         <v>1014</v>
       </c>
+      <c r="JG3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4176,6 +4198,12 @@
       <c r="JF4" t="n">
         <v>1595</v>
       </c>
+      <c r="JG4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4980,6 +5008,12 @@
       <c r="JF5" t="n">
         <v>0</v>
       </c>
+      <c r="JG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5784,6 +5818,12 @@
       <c r="JF6" t="n">
         <v>1500</v>
       </c>
+      <c r="JG6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6588,6 +6628,12 @@
       <c r="JF7" t="n">
         <v>1407</v>
       </c>
+      <c r="JG7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7392,6 +7438,12 @@
       <c r="JF8" t="n">
         <v>365</v>
       </c>
+      <c r="JG8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8196,6 +8248,12 @@
       <c r="JF9" t="n">
         <v>981</v>
       </c>
+      <c r="JG9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9000,6 +9058,12 @@
       <c r="JF10" t="n">
         <v>362</v>
       </c>
+      <c r="JG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9804,6 +9868,12 @@
       <c r="JF11" t="n">
         <v>883</v>
       </c>
+      <c r="JG11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10608,6 +10678,12 @@
       <c r="JF12" t="n">
         <v>1597</v>
       </c>
+      <c r="JG12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11412,6 +11488,12 @@
       <c r="JF13" t="n">
         <v>442</v>
       </c>
+      <c r="JG13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12216,6 +12298,12 @@
       <c r="JF14" t="n">
         <v>0</v>
       </c>
+      <c r="JG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13020,6 +13108,12 @@
       <c r="JF15" t="n">
         <v>1057</v>
       </c>
+      <c r="JG15" t="n">
+        <v>70</v>
+      </c>
+      <c r="JH15" t="n">
+        <v>1029</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13824,6 +13918,12 @@
       <c r="JF16" t="n">
         <v>0</v>
       </c>
+      <c r="JG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14628,6 +14728,12 @@
       <c r="JF17" t="n">
         <v>821</v>
       </c>
+      <c r="JG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15432,6 +15538,12 @@
       <c r="JF18" t="n">
         <v>928</v>
       </c>
+      <c r="JG18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JH18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16236,6 +16348,12 @@
       <c r="JF19" t="n">
         <v>349</v>
       </c>
+      <c r="JG19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17040,6 +17158,12 @@
       <c r="JF20" t="n">
         <v>349</v>
       </c>
+      <c r="JG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17844,6 +17968,12 @@
       <c r="JF21" t="n">
         <v>0</v>
       </c>
+      <c r="JG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18648,6 +18778,12 @@
       <c r="JF22" t="n">
         <v>0</v>
       </c>
+      <c r="JG22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19452,6 +19588,12 @@
       <c r="JF23" t="n">
         <v>0</v>
       </c>
+      <c r="JG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20256,6 +20398,12 @@
       <c r="JF24" t="n">
         <v>0</v>
       </c>
+      <c r="JG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21060,6 +21208,12 @@
       <c r="JF25" t="n">
         <v>1057</v>
       </c>
+      <c r="JG25" t="n">
+        <v>44</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21864,6 +22018,12 @@
       <c r="JF26" t="n">
         <v>825</v>
       </c>
+      <c r="JG26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22666,6 +22826,12 @@
         <v>0</v>
       </c>
       <c r="JF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JH27"/>
+  <dimension ref="A1:JJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1774,6 +1774,16 @@
           <t>CF天梯分_2022-05-23 08:24:09</t>
         </is>
       </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-24 08:24:19</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-24 08:24:19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2584,6 +2594,12 @@
       <c r="JH2" t="n">
         <v>1783</v>
       </c>
+      <c r="JI2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3394,6 +3410,12 @@
       <c r="JH3" t="n">
         <v>1014</v>
       </c>
+      <c r="JI3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4204,6 +4226,12 @@
       <c r="JH4" t="n">
         <v>1595</v>
       </c>
+      <c r="JI4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5014,6 +5042,12 @@
       <c r="JH5" t="n">
         <v>0</v>
       </c>
+      <c r="JI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5824,6 +5858,12 @@
       <c r="JH6" t="n">
         <v>1500</v>
       </c>
+      <c r="JI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6634,6 +6674,12 @@
       <c r="JH7" t="n">
         <v>1407</v>
       </c>
+      <c r="JI7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7444,6 +7490,12 @@
       <c r="JH8" t="n">
         <v>365</v>
       </c>
+      <c r="JI8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8254,6 +8306,12 @@
       <c r="JH9" t="n">
         <v>981</v>
       </c>
+      <c r="JI9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9064,6 +9122,12 @@
       <c r="JH10" t="n">
         <v>362</v>
       </c>
+      <c r="JI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9874,6 +9938,12 @@
       <c r="JH11" t="n">
         <v>883</v>
       </c>
+      <c r="JI11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10684,6 +10754,12 @@
       <c r="JH12" t="n">
         <v>1597</v>
       </c>
+      <c r="JI12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11494,6 +11570,12 @@
       <c r="JH13" t="n">
         <v>442</v>
       </c>
+      <c r="JI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12304,6 +12386,12 @@
       <c r="JH14" t="n">
         <v>0</v>
       </c>
+      <c r="JI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13114,6 +13202,12 @@
       <c r="JH15" t="n">
         <v>1029</v>
       </c>
+      <c r="JI15" t="n">
+        <v>74</v>
+      </c>
+      <c r="JJ15" t="n">
+        <v>1029</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13924,6 +14018,12 @@
       <c r="JH16" t="n">
         <v>0</v>
       </c>
+      <c r="JI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14734,6 +14834,12 @@
       <c r="JH17" t="n">
         <v>821</v>
       </c>
+      <c r="JI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15544,6 +15650,12 @@
       <c r="JH18" t="n">
         <v>928</v>
       </c>
+      <c r="JI18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JJ18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16354,6 +16466,12 @@
       <c r="JH19" t="n">
         <v>349</v>
       </c>
+      <c r="JI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17164,6 +17282,12 @@
       <c r="JH20" t="n">
         <v>349</v>
       </c>
+      <c r="JI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17974,6 +18098,12 @@
       <c r="JH21" t="n">
         <v>0</v>
       </c>
+      <c r="JI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18784,6 +18914,12 @@
       <c r="JH22" t="n">
         <v>0</v>
       </c>
+      <c r="JI22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19594,6 +19730,12 @@
       <c r="JH23" t="n">
         <v>0</v>
       </c>
+      <c r="JI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20404,6 +20546,12 @@
       <c r="JH24" t="n">
         <v>0</v>
       </c>
+      <c r="JI24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21214,6 +21362,12 @@
       <c r="JH25" t="n">
         <v>1057</v>
       </c>
+      <c r="JI25" t="n">
+        <v>45</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22024,6 +22178,12 @@
       <c r="JH26" t="n">
         <v>825</v>
       </c>
+      <c r="JI26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22832,6 +22992,12 @@
         <v>0</v>
       </c>
       <c r="JH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JJ27"/>
+  <dimension ref="A1:JL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,6 +1784,16 @@
           <t>CF天梯分_2022-05-24 08:24:19</t>
         </is>
       </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-25 08:24:13</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-25 08:24:13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2600,6 +2610,12 @@
       <c r="JJ2" t="n">
         <v>1783</v>
       </c>
+      <c r="JK2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3416,6 +3432,12 @@
       <c r="JJ3" t="n">
         <v>1014</v>
       </c>
+      <c r="JK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4232,6 +4254,12 @@
       <c r="JJ4" t="n">
         <v>1595</v>
       </c>
+      <c r="JK4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5048,6 +5076,12 @@
       <c r="JJ5" t="n">
         <v>0</v>
       </c>
+      <c r="JK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5864,6 +5898,12 @@
       <c r="JJ6" t="n">
         <v>1500</v>
       </c>
+      <c r="JK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6680,6 +6720,12 @@
       <c r="JJ7" t="n">
         <v>1407</v>
       </c>
+      <c r="JK7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7496,6 +7542,12 @@
       <c r="JJ8" t="n">
         <v>365</v>
       </c>
+      <c r="JK8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8312,6 +8364,12 @@
       <c r="JJ9" t="n">
         <v>981</v>
       </c>
+      <c r="JK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9128,6 +9186,12 @@
       <c r="JJ10" t="n">
         <v>362</v>
       </c>
+      <c r="JK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9944,6 +10008,12 @@
       <c r="JJ11" t="n">
         <v>883</v>
       </c>
+      <c r="JK11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10760,6 +10830,12 @@
       <c r="JJ12" t="n">
         <v>1597</v>
       </c>
+      <c r="JK12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11576,6 +11652,12 @@
       <c r="JJ13" t="n">
         <v>442</v>
       </c>
+      <c r="JK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12392,6 +12474,12 @@
       <c r="JJ14" t="n">
         <v>0</v>
       </c>
+      <c r="JK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13208,6 +13296,12 @@
       <c r="JJ15" t="n">
         <v>1029</v>
       </c>
+      <c r="JK15" t="n">
+        <v>74</v>
+      </c>
+      <c r="JL15" t="n">
+        <v>1258</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14024,6 +14118,12 @@
       <c r="JJ16" t="n">
         <v>0</v>
       </c>
+      <c r="JK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14840,6 +14940,12 @@
       <c r="JJ17" t="n">
         <v>821</v>
       </c>
+      <c r="JK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15656,6 +15762,12 @@
       <c r="JJ18" t="n">
         <v>928</v>
       </c>
+      <c r="JK18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JL18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16472,6 +16584,12 @@
       <c r="JJ19" t="n">
         <v>349</v>
       </c>
+      <c r="JK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17288,6 +17406,12 @@
       <c r="JJ20" t="n">
         <v>349</v>
       </c>
+      <c r="JK20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18104,6 +18228,12 @@
       <c r="JJ21" t="n">
         <v>0</v>
       </c>
+      <c r="JK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18920,6 +19050,12 @@
       <c r="JJ22" t="n">
         <v>0</v>
       </c>
+      <c r="JK22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JL22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19736,6 +19872,12 @@
       <c r="JJ23" t="n">
         <v>0</v>
       </c>
+      <c r="JK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20552,6 +20694,12 @@
       <c r="JJ24" t="n">
         <v>0</v>
       </c>
+      <c r="JK24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21368,6 +21516,12 @@
       <c r="JJ25" t="n">
         <v>1057</v>
       </c>
+      <c r="JK25" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22184,6 +22338,12 @@
       <c r="JJ26" t="n">
         <v>825</v>
       </c>
+      <c r="JK26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22998,6 +23158,12 @@
         <v>0</v>
       </c>
       <c r="JJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JL27"/>
+  <dimension ref="A1:JN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,6 +1794,16 @@
           <t>CF天梯分_2022-05-25 08:24:13</t>
         </is>
       </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-26 08:25:17</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-26 08:25:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2616,6 +2626,12 @@
       <c r="JL2" t="n">
         <v>1783</v>
       </c>
+      <c r="JM2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3438,6 +3454,12 @@
       <c r="JL3" t="n">
         <v>1014</v>
       </c>
+      <c r="JM3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4260,6 +4282,12 @@
       <c r="JL4" t="n">
         <v>1595</v>
       </c>
+      <c r="JM4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5082,6 +5110,12 @@
       <c r="JL5" t="n">
         <v>0</v>
       </c>
+      <c r="JM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5904,6 +5938,12 @@
       <c r="JL6" t="n">
         <v>1500</v>
       </c>
+      <c r="JM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6726,6 +6766,12 @@
       <c r="JL7" t="n">
         <v>1407</v>
       </c>
+      <c r="JM7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7548,6 +7594,12 @@
       <c r="JL8" t="n">
         <v>365</v>
       </c>
+      <c r="JM8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8370,6 +8422,12 @@
       <c r="JL9" t="n">
         <v>981</v>
       </c>
+      <c r="JM9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9192,6 +9250,12 @@
       <c r="JL10" t="n">
         <v>362</v>
       </c>
+      <c r="JM10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10014,6 +10078,12 @@
       <c r="JL11" t="n">
         <v>883</v>
       </c>
+      <c r="JM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10836,6 +10906,12 @@
       <c r="JL12" t="n">
         <v>1597</v>
       </c>
+      <c r="JM12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11658,6 +11734,12 @@
       <c r="JL13" t="n">
         <v>442</v>
       </c>
+      <c r="JM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12480,6 +12562,12 @@
       <c r="JL14" t="n">
         <v>0</v>
       </c>
+      <c r="JM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13302,6 +13390,12 @@
       <c r="JL15" t="n">
         <v>1258</v>
       </c>
+      <c r="JM15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>1306</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14124,6 +14218,12 @@
       <c r="JL16" t="n">
         <v>0</v>
       </c>
+      <c r="JM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14946,6 +15046,12 @@
       <c r="JL17" t="n">
         <v>821</v>
       </c>
+      <c r="JM17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15768,6 +15874,12 @@
       <c r="JL18" t="n">
         <v>928</v>
       </c>
+      <c r="JM18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16590,6 +16702,12 @@
       <c r="JL19" t="n">
         <v>349</v>
       </c>
+      <c r="JM19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17412,6 +17530,12 @@
       <c r="JL20" t="n">
         <v>349</v>
       </c>
+      <c r="JM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18234,6 +18358,12 @@
       <c r="JL21" t="n">
         <v>0</v>
       </c>
+      <c r="JM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19056,6 +19186,12 @@
       <c r="JL22" t="n">
         <v>0</v>
       </c>
+      <c r="JM22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JN22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19878,6 +20014,12 @@
       <c r="JL23" t="n">
         <v>0</v>
       </c>
+      <c r="JM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20700,6 +20842,12 @@
       <c r="JL24" t="n">
         <v>0</v>
       </c>
+      <c r="JM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21522,6 +21670,12 @@
       <c r="JL25" t="n">
         <v>1057</v>
       </c>
+      <c r="JM25" t="n">
+        <v>48</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22344,6 +22498,12 @@
       <c r="JL26" t="n">
         <v>825</v>
       </c>
+      <c r="JM26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23164,6 +23324,12 @@
         <v>0</v>
       </c>
       <c r="JL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JN27"/>
+  <dimension ref="A1:JP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1804,6 +1804,16 @@
           <t>CF天梯分_2022-05-26 08:25:17</t>
         </is>
       </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-28 08:24:17</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-28 08:24:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2632,6 +2642,12 @@
       <c r="JN2" t="n">
         <v>1783</v>
       </c>
+      <c r="JO2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3460,6 +3476,12 @@
       <c r="JN3" t="n">
         <v>1014</v>
       </c>
+      <c r="JO3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4288,6 +4310,12 @@
       <c r="JN4" t="n">
         <v>1595</v>
       </c>
+      <c r="JO4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5116,6 +5144,12 @@
       <c r="JN5" t="n">
         <v>0</v>
       </c>
+      <c r="JO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5944,6 +5978,12 @@
       <c r="JN6" t="n">
         <v>1500</v>
       </c>
+      <c r="JO6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6772,6 +6812,12 @@
       <c r="JN7" t="n">
         <v>1407</v>
       </c>
+      <c r="JO7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7600,6 +7646,12 @@
       <c r="JN8" t="n">
         <v>365</v>
       </c>
+      <c r="JO8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8428,6 +8480,12 @@
       <c r="JN9" t="n">
         <v>981</v>
       </c>
+      <c r="JO9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9256,6 +9314,12 @@
       <c r="JN10" t="n">
         <v>362</v>
       </c>
+      <c r="JO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10084,6 +10148,12 @@
       <c r="JN11" t="n">
         <v>883</v>
       </c>
+      <c r="JO11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10912,6 +10982,12 @@
       <c r="JN12" t="n">
         <v>1597</v>
       </c>
+      <c r="JO12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11740,6 +11816,12 @@
       <c r="JN13" t="n">
         <v>442</v>
       </c>
+      <c r="JO13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12568,6 +12650,12 @@
       <c r="JN14" t="n">
         <v>0</v>
       </c>
+      <c r="JO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13396,6 +13484,12 @@
       <c r="JN15" t="n">
         <v>1306</v>
       </c>
+      <c r="JO15" t="n">
+        <v>77</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14224,6 +14318,12 @@
       <c r="JN16" t="n">
         <v>0</v>
       </c>
+      <c r="JO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15052,6 +15152,12 @@
       <c r="JN17" t="n">
         <v>821</v>
       </c>
+      <c r="JO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15880,6 +15986,12 @@
       <c r="JN18" t="n">
         <v>928</v>
       </c>
+      <c r="JO18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16708,6 +16820,12 @@
       <c r="JN19" t="n">
         <v>349</v>
       </c>
+      <c r="JO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17536,6 +17654,12 @@
       <c r="JN20" t="n">
         <v>349</v>
       </c>
+      <c r="JO20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18364,6 +18488,12 @@
       <c r="JN21" t="n">
         <v>0</v>
       </c>
+      <c r="JO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19192,6 +19322,12 @@
       <c r="JN22" t="n">
         <v>0</v>
       </c>
+      <c r="JO22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20020,6 +20156,12 @@
       <c r="JN23" t="n">
         <v>0</v>
       </c>
+      <c r="JO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20848,6 +20990,12 @@
       <c r="JN24" t="n">
         <v>0</v>
       </c>
+      <c r="JO24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21676,6 +21824,12 @@
       <c r="JN25" t="n">
         <v>1057</v>
       </c>
+      <c r="JO25" t="n">
+        <v>48</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22504,6 +22658,12 @@
       <c r="JN26" t="n">
         <v>825</v>
       </c>
+      <c r="JO26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23330,6 +23490,12 @@
         <v>0</v>
       </c>
       <c r="JN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JP27"/>
+  <dimension ref="A1:JR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1814,6 +1814,16 @@
           <t>CF天梯分_2022-05-28 08:24:17</t>
         </is>
       </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-29 08:23:13</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-29 08:23:13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2648,6 +2658,12 @@
       <c r="JP2" t="n">
         <v>1783</v>
       </c>
+      <c r="JQ2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3482,6 +3498,12 @@
       <c r="JP3" t="n">
         <v>1014</v>
       </c>
+      <c r="JQ3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4316,6 +4338,12 @@
       <c r="JP4" t="n">
         <v>1595</v>
       </c>
+      <c r="JQ4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5150,6 +5178,12 @@
       <c r="JP5" t="n">
         <v>0</v>
       </c>
+      <c r="JQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5984,6 +6018,12 @@
       <c r="JP6" t="n">
         <v>1500</v>
       </c>
+      <c r="JQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6818,6 +6858,12 @@
       <c r="JP7" t="n">
         <v>1407</v>
       </c>
+      <c r="JQ7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7652,6 +7698,12 @@
       <c r="JP8" t="n">
         <v>365</v>
       </c>
+      <c r="JQ8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8486,6 +8538,12 @@
       <c r="JP9" t="n">
         <v>981</v>
       </c>
+      <c r="JQ9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9320,6 +9378,12 @@
       <c r="JP10" t="n">
         <v>362</v>
       </c>
+      <c r="JQ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10154,6 +10218,12 @@
       <c r="JP11" t="n">
         <v>883</v>
       </c>
+      <c r="JQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10988,6 +11058,12 @@
       <c r="JP12" t="n">
         <v>1597</v>
       </c>
+      <c r="JQ12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11822,6 +11898,12 @@
       <c r="JP13" t="n">
         <v>442</v>
       </c>
+      <c r="JQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12656,6 +12738,12 @@
       <c r="JP14" t="n">
         <v>0</v>
       </c>
+      <c r="JQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13490,6 +13578,12 @@
       <c r="JP15" t="n">
         <v>1305</v>
       </c>
+      <c r="JQ15" t="n">
+        <v>77</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14324,6 +14418,12 @@
       <c r="JP16" t="n">
         <v>0</v>
       </c>
+      <c r="JQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15158,6 +15258,12 @@
       <c r="JP17" t="n">
         <v>821</v>
       </c>
+      <c r="JQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15992,6 +16098,12 @@
       <c r="JP18" t="n">
         <v>928</v>
       </c>
+      <c r="JQ18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16826,6 +16938,12 @@
       <c r="JP19" t="n">
         <v>349</v>
       </c>
+      <c r="JQ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17660,6 +17778,12 @@
       <c r="JP20" t="n">
         <v>349</v>
       </c>
+      <c r="JQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18494,6 +18618,12 @@
       <c r="JP21" t="n">
         <v>0</v>
       </c>
+      <c r="JQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19328,6 +19458,12 @@
       <c r="JP22" t="n">
         <v>0</v>
       </c>
+      <c r="JQ22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20162,6 +20298,12 @@
       <c r="JP23" t="n">
         <v>0</v>
       </c>
+      <c r="JQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20996,6 +21138,12 @@
       <c r="JP24" t="n">
         <v>0</v>
       </c>
+      <c r="JQ24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21830,6 +21978,12 @@
       <c r="JP25" t="n">
         <v>1057</v>
       </c>
+      <c r="JQ25" t="n">
+        <v>48</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22664,6 +22818,12 @@
       <c r="JP26" t="n">
         <v>825</v>
       </c>
+      <c r="JQ26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23496,6 +23656,12 @@
         <v>0</v>
       </c>
       <c r="JP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JR27"/>
+  <dimension ref="A1:JT27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,6 +1824,16 @@
           <t>CF天梯分_2022-05-29 08:23:13</t>
         </is>
       </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-30 08:25:49</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-30 08:25:49</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2664,6 +2674,12 @@
       <c r="JR2" t="n">
         <v>1783</v>
       </c>
+      <c r="JS2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3504,6 +3520,12 @@
       <c r="JR3" t="n">
         <v>1014</v>
       </c>
+      <c r="JS3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4344,6 +4366,12 @@
       <c r="JR4" t="n">
         <v>1595</v>
       </c>
+      <c r="JS4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5184,6 +5212,12 @@
       <c r="JR5" t="n">
         <v>0</v>
       </c>
+      <c r="JS5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6024,6 +6058,12 @@
       <c r="JR6" t="n">
         <v>1500</v>
       </c>
+      <c r="JS6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6864,6 +6904,12 @@
       <c r="JR7" t="n">
         <v>1407</v>
       </c>
+      <c r="JS7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7704,6 +7750,12 @@
       <c r="JR8" t="n">
         <v>365</v>
       </c>
+      <c r="JS8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8544,6 +8596,12 @@
       <c r="JR9" t="n">
         <v>981</v>
       </c>
+      <c r="JS9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9384,6 +9442,12 @@
       <c r="JR10" t="n">
         <v>362</v>
       </c>
+      <c r="JS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10224,6 +10288,12 @@
       <c r="JR11" t="n">
         <v>883</v>
       </c>
+      <c r="JS11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11064,6 +11134,12 @@
       <c r="JR12" t="n">
         <v>1597</v>
       </c>
+      <c r="JS12" t="n">
+        <v>199</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11904,6 +11980,12 @@
       <c r="JR13" t="n">
         <v>442</v>
       </c>
+      <c r="JS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12744,6 +12826,12 @@
       <c r="JR14" t="n">
         <v>0</v>
       </c>
+      <c r="JS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13584,6 +13672,12 @@
       <c r="JR15" t="n">
         <v>1305</v>
       </c>
+      <c r="JS15" t="n">
+        <v>77</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14424,6 +14518,12 @@
       <c r="JR16" t="n">
         <v>0</v>
       </c>
+      <c r="JS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15264,6 +15364,12 @@
       <c r="JR17" t="n">
         <v>821</v>
       </c>
+      <c r="JS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -16104,6 +16210,12 @@
       <c r="JR18" t="n">
         <v>928</v>
       </c>
+      <c r="JS18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JT18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16944,6 +17056,12 @@
       <c r="JR19" t="n">
         <v>349</v>
       </c>
+      <c r="JS19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17784,6 +17902,12 @@
       <c r="JR20" t="n">
         <v>349</v>
       </c>
+      <c r="JS20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18624,6 +18748,12 @@
       <c r="JR21" t="n">
         <v>0</v>
       </c>
+      <c r="JS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19464,6 +19594,12 @@
       <c r="JR22" t="n">
         <v>0</v>
       </c>
+      <c r="JS22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20304,6 +20440,12 @@
       <c r="JR23" t="n">
         <v>0</v>
       </c>
+      <c r="JS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21144,6 +21286,12 @@
       <c r="JR24" t="n">
         <v>0</v>
       </c>
+      <c r="JS24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21984,6 +22132,12 @@
       <c r="JR25" t="n">
         <v>1057</v>
       </c>
+      <c r="JS25" t="n">
+        <v>48</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22824,6 +22978,12 @@
       <c r="JR26" t="n">
         <v>825</v>
       </c>
+      <c r="JS26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23662,6 +23822,12 @@
         <v>0</v>
       </c>
       <c r="JR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JT27"/>
+  <dimension ref="A1:JV27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1834,6 +1834,16 @@
           <t>CF天梯分_2022-05-30 08:25:49</t>
         </is>
       </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>CF做题数_2022-05-31 08:27:27</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>CF天梯分_2022-05-31 08:27:27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2680,6 +2690,12 @@
       <c r="JT2" t="n">
         <v>1783</v>
       </c>
+      <c r="JU2" t="n">
+        <v>756</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>1783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3526,6 +3542,12 @@
       <c r="JT3" t="n">
         <v>1014</v>
       </c>
+      <c r="JU3" t="n">
+        <v>90</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>1014</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4372,6 +4394,12 @@
       <c r="JT4" t="n">
         <v>1595</v>
       </c>
+      <c r="JU4" t="n">
+        <v>460</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5218,6 +5246,12 @@
       <c r="JT5" t="n">
         <v>0</v>
       </c>
+      <c r="JU5" t="n">
+        <v>17</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6064,6 +6098,12 @@
       <c r="JT6" t="n">
         <v>1500</v>
       </c>
+      <c r="JU6" t="n">
+        <v>51</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6910,6 +6950,12 @@
       <c r="JT7" t="n">
         <v>1407</v>
       </c>
+      <c r="JU7" t="n">
+        <v>132</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7756,6 +7802,12 @@
       <c r="JT8" t="n">
         <v>365</v>
       </c>
+      <c r="JU8" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8602,6 +8654,12 @@
       <c r="JT9" t="n">
         <v>981</v>
       </c>
+      <c r="JU9" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9448,6 +9506,12 @@
       <c r="JT10" t="n">
         <v>362</v>
       </c>
+      <c r="JU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10294,6 +10358,12 @@
       <c r="JT11" t="n">
         <v>883</v>
       </c>
+      <c r="JU11" t="n">
+        <v>45</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11140,6 +11210,12 @@
       <c r="JT12" t="n">
         <v>1597</v>
       </c>
+      <c r="JU12" t="n">
+        <v>202</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11986,6 +12062,12 @@
       <c r="JT13" t="n">
         <v>442</v>
       </c>
+      <c r="JU13" t="n">
+        <v>30</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12832,6 +12914,12 @@
       <c r="JT14" t="n">
         <v>0</v>
       </c>
+      <c r="JU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13678,6 +13766,12 @@
       <c r="JT15" t="n">
         <v>1305</v>
       </c>
+      <c r="JU15" t="n">
+        <v>77</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14524,6 +14618,12 @@
       <c r="JT16" t="n">
         <v>0</v>
       </c>
+      <c r="JU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15370,6 +15470,12 @@
       <c r="JT17" t="n">
         <v>821</v>
       </c>
+      <c r="JU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -16216,6 +16322,12 @@
       <c r="JT18" t="n">
         <v>928</v>
       </c>
+      <c r="JU18" t="n">
+        <v>202</v>
+      </c>
+      <c r="JV18" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17062,6 +17174,12 @@
       <c r="JT19" t="n">
         <v>349</v>
       </c>
+      <c r="JU19" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV19" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17908,6 +18026,12 @@
       <c r="JT20" t="n">
         <v>349</v>
       </c>
+      <c r="JU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18754,6 +18878,12 @@
       <c r="JT21" t="n">
         <v>0</v>
       </c>
+      <c r="JU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19600,6 +19730,12 @@
       <c r="JT22" t="n">
         <v>0</v>
       </c>
+      <c r="JU22" t="n">
+        <v>57</v>
+      </c>
+      <c r="JV22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20446,6 +20582,12 @@
       <c r="JT23" t="n">
         <v>0</v>
       </c>
+      <c r="JU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21292,6 +21434,12 @@
       <c r="JT24" t="n">
         <v>0</v>
       </c>
+      <c r="JU24" t="n">
+        <v>301</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -22138,6 +22286,12 @@
       <c r="JT25" t="n">
         <v>1057</v>
       </c>
+      <c r="JU25" t="n">
+        <v>48</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22984,6 +23138,12 @@
       <c r="JT26" t="n">
         <v>825</v>
       </c>
+      <c r="JU26" t="n">
+        <v>28</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23828,6 +23988,12 @@
         <v>0</v>
       </c>
       <c r="JT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV27" t="n">
         <v>0</v>
       </c>
     </row>
